--- a/scheme.xlsx
+++ b/scheme.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>I</t>
   </si>
@@ -118,6 +118,33 @@
   </si>
   <si>
     <t>Present continuous</t>
+  </si>
+  <si>
+    <t>am (not)</t>
+  </si>
+  <si>
+    <t>is (not)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -ing</t>
+  </si>
+  <si>
+    <t>are (not)</t>
+  </si>
+  <si>
+    <t>Am I doing?</t>
+  </si>
+  <si>
+    <t>Is he doing?</t>
+  </si>
+  <si>
+    <t>Are we doing?</t>
+  </si>
+  <si>
+    <t>Suffix</t>
+  </si>
+  <si>
+    <t>P 18</t>
   </si>
 </sst>
 </file>
@@ -160,7 +187,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -194,11 +221,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -206,14 +242,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -230,6 +275,297 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>256834</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>55010</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="Группа 9"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks noChangeAspect="1"/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1133475" y="4276725"/>
+          <a:ext cx="6409984" cy="1683785"/>
+          <a:chOff x="1162050" y="4267200"/>
+          <a:chExt cx="6409984" cy="1683785"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="3" name="Прямая соединительная линия 2"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="1362075" y="5724525"/>
+            <a:ext cx="5972175" cy="1"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent5"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="TextBox 4"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4133850" y="5686425"/>
+            <a:ext cx="434030" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>now</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="TextBox 5"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1162050" y="5686425"/>
+            <a:ext cx="428772" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>past</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="TextBox 6"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7029450" y="5686425"/>
+            <a:ext cx="542584" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>future</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Овал 7"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4314825" y="5667375"/>
+            <a:ext cx="108000" cy="108000"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Прямоугольная выноска 8"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4095750" y="4267200"/>
+            <a:ext cx="923925" cy="485775"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -20833"/>
+              <a:gd name="adj2" fmla="val 222965"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>Present continuous</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -495,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,22 +872,22 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -559,22 +895,22 @@
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -582,44 +918,44 @@
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="8" t="s">
         <v>31</v>
       </c>
     </row>
@@ -627,45 +963,175 @@
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>32</v>
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="22">
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
     <mergeCell ref="E3:E5"/>
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="F6:F8"/>
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="G6:G8"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/scheme.xlsx
+++ b/scheme.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
   <si>
     <t>I</t>
   </si>
@@ -144,14 +144,75 @@
     <t>Suffix</t>
   </si>
   <si>
-    <t>P 18</t>
+    <t>Present simple</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>does</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>have</t>
+  </si>
+  <si>
+    <t>has</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> -s|-sh|-ch
+finish</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>es</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> -y
+stud</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ies</t>
+    </r>
+  </si>
+  <si>
+    <t>do - does
+go - goes</t>
+  </si>
+  <si>
+    <t>P20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +225,15 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -187,7 +257,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -230,23 +300,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -259,6 +356,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -282,15 +395,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>256834</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>55010</xdr:rowOff>
+      <xdr:colOff>237784</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>35960</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -301,7 +414,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1133475" y="4276725"/>
+          <a:off x="1114425" y="257175"/>
           <a:ext cx="6409984" cy="1683785"/>
           <a:chOff x="1162050" y="4267200"/>
           <a:chExt cx="6409984" cy="1683785"/>
@@ -831,10 +944,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A11:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <pane ySplit="11" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,290 +959,405 @@
     <col min="7" max="7" width="19.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G12" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G13" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G14" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G17" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="1" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E23" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F23" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B24" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C24" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D24" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E24" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F24" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B27" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C27" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D27" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E27" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F27" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
         <v>41</v>
       </c>
     </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="G6:G8"/>
+  <mergeCells count="32">
+    <mergeCell ref="G32:G35"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D27:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/scheme.xlsx
+++ b/scheme.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
   <si>
     <t>I</t>
   </si>
@@ -147,22 +147,10 @@
     <t>Present simple</t>
   </si>
   <si>
-    <t>do</t>
-  </si>
-  <si>
-    <t>does</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>have</t>
-  </si>
-  <si>
-    <t>has</t>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>I don't</t>
   </si>
   <si>
     <r>
@@ -179,11 +167,17 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>es</t>
+      <t xml:space="preserve">es
+</t>
     </r>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> -y
 stud</t>
     </r>
@@ -197,22 +191,64 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ies</t>
+      <t xml:space="preserve">ies
+</t>
     </r>
-  </si>
-  <si>
-    <t>do - does
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>do - does
 go - goes</t>
-  </si>
-  <si>
-    <t>P20</t>
+    </r>
+  </si>
+  <si>
+    <t>Exceptions</t>
+  </si>
+  <si>
+    <t>do
+work
+have</t>
+  </si>
+  <si>
+    <t>does
+works
+has</t>
+  </si>
+  <si>
+    <t>Do I work?</t>
+  </si>
+  <si>
+    <t>Does he work?</t>
+  </si>
+  <si>
+    <t>He doesn't</t>
+  </si>
+  <si>
+    <t>Yes, I do</t>
+  </si>
+  <si>
+    <t>Yes, he does</t>
+  </si>
+  <si>
+    <t>No, I don't</t>
+  </si>
+  <si>
+    <t>No, he doesn't</t>
+  </si>
+  <si>
+    <t>P24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +267,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -257,7 +300,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -333,11 +376,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -354,24 +437,45 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -397,11 +501,11 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>110626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>237784</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533059</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>35960</xdr:rowOff>
     </xdr:to>
@@ -414,10 +518,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1114425" y="257175"/>
-          <a:ext cx="6409984" cy="1683785"/>
-          <a:chOff x="1162050" y="4267200"/>
-          <a:chExt cx="6409984" cy="1683785"/>
+          <a:off x="933450" y="301126"/>
+          <a:ext cx="6409984" cy="1639834"/>
+          <a:chOff x="1162050" y="4311151"/>
+          <a:chExt cx="6409984" cy="1639834"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -629,14 +733,14 @@
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4095750" y="4267200"/>
-            <a:ext cx="923925" cy="485775"/>
+          <a:xfrm rot="20230411">
+            <a:off x="3054056" y="4311151"/>
+            <a:ext cx="1269373" cy="658469"/>
           </a:xfrm>
           <a:prstGeom prst="wedgeRectCallout">
             <a:avLst>
-              <a:gd name="adj1" fmla="val -20833"/>
-              <a:gd name="adj2" fmla="val 222965"/>
+              <a:gd name="adj1" fmla="val 15129"/>
+              <a:gd name="adj2" fmla="val 166893"/>
             </a:avLst>
           </a:prstGeom>
           <a:solidFill>
@@ -671,11 +775,92 @@
               <a:rPr lang="en-US" sz="1100"/>
               <a:t>Present continuous</a:t>
             </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>"I learning" (now)</a:t>
+            </a:r>
             <a:endParaRPr lang="ru-RU" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>442224</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>300386</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>55229</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Прямоугольная выноска 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1635959">
+          <a:off x="4318899" y="349260"/>
+          <a:ext cx="1277387" cy="658469"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -21261"/>
+            <a:gd name="adj2" fmla="val 174420"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Present simple</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>"I learn" (happen sometimes)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -948,48 +1133,50 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="19.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1020,22 +1207,22 @@
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="10" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1043,44 +1230,44 @@
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1088,23 +1275,23 @@
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
@@ -1149,19 +1336,19 @@
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="10" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1169,39 +1356,39 @@
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1209,135 +1396,161 @@
       <c r="A28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="C32" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="17"/>
+      <c r="E32" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F32" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>50</v>
+      <c r="F32" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E36" s="7"/>
+      <c r="C36" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="G32:G35"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="D36:D38"/>
+  <mergeCells count="34">
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="F36:F38"/>
     <mergeCell ref="E32:E35"/>
     <mergeCell ref="E36:E38"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D27:D29"/>
     <mergeCell ref="F14:F16"/>
     <mergeCell ref="F17:F19"/>
     <mergeCell ref="G14:G16"/>
@@ -1348,16 +1561,17 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="D17:D19"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E17:E19"/>
     <mergeCell ref="E24:E26"/>
     <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="G32:G35"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="C36:C38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/scheme.xlsx
+++ b/scheme.xlsx
@@ -441,20 +441,32 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -464,18 +476,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -500,8 +500,8 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>110626</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
@@ -518,10 +518,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="933450" y="301126"/>
-          <a:ext cx="6409984" cy="1639834"/>
-          <a:chOff x="1162050" y="4311151"/>
-          <a:chExt cx="6409984" cy="1639834"/>
+          <a:off x="933450" y="1657350"/>
+          <a:ext cx="6409984" cy="283610"/>
+          <a:chOff x="1162050" y="5667375"/>
+          <a:chExt cx="6409984" cy="283610"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -727,137 +727,238 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Прямоугольная выноска 8"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="20230411">
-            <a:off x="3054056" y="4311151"/>
-            <a:ext cx="1269373" cy="658469"/>
-          </a:xfrm>
-          <a:prstGeom prst="wedgeRectCallout">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val 15129"/>
-              <a:gd name="adj2" fmla="val 166893"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="0070C0"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100"/>
-              <a:t>Present continuous</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100"/>
-              <a:t>"I learning" (now)</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>442224</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>158760</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>186826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>300386</xdr:colOff>
+      <xdr:colOff>1317825</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>186827</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Прямая соединительная линия 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1609725" y="1329826"/>
+          <a:ext cx="5004000" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>55229</xdr:rowOff>
+      <xdr:rowOff>120151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>3711</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Прямоугольная выноска 10"/>
-        <xdr:cNvSpPr/>
+        <xdr:cNvPr id="13" name="TextBox 12"/>
+        <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="1635959">
-          <a:off x="4318899" y="349260"/>
-          <a:ext cx="1277387" cy="658469"/>
+        <a:xfrm>
+          <a:off x="2724150" y="1072651"/>
+          <a:ext cx="3086100" cy="264560"/>
         </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -21261"/>
-            <a:gd name="adj2" fmla="val 174420"/>
-          </a:avLst>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="0070C0"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
+        <a:noFill/>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Present simple</a:t>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Present simple "I learn" (all</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> the time or sometimes</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>53476</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>127536</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2647950" y="1386976"/>
+          <a:ext cx="3086100" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>"I learn" (happen sometimes)</a:t>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Present continuous "I learning" (now)</a:t>
           </a:r>
-          <a:endParaRPr lang="ru-RU" sz="1100"/>
+          <a:endParaRPr lang="ru-RU">
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1133,7 +1234,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1336,13 +1437,13 @@
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="9" t="s">
         <v>38</v>
       </c>
       <c r="E24" s="10" t="s">
@@ -1356,9 +1457,9 @@
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
     </row>
@@ -1366,9 +1467,9 @@
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
     </row>
@@ -1376,13 +1477,13 @@
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="9" t="s">
         <v>39</v>
       </c>
       <c r="E27" s="10" t="s">
@@ -1396,9 +1497,9 @@
       <c r="A28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
     </row>
@@ -1406,9 +1507,9 @@
       <c r="A29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
     </row>
@@ -1436,20 +1537,20 @@
       <c r="A32" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="16" t="s">
+      <c r="D32" s="14"/>
+      <c r="E32" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G32" s="16" t="s">
+      <c r="G32" s="8" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1457,34 +1558,34 @@
       <c r="A33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
@@ -1493,19 +1594,19 @@
       <c r="B36" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F36" s="16" t="s">
+      <c r="F36" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G36" s="16" t="s">
+      <c r="G36" s="8" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1513,23 +1614,23 @@
       <c r="A37" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="15"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="12"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="15"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="12"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
@@ -1538,19 +1639,16 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="C36:C38"/>
     <mergeCell ref="F14:F16"/>
     <mergeCell ref="F17:F19"/>
     <mergeCell ref="G14:G16"/>
@@ -1561,17 +1659,20 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="D17:D19"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="G36:G38"/>
     <mergeCell ref="G32:G35"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="C36:C38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/scheme.xlsx
+++ b/scheme.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="68">
   <si>
     <t>I</t>
   </si>
@@ -241,7 +241,43 @@
     <t>No, he doesn't</t>
   </si>
   <si>
-    <t>P24</t>
+    <t>Past</t>
+  </si>
+  <si>
+    <t>was</t>
+  </si>
+  <si>
+    <t>were</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>wasn't</t>
+  </si>
+  <si>
+    <t>weren't</t>
+  </si>
+  <si>
+    <t>Was I?</t>
+  </si>
+  <si>
+    <t>Were we?</t>
+  </si>
+  <si>
+    <t>Yes, I was</t>
+  </si>
+  <si>
+    <t>Yes, we were</t>
+  </si>
+  <si>
+    <t>No, I wash't</t>
+  </si>
+  <si>
+    <t>No, we weren't</t>
+  </si>
+  <si>
+    <t>p30</t>
   </si>
 </sst>
 </file>
@@ -441,23 +477,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -475,6 +505,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -735,13 +771,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1104900</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>186826</xdr:rowOff>
+      <xdr:rowOff>5851</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1317825</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>186827</xdr:rowOff>
+      <xdr:rowOff>5852</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -750,7 +786,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1609725" y="1329826"/>
+          <a:off x="1609725" y="1148851"/>
           <a:ext cx="5004000" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -782,14 +818,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>120151</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>129676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>3711</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>13236</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -798,7 +834,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2724150" y="1072651"/>
+          <a:off x="2724150" y="891676"/>
           <a:ext cx="3086100" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1230,11 +1266,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A11:I40"/>
+  <dimension ref="A11:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <pane ySplit="11" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1308,22 +1344,22 @@
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="11" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1331,44 +1367,44 @@
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="11" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1376,23 +1412,23 @@
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
@@ -1437,19 +1473,19 @@
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="11" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1457,39 +1493,39 @@
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="11" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1497,21 +1533,21 @@
       <c r="A28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
@@ -1537,20 +1573,20 @@
       <c r="A32" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="8" t="s">
+      <c r="D32" s="12"/>
+      <c r="E32" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="19" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1558,55 +1594,55 @@
       <c r="A33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G36" s="19" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1614,31 +1650,175 @@
       <c r="A37" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+      <c r="A40" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="B40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="44">
+    <mergeCell ref="D41:D44"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E41:E44"/>
+    <mergeCell ref="F41:F44"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="G32:G35"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="E14:E16"/>
@@ -1649,30 +1829,6 @@
     <mergeCell ref="D36:D38"/>
     <mergeCell ref="C32:C35"/>
     <mergeCell ref="C36:C38"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="G32:G35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/scheme.xlsx
+++ b/scheme.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="84">
   <si>
     <t>I</t>
   </si>
@@ -277,7 +277,59 @@
     <t>No, we weren't</t>
   </si>
   <si>
-    <t>p30</t>
+    <t>Past simple</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -ed</t>
+  </si>
+  <si>
+    <t>regular verbs</t>
+  </si>
+  <si>
+    <t>irregular verbs</t>
+  </si>
+  <si>
+    <t>begin - began
+do - did
+take - took
+etc</t>
+  </si>
+  <si>
+    <t>didn't play/start/watch</t>
+  </si>
+  <si>
+    <t>Did I play?
+Did he play?</t>
+  </si>
+  <si>
+    <t>Yes, I did</t>
+  </si>
+  <si>
+    <t>No, I didn't</t>
+  </si>
+  <si>
+    <t>Past continuous</t>
+  </si>
+  <si>
+    <t>was + -ing</t>
+  </si>
+  <si>
+    <t>were + -ing</t>
+  </si>
+  <si>
+    <t>I wasn't doing</t>
+  </si>
+  <si>
+    <t>We weren't doing</t>
+  </si>
+  <si>
+    <t>Was I doing?</t>
+  </si>
+  <si>
+    <t>Were you doing?</t>
+  </si>
+  <si>
+    <t>p36</t>
   </si>
 </sst>
 </file>
@@ -456,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -478,16 +530,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -508,10 +566,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,7 +611,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>533059</xdr:colOff>
+      <xdr:colOff>180634</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>35960</xdr:rowOff>
     </xdr:to>
@@ -554,7 +624,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="933450" y="1657350"/>
+          <a:off x="1438275" y="1657350"/>
           <a:ext cx="6409984" cy="283610"/>
           <a:chOff x="1162050" y="5667375"/>
           <a:chExt cx="6409984" cy="283610"/>
@@ -732,7 +802,7 @@
             <a:avLst/>
           </a:prstGeom>
           <a:solidFill>
-            <a:srgbClr val="0070C0"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -770,13 +840,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1104900</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>5851</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1317825</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>5852</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -786,8 +856,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1609725" y="1148851"/>
-          <a:ext cx="5004000" cy="1"/>
+          <a:off x="2114550" y="1339351"/>
+          <a:ext cx="5356425" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -818,13 +888,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>129676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>13236</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -834,8 +904,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2724150" y="891676"/>
-          <a:ext cx="3086100" cy="264560"/>
+          <a:off x="3429000" y="1082176"/>
+          <a:ext cx="3238500" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -875,7 +945,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Present simple "I learn" (all</a:t>
+            <a:t>Present simple "He learns" (all</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
@@ -995,6 +1065,978 @@
             </a:solidFill>
             <a:effectLst/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>5851</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1317825</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>5852</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Прямая соединительная линия 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1847850" y="767851"/>
+          <a:ext cx="5156400" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>72526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>146586</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="453526"/>
+          <a:ext cx="3238500" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Past simple "He learned" (yesterday)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1323975</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>338780</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>45485</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4171950" y="733425"/>
+          <a:ext cx="434030" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>now</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95397</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>35960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1628775" y="723900"/>
+          <a:ext cx="428772" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>past</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1209675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>237784</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>35960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="TextBox 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6896100" y="723900"/>
+          <a:ext cx="542584" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>future</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>174675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>60375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Овал 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4333875" y="714375"/>
+          <a:ext cx="108000" cy="108000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>5851</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1298775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>5852</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Прямая соединительная линия 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2095500" y="386851"/>
+          <a:ext cx="5356425" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>72526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>146586</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 21"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1638300" y="72526"/>
+          <a:ext cx="3438525" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Past continuous "He was learning" (yesterday)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU">
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1304925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>319730</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>45485</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="TextBox 22"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4619625" y="352425"/>
+          <a:ext cx="434030" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>now</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76347</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>35960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="TextBox 23"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1876425" y="342900"/>
+          <a:ext cx="428772" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>past</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1190625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>218734</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>35960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="TextBox 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7343775" y="342900"/>
+          <a:ext cx="542584" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>future</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>508050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>69900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Овал 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2628900" y="342900"/>
+          <a:ext cx="108000" cy="108000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>155625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>60375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Овал 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4781550" y="333375"/>
+          <a:ext cx="108000" cy="108000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>22275</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>69900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Овал 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3228975" y="342900"/>
+          <a:ext cx="108000" cy="108000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>555675</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>69900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Овал 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3762375" y="342900"/>
+          <a:ext cx="108000" cy="108000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1266,20 +2308,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A11:I49"/>
+  <dimension ref="A11:I69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
+      <pane ySplit="11" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="19.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1473,13 +2514,13 @@
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E24" s="11" t="s">
@@ -1493,9 +2534,9 @@
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
     </row>
@@ -1503,9 +2544,9 @@
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
     </row>
@@ -1513,13 +2554,13 @@
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="10" t="s">
         <v>39</v>
       </c>
       <c r="E27" s="11" t="s">
@@ -1533,9 +2574,9 @@
       <c r="A28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
     </row>
@@ -1543,9 +2584,9 @@
       <c r="A29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
     </row>
@@ -1573,20 +2614,20 @@
       <c r="A32" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="19" t="s">
+      <c r="D32" s="14"/>
+      <c r="E32" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F32" s="19" t="s">
+      <c r="F32" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G32" s="19" t="s">
+      <c r="G32" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1594,55 +2635,55 @@
       <c r="A33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="19" t="s">
+      <c r="E36" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F36" s="19" t="s">
+      <c r="F36" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G36" s="19" t="s">
+      <c r="G36" s="9" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1650,23 +2691,23 @@
       <c r="A37" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -1692,19 +2733,19 @@
       <c r="A41" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" s="8" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1712,49 +2753,49 @@
       <c r="A42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1762,43 +2803,262 @@
       <c r="A46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="21"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="24"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="B50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="8"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="8"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="8"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" s="8"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="8"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" s="8"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="8"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="8"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" s="8"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="8"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" s="8"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="D41:D44"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E41:E44"/>
-    <mergeCell ref="F41:F44"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="E36:E38"/>
+  <mergeCells count="57">
+    <mergeCell ref="F51:F57"/>
+    <mergeCell ref="G51:G57"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="D61:D64"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="B51:B57"/>
+    <mergeCell ref="C51:C57"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D51:D57"/>
+    <mergeCell ref="E51:E57"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E17:E19"/>
     <mergeCell ref="G36:G38"/>
     <mergeCell ref="G32:G35"/>
     <mergeCell ref="F24:F26"/>
@@ -1809,26 +3069,28 @@
     <mergeCell ref="C27:C29"/>
     <mergeCell ref="D24:D26"/>
     <mergeCell ref="D27:D29"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B32:B35"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="E17:E19"/>
     <mergeCell ref="E24:E26"/>
     <mergeCell ref="E27:E29"/>
     <mergeCell ref="D32:D35"/>
     <mergeCell ref="D36:D38"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="E36:E38"/>
     <mergeCell ref="C32:C35"/>
     <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D41:D44"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E41:E44"/>
+    <mergeCell ref="F41:F44"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/scheme.xlsx
+++ b/scheme.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="95">
   <si>
     <t>I</t>
   </si>
@@ -331,12 +331,47 @@
   <si>
     <t>p36</t>
   </si>
+  <si>
+    <t>Simple</t>
+  </si>
+  <si>
+    <t>Continuous</t>
+  </si>
+  <si>
+    <t>Perfect</t>
+  </si>
+  <si>
+    <t>Perfect continuous</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Period 
+of time</t>
+  </si>
+  <si>
+    <t>Meaning 
+(значение)</t>
+  </si>
+  <si>
+    <t>Future</t>
+  </si>
+  <si>
+    <t>Времена</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,8 +402,25 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,8 +439,56 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3300"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB8A7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -504,11 +604,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -541,6 +691,45 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -565,23 +754,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -589,6 +854,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFB8A7"/>
+      <color rgb="FFFF967D"/>
+      <color rgb="FFFF8F75"/>
+      <color rgb="FFFF3300"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -610,8 +883,8 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>180634</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>94909</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>35960</xdr:rowOff>
     </xdr:to>
@@ -844,7 +1117,7 @@
       <xdr:rowOff>5851</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>1317825</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>5852</xdr:rowOff>
@@ -886,13 +1159,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>129676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>13236</xdr:rowOff>
@@ -1000,13 +1273,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>53476</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>127536</xdr:rowOff>
@@ -1078,7 +1351,7 @@
       <xdr:rowOff>5851</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>1317825</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>5852</xdr:rowOff>
@@ -1126,7 +1399,7 @@
       <xdr:rowOff>72526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>146586</xdr:rowOff>
@@ -1206,13 +1479,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1323975</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>338780</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>45485</xdr:rowOff>
@@ -1346,13 +1619,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>1209675</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>237784</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>35960</xdr:rowOff>
@@ -1416,13 +1689,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>174675</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>60375</xdr:rowOff>
@@ -1484,7 +1757,7 @@
       <xdr:rowOff>5851</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>1298775</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>5852</xdr:rowOff>
@@ -1532,7 +1805,7 @@
       <xdr:rowOff>72526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>146586</xdr:rowOff>
@@ -1583,7 +1856,55 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Past continuous "He was learning" (yesterday)</a:t>
+            <a:t>Past continuous "He was learning" (yesterday</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>at</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 10 o'clock</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
           </a:r>
           <a:endParaRPr lang="ru-RU">
             <a:solidFill>
@@ -1606,13 +1927,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1304925</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>319730</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>45485</xdr:rowOff>
@@ -1738,13 +2059,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>1190625</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>218734</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>35960</xdr:rowOff>
@@ -1864,13 +2185,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>155625</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>60375</xdr:rowOff>
@@ -1930,7 +2251,7 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>22275</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>69900</xdr:rowOff>
@@ -1984,13 +2305,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>555675</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>69900</xdr:rowOff>
@@ -2308,24 +2629,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A11:I69"/>
+  <dimension ref="A11:O100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
+      <pane ySplit="11" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.375" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="4.125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="6.25" customWidth="1"/>
+    <col min="8" max="8" width="7.875" customWidth="1"/>
+    <col min="9" max="9" width="8.25" customWidth="1"/>
+    <col min="10" max="10" width="10.75" customWidth="1"/>
+    <col min="11" max="11" width="5.875" customWidth="1"/>
+    <col min="12" max="13" width="19.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -2334,8 +2664,14 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -2345,20 +2681,26 @@
       <c r="C12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="M12" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
@@ -2368,129 +2710,177 @@
       <c r="C13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="M13" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="M14" s="24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
+      <c r="F15" s="24"/>
       <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H15" s="11"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
+      <c r="F16" s="24"/>
       <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="11"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="M17" s="24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
+      <c r="F18" s="24"/>
       <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="11"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
+      <c r="F19" s="24"/>
       <c r="G19" s="11"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="11"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
@@ -2500,216 +2890,306 @@
       <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="10"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="10"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E25" s="10"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="24"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="10"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="10"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E26" s="10"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="24"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="10"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="10"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E28" s="10"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="24"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="10"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="10"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E29" s="10"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="24"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="M31" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="9" t="s">
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="M32" s="17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="19"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="19"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="19"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="M36" s="17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="19"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="19"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>55</v>
       </c>
@@ -2719,121 +3199,177 @@
       <c r="C40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F42" s="19"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="19"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F43" s="19"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="19"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F44" s="19"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="19"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F46" s="19"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="19"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="21"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="23" t="s">
+      <c r="F47" s="19"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="19"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="13"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C49" s="24"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C49" s="22"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>67</v>
       </c>
@@ -2843,109 +3379,155 @@
       <c r="C50" t="s">
         <v>70</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="M50" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="19" t="s">
         <v>68</v>
       </c>
       <c r="C51" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="E51" s="25" t="s">
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G51" s="9" t="s">
+      <c r="M51" s="17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="8"/>
+      <c r="B52" s="19"/>
       <c r="C52" s="20"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="10"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="18"/>
       <c r="G52" s="10"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" s="10"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="18"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="8"/>
+      <c r="B53" s="19"/>
       <c r="C53" s="20"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="10"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="18"/>
       <c r="G53" s="10"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" s="10"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="18"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="8"/>
+      <c r="B54" s="19"/>
       <c r="C54" s="20"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="10"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="18"/>
       <c r="G54" s="10"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" s="10"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="18"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="8"/>
+      <c r="B55" s="19"/>
       <c r="C55" s="20"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="10"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="18"/>
       <c r="G55" s="10"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55" s="10"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="18"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B56" s="8"/>
+      <c r="B56" s="19"/>
       <c r="C56" s="20"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="10"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="18"/>
       <c r="G56" s="10"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56" s="10"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="19"/>
       <c r="C57" s="20"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="10"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="18"/>
       <c r="G57" s="10"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57" s="10"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="18"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>76</v>
       </c>
@@ -2955,142 +3537,721 @@
       <c r="C60" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="17" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="10"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="18"/>
       <c r="D62" s="10"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E62" s="10"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="10"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="18"/>
       <c r="D63" s="10"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E63" s="10"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="8"/>
-      <c r="C64" s="10"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="18"/>
       <c r="D64" s="10"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" s="10"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C65" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="18" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B66" s="8"/>
-      <c r="C66" s="10"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="18"/>
       <c r="D66" s="10"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="10"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B67" s="8"/>
-      <c r="C67" s="10"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="18"/>
       <c r="D67" s="10"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>83</v>
-      </c>
+      <c r="E67" s="10"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="B70" s="66"/>
+      <c r="C70" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="D70" s="37"/>
+      <c r="E70" s="38"/>
+      <c r="F70" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="G70" s="40"/>
+      <c r="H70" s="41"/>
+      <c r="I70" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="J70" s="43"/>
+      <c r="K70" s="44"/>
+      <c r="L70" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="M70" s="45"/>
+      <c r="N70" s="45"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="B71" s="57"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="57"/>
+      <c r="E71" s="57"/>
+      <c r="F71" s="57"/>
+      <c r="G71" s="57"/>
+      <c r="H71" s="57"/>
+      <c r="I71" s="57"/>
+      <c r="J71" s="57"/>
+      <c r="K71" s="57"/>
+      <c r="L71" s="57"/>
+      <c r="M71" s="57"/>
+      <c r="N71" s="57"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" s="58"/>
+      <c r="B72" s="57"/>
+      <c r="C72" s="57"/>
+      <c r="D72" s="57"/>
+      <c r="E72" s="57"/>
+      <c r="F72" s="57"/>
+      <c r="G72" s="57"/>
+      <c r="H72" s="57"/>
+      <c r="I72" s="57"/>
+      <c r="J72" s="57"/>
+      <c r="K72" s="57"/>
+      <c r="L72" s="57"/>
+      <c r="M72" s="57"/>
+      <c r="N72" s="57"/>
+    </row>
+    <row r="73" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="57"/>
+      <c r="C73" s="57"/>
+      <c r="D73" s="57"/>
+      <c r="E73" s="57"/>
+      <c r="F73" s="57"/>
+      <c r="G73" s="57"/>
+      <c r="H73" s="57"/>
+      <c r="I73" s="57"/>
+      <c r="J73" s="57"/>
+      <c r="K73" s="57"/>
+      <c r="L73" s="57"/>
+      <c r="M73" s="57"/>
+      <c r="N73" s="57"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="B74" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="C74" s="62"/>
+      <c r="D74" s="62"/>
+      <c r="E74" s="62"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="62"/>
+      <c r="H74" s="62"/>
+      <c r="I74" s="62"/>
+      <c r="J74" s="62"/>
+      <c r="K74" s="62"/>
+      <c r="L74" s="62"/>
+      <c r="M74" s="62"/>
+      <c r="N74" s="62"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" s="60"/>
+      <c r="B75" s="63"/>
+      <c r="C75" s="62"/>
+      <c r="D75" s="62"/>
+      <c r="E75" s="62"/>
+      <c r="F75" s="62"/>
+      <c r="G75" s="62"/>
+      <c r="H75" s="62"/>
+      <c r="I75" s="62"/>
+      <c r="J75" s="62"/>
+      <c r="K75" s="62"/>
+      <c r="L75" s="62"/>
+      <c r="M75" s="62"/>
+      <c r="N75" s="62"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" s="60"/>
+      <c r="B76" s="64"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="62"/>
+      <c r="E76" s="62"/>
+      <c r="F76" s="62"/>
+      <c r="G76" s="62"/>
+      <c r="H76" s="62"/>
+      <c r="I76" s="62"/>
+      <c r="J76" s="62"/>
+      <c r="K76" s="62"/>
+      <c r="L76" s="62"/>
+      <c r="M76" s="62"/>
+      <c r="N76" s="62"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" s="60"/>
+      <c r="B77" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="62"/>
+      <c r="D77" s="62"/>
+      <c r="E77" s="62"/>
+      <c r="F77" s="62"/>
+      <c r="G77" s="62"/>
+      <c r="H77" s="62"/>
+      <c r="I77" s="62"/>
+      <c r="J77" s="62"/>
+      <c r="K77" s="62"/>
+      <c r="L77" s="62"/>
+      <c r="M77" s="62"/>
+      <c r="N77" s="62"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" s="60"/>
+      <c r="B78" s="63"/>
+      <c r="C78" s="62"/>
+      <c r="D78" s="62"/>
+      <c r="E78" s="62"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="62"/>
+      <c r="H78" s="62"/>
+      <c r="I78" s="62"/>
+      <c r="J78" s="62"/>
+      <c r="K78" s="62"/>
+      <c r="L78" s="62"/>
+      <c r="M78" s="62"/>
+      <c r="N78" s="62"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" s="60"/>
+      <c r="B79" s="64"/>
+      <c r="C79" s="62"/>
+      <c r="D79" s="62"/>
+      <c r="E79" s="62"/>
+      <c r="F79" s="62"/>
+      <c r="G79" s="62"/>
+      <c r="H79" s="62"/>
+      <c r="I79" s="62"/>
+      <c r="J79" s="62"/>
+      <c r="K79" s="62"/>
+      <c r="L79" s="62"/>
+      <c r="M79" s="62"/>
+      <c r="N79" s="62"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" s="60"/>
+      <c r="B80" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="C80" s="62"/>
+      <c r="D80" s="62"/>
+      <c r="E80" s="62"/>
+      <c r="F80" s="62"/>
+      <c r="G80" s="62"/>
+      <c r="H80" s="62"/>
+      <c r="I80" s="62"/>
+      <c r="J80" s="62"/>
+      <c r="K80" s="62"/>
+      <c r="L80" s="62"/>
+      <c r="M80" s="62"/>
+      <c r="N80" s="62"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" s="60"/>
+      <c r="B81" s="63"/>
+      <c r="C81" s="62"/>
+      <c r="D81" s="62"/>
+      <c r="E81" s="62"/>
+      <c r="F81" s="62"/>
+      <c r="G81" s="62"/>
+      <c r="H81" s="62"/>
+      <c r="I81" s="62"/>
+      <c r="J81" s="62"/>
+      <c r="K81" s="62"/>
+      <c r="L81" s="62"/>
+      <c r="M81" s="62"/>
+      <c r="N81" s="62"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" s="60"/>
+      <c r="B82" s="64"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="62"/>
+      <c r="E82" s="62"/>
+      <c r="F82" s="62"/>
+      <c r="G82" s="62"/>
+      <c r="H82" s="62"/>
+      <c r="I82" s="62"/>
+      <c r="J82" s="62"/>
+      <c r="K82" s="62"/>
+      <c r="L82" s="62"/>
+      <c r="M82" s="62"/>
+      <c r="N82" s="62"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B83" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C83" s="48"/>
+      <c r="D83" s="48"/>
+      <c r="E83" s="48"/>
+      <c r="F83" s="48"/>
+      <c r="G83" s="48"/>
+      <c r="H83" s="48"/>
+      <c r="I83" s="48"/>
+      <c r="J83" s="48"/>
+      <c r="K83" s="48"/>
+      <c r="L83" s="48"/>
+      <c r="M83" s="48"/>
+      <c r="N83" s="48"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" s="46"/>
+      <c r="B84" s="49"/>
+      <c r="C84" s="48"/>
+      <c r="D84" s="48"/>
+      <c r="E84" s="48"/>
+      <c r="F84" s="48"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="48"/>
+      <c r="I84" s="48"/>
+      <c r="J84" s="48"/>
+      <c r="K84" s="48"/>
+      <c r="L84" s="48"/>
+      <c r="M84" s="48"/>
+      <c r="N84" s="48"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" s="46"/>
+      <c r="B85" s="50"/>
+      <c r="C85" s="48"/>
+      <c r="D85" s="48"/>
+      <c r="E85" s="48"/>
+      <c r="F85" s="48"/>
+      <c r="G85" s="48"/>
+      <c r="H85" s="48"/>
+      <c r="I85" s="48"/>
+      <c r="J85" s="48"/>
+      <c r="K85" s="48"/>
+      <c r="L85" s="48"/>
+      <c r="M85" s="48"/>
+      <c r="N85" s="48"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" s="46"/>
+      <c r="B86" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="48"/>
+      <c r="D86" s="48"/>
+      <c r="E86" s="48"/>
+      <c r="F86" s="48"/>
+      <c r="G86" s="48"/>
+      <c r="H86" s="48"/>
+      <c r="I86" s="48"/>
+      <c r="J86" s="48"/>
+      <c r="K86" s="48"/>
+      <c r="L86" s="48"/>
+      <c r="M86" s="48"/>
+      <c r="N86" s="48"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" s="46"/>
+      <c r="B87" s="49"/>
+      <c r="C87" s="48"/>
+      <c r="D87" s="48"/>
+      <c r="E87" s="48"/>
+      <c r="F87" s="48"/>
+      <c r="G87" s="48"/>
+      <c r="H87" s="48"/>
+      <c r="I87" s="48"/>
+      <c r="J87" s="48"/>
+      <c r="K87" s="48"/>
+      <c r="L87" s="48"/>
+      <c r="M87" s="48"/>
+      <c r="N87" s="48"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" s="46"/>
+      <c r="B88" s="50"/>
+      <c r="C88" s="48"/>
+      <c r="D88" s="48"/>
+      <c r="E88" s="48"/>
+      <c r="F88" s="48"/>
+      <c r="G88" s="48"/>
+      <c r="H88" s="48"/>
+      <c r="I88" s="48"/>
+      <c r="J88" s="48"/>
+      <c r="K88" s="48"/>
+      <c r="L88" s="48"/>
+      <c r="M88" s="48"/>
+      <c r="N88" s="48"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" s="46"/>
+      <c r="B89" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89" s="48"/>
+      <c r="D89" s="48"/>
+      <c r="E89" s="48"/>
+      <c r="F89" s="48"/>
+      <c r="G89" s="48"/>
+      <c r="H89" s="48"/>
+      <c r="I89" s="48"/>
+      <c r="J89" s="48"/>
+      <c r="K89" s="48"/>
+      <c r="L89" s="48"/>
+      <c r="M89" s="48"/>
+      <c r="N89" s="48"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" s="46"/>
+      <c r="B90" s="49"/>
+      <c r="C90" s="48"/>
+      <c r="D90" s="48"/>
+      <c r="E90" s="48"/>
+      <c r="F90" s="48"/>
+      <c r="G90" s="48"/>
+      <c r="H90" s="48"/>
+      <c r="I90" s="48"/>
+      <c r="J90" s="48"/>
+      <c r="K90" s="48"/>
+      <c r="L90" s="48"/>
+      <c r="M90" s="48"/>
+      <c r="N90" s="48"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" s="46"/>
+      <c r="B91" s="50"/>
+      <c r="C91" s="48"/>
+      <c r="D91" s="48"/>
+      <c r="E91" s="48"/>
+      <c r="F91" s="48"/>
+      <c r="G91" s="48"/>
+      <c r="H91" s="48"/>
+      <c r="I91" s="48"/>
+      <c r="J91" s="48"/>
+      <c r="K91" s="48"/>
+      <c r="L91" s="48"/>
+      <c r="M91" s="48"/>
+      <c r="N91" s="48"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C92" s="53"/>
+      <c r="D92" s="53"/>
+      <c r="E92" s="53"/>
+      <c r="F92" s="53"/>
+      <c r="G92" s="53"/>
+      <c r="H92" s="53"/>
+      <c r="I92" s="53"/>
+      <c r="J92" s="53"/>
+      <c r="K92" s="53"/>
+      <c r="L92" s="53"/>
+      <c r="M92" s="53"/>
+      <c r="N92" s="53"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" s="51"/>
+      <c r="B93" s="54"/>
+      <c r="C93" s="53"/>
+      <c r="D93" s="53"/>
+      <c r="E93" s="53"/>
+      <c r="F93" s="53"/>
+      <c r="G93" s="53"/>
+      <c r="H93" s="53"/>
+      <c r="I93" s="53"/>
+      <c r="J93" s="53"/>
+      <c r="K93" s="53"/>
+      <c r="L93" s="53"/>
+      <c r="M93" s="53"/>
+      <c r="N93" s="53"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" s="51"/>
+      <c r="B94" s="55"/>
+      <c r="C94" s="53"/>
+      <c r="D94" s="53"/>
+      <c r="E94" s="53"/>
+      <c r="F94" s="53"/>
+      <c r="G94" s="53"/>
+      <c r="H94" s="53"/>
+      <c r="I94" s="53"/>
+      <c r="J94" s="53"/>
+      <c r="K94" s="53"/>
+      <c r="L94" s="53"/>
+      <c r="M94" s="53"/>
+      <c r="N94" s="53"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" s="51"/>
+      <c r="B95" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="53"/>
+      <c r="D95" s="53"/>
+      <c r="E95" s="53"/>
+      <c r="F95" s="53"/>
+      <c r="G95" s="53"/>
+      <c r="H95" s="53"/>
+      <c r="I95" s="53"/>
+      <c r="J95" s="53"/>
+      <c r="K95" s="53"/>
+      <c r="L95" s="53"/>
+      <c r="M95" s="53"/>
+      <c r="N95" s="53"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" s="51"/>
+      <c r="B96" s="54"/>
+      <c r="C96" s="53"/>
+      <c r="D96" s="53"/>
+      <c r="E96" s="53"/>
+      <c r="F96" s="53"/>
+      <c r="G96" s="53"/>
+      <c r="H96" s="53"/>
+      <c r="I96" s="53"/>
+      <c r="J96" s="53"/>
+      <c r="K96" s="53"/>
+      <c r="L96" s="53"/>
+      <c r="M96" s="53"/>
+      <c r="N96" s="53"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" s="51"/>
+      <c r="B97" s="55"/>
+      <c r="C97" s="53"/>
+      <c r="D97" s="53"/>
+      <c r="E97" s="53"/>
+      <c r="F97" s="53"/>
+      <c r="G97" s="53"/>
+      <c r="H97" s="53"/>
+      <c r="I97" s="53"/>
+      <c r="J97" s="53"/>
+      <c r="K97" s="53"/>
+      <c r="L97" s="53"/>
+      <c r="M97" s="53"/>
+      <c r="N97" s="53"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" s="51"/>
+      <c r="B98" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="C98" s="53"/>
+      <c r="D98" s="53"/>
+      <c r="E98" s="53"/>
+      <c r="F98" s="53"/>
+      <c r="G98" s="53"/>
+      <c r="H98" s="53"/>
+      <c r="I98" s="53"/>
+      <c r="J98" s="53"/>
+      <c r="K98" s="53"/>
+      <c r="L98" s="53"/>
+      <c r="M98" s="53"/>
+      <c r="N98" s="53"/>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99" s="51"/>
+      <c r="B99" s="54"/>
+      <c r="C99" s="53"/>
+      <c r="D99" s="53"/>
+      <c r="E99" s="53"/>
+      <c r="F99" s="53"/>
+      <c r="G99" s="53"/>
+      <c r="H99" s="53"/>
+      <c r="I99" s="53"/>
+      <c r="J99" s="53"/>
+      <c r="K99" s="53"/>
+      <c r="L99" s="53"/>
+      <c r="M99" s="53"/>
+      <c r="N99" s="53"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100" s="51"/>
+      <c r="B100" s="55"/>
+      <c r="C100" s="53"/>
+      <c r="D100" s="53"/>
+      <c r="E100" s="53"/>
+      <c r="F100" s="53"/>
+      <c r="G100" s="53"/>
+      <c r="H100" s="53"/>
+      <c r="I100" s="53"/>
+      <c r="J100" s="53"/>
+      <c r="K100" s="53"/>
+      <c r="L100" s="53"/>
+      <c r="M100" s="53"/>
+      <c r="N100" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="75">
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="I70:K70"/>
+    <mergeCell ref="L70:N70"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A83:A91"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="A92:A100"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="A74:A82"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="I41:I44"/>
+    <mergeCell ref="L41:L44"/>
+    <mergeCell ref="I45:I47"/>
+    <mergeCell ref="L45:L47"/>
+    <mergeCell ref="M36:M38"/>
+    <mergeCell ref="M32:M35"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="B49:C49"/>
     <mergeCell ref="F51:F57"/>
-    <mergeCell ref="G51:G57"/>
+    <mergeCell ref="I51:I57"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="L32:L35"/>
+    <mergeCell ref="L36:L38"/>
+    <mergeCell ref="I32:I35"/>
+    <mergeCell ref="I36:I38"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="F41:F44"/>
+    <mergeCell ref="L51:L57"/>
+    <mergeCell ref="M51:M57"/>
     <mergeCell ref="B61:B64"/>
     <mergeCell ref="B65:B67"/>
     <mergeCell ref="C61:C64"/>
     <mergeCell ref="C65:C67"/>
-    <mergeCell ref="D61:D64"/>
-    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="F61:F64"/>
+    <mergeCell ref="F65:F67"/>
     <mergeCell ref="B51:B57"/>
     <mergeCell ref="C51:C57"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D51:D57"/>
-    <mergeCell ref="E51:E57"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="G32:G35"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D41:D44"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E41:E44"/>
-    <mergeCell ref="F41:F44"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="F45:F47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/scheme.xlsx
+++ b/scheme.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="119">
   <si>
     <t>I</t>
   </si>
@@ -357,14 +357,101 @@
 of time</t>
   </si>
   <si>
-    <t>Meaning 
-(значение)</t>
-  </si>
-  <si>
     <t>Future</t>
   </si>
   <si>
     <t>Времена</t>
+  </si>
+  <si>
+    <t>a common aspect</t>
+  </si>
+  <si>
+    <t>When?</t>
+  </si>
+  <si>
+    <t>usually, often, always, seldom, every day (week, month, year)</t>
+  </si>
+  <si>
+    <t>You</t>
+  </si>
+  <si>
+    <t>We</t>
+  </si>
+  <si>
+    <t>They</t>
+  </si>
+  <si>
+    <t>He</t>
+  </si>
+  <si>
+    <t>She</t>
+  </si>
+  <si>
+    <t>It</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <r>
+      <t>work</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>Do</t>
+  </si>
+  <si>
+    <t>Does</t>
+  </si>
+  <si>
+    <t>work?</t>
+  </si>
+  <si>
+    <t>do not
+(don't)</t>
+  </si>
+  <si>
+    <t>does not
+(doesn't)</t>
+  </si>
+  <si>
+    <t>Meaning</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>doesn't</t>
+  </si>
+  <si>
+    <t>Yes,</t>
+  </si>
+  <si>
+    <t>No,</t>
+  </si>
+  <si>
+    <t>does</t>
+  </si>
+  <si>
+    <t>don't</t>
+  </si>
+  <si>
+    <t>ans +</t>
+  </si>
+  <si>
+    <t>ans -</t>
   </si>
 </sst>
 </file>
@@ -488,7 +575,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -654,11 +741,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -706,6 +804,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -730,6 +841,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -745,23 +865,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -793,60 +919,119 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -883,8 +1068,8 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>94909</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409234</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>35960</xdr:rowOff>
     </xdr:to>
@@ -2629,11 +2814,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A11:O100"/>
+  <dimension ref="A11:O126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
+      <pane ySplit="11" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2641,8 +2826,8 @@
     <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.375" customWidth="1"/>
-    <col min="4" max="4" width="8.5" customWidth="1"/>
-    <col min="5" max="5" width="4.125" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
     <col min="6" max="6" width="12.5" customWidth="1"/>
     <col min="7" max="7" width="6.25" customWidth="1"/>
     <col min="8" max="8" width="7.875" customWidth="1"/>
@@ -2733,28 +2918,28 @@
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="31" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="31" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="31" t="s">
         <v>21</v>
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
-      <c r="L14" s="24" t="s">
+      <c r="L14" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="M14" s="24" t="s">
+      <c r="M14" s="31" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2762,62 +2947,62 @@
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
-      <c r="F15" s="24"/>
+      <c r="F15" s="31"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
-      <c r="I15" s="24"/>
+      <c r="I15" s="31"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
-      <c r="F16" s="24"/>
+      <c r="F16" s="31"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="24"/>
+      <c r="I16" s="31"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="31" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
-      <c r="I17" s="24" t="s">
+      <c r="I17" s="31" t="s">
         <v>23</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
-      <c r="L17" s="24" t="s">
+      <c r="L17" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="M17" s="24" t="s">
+      <c r="M17" s="31" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2825,35 +3010,35 @@
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
-      <c r="F18" s="24"/>
+      <c r="F18" s="31"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
-      <c r="I18" s="24"/>
+      <c r="I18" s="31"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
-      <c r="F19" s="24"/>
+      <c r="F19" s="31"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
-      <c r="I19" s="24"/>
+      <c r="I19" s="31"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
@@ -2910,25 +3095,25 @@
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="25" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="25" t="s">
         <v>38</v>
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="24" t="s">
+      <c r="I24" s="31" t="s">
         <v>25</v>
       </c>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
-      <c r="L24" s="24" t="s">
+      <c r="L24" s="31" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2936,57 +3121,57 @@
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="18"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
-      <c r="F25" s="18"/>
+      <c r="F25" s="25"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="24"/>
+      <c r="I25" s="31"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
-      <c r="L25" s="24"/>
+      <c r="L25" s="31"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="18"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="25"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
-      <c r="F26" s="18"/>
+      <c r="F26" s="25"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="24"/>
+      <c r="I26" s="31"/>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
-      <c r="L26" s="24"/>
+      <c r="L26" s="31"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="25" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
-      <c r="F27" s="18" t="s">
+      <c r="F27" s="25" t="s">
         <v>39</v>
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="24" t="s">
+      <c r="I27" s="31" t="s">
         <v>26</v>
       </c>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
-      <c r="L27" s="24" t="s">
+      <c r="L27" s="31" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2994,33 +3179,33 @@
       <c r="A28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="18"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
-      <c r="F28" s="18"/>
+      <c r="F28" s="25"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
-      <c r="I28" s="24"/>
+      <c r="I28" s="31"/>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
-      <c r="L28" s="24"/>
+      <c r="L28" s="31"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="18"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="25"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
-      <c r="F29" s="18"/>
+      <c r="F29" s="25"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
-      <c r="I29" s="24"/>
+      <c r="I29" s="31"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
-      <c r="L29" s="24"/>
+      <c r="L29" s="31"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
@@ -3052,26 +3237,26 @@
       <c r="A32" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="32" t="s">
         <v>43</v>
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="17" t="s">
+      <c r="F32" s="37"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="24" t="s">
         <v>48</v>
       </c>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
-      <c r="L32" s="17" t="s">
+      <c r="L32" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="M32" s="17" t="s">
+      <c r="M32" s="24" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3079,79 +3264,79 @@
       <c r="A33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="18"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="25"/>
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="18"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="25"/>
       <c r="J34" s="10"/>
       <c r="K34" s="10"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="18"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="25"/>
       <c r="J35" s="10"/>
       <c r="K35" s="10"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="34" t="s">
         <v>50</v>
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
-      <c r="F36" s="26" t="s">
+      <c r="F36" s="36" t="s">
         <v>44</v>
       </c>
       <c r="G36" s="16"/>
       <c r="H36" s="16"/>
-      <c r="I36" s="17" t="s">
+      <c r="I36" s="24" t="s">
         <v>49</v>
       </c>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
-      <c r="L36" s="17" t="s">
+      <c r="L36" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="M36" s="17" t="s">
+      <c r="M36" s="24" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3159,35 +3344,35 @@
       <c r="A37" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="32"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="34"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="18"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="25"/>
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="32"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="34"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="18"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="25"/>
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -3219,25 +3404,25 @@
       <c r="A41" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="26" t="s">
         <v>59</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
-      <c r="F41" s="19" t="s">
+      <c r="F41" s="26" t="s">
         <v>61</v>
       </c>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
-      <c r="I41" s="19" t="s">
+      <c r="I41" s="26" t="s">
         <v>63</v>
       </c>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
-      <c r="L41" s="19" t="s">
+      <c r="L41" s="26" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3245,73 +3430,73 @@
       <c r="A42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
-      <c r="F42" s="19"/>
+      <c r="F42" s="26"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
-      <c r="I42" s="19"/>
+      <c r="I42" s="26"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
-      <c r="L42" s="19"/>
+      <c r="L42" s="26"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
-      <c r="F43" s="19"/>
+      <c r="F43" s="26"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
-      <c r="I43" s="19"/>
+      <c r="I43" s="26"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
-      <c r="L43" s="19"/>
+      <c r="L43" s="26"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
-      <c r="F44" s="19"/>
+      <c r="F44" s="26"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
-      <c r="I44" s="19"/>
+      <c r="I44" s="26"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
-      <c r="L44" s="19"/>
+      <c r="L44" s="26"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="26" t="s">
         <v>60</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
-      <c r="F45" s="19" t="s">
+      <c r="F45" s="26" t="s">
         <v>62</v>
       </c>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
-      <c r="I45" s="19" t="s">
+      <c r="I45" s="26" t="s">
         <v>64</v>
       </c>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
-      <c r="L45" s="19" t="s">
+      <c r="L45" s="26" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3319,33 +3504,33 @@
       <c r="A46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
-      <c r="F46" s="19"/>
+      <c r="F46" s="26"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
-      <c r="I46" s="19"/>
+      <c r="I46" s="26"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
-      <c r="L46" s="19"/>
+      <c r="L46" s="26"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
-      <c r="F47" s="19"/>
+      <c r="F47" s="26"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
-      <c r="I47" s="19"/>
+      <c r="I47" s="26"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
-      <c r="L47" s="19"/>
+      <c r="L47" s="26"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
@@ -3362,10 +3547,10 @@
       <c r="L48" s="14"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="C49" s="22"/>
+      <c r="C49" s="29"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
     </row>
@@ -3400,28 +3585,28 @@
       <c r="A51" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="27" t="s">
         <v>71</v>
       </c>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
-      <c r="F51" s="17" t="s">
+      <c r="F51" s="24" t="s">
         <v>72</v>
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
-      <c r="I51" s="23" t="s">
+      <c r="I51" s="30" t="s">
         <v>73</v>
       </c>
       <c r="J51" s="16"/>
       <c r="K51" s="16"/>
-      <c r="L51" s="17" t="s">
+      <c r="L51" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="M51" s="17" t="s">
+      <c r="M51" s="24" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3429,103 +3614,103 @@
       <c r="A52" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="19"/>
-      <c r="C52" s="20"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="27"/>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
-      <c r="F52" s="18"/>
+      <c r="F52" s="25"/>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
-      <c r="I52" s="20"/>
+      <c r="I52" s="27"/>
       <c r="J52" s="12"/>
       <c r="K52" s="12"/>
-      <c r="L52" s="18"/>
-      <c r="M52" s="18"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="25"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="19"/>
-      <c r="C53" s="20"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="27"/>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
-      <c r="F53" s="18"/>
+      <c r="F53" s="25"/>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
-      <c r="I53" s="20"/>
+      <c r="I53" s="27"/>
       <c r="J53" s="12"/>
       <c r="K53" s="12"/>
-      <c r="L53" s="18"/>
-      <c r="M53" s="18"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="25"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="19"/>
-      <c r="C54" s="20"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="27"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
-      <c r="F54" s="18"/>
+      <c r="F54" s="25"/>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
-      <c r="I54" s="20"/>
+      <c r="I54" s="27"/>
       <c r="J54" s="12"/>
       <c r="K54" s="12"/>
-      <c r="L54" s="18"/>
-      <c r="M54" s="18"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="25"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="19"/>
-      <c r="C55" s="20"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="27"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
-      <c r="F55" s="18"/>
+      <c r="F55" s="25"/>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
-      <c r="I55" s="20"/>
+      <c r="I55" s="27"/>
       <c r="J55" s="12"/>
       <c r="K55" s="12"/>
-      <c r="L55" s="18"/>
-      <c r="M55" s="18"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="25"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B56" s="19"/>
-      <c r="C56" s="20"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="27"/>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
-      <c r="F56" s="18"/>
+      <c r="F56" s="25"/>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
-      <c r="I56" s="20"/>
+      <c r="I56" s="27"/>
       <c r="J56" s="12"/>
       <c r="K56" s="12"/>
-      <c r="L56" s="18"/>
-      <c r="M56" s="18"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="25"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B57" s="19"/>
-      <c r="C57" s="20"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="27"/>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
-      <c r="F57" s="18"/>
+      <c r="F57" s="25"/>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
-      <c r="I57" s="20"/>
+      <c r="I57" s="27"/>
       <c r="J57" s="12"/>
       <c r="K57" s="12"/>
-      <c r="L57" s="18"/>
-      <c r="M57" s="18"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="25"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
@@ -3549,15 +3734,15 @@
       <c r="A61" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B61" s="19" t="s">
+      <c r="B61" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="24" t="s">
         <v>79</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
-      <c r="F61" s="17" t="s">
+      <c r="F61" s="24" t="s">
         <v>81</v>
       </c>
       <c r="G61" s="14"/>
@@ -3567,11 +3752,11 @@
       <c r="A62" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="19"/>
-      <c r="C62" s="18"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="25"/>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
-      <c r="F62" s="18"/>
+      <c r="F62" s="25"/>
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
     </row>
@@ -3579,11 +3764,11 @@
       <c r="A63" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="19"/>
-      <c r="C63" s="18"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="25"/>
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
-      <c r="F63" s="18"/>
+      <c r="F63" s="25"/>
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
     </row>
@@ -3591,11 +3776,11 @@
       <c r="A64" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="19"/>
-      <c r="C64" s="18"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="25"/>
       <c r="D64" s="10"/>
       <c r="E64" s="10"/>
-      <c r="F64" s="18"/>
+      <c r="F64" s="25"/>
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
     </row>
@@ -3603,15 +3788,15 @@
       <c r="A65" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B65" s="19" t="s">
+      <c r="B65" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="C65" s="25" t="s">
         <v>80</v>
       </c>
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
-      <c r="F65" s="18" t="s">
+      <c r="F65" s="25" t="s">
         <v>82</v>
       </c>
       <c r="G65" s="10"/>
@@ -3621,11 +3806,11 @@
       <c r="A66" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B66" s="19"/>
-      <c r="C66" s="18"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="25"/>
       <c r="D66" s="10"/>
       <c r="E66" s="10"/>
-      <c r="F66" s="18"/>
+      <c r="F66" s="25"/>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
     </row>
@@ -3633,568 +3818,1125 @@
       <c r="A67" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B67" s="19"/>
-      <c r="C67" s="18"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="25"/>
       <c r="D67" s="10"/>
       <c r="E67" s="10"/>
-      <c r="F67" s="18"/>
+      <c r="F67" s="25"/>
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="65" t="s">
+      <c r="A70" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="B70" s="59"/>
+      <c r="C70" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="D70" s="49"/>
+      <c r="E70" s="50"/>
+      <c r="F70" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="G70" s="52"/>
+      <c r="H70" s="53"/>
+      <c r="I70" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="J70" s="55"/>
+      <c r="K70" s="56"/>
+      <c r="L70" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="M70" s="57"/>
+      <c r="N70" s="57"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" s="90" t="s">
+        <v>110</v>
+      </c>
+      <c r="B71" s="91"/>
+      <c r="C71" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="B70" s="66"/>
-      <c r="C70" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="D70" s="37"/>
-      <c r="E70" s="38"/>
-      <c r="F70" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="G70" s="40"/>
-      <c r="H70" s="41"/>
-      <c r="I70" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="J70" s="43"/>
-      <c r="K70" s="44"/>
-      <c r="L70" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="M70" s="45"/>
-      <c r="N70" s="45"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="56" t="s">
+      <c r="D71" s="61"/>
+      <c r="E71" s="62"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="22"/>
+      <c r="M71" s="22"/>
+      <c r="N71" s="22"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" s="92"/>
+      <c r="B72" s="93"/>
+      <c r="C72" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="D72" s="61"/>
+      <c r="E72" s="62"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="22"/>
+      <c r="M72" s="22"/>
+      <c r="N72" s="22"/>
+    </row>
+    <row r="73" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="94" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="95"/>
+      <c r="C73" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="64"/>
+      <c r="E73" s="65"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="22"/>
+      <c r="M73" s="22"/>
+      <c r="N73" s="22"/>
+    </row>
+    <row r="74" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="87" t="s">
+        <v>88</v>
+      </c>
+      <c r="B74" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C74" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" s="73"/>
+      <c r="E74" s="74" t="s">
+        <v>103</v>
+      </c>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="23"/>
+      <c r="I74" s="23"/>
+      <c r="J74" s="23"/>
+      <c r="K74" s="23"/>
+      <c r="L74" s="23"/>
+      <c r="M74" s="23"/>
+      <c r="N74" s="23"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" s="88"/>
+      <c r="B75" s="67"/>
+      <c r="C75" s="75" t="s">
+        <v>97</v>
+      </c>
+      <c r="D75" s="76"/>
+      <c r="E75" s="77"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="23"/>
+      <c r="I75" s="23"/>
+      <c r="J75" s="23"/>
+      <c r="K75" s="23"/>
+      <c r="L75" s="23"/>
+      <c r="M75" s="23"/>
+      <c r="N75" s="23"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" s="88"/>
+      <c r="B76" s="67"/>
+      <c r="C76" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="D76" s="76"/>
+      <c r="E76" s="77"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="23"/>
+      <c r="I76" s="23"/>
+      <c r="J76" s="23"/>
+      <c r="K76" s="23"/>
+      <c r="L76" s="23"/>
+      <c r="M76" s="23"/>
+      <c r="N76" s="23"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" s="88"/>
+      <c r="B77" s="67"/>
+      <c r="C77" s="78" t="s">
+        <v>99</v>
+      </c>
+      <c r="D77" s="79"/>
+      <c r="E77" s="80"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="23"/>
+      <c r="I77" s="23"/>
+      <c r="J77" s="23"/>
+      <c r="K77" s="23"/>
+      <c r="L77" s="23"/>
+      <c r="M77" s="23"/>
+      <c r="N77" s="23"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" s="88"/>
+      <c r="B78" s="67"/>
+      <c r="C78" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="D78" s="76"/>
+      <c r="E78" s="74" t="s">
+        <v>104</v>
+      </c>
+      <c r="F78" s="23"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="23"/>
+      <c r="I78" s="23"/>
+      <c r="J78" s="23"/>
+      <c r="K78" s="23"/>
+      <c r="L78" s="23"/>
+      <c r="M78" s="23"/>
+      <c r="N78" s="23"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" s="88"/>
+      <c r="B79" s="67"/>
+      <c r="C79" s="75" t="s">
+        <v>101</v>
+      </c>
+      <c r="D79" s="76"/>
+      <c r="E79" s="77"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="23"/>
+      <c r="I79" s="23"/>
+      <c r="J79" s="23"/>
+      <c r="K79" s="23"/>
+      <c r="L79" s="23"/>
+      <c r="M79" s="23"/>
+      <c r="N79" s="23"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" s="88"/>
+      <c r="B80" s="68"/>
+      <c r="C80" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="D80" s="76"/>
+      <c r="E80" s="80"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="23"/>
+      <c r="I80" s="23"/>
+      <c r="J80" s="23"/>
+      <c r="K80" s="23"/>
+      <c r="L80" s="23"/>
+      <c r="M80" s="23"/>
+      <c r="N80" s="23"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" s="88"/>
+      <c r="B81" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="C81" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="D81" s="82" t="s">
+        <v>108</v>
+      </c>
+      <c r="E81" s="74" t="s">
+        <v>103</v>
+      </c>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="23"/>
+      <c r="I81" s="23"/>
+      <c r="J81" s="23"/>
+      <c r="K81" s="23"/>
+      <c r="L81" s="23"/>
+      <c r="M81" s="23"/>
+      <c r="N81" s="23"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" s="88"/>
+      <c r="B82" s="70"/>
+      <c r="C82" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="D82" s="84"/>
+      <c r="E82" s="77"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="23"/>
+      <c r="H82" s="23"/>
+      <c r="I82" s="23"/>
+      <c r="J82" s="23"/>
+      <c r="K82" s="23"/>
+      <c r="L82" s="23"/>
+      <c r="M82" s="23"/>
+      <c r="N82" s="23"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" s="88"/>
+      <c r="B83" s="70"/>
+      <c r="C83" s="83" t="s">
+        <v>98</v>
+      </c>
+      <c r="D83" s="84"/>
+      <c r="E83" s="77"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="23"/>
+      <c r="H83" s="23"/>
+      <c r="I83" s="23"/>
+      <c r="J83" s="23"/>
+      <c r="K83" s="23"/>
+      <c r="L83" s="23"/>
+      <c r="M83" s="23"/>
+      <c r="N83" s="23"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" s="88"/>
+      <c r="B84" s="70"/>
+      <c r="C84" s="83" t="s">
+        <v>99</v>
+      </c>
+      <c r="D84" s="85"/>
+      <c r="E84" s="77"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="23"/>
+      <c r="I84" s="23"/>
+      <c r="J84" s="23"/>
+      <c r="K84" s="23"/>
+      <c r="L84" s="23"/>
+      <c r="M84" s="23"/>
+      <c r="N84" s="23"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" s="88"/>
+      <c r="B85" s="70"/>
+      <c r="C85" s="81" t="s">
+        <v>100</v>
+      </c>
+      <c r="D85" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="E85" s="77"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="23"/>
+      <c r="I85" s="23"/>
+      <c r="J85" s="23"/>
+      <c r="K85" s="23"/>
+      <c r="L85" s="23"/>
+      <c r="M85" s="23"/>
+      <c r="N85" s="23"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" s="88"/>
+      <c r="B86" s="70"/>
+      <c r="C86" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="D86" s="70"/>
+      <c r="E86" s="77"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="23"/>
+      <c r="H86" s="23"/>
+      <c r="I86" s="23"/>
+      <c r="J86" s="23"/>
+      <c r="K86" s="23"/>
+      <c r="L86" s="23"/>
+      <c r="M86" s="23"/>
+      <c r="N86" s="23"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" s="88"/>
+      <c r="B87" s="71"/>
+      <c r="C87" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="D87" s="71"/>
+      <c r="E87" s="80"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="23"/>
+      <c r="H87" s="23"/>
+      <c r="I87" s="23"/>
+      <c r="J87" s="23"/>
+      <c r="K87" s="23"/>
+      <c r="L87" s="23"/>
+      <c r="M87" s="23"/>
+      <c r="N87" s="23"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" s="88"/>
+      <c r="B88" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="D88" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="E88" s="74" t="s">
+        <v>107</v>
+      </c>
+      <c r="F88" s="23"/>
+      <c r="G88" s="23"/>
+      <c r="H88" s="23"/>
+      <c r="I88" s="23"/>
+      <c r="J88" s="23"/>
+      <c r="K88" s="23"/>
+      <c r="L88" s="23"/>
+      <c r="M88" s="23"/>
+      <c r="N88" s="23"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" s="88"/>
+      <c r="B89" s="70"/>
+      <c r="C89" s="67"/>
+      <c r="D89" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="E89" s="77"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="23"/>
+      <c r="I89" s="23"/>
+      <c r="J89" s="23"/>
+      <c r="K89" s="23"/>
+      <c r="L89" s="23"/>
+      <c r="M89" s="23"/>
+      <c r="N89" s="23"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" s="88"/>
+      <c r="B90" s="70"/>
+      <c r="C90" s="67"/>
+      <c r="D90" s="83" t="s">
+        <v>98</v>
+      </c>
+      <c r="E90" s="77"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="23"/>
+      <c r="I90" s="23"/>
+      <c r="J90" s="23"/>
+      <c r="K90" s="23"/>
+      <c r="L90" s="23"/>
+      <c r="M90" s="23"/>
+      <c r="N90" s="23"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" s="88"/>
+      <c r="B91" s="70"/>
+      <c r="C91" s="68"/>
+      <c r="D91" s="83" t="s">
+        <v>99</v>
+      </c>
+      <c r="E91" s="77"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="23"/>
+      <c r="I91" s="23"/>
+      <c r="J91" s="23"/>
+      <c r="K91" s="23"/>
+      <c r="L91" s="23"/>
+      <c r="M91" s="23"/>
+      <c r="N91" s="23"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" s="88"/>
+      <c r="B92" s="70"/>
+      <c r="C92" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="D92" s="81" t="s">
+        <v>100</v>
+      </c>
+      <c r="E92" s="77"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="23"/>
+      <c r="H92" s="23"/>
+      <c r="I92" s="23"/>
+      <c r="J92" s="23"/>
+      <c r="K92" s="23"/>
+      <c r="L92" s="23"/>
+      <c r="M92" s="23"/>
+      <c r="N92" s="23"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" s="88"/>
+      <c r="B93" s="70"/>
+      <c r="C93" s="67"/>
+      <c r="D93" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="E93" s="77"/>
+      <c r="F93" s="23"/>
+      <c r="G93" s="23"/>
+      <c r="H93" s="23"/>
+      <c r="I93" s="23"/>
+      <c r="J93" s="23"/>
+      <c r="K93" s="23"/>
+      <c r="L93" s="23"/>
+      <c r="M93" s="23"/>
+      <c r="N93" s="23"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" s="88"/>
+      <c r="B94" s="71"/>
+      <c r="C94" s="68"/>
+      <c r="D94" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="E94" s="80"/>
+      <c r="F94" s="23"/>
+      <c r="G94" s="23"/>
+      <c r="H94" s="23"/>
+      <c r="I94" s="23"/>
+      <c r="J94" s="23"/>
+      <c r="K94" s="23"/>
+      <c r="L94" s="23"/>
+      <c r="M94" s="23"/>
+      <c r="N94" s="23"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" s="88"/>
+      <c r="B95" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="C95" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="D95" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="E95" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="F95" s="23"/>
+      <c r="G95" s="23"/>
+      <c r="H95" s="23"/>
+      <c r="I95" s="23"/>
+      <c r="J95" s="23"/>
+      <c r="K95" s="23"/>
+      <c r="L95" s="23"/>
+      <c r="M95" s="23"/>
+      <c r="N95" s="23"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" s="88"/>
+      <c r="B96" s="70"/>
+      <c r="C96" s="67"/>
+      <c r="D96" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="E96" s="77"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="23"/>
+      <c r="H96" s="23"/>
+      <c r="I96" s="23"/>
+      <c r="J96" s="23"/>
+      <c r="K96" s="23"/>
+      <c r="L96" s="23"/>
+      <c r="M96" s="23"/>
+      <c r="N96" s="23"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" s="88"/>
+      <c r="B97" s="70"/>
+      <c r="C97" s="67"/>
+      <c r="D97" s="83" t="s">
+        <v>98</v>
+      </c>
+      <c r="E97" s="77"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="23"/>
+      <c r="H97" s="23"/>
+      <c r="I97" s="23"/>
+      <c r="J97" s="23"/>
+      <c r="K97" s="23"/>
+      <c r="L97" s="23"/>
+      <c r="M97" s="23"/>
+      <c r="N97" s="23"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" s="88"/>
+      <c r="B98" s="70"/>
+      <c r="C98" s="68"/>
+      <c r="D98" s="83" t="s">
+        <v>99</v>
+      </c>
+      <c r="E98" s="80"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="23"/>
+      <c r="H98" s="23"/>
+      <c r="I98" s="23"/>
+      <c r="J98" s="23"/>
+      <c r="K98" s="23"/>
+      <c r="L98" s="23"/>
+      <c r="M98" s="23"/>
+      <c r="N98" s="23"/>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99" s="88"/>
+      <c r="B99" s="70"/>
+      <c r="C99" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="D99" s="81" t="s">
+        <v>100</v>
+      </c>
+      <c r="E99" s="74" t="s">
+        <v>115</v>
+      </c>
+      <c r="F99" s="23"/>
+      <c r="G99" s="23"/>
+      <c r="H99" s="23"/>
+      <c r="I99" s="23"/>
+      <c r="J99" s="23"/>
+      <c r="K99" s="23"/>
+      <c r="L99" s="23"/>
+      <c r="M99" s="23"/>
+      <c r="N99" s="23"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100" s="88"/>
+      <c r="B100" s="70"/>
+      <c r="C100" s="67"/>
+      <c r="D100" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="E100" s="77"/>
+      <c r="F100" s="23"/>
+      <c r="G100" s="23"/>
+      <c r="H100" s="23"/>
+      <c r="I100" s="23"/>
+      <c r="J100" s="23"/>
+      <c r="K100" s="23"/>
+      <c r="L100" s="23"/>
+      <c r="M100" s="23"/>
+      <c r="N100" s="23"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" s="88"/>
+      <c r="B101" s="71"/>
+      <c r="C101" s="68"/>
+      <c r="D101" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="E101" s="80"/>
+      <c r="F101" s="23"/>
+      <c r="G101" s="23"/>
+      <c r="H101" s="23"/>
+      <c r="I101" s="23"/>
+      <c r="J101" s="23"/>
+      <c r="K101" s="23"/>
+      <c r="L101" s="23"/>
+      <c r="M101" s="23"/>
+      <c r="N101" s="23"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" s="88"/>
+      <c r="B102" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="C102" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="D102" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="E102" s="74" t="s">
+        <v>116</v>
+      </c>
+      <c r="F102" s="23"/>
+      <c r="G102" s="23"/>
+      <c r="H102" s="23"/>
+      <c r="I102" s="23"/>
+      <c r="J102" s="23"/>
+      <c r="K102" s="23"/>
+      <c r="L102" s="23"/>
+      <c r="M102" s="23"/>
+      <c r="N102" s="23"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" s="88"/>
+      <c r="B103" s="70"/>
+      <c r="C103" s="67"/>
+      <c r="D103" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="E103" s="77"/>
+      <c r="F103" s="23"/>
+      <c r="G103" s="23"/>
+      <c r="H103" s="23"/>
+      <c r="I103" s="23"/>
+      <c r="J103" s="23"/>
+      <c r="K103" s="23"/>
+      <c r="L103" s="23"/>
+      <c r="M103" s="23"/>
+      <c r="N103" s="23"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104" s="88"/>
+      <c r="B104" s="70"/>
+      <c r="C104" s="67"/>
+      <c r="D104" s="83" t="s">
+        <v>98</v>
+      </c>
+      <c r="E104" s="77"/>
+      <c r="F104" s="23"/>
+      <c r="G104" s="23"/>
+      <c r="H104" s="23"/>
+      <c r="I104" s="23"/>
+      <c r="J104" s="23"/>
+      <c r="K104" s="23"/>
+      <c r="L104" s="23"/>
+      <c r="M104" s="23"/>
+      <c r="N104" s="23"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105" s="88"/>
+      <c r="B105" s="70"/>
+      <c r="C105" s="68"/>
+      <c r="D105" s="83" t="s">
+        <v>99</v>
+      </c>
+      <c r="E105" s="80"/>
+      <c r="F105" s="23"/>
+      <c r="G105" s="23"/>
+      <c r="H105" s="23"/>
+      <c r="I105" s="23"/>
+      <c r="J105" s="23"/>
+      <c r="K105" s="23"/>
+      <c r="L105" s="23"/>
+      <c r="M105" s="23"/>
+      <c r="N105" s="23"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A106" s="88"/>
+      <c r="B106" s="70"/>
+      <c r="C106" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="D106" s="81" t="s">
+        <v>100</v>
+      </c>
+      <c r="E106" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="F106" s="23"/>
+      <c r="G106" s="23"/>
+      <c r="H106" s="23"/>
+      <c r="I106" s="23"/>
+      <c r="J106" s="23"/>
+      <c r="K106" s="23"/>
+      <c r="L106" s="23"/>
+      <c r="M106" s="23"/>
+      <c r="N106" s="23"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A107" s="88"/>
+      <c r="B107" s="70"/>
+      <c r="C107" s="67"/>
+      <c r="D107" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="E107" s="77"/>
+      <c r="F107" s="23"/>
+      <c r="G107" s="23"/>
+      <c r="H107" s="23"/>
+      <c r="I107" s="23"/>
+      <c r="J107" s="23"/>
+      <c r="K107" s="23"/>
+      <c r="L107" s="23"/>
+      <c r="M107" s="23"/>
+      <c r="N107" s="23"/>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A108" s="89"/>
+      <c r="B108" s="71"/>
+      <c r="C108" s="68"/>
+      <c r="D108" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="E108" s="80"/>
+      <c r="F108" s="23"/>
+      <c r="G108" s="23"/>
+      <c r="H108" s="23"/>
+      <c r="I108" s="23"/>
+      <c r="J108" s="23"/>
+      <c r="K108" s="23"/>
+      <c r="L108" s="23"/>
+      <c r="M108" s="23"/>
+      <c r="N108" s="23"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A109" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B109" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C109" s="20"/>
+      <c r="D109" s="20"/>
+      <c r="E109" s="20"/>
+      <c r="F109" s="20"/>
+      <c r="G109" s="20"/>
+      <c r="H109" s="20"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="20"/>
+      <c r="K109" s="20"/>
+      <c r="L109" s="20"/>
+      <c r="M109" s="20"/>
+      <c r="N109" s="20"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A110" s="40"/>
+      <c r="B110" s="42"/>
+      <c r="C110" s="20"/>
+      <c r="D110" s="20"/>
+      <c r="E110" s="20"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="20"/>
+      <c r="H110" s="20"/>
+      <c r="I110" s="20"/>
+      <c r="J110" s="20"/>
+      <c r="K110" s="20"/>
+      <c r="L110" s="20"/>
+      <c r="M110" s="20"/>
+      <c r="N110" s="20"/>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A111" s="40"/>
+      <c r="B111" s="43"/>
+      <c r="C111" s="20"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="20"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="20"/>
+      <c r="H111" s="20"/>
+      <c r="I111" s="20"/>
+      <c r="J111" s="20"/>
+      <c r="K111" s="20"/>
+      <c r="L111" s="20"/>
+      <c r="M111" s="20"/>
+      <c r="N111" s="20"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A112" s="40"/>
+      <c r="B112" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" s="20"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="20"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="20"/>
+      <c r="H112" s="20"/>
+      <c r="I112" s="20"/>
+      <c r="J112" s="20"/>
+      <c r="K112" s="20"/>
+      <c r="L112" s="20"/>
+      <c r="M112" s="20"/>
+      <c r="N112" s="20"/>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A113" s="40"/>
+      <c r="B113" s="42"/>
+      <c r="C113" s="20"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="20"/>
+      <c r="F113" s="20"/>
+      <c r="G113" s="20"/>
+      <c r="H113" s="20"/>
+      <c r="I113" s="20"/>
+      <c r="J113" s="20"/>
+      <c r="K113" s="20"/>
+      <c r="L113" s="20"/>
+      <c r="M113" s="20"/>
+      <c r="N113" s="20"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A114" s="40"/>
+      <c r="B114" s="43"/>
+      <c r="C114" s="20"/>
+      <c r="D114" s="20"/>
+      <c r="E114" s="20"/>
+      <c r="F114" s="20"/>
+      <c r="G114" s="20"/>
+      <c r="H114" s="20"/>
+      <c r="I114" s="20"/>
+      <c r="J114" s="20"/>
+      <c r="K114" s="20"/>
+      <c r="L114" s="20"/>
+      <c r="M114" s="20"/>
+      <c r="N114" s="20"/>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A115" s="40"/>
+      <c r="B115" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="C115" s="20"/>
+      <c r="D115" s="20"/>
+      <c r="E115" s="20"/>
+      <c r="F115" s="20"/>
+      <c r="G115" s="20"/>
+      <c r="H115" s="20"/>
+      <c r="I115" s="20"/>
+      <c r="J115" s="20"/>
+      <c r="K115" s="20"/>
+      <c r="L115" s="20"/>
+      <c r="M115" s="20"/>
+      <c r="N115" s="20"/>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A116" s="40"/>
+      <c r="B116" s="42"/>
+      <c r="C116" s="20"/>
+      <c r="D116" s="20"/>
+      <c r="E116" s="20"/>
+      <c r="F116" s="20"/>
+      <c r="G116" s="20"/>
+      <c r="H116" s="20"/>
+      <c r="I116" s="20"/>
+      <c r="J116" s="20"/>
+      <c r="K116" s="20"/>
+      <c r="L116" s="20"/>
+      <c r="M116" s="20"/>
+      <c r="N116" s="20"/>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A117" s="40"/>
+      <c r="B117" s="43"/>
+      <c r="C117" s="20"/>
+      <c r="D117" s="20"/>
+      <c r="E117" s="20"/>
+      <c r="F117" s="20"/>
+      <c r="G117" s="20"/>
+      <c r="H117" s="20"/>
+      <c r="I117" s="20"/>
+      <c r="J117" s="20"/>
+      <c r="K117" s="20"/>
+      <c r="L117" s="20"/>
+      <c r="M117" s="20"/>
+      <c r="N117" s="20"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A118" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="B71" s="57"/>
-      <c r="C71" s="57"/>
-      <c r="D71" s="57"/>
-      <c r="E71" s="57"/>
-      <c r="F71" s="57"/>
-      <c r="G71" s="57"/>
-      <c r="H71" s="57"/>
-      <c r="I71" s="57"/>
-      <c r="J71" s="57"/>
-      <c r="K71" s="57"/>
-      <c r="L71" s="57"/>
-      <c r="M71" s="57"/>
-      <c r="N71" s="57"/>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="58"/>
-      <c r="B72" s="57"/>
-      <c r="C72" s="57"/>
-      <c r="D72" s="57"/>
-      <c r="E72" s="57"/>
-      <c r="F72" s="57"/>
-      <c r="G72" s="57"/>
-      <c r="H72" s="57"/>
-      <c r="I72" s="57"/>
-      <c r="J72" s="57"/>
-      <c r="K72" s="57"/>
-      <c r="L72" s="57"/>
-      <c r="M72" s="57"/>
-      <c r="N72" s="57"/>
-    </row>
-    <row r="73" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="59" t="s">
-        <v>91</v>
-      </c>
-      <c r="B73" s="57"/>
-      <c r="C73" s="57"/>
-      <c r="D73" s="57"/>
-      <c r="E73" s="57"/>
-      <c r="F73" s="57"/>
-      <c r="G73" s="57"/>
-      <c r="H73" s="57"/>
-      <c r="I73" s="57"/>
-      <c r="J73" s="57"/>
-      <c r="K73" s="57"/>
-      <c r="L73" s="57"/>
-      <c r="M73" s="57"/>
-      <c r="N73" s="57"/>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="B74" s="61" t="s">
+      <c r="B118" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="C74" s="62"/>
-      <c r="D74" s="62"/>
-      <c r="E74" s="62"/>
-      <c r="F74" s="62"/>
-      <c r="G74" s="62"/>
-      <c r="H74" s="62"/>
-      <c r="I74" s="62"/>
-      <c r="J74" s="62"/>
-      <c r="K74" s="62"/>
-      <c r="L74" s="62"/>
-      <c r="M74" s="62"/>
-      <c r="N74" s="62"/>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="60"/>
-      <c r="B75" s="63"/>
-      <c r="C75" s="62"/>
-      <c r="D75" s="62"/>
-      <c r="E75" s="62"/>
-      <c r="F75" s="62"/>
-      <c r="G75" s="62"/>
-      <c r="H75" s="62"/>
-      <c r="I75" s="62"/>
-      <c r="J75" s="62"/>
-      <c r="K75" s="62"/>
-      <c r="L75" s="62"/>
-      <c r="M75" s="62"/>
-      <c r="N75" s="62"/>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="60"/>
-      <c r="B76" s="64"/>
-      <c r="C76" s="62"/>
-      <c r="D76" s="62"/>
-      <c r="E76" s="62"/>
-      <c r="F76" s="62"/>
-      <c r="G76" s="62"/>
-      <c r="H76" s="62"/>
-      <c r="I76" s="62"/>
-      <c r="J76" s="62"/>
-      <c r="K76" s="62"/>
-      <c r="L76" s="62"/>
-      <c r="M76" s="62"/>
-      <c r="N76" s="62"/>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="60"/>
-      <c r="B77" s="61" t="s">
+      <c r="C118" s="21"/>
+      <c r="D118" s="21"/>
+      <c r="E118" s="21"/>
+      <c r="F118" s="21"/>
+      <c r="G118" s="21"/>
+      <c r="H118" s="21"/>
+      <c r="I118" s="21"/>
+      <c r="J118" s="21"/>
+      <c r="K118" s="21"/>
+      <c r="L118" s="21"/>
+      <c r="M118" s="21"/>
+      <c r="N118" s="21"/>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A119" s="44"/>
+      <c r="B119" s="46"/>
+      <c r="C119" s="21"/>
+      <c r="D119" s="21"/>
+      <c r="E119" s="21"/>
+      <c r="F119" s="21"/>
+      <c r="G119" s="21"/>
+      <c r="H119" s="21"/>
+      <c r="I119" s="21"/>
+      <c r="J119" s="21"/>
+      <c r="K119" s="21"/>
+      <c r="L119" s="21"/>
+      <c r="M119" s="21"/>
+      <c r="N119" s="21"/>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A120" s="44"/>
+      <c r="B120" s="47"/>
+      <c r="C120" s="21"/>
+      <c r="D120" s="21"/>
+      <c r="E120" s="21"/>
+      <c r="F120" s="21"/>
+      <c r="G120" s="21"/>
+      <c r="H120" s="21"/>
+      <c r="I120" s="21"/>
+      <c r="J120" s="21"/>
+      <c r="K120" s="21"/>
+      <c r="L120" s="21"/>
+      <c r="M120" s="21"/>
+      <c r="N120" s="21"/>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A121" s="44"/>
+      <c r="B121" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C77" s="62"/>
-      <c r="D77" s="62"/>
-      <c r="E77" s="62"/>
-      <c r="F77" s="62"/>
-      <c r="G77" s="62"/>
-      <c r="H77" s="62"/>
-      <c r="I77" s="62"/>
-      <c r="J77" s="62"/>
-      <c r="K77" s="62"/>
-      <c r="L77" s="62"/>
-      <c r="M77" s="62"/>
-      <c r="N77" s="62"/>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="60"/>
-      <c r="B78" s="63"/>
-      <c r="C78" s="62"/>
-      <c r="D78" s="62"/>
-      <c r="E78" s="62"/>
-      <c r="F78" s="62"/>
-      <c r="G78" s="62"/>
-      <c r="H78" s="62"/>
-      <c r="I78" s="62"/>
-      <c r="J78" s="62"/>
-      <c r="K78" s="62"/>
-      <c r="L78" s="62"/>
-      <c r="M78" s="62"/>
-      <c r="N78" s="62"/>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="60"/>
-      <c r="B79" s="64"/>
-      <c r="C79" s="62"/>
-      <c r="D79" s="62"/>
-      <c r="E79" s="62"/>
-      <c r="F79" s="62"/>
-      <c r="G79" s="62"/>
-      <c r="H79" s="62"/>
-      <c r="I79" s="62"/>
-      <c r="J79" s="62"/>
-      <c r="K79" s="62"/>
-      <c r="L79" s="62"/>
-      <c r="M79" s="62"/>
-      <c r="N79" s="62"/>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="60"/>
-      <c r="B80" s="61" t="s">
+      <c r="C121" s="21"/>
+      <c r="D121" s="21"/>
+      <c r="E121" s="21"/>
+      <c r="F121" s="21"/>
+      <c r="G121" s="21"/>
+      <c r="H121" s="21"/>
+      <c r="I121" s="21"/>
+      <c r="J121" s="21"/>
+      <c r="K121" s="21"/>
+      <c r="L121" s="21"/>
+      <c r="M121" s="21"/>
+      <c r="N121" s="21"/>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A122" s="44"/>
+      <c r="B122" s="46"/>
+      <c r="C122" s="21"/>
+      <c r="D122" s="21"/>
+      <c r="E122" s="21"/>
+      <c r="F122" s="21"/>
+      <c r="G122" s="21"/>
+      <c r="H122" s="21"/>
+      <c r="I122" s="21"/>
+      <c r="J122" s="21"/>
+      <c r="K122" s="21"/>
+      <c r="L122" s="21"/>
+      <c r="M122" s="21"/>
+      <c r="N122" s="21"/>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A123" s="44"/>
+      <c r="B123" s="47"/>
+      <c r="C123" s="21"/>
+      <c r="D123" s="21"/>
+      <c r="E123" s="21"/>
+      <c r="F123" s="21"/>
+      <c r="G123" s="21"/>
+      <c r="H123" s="21"/>
+      <c r="I123" s="21"/>
+      <c r="J123" s="21"/>
+      <c r="K123" s="21"/>
+      <c r="L123" s="21"/>
+      <c r="M123" s="21"/>
+      <c r="N123" s="21"/>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A124" s="44"/>
+      <c r="B124" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="C80" s="62"/>
-      <c r="D80" s="62"/>
-      <c r="E80" s="62"/>
-      <c r="F80" s="62"/>
-      <c r="G80" s="62"/>
-      <c r="H80" s="62"/>
-      <c r="I80" s="62"/>
-      <c r="J80" s="62"/>
-      <c r="K80" s="62"/>
-      <c r="L80" s="62"/>
-      <c r="M80" s="62"/>
-      <c r="N80" s="62"/>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="60"/>
-      <c r="B81" s="63"/>
-      <c r="C81" s="62"/>
-      <c r="D81" s="62"/>
-      <c r="E81" s="62"/>
-      <c r="F81" s="62"/>
-      <c r="G81" s="62"/>
-      <c r="H81" s="62"/>
-      <c r="I81" s="62"/>
-      <c r="J81" s="62"/>
-      <c r="K81" s="62"/>
-      <c r="L81" s="62"/>
-      <c r="M81" s="62"/>
-      <c r="N81" s="62"/>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="60"/>
-      <c r="B82" s="64"/>
-      <c r="C82" s="62"/>
-      <c r="D82" s="62"/>
-      <c r="E82" s="62"/>
-      <c r="F82" s="62"/>
-      <c r="G82" s="62"/>
-      <c r="H82" s="62"/>
-      <c r="I82" s="62"/>
-      <c r="J82" s="62"/>
-      <c r="K82" s="62"/>
-      <c r="L82" s="62"/>
-      <c r="M82" s="62"/>
-      <c r="N82" s="62"/>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="B83" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="C83" s="48"/>
-      <c r="D83" s="48"/>
-      <c r="E83" s="48"/>
-      <c r="F83" s="48"/>
-      <c r="G83" s="48"/>
-      <c r="H83" s="48"/>
-      <c r="I83" s="48"/>
-      <c r="J83" s="48"/>
-      <c r="K83" s="48"/>
-      <c r="L83" s="48"/>
-      <c r="M83" s="48"/>
-      <c r="N83" s="48"/>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="46"/>
-      <c r="B84" s="49"/>
-      <c r="C84" s="48"/>
-      <c r="D84" s="48"/>
-      <c r="E84" s="48"/>
-      <c r="F84" s="48"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="48"/>
-      <c r="I84" s="48"/>
-      <c r="J84" s="48"/>
-      <c r="K84" s="48"/>
-      <c r="L84" s="48"/>
-      <c r="M84" s="48"/>
-      <c r="N84" s="48"/>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="46"/>
-      <c r="B85" s="50"/>
-      <c r="C85" s="48"/>
-      <c r="D85" s="48"/>
-      <c r="E85" s="48"/>
-      <c r="F85" s="48"/>
-      <c r="G85" s="48"/>
-      <c r="H85" s="48"/>
-      <c r="I85" s="48"/>
-      <c r="J85" s="48"/>
-      <c r="K85" s="48"/>
-      <c r="L85" s="48"/>
-      <c r="M85" s="48"/>
-      <c r="N85" s="48"/>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="46"/>
-      <c r="B86" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86" s="48"/>
-      <c r="D86" s="48"/>
-      <c r="E86" s="48"/>
-      <c r="F86" s="48"/>
-      <c r="G86" s="48"/>
-      <c r="H86" s="48"/>
-      <c r="I86" s="48"/>
-      <c r="J86" s="48"/>
-      <c r="K86" s="48"/>
-      <c r="L86" s="48"/>
-      <c r="M86" s="48"/>
-      <c r="N86" s="48"/>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="46"/>
-      <c r="B87" s="49"/>
-      <c r="C87" s="48"/>
-      <c r="D87" s="48"/>
-      <c r="E87" s="48"/>
-      <c r="F87" s="48"/>
-      <c r="G87" s="48"/>
-      <c r="H87" s="48"/>
-      <c r="I87" s="48"/>
-      <c r="J87" s="48"/>
-      <c r="K87" s="48"/>
-      <c r="L87" s="48"/>
-      <c r="M87" s="48"/>
-      <c r="N87" s="48"/>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="46"/>
-      <c r="B88" s="50"/>
-      <c r="C88" s="48"/>
-      <c r="D88" s="48"/>
-      <c r="E88" s="48"/>
-      <c r="F88" s="48"/>
-      <c r="G88" s="48"/>
-      <c r="H88" s="48"/>
-      <c r="I88" s="48"/>
-      <c r="J88" s="48"/>
-      <c r="K88" s="48"/>
-      <c r="L88" s="48"/>
-      <c r="M88" s="48"/>
-      <c r="N88" s="48"/>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="46"/>
-      <c r="B89" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="C89" s="48"/>
-      <c r="D89" s="48"/>
-      <c r="E89" s="48"/>
-      <c r="F89" s="48"/>
-      <c r="G89" s="48"/>
-      <c r="H89" s="48"/>
-      <c r="I89" s="48"/>
-      <c r="J89" s="48"/>
-      <c r="K89" s="48"/>
-      <c r="L89" s="48"/>
-      <c r="M89" s="48"/>
-      <c r="N89" s="48"/>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="46"/>
-      <c r="B90" s="49"/>
-      <c r="C90" s="48"/>
-      <c r="D90" s="48"/>
-      <c r="E90" s="48"/>
-      <c r="F90" s="48"/>
-      <c r="G90" s="48"/>
-      <c r="H90" s="48"/>
-      <c r="I90" s="48"/>
-      <c r="J90" s="48"/>
-      <c r="K90" s="48"/>
-      <c r="L90" s="48"/>
-      <c r="M90" s="48"/>
-      <c r="N90" s="48"/>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="46"/>
-      <c r="B91" s="50"/>
-      <c r="C91" s="48"/>
-      <c r="D91" s="48"/>
-      <c r="E91" s="48"/>
-      <c r="F91" s="48"/>
-      <c r="G91" s="48"/>
-      <c r="H91" s="48"/>
-      <c r="I91" s="48"/>
-      <c r="J91" s="48"/>
-      <c r="K91" s="48"/>
-      <c r="L91" s="48"/>
-      <c r="M91" s="48"/>
-      <c r="N91" s="48"/>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="B92" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="C92" s="53"/>
-      <c r="D92" s="53"/>
-      <c r="E92" s="53"/>
-      <c r="F92" s="53"/>
-      <c r="G92" s="53"/>
-      <c r="H92" s="53"/>
-      <c r="I92" s="53"/>
-      <c r="J92" s="53"/>
-      <c r="K92" s="53"/>
-      <c r="L92" s="53"/>
-      <c r="M92" s="53"/>
-      <c r="N92" s="53"/>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="51"/>
-      <c r="B93" s="54"/>
-      <c r="C93" s="53"/>
-      <c r="D93" s="53"/>
-      <c r="E93" s="53"/>
-      <c r="F93" s="53"/>
-      <c r="G93" s="53"/>
-      <c r="H93" s="53"/>
-      <c r="I93" s="53"/>
-      <c r="J93" s="53"/>
-      <c r="K93" s="53"/>
-      <c r="L93" s="53"/>
-      <c r="M93" s="53"/>
-      <c r="N93" s="53"/>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="51"/>
-      <c r="B94" s="55"/>
-      <c r="C94" s="53"/>
-      <c r="D94" s="53"/>
-      <c r="E94" s="53"/>
-      <c r="F94" s="53"/>
-      <c r="G94" s="53"/>
-      <c r="H94" s="53"/>
-      <c r="I94" s="53"/>
-      <c r="J94" s="53"/>
-      <c r="K94" s="53"/>
-      <c r="L94" s="53"/>
-      <c r="M94" s="53"/>
-      <c r="N94" s="53"/>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="51"/>
-      <c r="B95" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" s="53"/>
-      <c r="D95" s="53"/>
-      <c r="E95" s="53"/>
-      <c r="F95" s="53"/>
-      <c r="G95" s="53"/>
-      <c r="H95" s="53"/>
-      <c r="I95" s="53"/>
-      <c r="J95" s="53"/>
-      <c r="K95" s="53"/>
-      <c r="L95" s="53"/>
-      <c r="M95" s="53"/>
-      <c r="N95" s="53"/>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" s="51"/>
-      <c r="B96" s="54"/>
-      <c r="C96" s="53"/>
-      <c r="D96" s="53"/>
-      <c r="E96" s="53"/>
-      <c r="F96" s="53"/>
-      <c r="G96" s="53"/>
-      <c r="H96" s="53"/>
-      <c r="I96" s="53"/>
-      <c r="J96" s="53"/>
-      <c r="K96" s="53"/>
-      <c r="L96" s="53"/>
-      <c r="M96" s="53"/>
-      <c r="N96" s="53"/>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" s="51"/>
-      <c r="B97" s="55"/>
-      <c r="C97" s="53"/>
-      <c r="D97" s="53"/>
-      <c r="E97" s="53"/>
-      <c r="F97" s="53"/>
-      <c r="G97" s="53"/>
-      <c r="H97" s="53"/>
-      <c r="I97" s="53"/>
-      <c r="J97" s="53"/>
-      <c r="K97" s="53"/>
-      <c r="L97" s="53"/>
-      <c r="M97" s="53"/>
-      <c r="N97" s="53"/>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98" s="51"/>
-      <c r="B98" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="C98" s="53"/>
-      <c r="D98" s="53"/>
-      <c r="E98" s="53"/>
-      <c r="F98" s="53"/>
-      <c r="G98" s="53"/>
-      <c r="H98" s="53"/>
-      <c r="I98" s="53"/>
-      <c r="J98" s="53"/>
-      <c r="K98" s="53"/>
-      <c r="L98" s="53"/>
-      <c r="M98" s="53"/>
-      <c r="N98" s="53"/>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99" s="51"/>
-      <c r="B99" s="54"/>
-      <c r="C99" s="53"/>
-      <c r="D99" s="53"/>
-      <c r="E99" s="53"/>
-      <c r="F99" s="53"/>
-      <c r="G99" s="53"/>
-      <c r="H99" s="53"/>
-      <c r="I99" s="53"/>
-      <c r="J99" s="53"/>
-      <c r="K99" s="53"/>
-      <c r="L99" s="53"/>
-      <c r="M99" s="53"/>
-      <c r="N99" s="53"/>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" s="51"/>
-      <c r="B100" s="55"/>
-      <c r="C100" s="53"/>
-      <c r="D100" s="53"/>
-      <c r="E100" s="53"/>
-      <c r="F100" s="53"/>
-      <c r="G100" s="53"/>
-      <c r="H100" s="53"/>
-      <c r="I100" s="53"/>
-      <c r="J100" s="53"/>
-      <c r="K100" s="53"/>
-      <c r="L100" s="53"/>
-      <c r="M100" s="53"/>
-      <c r="N100" s="53"/>
+      <c r="C124" s="21"/>
+      <c r="D124" s="21"/>
+      <c r="E124" s="21"/>
+      <c r="F124" s="21"/>
+      <c r="G124" s="21"/>
+      <c r="H124" s="21"/>
+      <c r="I124" s="21"/>
+      <c r="J124" s="21"/>
+      <c r="K124" s="21"/>
+      <c r="L124" s="21"/>
+      <c r="M124" s="21"/>
+      <c r="N124" s="21"/>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A125" s="44"/>
+      <c r="B125" s="46"/>
+      <c r="C125" s="21"/>
+      <c r="D125" s="21"/>
+      <c r="E125" s="21"/>
+      <c r="F125" s="21"/>
+      <c r="G125" s="21"/>
+      <c r="H125" s="21"/>
+      <c r="I125" s="21"/>
+      <c r="J125" s="21"/>
+      <c r="K125" s="21"/>
+      <c r="L125" s="21"/>
+      <c r="M125" s="21"/>
+      <c r="N125" s="21"/>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A126" s="44"/>
+      <c r="B126" s="47"/>
+      <c r="C126" s="21"/>
+      <c r="D126" s="21"/>
+      <c r="E126" s="21"/>
+      <c r="F126" s="21"/>
+      <c r="G126" s="21"/>
+      <c r="H126" s="21"/>
+      <c r="I126" s="21"/>
+      <c r="J126" s="21"/>
+      <c r="K126" s="21"/>
+      <c r="L126" s="21"/>
+      <c r="M126" s="21"/>
+      <c r="N126" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="75">
+  <mergeCells count="104">
+    <mergeCell ref="B102:B108"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="E102:E105"/>
+    <mergeCell ref="C106:C108"/>
+    <mergeCell ref="E106:E108"/>
+    <mergeCell ref="E81:E87"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="D85:D87"/>
+    <mergeCell ref="B95:B101"/>
+    <mergeCell ref="C95:C98"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="E95:E98"/>
+    <mergeCell ref="E99:E101"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="E88:E94"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="E78:E80"/>
     <mergeCell ref="C70:E70"/>
     <mergeCell ref="F70:H70"/>
     <mergeCell ref="I70:K70"/>
     <mergeCell ref="L70:N70"/>
     <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A83:A91"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="A92:A100"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="A74:A82"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="A109:A117"/>
+    <mergeCell ref="B109:B111"/>
+    <mergeCell ref="B112:B114"/>
+    <mergeCell ref="B115:B117"/>
+    <mergeCell ref="A118:A126"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="B121:B123"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="B74:B80"/>
+    <mergeCell ref="B88:B94"/>
+    <mergeCell ref="B81:B87"/>
+    <mergeCell ref="A74:A108"/>
+    <mergeCell ref="A71:B72"/>
+    <mergeCell ref="A73:B73"/>
     <mergeCell ref="F45:F47"/>
     <mergeCell ref="I41:I44"/>
     <mergeCell ref="L41:L44"/>

--- a/scheme.xlsx
+++ b/scheme.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="72">
   <si>
     <t>I</t>
   </si>
@@ -260,6 +260,171 @@
       </rPr>
       <t>?</t>
     </r>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>By what time?</t>
+  </si>
+  <si>
+    <t>ever, never, just, already, 
+by 3 p.m.</t>
+  </si>
+  <si>
+    <t>have ('ve)</t>
+  </si>
+  <si>
+    <t>has ('s)</t>
+  </si>
+  <si>
+    <t>have not 
+(haven't)</t>
+  </si>
+  <si>
+    <t>has not
+(hasn't)</t>
+  </si>
+  <si>
+    <t>Have</t>
+  </si>
+  <si>
+    <t>Has</t>
+  </si>
+  <si>
+    <r>
+      <t>work</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ed</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+&amp;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>written</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?
+(Past Participle)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>work</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ed</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+&amp;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>written</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(Past Participle)</t>
+    </r>
+  </si>
+  <si>
+    <t>have</t>
+  </si>
+  <si>
+    <t>has</t>
+  </si>
+  <si>
+    <t>haven't</t>
+  </si>
+  <si>
+    <t>hasn't</t>
   </si>
 </sst>
 </file>
@@ -545,13 +710,73 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -561,13 +786,79 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -579,106 +870,10 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -687,33 +882,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -722,6 +896,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -759,7 +936,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1342684</xdr:colOff>
+      <xdr:colOff>1161709</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>35960</xdr:rowOff>
     </xdr:to>
@@ -2508,7 +2685,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
+      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2520,9 +2697,9 @@
     <col min="6" max="6" width="4.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.25" customWidth="1"/>
-    <col min="10" max="10" width="10.75" customWidth="1"/>
-    <col min="11" max="11" width="5.875" customWidth="1"/>
+    <col min="9" max="9" width="5.375" customWidth="1"/>
+    <col min="10" max="10" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.25" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="19.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2546,880 +2723,986 @@
       <c r="O11" s="1"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="15" t="s">
+      <c r="B14" s="49"/>
+      <c r="C14" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18" t="s">
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="21" t="s">
+      <c r="G14" s="42"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="24" t="s">
+      <c r="J14" s="45"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="12" t="s">
+      <c r="B15" s="33"/>
+      <c r="C15" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="12" t="s">
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="55"/>
+      <c r="K15" s="56"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="12" t="s">
+      <c r="A16" s="34"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="12" t="s">
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" s="55"/>
+      <c r="K16" s="56"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="38" t="s">
+      <c r="B17" s="37"/>
+      <c r="C17" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="44"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="38" t="s">
+      <c r="D17" s="57"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="44"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" s="57"/>
+      <c r="K17" s="37"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="46" t="s">
+      <c r="F18" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="45" t="s">
+      <c r="G18" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H18" s="53" t="s">
+      <c r="H18" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
+      <c r="I18" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="K18" s="66" t="s">
+        <v>67</v>
+      </c>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="49" t="s">
+      <c r="A19" s="30"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="46" t="s">
+      <c r="D19" s="17"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="52" t="s">
+      <c r="G19" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="H19" s="56"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="49" t="s">
+      <c r="A20" s="30"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="54"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="48" t="s">
+      <c r="D20" s="17"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="50" t="s">
+      <c r="A21" s="30"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="57"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="47" t="s">
+      <c r="D21" s="18"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="57"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="28"/>
+      <c r="K21" s="27"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="49" t="s">
+      <c r="A22" s="30"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="54"/>
-      <c r="E22" s="52" t="s">
+      <c r="D22" s="17"/>
+      <c r="E22" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="46" t="s">
+      <c r="F22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="53" t="s">
+      <c r="G22" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H22" s="56"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="K22" s="27"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="49" t="s">
+      <c r="A23" s="30"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="48" t="s">
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="50" t="s">
+      <c r="A24" s="30"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="54"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="47" t="s">
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="30"/>
+      <c r="B25" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D25" s="60" t="s">
+      <c r="D25" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="52" t="s">
+      <c r="E25" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="46" t="s">
+      <c r="F25" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G25" s="45" t="s">
+      <c r="G25" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H25" s="53" t="s">
+      <c r="H25" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
+      <c r="I25" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="K25" s="66" t="s">
+        <v>67</v>
+      </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="48" t="s">
+      <c r="A26" s="30"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="46" t="s">
+      <c r="D26" s="64"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="52" t="s">
+      <c r="G26" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="H26" s="56"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="48" t="s">
+      <c r="A27" s="30"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="48" t="s">
+      <c r="D27" s="64"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="54"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="48" t="s">
+      <c r="A28" s="30"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="62"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="47" t="s">
+      <c r="D28" s="65"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G28" s="57"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" s="28"/>
+      <c r="K28" s="27"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="36"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="46" t="s">
+      <c r="A29" s="30"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="60" t="s">
+      <c r="D29" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="54"/>
-      <c r="F29" s="46" t="s">
+      <c r="E29" s="17"/>
+      <c r="F29" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G29" s="53" t="s">
+      <c r="G29" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H29" s="56"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="K29" s="27"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="48" t="s">
+      <c r="A30" s="30"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="56"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="48" t="s">
+      <c r="D30" s="14"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="47" t="s">
+      <c r="A31" s="30"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="59"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="47" t="s">
+      <c r="D31" s="15"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="36"/>
-      <c r="B32" s="6" t="s">
+      <c r="A32" s="30"/>
+      <c r="B32" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="49" t="s">
+      <c r="C32" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="46" t="s">
+      <c r="D32" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E32" s="52" t="s">
+      <c r="E32" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="46" t="s">
+      <c r="F32" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G32" s="46" t="s">
+      <c r="G32" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H32" s="53" t="s">
+      <c r="H32" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
+      <c r="I32" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K32" s="66" t="s">
+        <v>66</v>
+      </c>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="36"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="48" t="s">
+      <c r="A33" s="30"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="54"/>
-      <c r="F33" s="53" t="s">
+      <c r="E33" s="17"/>
+      <c r="F33" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G33" s="46" t="s">
+      <c r="G33" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H33" s="56"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" s="27"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="36"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="48" t="s">
+      <c r="A34" s="30"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E34" s="54"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="48" t="s">
+      <c r="E34" s="17"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H34" s="56"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" s="27"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="36"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="48" t="s">
+      <c r="A35" s="30"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="54"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="47" t="s">
+      <c r="E35" s="17"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H35" s="56"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K35" s="27"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="36"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="51" t="s">
+      <c r="A36" s="30"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="46" t="s">
+      <c r="D36" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="54"/>
-      <c r="F36" s="53" t="s">
+      <c r="E36" s="17"/>
+      <c r="F36" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G36" s="46" t="s">
+      <c r="G36" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H36" s="56"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K36" s="27"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="36"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="48" t="s">
+      <c r="A37" s="30"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E37" s="54"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="48" t="s">
+      <c r="E37" s="17"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H37" s="56"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K37" s="27"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="36"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="47" t="s">
+      <c r="A38" s="30"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E38" s="57"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="47" t="s">
+      <c r="E38" s="18"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H38" s="59"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K38" s="28"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="36"/>
-      <c r="B39" s="6" t="s">
+      <c r="A39" s="30"/>
+      <c r="B39" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="53" t="s">
+      <c r="C39" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="46" t="s">
+      <c r="D39" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E39" s="52" t="s">
+      <c r="E39" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="53" t="s">
+      <c r="F39" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G39" s="45" t="s">
+      <c r="G39" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H39" s="45" t="s">
+      <c r="H39" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
+      <c r="I39" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K39" s="26" t="s">
+        <v>68</v>
+      </c>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="48" t="s">
+      <c r="A40" s="30"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="54"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="46" t="s">
+      <c r="E40" s="17"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H40" s="53" t="s">
+      <c r="H40" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40" s="27"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="36"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="48" t="s">
+      <c r="A41" s="30"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E41" s="54"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="48" t="s">
+      <c r="E41" s="17"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H41" s="56"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K41" s="27"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="36"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="48" t="s">
+      <c r="A42" s="30"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="57"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="47" t="s">
+      <c r="E42" s="18"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H42" s="59"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K42" s="28"/>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="36"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="46" t="s">
+      <c r="A43" s="30"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E43" s="52" t="s">
+      <c r="E43" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F43" s="56"/>
-      <c r="G43" s="46" t="s">
+      <c r="F43" s="14"/>
+      <c r="G43" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H43" s="53" t="s">
+      <c r="H43" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K43" s="26" t="s">
+        <v>69</v>
+      </c>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="36"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="48" t="s">
+      <c r="A44" s="30"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E44" s="54"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="48" t="s">
+      <c r="E44" s="17"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H44" s="56"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K44" s="27"/>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="36"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="47" t="s">
+      <c r="A45" s="30"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E45" s="57"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="47" t="s">
+      <c r="E45" s="18"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H45" s="59"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K45" s="27"/>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="36"/>
-      <c r="B46" s="6" t="s">
+      <c r="A46" s="30"/>
+      <c r="B46" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="53" t="s">
+      <c r="C46" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="46" t="s">
+      <c r="D46" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E46" s="52" t="s">
+      <c r="E46" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F46" s="53" t="s">
+      <c r="F46" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G46" s="45" t="s">
+      <c r="G46" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H46" s="45" t="s">
+      <c r="H46" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
+      <c r="I46" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K46" s="26" t="s">
+        <v>70</v>
+      </c>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="36"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="48" t="s">
+      <c r="A47" s="30"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="54"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="46" t="s">
+      <c r="E47" s="17"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H47" s="53" t="s">
+      <c r="H47" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K47" s="27"/>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="36"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="48" t="s">
+      <c r="A48" s="30"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E48" s="54"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="48" t="s">
+      <c r="E48" s="17"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H48" s="56"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K48" s="27"/>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="36"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="48" t="s">
+      <c r="A49" s="30"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="57"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="47" t="s">
+      <c r="E49" s="18"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H49" s="59"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K49" s="28"/>
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="36"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="46" t="s">
+      <c r="A50" s="30"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E50" s="52" t="s">
+      <c r="E50" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F50" s="56"/>
-      <c r="G50" s="46" t="s">
+      <c r="F50" s="14"/>
+      <c r="G50" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H50" s="53" t="s">
+      <c r="H50" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K50" s="26" t="s">
+        <v>71</v>
+      </c>
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="36"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="48" t="s">
+      <c r="A51" s="30"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E51" s="54"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="48" t="s">
+      <c r="E51" s="17"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H51" s="56"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K51" s="27"/>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="37"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="47" t="s">
+      <c r="A52" s="31"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E52" s="57"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="47" t="s">
+      <c r="E52" s="18"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H52" s="59"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K52" s="27"/>
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="27" t="s">
+      <c r="A53" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="28" t="s">
+      <c r="B53" s="51" t="s">
         <v>12</v>
       </c>
       <c r="C53" s="2"/>
@@ -3436,8 +3719,8 @@
       <c r="N53" s="2"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="27"/>
-      <c r="B54" s="29"/>
+      <c r="A54" s="50"/>
+      <c r="B54" s="52"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -3452,8 +3735,8 @@
       <c r="N54" s="2"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="27"/>
-      <c r="B55" s="30"/>
+      <c r="A55" s="50"/>
+      <c r="B55" s="53"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -3468,8 +3751,8 @@
       <c r="N55" s="2"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="27"/>
-      <c r="B56" s="28" t="s">
+      <c r="A56" s="50"/>
+      <c r="B56" s="51" t="s">
         <v>2</v>
       </c>
       <c r="C56" s="2"/>
@@ -3486,8 +3769,8 @@
       <c r="N56" s="2"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="27"/>
-      <c r="B57" s="29"/>
+      <c r="A57" s="50"/>
+      <c r="B57" s="52"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -3502,8 +3785,8 @@
       <c r="N57" s="2"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="27"/>
-      <c r="B58" s="30"/>
+      <c r="A58" s="50"/>
+      <c r="B58" s="53"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -3518,8 +3801,8 @@
       <c r="N58" s="2"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="27"/>
-      <c r="B59" s="28" t="s">
+      <c r="A59" s="50"/>
+      <c r="B59" s="51" t="s">
         <v>13</v>
       </c>
       <c r="C59" s="2"/>
@@ -3536,8 +3819,8 @@
       <c r="N59" s="2"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="27"/>
-      <c r="B60" s="29"/>
+      <c r="A60" s="50"/>
+      <c r="B60" s="52"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -3552,8 +3835,8 @@
       <c r="N60" s="2"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="27"/>
-      <c r="B61" s="30"/>
+      <c r="A61" s="50"/>
+      <c r="B61" s="53"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -3568,10 +3851,10 @@
       <c r="N61" s="2"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="31" t="s">
+      <c r="A62" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B62" s="32" t="s">
+      <c r="B62" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C62" s="3"/>
@@ -3588,8 +3871,8 @@
       <c r="N62" s="3"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="31"/>
-      <c r="B63" s="33"/>
+      <c r="A63" s="19"/>
+      <c r="B63" s="21"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -3604,8 +3887,8 @@
       <c r="N63" s="3"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="31"/>
-      <c r="B64" s="34"/>
+      <c r="A64" s="19"/>
+      <c r="B64" s="22"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -3620,8 +3903,8 @@
       <c r="N64" s="3"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="31"/>
-      <c r="B65" s="32" t="s">
+      <c r="A65" s="19"/>
+      <c r="B65" s="20" t="s">
         <v>2</v>
       </c>
       <c r="C65" s="3"/>
@@ -3638,8 +3921,8 @@
       <c r="N65" s="3"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="31"/>
-      <c r="B66" s="33"/>
+      <c r="A66" s="19"/>
+      <c r="B66" s="21"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -3654,8 +3937,8 @@
       <c r="N66" s="3"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="31"/>
-      <c r="B67" s="34"/>
+      <c r="A67" s="19"/>
+      <c r="B67" s="22"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -3670,8 +3953,8 @@
       <c r="N67" s="3"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="31"/>
-      <c r="B68" s="32" t="s">
+      <c r="A68" s="19"/>
+      <c r="B68" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C68" s="3"/>
@@ -3688,8 +3971,8 @@
       <c r="N68" s="3"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="31"/>
-      <c r="B69" s="33"/>
+      <c r="A69" s="19"/>
+      <c r="B69" s="21"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -3704,8 +3987,8 @@
       <c r="N69" s="3"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="31"/>
-      <c r="B70" s="34"/>
+      <c r="A70" s="19"/>
+      <c r="B70" s="22"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -3720,18 +4003,56 @@
       <c r="N70" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="C46:C52"/>
-    <mergeCell ref="F46:F52"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="H50:H52"/>
-    <mergeCell ref="H32:H38"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="C39:C45"/>
-    <mergeCell ref="F39:F45"/>
+  <mergeCells count="81">
+    <mergeCell ref="I39:I45"/>
+    <mergeCell ref="I46:I52"/>
+    <mergeCell ref="K39:K42"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="K46:K49"/>
+    <mergeCell ref="K50:K52"/>
+    <mergeCell ref="J25:J28"/>
+    <mergeCell ref="K25:K31"/>
+    <mergeCell ref="J29:J31"/>
+    <mergeCell ref="I32:I35"/>
+    <mergeCell ref="I36:I38"/>
+    <mergeCell ref="K32:K38"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="K18:K24"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="H18:H24"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="A18:A52"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="B46:B52"/>
+    <mergeCell ref="B39:B45"/>
     <mergeCell ref="H25:H31"/>
     <mergeCell ref="H40:H42"/>
     <mergeCell ref="H43:H45"/>
@@ -3739,51 +4060,31 @@
     <mergeCell ref="B62:B64"/>
     <mergeCell ref="B65:B67"/>
     <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="A18:A52"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A53:A61"/>
     <mergeCell ref="B53:B55"/>
     <mergeCell ref="B56:B58"/>
     <mergeCell ref="B59:B61"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="H18:H24"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="B46:B52"/>
     <mergeCell ref="E46:E49"/>
     <mergeCell ref="E50:E52"/>
     <mergeCell ref="E25:E31"/>
     <mergeCell ref="D25:D28"/>
     <mergeCell ref="D29:D31"/>
-    <mergeCell ref="B39:B45"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="C39:C45"/>
+    <mergeCell ref="F39:F45"/>
     <mergeCell ref="E39:E42"/>
     <mergeCell ref="E43:E45"/>
     <mergeCell ref="C32:C35"/>
     <mergeCell ref="C36:C38"/>
     <mergeCell ref="E32:E38"/>
+    <mergeCell ref="C46:C52"/>
+    <mergeCell ref="F46:F52"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="H32:H38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/scheme.xlsx
+++ b/scheme.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="81">
   <si>
     <t>I</t>
   </si>
@@ -477,12 +477,67 @@
       <t>?</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>work</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ed
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+wrote</t>
+    </r>
+  </si>
+  <si>
+    <t>did not
+(didn't)</t>
+  </si>
+  <si>
+    <t>Did</t>
+  </si>
+  <si>
+    <t>did</t>
+  </si>
+  <si>
+    <t>didn't</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -494,13 +549,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -761,201 +809,246 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1245,10 +1338,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:N83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12:J15"/>
+      <pane ySplit="4" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1269,1462 +1363,1931 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="34" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="40" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="41"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="43" t="s">
+      <c r="J1" s="51"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="20" t="s">
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="20" t="s">
+      <c r="J2" s="19"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="20"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="20" t="s">
+      <c r="A3" s="41"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="20" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="20" t="s">
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="21"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="20" t="s">
+      <c r="J3" s="19"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="M3" s="21"/>
-      <c r="N3" s="22"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="20"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="23" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="23" t="s">
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="23" t="s">
+      <c r="G4" s="22"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="23" t="s">
+      <c r="J4" s="22"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="M4" s="24"/>
-      <c r="N4" s="25"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="23"/>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29" t="s">
+      <c r="D5" s="24"/>
+      <c r="E5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="19" t="s">
+      <c r="N5" s="17" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="26" t="s">
+      <c r="A6" s="38"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="4" t="s">
+      <c r="D6" s="25"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="7" t="s">
+      <c r="H6" s="12"/>
+      <c r="I6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="11" t="s">
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="26" t="s">
+      <c r="A7" s="38"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="6" t="s">
+      <c r="D7" s="25"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="7" t="s">
+      <c r="G7" s="25"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="11" t="s">
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
-      <c r="B8" s="47"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="5" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="8" t="s">
+      <c r="G8" s="26"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="18"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="12" t="s">
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="18"/>
-      <c r="N8" s="17"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="15"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="26" t="s">
+      <c r="A9" s="38"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="29" t="s">
+      <c r="D9" s="25"/>
+      <c r="E9" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="7" t="s">
+      <c r="H9" s="12"/>
+      <c r="I9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="16" t="s">
+      <c r="J9" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="K9" s="17"/>
-      <c r="L9" s="11" t="s">
+      <c r="K9" s="15"/>
+      <c r="L9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="16" t="s">
+      <c r="M9" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="N9" s="17"/>
+      <c r="N9" s="15"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="26" t="s">
+      <c r="A10" s="38"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="6" t="s">
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="7" t="s">
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="11" t="s">
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
-      <c r="B11" s="48"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="5" t="s">
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="8" t="s">
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="12" t="s">
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="38"/>
+      <c r="B12" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="D12" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="J12" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="19" t="s">
+      <c r="K12" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="L12" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="M12" s="19" t="s">
+      <c r="M12" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="N12" s="19" t="s">
+      <c r="N12" s="17" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="6" t="s">
+      <c r="A13" s="38"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="65"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="4" t="s">
+      <c r="D13" s="32"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="7" t="s">
+      <c r="H13" s="12"/>
+      <c r="I13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="11" t="s">
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="6" t="s">
+      <c r="A14" s="38"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="65"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="6" t="s">
+      <c r="D14" s="32"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="27"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="7" t="s">
+      <c r="G14" s="25"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="11" t="s">
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="6" t="s">
+      <c r="A15" s="38"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="66"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="5" t="s">
+      <c r="D15" s="33"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="8" t="s">
+      <c r="G15" s="26"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="18"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="12" t="s">
+      <c r="J15" s="16"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M15" s="18"/>
-      <c r="N15" s="17"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="15"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="4" t="s">
+      <c r="A16" s="38"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="64" t="s">
+      <c r="D16" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="4" t="s">
+      <c r="E16" s="25"/>
+      <c r="F16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="7" t="s">
+      <c r="H16" s="12"/>
+      <c r="I16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="J16" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="11" t="s">
+      <c r="K16" s="15"/>
+      <c r="L16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="M16" s="19" t="s">
+      <c r="M16" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="N16" s="17"/>
+      <c r="N16" s="15"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="6" t="s">
+      <c r="A17" s="38"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="6" t="s">
+      <c r="D17" s="12"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="7" t="s">
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="11" t="s">
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="5" t="s">
+      <c r="A18" s="38"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="5" t="s">
+      <c r="D18" s="13"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="8" t="s">
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="12" t="s">
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
-      <c r="B19" s="16" t="s">
+      <c r="A19" s="38"/>
+      <c r="B19" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I19" s="16" t="s">
+      <c r="I19" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K19" s="19" t="s">
+      <c r="K19" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="L19" s="16" t="s">
+      <c r="L19" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="M19" s="10" t="s">
+      <c r="M19" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="N19" s="19" t="s">
+      <c r="N19" s="17" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="6" t="s">
+      <c r="A20" s="38"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="13" t="s">
+      <c r="E20" s="25"/>
+      <c r="F20" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="7" t="s">
+      <c r="H20" s="12"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="11" t="s">
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="N20" s="17"/>
+      <c r="N20" s="15"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="6" t="s">
+      <c r="A21" s="38"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="6" t="s">
+      <c r="E21" s="25"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="7" t="s">
+      <c r="H21" s="12"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="11" t="s">
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="N21" s="17"/>
+      <c r="N21" s="15"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
-      <c r="B22" s="17"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="28"/>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="5" t="s">
+      <c r="E22" s="25"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="8" t="s">
+      <c r="H22" s="12"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K22" s="17"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="12" t="s">
+      <c r="K22" s="15"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="17"/>
+      <c r="N22" s="15"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="50"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="33" t="s">
+      <c r="A23" s="38"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="13" t="s">
+      <c r="E23" s="25"/>
+      <c r="F23" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="16" t="s">
+      <c r="H23" s="12"/>
+      <c r="I23" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="17"/>
-      <c r="L23" s="16" t="s">
+      <c r="K23" s="15"/>
+      <c r="L23" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="M23" s="11" t="s">
+      <c r="M23" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="N23" s="17"/>
+      <c r="N23" s="15"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="6" t="s">
+      <c r="A24" s="38"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="6" t="s">
+      <c r="E24" s="25"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="7" t="s">
+      <c r="H24" s="12"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="11" t="s">
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N24" s="17"/>
+      <c r="N24" s="15"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
-      <c r="B25" s="18"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="28"/>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="5" t="s">
+      <c r="E25" s="26"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="8" t="s">
+      <c r="H25" s="13"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="12" t="s">
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="N25" s="18"/>
+      <c r="N25" s="16"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
-      <c r="B26" s="16" t="s">
+      <c r="A26" s="38"/>
+      <c r="B26" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E26" s="29" t="s">
+      <c r="E26" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I26" s="13" t="s">
+      <c r="I26" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="J26" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K26" s="16" t="s">
+      <c r="K26" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="L26" s="13" t="s">
+      <c r="L26" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M26" s="10" t="s">
+      <c r="M26" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="N26" s="16" t="s">
+      <c r="N26" s="14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="50"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="6" t="s">
+      <c r="A27" s="38"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="4" t="s">
+      <c r="E27" s="25"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="H27" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I27" s="14"/>
-      <c r="J27" s="7" t="s">
+      <c r="I27" s="12"/>
+      <c r="J27" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K27" s="17"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="11" t="s">
+      <c r="K27" s="15"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="N27" s="17"/>
+      <c r="N27" s="15"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="6" t="s">
+      <c r="A28" s="38"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="6" t="s">
+      <c r="E28" s="25"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="7" t="s">
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="17"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="11" t="s">
+      <c r="K28" s="15"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="N28" s="17"/>
+      <c r="N28" s="15"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="50"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="6" t="s">
+      <c r="A29" s="38"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="32"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="5" t="s">
+      <c r="E29" s="26"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="8" t="s">
+      <c r="H29" s="13"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K29" s="18"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="12" t="s">
+      <c r="K29" s="16"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="N29" s="18"/>
+      <c r="N29" s="16"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="4" t="s">
+      <c r="A30" s="38"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="29" t="s">
+      <c r="E30" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="4" t="s">
+      <c r="F30" s="12"/>
+      <c r="G30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="13" t="s">
+      <c r="H30" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I30" s="14"/>
-      <c r="J30" s="7" t="s">
+      <c r="I30" s="12"/>
+      <c r="J30" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K30" s="16" t="s">
+      <c r="K30" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="L30" s="14"/>
-      <c r="M30" s="11" t="s">
+      <c r="L30" s="12"/>
+      <c r="M30" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="N30" s="16" t="s">
+      <c r="N30" s="14" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="50"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="6" t="s">
+      <c r="A31" s="38"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="27"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="6" t="s">
+      <c r="E31" s="25"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="7" t="s">
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K31" s="17"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="11" t="s">
+      <c r="K31" s="15"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N31" s="17"/>
+      <c r="N31" s="15"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="50"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="5" t="s">
+      <c r="A32" s="38"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="32"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="5" t="s">
+      <c r="E32" s="26"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="8" t="s">
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K32" s="17"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="12" t="s">
+      <c r="K32" s="15"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="N32" s="17"/>
+      <c r="N32" s="15"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="50"/>
-      <c r="B33" s="16" t="s">
+      <c r="A33" s="38"/>
+      <c r="B33" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E33" s="29" t="s">
+      <c r="E33" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I33" s="13" t="s">
+      <c r="I33" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="J33" s="9" t="s">
+      <c r="J33" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K33" s="16" t="s">
+      <c r="K33" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="L33" s="13" t="s">
+      <c r="L33" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="M33" s="10" t="s">
+      <c r="M33" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="N33" s="16" t="s">
+      <c r="N33" s="14" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="50"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="6" t="s">
+      <c r="A34" s="38"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="27"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="4" t="s">
+      <c r="E34" s="25"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H34" s="13" t="s">
+      <c r="H34" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="I34" s="14"/>
-      <c r="J34" s="7" t="s">
+      <c r="I34" s="12"/>
+      <c r="J34" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K34" s="17"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="11" t="s">
+      <c r="K34" s="15"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="N34" s="17"/>
+      <c r="N34" s="15"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="50"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="6" t="s">
+      <c r="A35" s="38"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="27"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="6" t="s">
+      <c r="E35" s="25"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="7" t="s">
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K35" s="17"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="11" t="s">
+      <c r="K35" s="15"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="N35" s="17"/>
+      <c r="N35" s="15"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="50"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="6" t="s">
+      <c r="A36" s="38"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E36" s="32"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="5" t="s">
+      <c r="E36" s="26"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="8" t="s">
+      <c r="H36" s="13"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K36" s="18"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="12" t="s">
+      <c r="K36" s="16"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="N36" s="18"/>
+      <c r="N36" s="16"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="50"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="4" t="s">
+      <c r="A37" s="38"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="29" t="s">
+      <c r="E37" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="F37" s="14"/>
-      <c r="G37" s="4" t="s">
+      <c r="F37" s="12"/>
+      <c r="G37" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H37" s="13" t="s">
+      <c r="H37" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I37" s="14"/>
-      <c r="J37" s="7" t="s">
+      <c r="I37" s="12"/>
+      <c r="J37" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K37" s="16" t="s">
+      <c r="K37" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="L37" s="14"/>
-      <c r="M37" s="11" t="s">
+      <c r="L37" s="12"/>
+      <c r="M37" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="N37" s="16" t="s">
+      <c r="N37" s="14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="50"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="6" t="s">
+      <c r="A38" s="38"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="27"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="6" t="s">
+      <c r="E38" s="25"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="7" t="s">
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K38" s="17"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="11" t="s">
+      <c r="K38" s="15"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N38" s="17"/>
+      <c r="N38" s="15"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="51"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="5" t="s">
+      <c r="A39" s="39"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="32"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="5" t="s">
+      <c r="E39" s="26"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="8" t="s">
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K39" s="17"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="12" t="s">
+      <c r="K39" s="15"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="N39" s="17"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="60" t="s">
+      <c r="N39" s="15"/>
+    </row>
+    <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="61" t="s">
+      <c r="B40" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
+      <c r="C40" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="E40" s="73"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="59"/>
+      <c r="M40" s="59"/>
+      <c r="N40" s="59"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="60"/>
-      <c r="B41" s="62"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
+      <c r="A41" s="82"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="74"/>
+      <c r="E41" s="75"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="59"/>
+      <c r="M41" s="59"/>
+      <c r="N41" s="59"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="60"/>
-      <c r="B42" s="63"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
+      <c r="A42" s="82"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="74"/>
+      <c r="E42" s="75"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="59"/>
+      <c r="N42" s="59"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="60"/>
-      <c r="B43" s="61" t="s">
+      <c r="A43" s="82"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="74"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="59"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="59"/>
+      <c r="N43" s="59"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="82"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="74"/>
+      <c r="E44" s="75"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="59"/>
+      <c r="K44" s="59"/>
+      <c r="L44" s="59"/>
+      <c r="M44" s="59"/>
+      <c r="N44" s="59"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="82"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="74"/>
+      <c r="E45" s="75"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="59"/>
+      <c r="J45" s="59"/>
+      <c r="K45" s="59"/>
+      <c r="L45" s="59"/>
+      <c r="M45" s="59"/>
+      <c r="N45" s="59"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="82"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="76"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="59"/>
+      <c r="K46" s="59"/>
+      <c r="L46" s="59"/>
+      <c r="M46" s="59"/>
+      <c r="N46" s="59"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="82"/>
+      <c r="B47" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="E47" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="59"/>
+      <c r="J47" s="59"/>
+      <c r="K47" s="59"/>
+      <c r="L47" s="59"/>
+      <c r="M47" s="59"/>
+      <c r="N47" s="59"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="82"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="79"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
+      <c r="L48" s="59"/>
+      <c r="M48" s="59"/>
+      <c r="N48" s="59"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="82"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="79"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="59"/>
+      <c r="J49" s="59"/>
+      <c r="K49" s="59"/>
+      <c r="L49" s="59"/>
+      <c r="M49" s="59"/>
+      <c r="N49" s="59"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="82"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="79"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="59"/>
+      <c r="J50" s="59"/>
+      <c r="K50" s="59"/>
+      <c r="L50" s="59"/>
+      <c r="M50" s="59"/>
+      <c r="N50" s="59"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="82"/>
+      <c r="B51" s="60"/>
+      <c r="C51" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="79"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="59"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="59"/>
+      <c r="K51" s="59"/>
+      <c r="L51" s="59"/>
+      <c r="M51" s="59"/>
+      <c r="N51" s="59"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="82"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="79"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="59"/>
+      <c r="H52" s="59"/>
+      <c r="I52" s="59"/>
+      <c r="J52" s="59"/>
+      <c r="K52" s="59"/>
+      <c r="L52" s="59"/>
+      <c r="M52" s="59"/>
+      <c r="N52" s="59"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="82"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" s="80"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="59"/>
+      <c r="J53" s="59"/>
+      <c r="K53" s="59"/>
+      <c r="L53" s="59"/>
+      <c r="M53" s="59"/>
+      <c r="N53" s="59"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="82"/>
+      <c r="B54" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="60"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="60"/>
-      <c r="B45" s="63"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="60"/>
-      <c r="B46" s="61" t="s">
+      <c r="C54" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54" s="59"/>
+      <c r="G54" s="59"/>
+      <c r="H54" s="59"/>
+      <c r="I54" s="59"/>
+      <c r="J54" s="59"/>
+      <c r="K54" s="59"/>
+      <c r="L54" s="59"/>
+      <c r="M54" s="59"/>
+      <c r="N54" s="59"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="82"/>
+      <c r="B55" s="60"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" s="60"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="59"/>
+      <c r="I55" s="59"/>
+      <c r="J55" s="59"/>
+      <c r="K55" s="59"/>
+      <c r="L55" s="59"/>
+      <c r="M55" s="59"/>
+      <c r="N55" s="59"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="82"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" s="60"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="59"/>
+      <c r="J56" s="59"/>
+      <c r="K56" s="59"/>
+      <c r="L56" s="59"/>
+      <c r="M56" s="59"/>
+      <c r="N56" s="59"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="82"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" s="60"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="59"/>
+      <c r="H57" s="59"/>
+      <c r="I57" s="59"/>
+      <c r="J57" s="59"/>
+      <c r="K57" s="59"/>
+      <c r="L57" s="59"/>
+      <c r="M57" s="59"/>
+      <c r="N57" s="59"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="82"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="60"/>
+      <c r="D58" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" s="60"/>
+      <c r="F58" s="59"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="59"/>
+      <c r="J58" s="59"/>
+      <c r="K58" s="59"/>
+      <c r="L58" s="59"/>
+      <c r="M58" s="59"/>
+      <c r="N58" s="59"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="82"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" s="60"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="59"/>
+      <c r="H59" s="59"/>
+      <c r="I59" s="59"/>
+      <c r="J59" s="59"/>
+      <c r="K59" s="59"/>
+      <c r="L59" s="59"/>
+      <c r="M59" s="59"/>
+      <c r="N59" s="59"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="82"/>
+      <c r="B60" s="61"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" s="61"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="59"/>
+      <c r="H60" s="59"/>
+      <c r="I60" s="59"/>
+      <c r="J60" s="59"/>
+      <c r="K60" s="59"/>
+      <c r="L60" s="59"/>
+      <c r="M60" s="59"/>
+      <c r="N60" s="59"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="82"/>
+      <c r="B61" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="C61" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="F61" s="59"/>
+      <c r="G61" s="59"/>
+      <c r="H61" s="59"/>
+      <c r="I61" s="59"/>
+      <c r="J61" s="59"/>
+      <c r="K61" s="59"/>
+      <c r="L61" s="59"/>
+      <c r="M61" s="59"/>
+      <c r="N61" s="59"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="82"/>
+      <c r="B62" s="60"/>
+      <c r="C62" s="60"/>
+      <c r="D62" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="60"/>
+      <c r="F62" s="59"/>
+      <c r="G62" s="59"/>
+      <c r="H62" s="59"/>
+      <c r="I62" s="59"/>
+      <c r="J62" s="59"/>
+      <c r="K62" s="59"/>
+      <c r="L62" s="59"/>
+      <c r="M62" s="59"/>
+      <c r="N62" s="59"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="82"/>
+      <c r="B63" s="60"/>
+      <c r="C63" s="60"/>
+      <c r="D63" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" s="60"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="59"/>
+      <c r="H63" s="59"/>
+      <c r="I63" s="59"/>
+      <c r="J63" s="59"/>
+      <c r="K63" s="59"/>
+      <c r="L63" s="59"/>
+      <c r="M63" s="59"/>
+      <c r="N63" s="59"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="82"/>
+      <c r="B64" s="60"/>
+      <c r="C64" s="60"/>
+      <c r="D64" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" s="60"/>
+      <c r="F64" s="59"/>
+      <c r="G64" s="59"/>
+      <c r="H64" s="59"/>
+      <c r="I64" s="59"/>
+      <c r="J64" s="59"/>
+      <c r="K64" s="59"/>
+      <c r="L64" s="59"/>
+      <c r="M64" s="59"/>
+      <c r="N64" s="59"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" s="82"/>
+      <c r="B65" s="60"/>
+      <c r="C65" s="60"/>
+      <c r="D65" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="E65" s="60"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="59"/>
+      <c r="H65" s="59"/>
+      <c r="I65" s="59"/>
+      <c r="J65" s="59"/>
+      <c r="K65" s="59"/>
+      <c r="L65" s="59"/>
+      <c r="M65" s="59"/>
+      <c r="N65" s="59"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="82"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="60"/>
+      <c r="D66" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" s="60"/>
+      <c r="F66" s="59"/>
+      <c r="G66" s="59"/>
+      <c r="H66" s="59"/>
+      <c r="I66" s="59"/>
+      <c r="J66" s="59"/>
+      <c r="K66" s="59"/>
+      <c r="L66" s="59"/>
+      <c r="M66" s="59"/>
+      <c r="N66" s="59"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="82"/>
+      <c r="B67" s="61"/>
+      <c r="C67" s="61"/>
+      <c r="D67" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" s="61"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="59"/>
+      <c r="H67" s="59"/>
+      <c r="I67" s="59"/>
+      <c r="J67" s="59"/>
+      <c r="K67" s="59"/>
+      <c r="L67" s="59"/>
+      <c r="M67" s="59"/>
+      <c r="N67" s="59"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="82"/>
+      <c r="B68" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="C68" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="D68" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="F68" s="59"/>
+      <c r="G68" s="59"/>
+      <c r="H68" s="59"/>
+      <c r="I68" s="59"/>
+      <c r="J68" s="59"/>
+      <c r="K68" s="59"/>
+      <c r="L68" s="59"/>
+      <c r="M68" s="59"/>
+      <c r="N68" s="59"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="82"/>
+      <c r="B69" s="60"/>
+      <c r="C69" s="60"/>
+      <c r="D69" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" s="60"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="59"/>
+      <c r="H69" s="59"/>
+      <c r="I69" s="59"/>
+      <c r="J69" s="59"/>
+      <c r="K69" s="59"/>
+      <c r="L69" s="59"/>
+      <c r="M69" s="59"/>
+      <c r="N69" s="59"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="82"/>
+      <c r="B70" s="60"/>
+      <c r="C70" s="60"/>
+      <c r="D70" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="E70" s="60"/>
+      <c r="F70" s="59"/>
+      <c r="G70" s="59"/>
+      <c r="H70" s="59"/>
+      <c r="I70" s="59"/>
+      <c r="J70" s="59"/>
+      <c r="K70" s="59"/>
+      <c r="L70" s="59"/>
+      <c r="M70" s="59"/>
+      <c r="N70" s="59"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" s="82"/>
+      <c r="B71" s="60"/>
+      <c r="C71" s="60"/>
+      <c r="D71" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="E71" s="60"/>
+      <c r="F71" s="59"/>
+      <c r="G71" s="59"/>
+      <c r="H71" s="59"/>
+      <c r="I71" s="59"/>
+      <c r="J71" s="59"/>
+      <c r="K71" s="59"/>
+      <c r="L71" s="59"/>
+      <c r="M71" s="59"/>
+      <c r="N71" s="59"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" s="82"/>
+      <c r="B72" s="60"/>
+      <c r="C72" s="60"/>
+      <c r="D72" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="E72" s="60"/>
+      <c r="F72" s="59"/>
+      <c r="G72" s="59"/>
+      <c r="H72" s="59"/>
+      <c r="I72" s="59"/>
+      <c r="J72" s="59"/>
+      <c r="K72" s="59"/>
+      <c r="L72" s="59"/>
+      <c r="M72" s="59"/>
+      <c r="N72" s="59"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" s="82"/>
+      <c r="B73" s="60"/>
+      <c r="C73" s="60"/>
+      <c r="D73" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="E73" s="60"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="59"/>
+      <c r="H73" s="59"/>
+      <c r="I73" s="59"/>
+      <c r="J73" s="59"/>
+      <c r="K73" s="59"/>
+      <c r="L73" s="59"/>
+      <c r="M73" s="59"/>
+      <c r="N73" s="59"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" s="83"/>
+      <c r="B74" s="61"/>
+      <c r="C74" s="61"/>
+      <c r="D74" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="E74" s="61"/>
+      <c r="F74" s="59"/>
+      <c r="G74" s="59"/>
+      <c r="H74" s="59"/>
+      <c r="I74" s="59"/>
+      <c r="J74" s="59"/>
+      <c r="K74" s="59"/>
+      <c r="L74" s="59"/>
+      <c r="M74" s="59"/>
+      <c r="N74" s="59"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="63"/>
+      <c r="D75" s="63"/>
+      <c r="E75" s="63"/>
+      <c r="F75" s="63"/>
+      <c r="G75" s="63"/>
+      <c r="H75" s="63"/>
+      <c r="I75" s="63"/>
+      <c r="J75" s="63"/>
+      <c r="K75" s="63"/>
+      <c r="L75" s="63"/>
+      <c r="M75" s="63"/>
+      <c r="N75" s="63"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" s="30"/>
+      <c r="B76" s="64"/>
+      <c r="C76" s="63"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="63"/>
+      <c r="F76" s="63"/>
+      <c r="G76" s="63"/>
+      <c r="H76" s="63"/>
+      <c r="I76" s="63"/>
+      <c r="J76" s="63"/>
+      <c r="K76" s="63"/>
+      <c r="L76" s="63"/>
+      <c r="M76" s="63"/>
+      <c r="N76" s="63"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" s="30"/>
+      <c r="B77" s="65"/>
+      <c r="C77" s="63"/>
+      <c r="D77" s="63"/>
+      <c r="E77" s="63"/>
+      <c r="F77" s="63"/>
+      <c r="G77" s="63"/>
+      <c r="H77" s="63"/>
+      <c r="I77" s="63"/>
+      <c r="J77" s="63"/>
+      <c r="K77" s="63"/>
+      <c r="L77" s="63"/>
+      <c r="M77" s="63"/>
+      <c r="N77" s="63"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" s="30"/>
+      <c r="B78" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78" s="63"/>
+      <c r="D78" s="63"/>
+      <c r="E78" s="63"/>
+      <c r="F78" s="63"/>
+      <c r="G78" s="63"/>
+      <c r="H78" s="63"/>
+      <c r="I78" s="63"/>
+      <c r="J78" s="63"/>
+      <c r="K78" s="63"/>
+      <c r="L78" s="63"/>
+      <c r="M78" s="63"/>
+      <c r="N78" s="63"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" s="30"/>
+      <c r="B79" s="64"/>
+      <c r="C79" s="63"/>
+      <c r="D79" s="63"/>
+      <c r="E79" s="63"/>
+      <c r="F79" s="63"/>
+      <c r="G79" s="63"/>
+      <c r="H79" s="63"/>
+      <c r="I79" s="63"/>
+      <c r="J79" s="63"/>
+      <c r="K79" s="63"/>
+      <c r="L79" s="63"/>
+      <c r="M79" s="63"/>
+      <c r="N79" s="63"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" s="30"/>
+      <c r="B80" s="65"/>
+      <c r="C80" s="63"/>
+      <c r="D80" s="63"/>
+      <c r="E80" s="63"/>
+      <c r="F80" s="63"/>
+      <c r="G80" s="63"/>
+      <c r="H80" s="63"/>
+      <c r="I80" s="63"/>
+      <c r="J80" s="63"/>
+      <c r="K80" s="63"/>
+      <c r="L80" s="63"/>
+      <c r="M80" s="63"/>
+      <c r="N80" s="63"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" s="30"/>
+      <c r="B81" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="60"/>
-      <c r="B47" s="62"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="60"/>
-      <c r="B48" s="63"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="B49" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="56"/>
-      <c r="B50" s="58"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="56"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="56"/>
-      <c r="B52" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="56"/>
-      <c r="B53" s="58"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="56"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="56"/>
-      <c r="B55" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="56"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="56"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+      <c r="C81" s="63"/>
+      <c r="D81" s="63"/>
+      <c r="E81" s="63"/>
+      <c r="F81" s="63"/>
+      <c r="G81" s="63"/>
+      <c r="H81" s="63"/>
+      <c r="I81" s="63"/>
+      <c r="J81" s="63"/>
+      <c r="K81" s="63"/>
+      <c r="L81" s="63"/>
+      <c r="M81" s="63"/>
+      <c r="N81" s="63"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" s="30"/>
+      <c r="B82" s="64"/>
+      <c r="C82" s="63"/>
+      <c r="D82" s="63"/>
+      <c r="E82" s="63"/>
+      <c r="F82" s="63"/>
+      <c r="G82" s="63"/>
+      <c r="H82" s="63"/>
+      <c r="I82" s="63"/>
+      <c r="J82" s="63"/>
+      <c r="K82" s="63"/>
+      <c r="L82" s="63"/>
+      <c r="M82" s="63"/>
+      <c r="N82" s="63"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" s="30"/>
+      <c r="B83" s="65"/>
+      <c r="C83" s="63"/>
+      <c r="D83" s="63"/>
+      <c r="E83" s="63"/>
+      <c r="F83" s="63"/>
+      <c r="G83" s="63"/>
+      <c r="H83" s="63"/>
+      <c r="I83" s="63"/>
+      <c r="J83" s="63"/>
+      <c r="K83" s="63"/>
+      <c r="L83" s="63"/>
+      <c r="M83" s="63"/>
+      <c r="N83" s="63"/>
     </row>
   </sheetData>
-  <mergeCells count="99">
-    <mergeCell ref="L26:L32"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="N30:N32"/>
-    <mergeCell ref="L33:L39"/>
-    <mergeCell ref="N33:N36"/>
-    <mergeCell ref="N37:N39"/>
-    <mergeCell ref="M12:M15"/>
-    <mergeCell ref="N12:N18"/>
-    <mergeCell ref="M16:M18"/>
-    <mergeCell ref="L19:L22"/>
-    <mergeCell ref="N19:N25"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="M5:M8"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="N5:N11"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="F33:F39"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="H37:H39"/>
-    <mergeCell ref="H19:H25"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="C26:C32"/>
-    <mergeCell ref="F26:F32"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="E19:E25"/>
-    <mergeCell ref="H12:H18"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="A49:A57"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="A40:A48"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="E12:E18"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="A5:A39"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="H5:H11"/>
+  <mergeCells count="110">
+    <mergeCell ref="B61:B67"/>
+    <mergeCell ref="B68:B74"/>
+    <mergeCell ref="A40:A74"/>
+    <mergeCell ref="C61:C67"/>
+    <mergeCell ref="E61:E67"/>
+    <mergeCell ref="C68:C74"/>
+    <mergeCell ref="E68:E74"/>
+    <mergeCell ref="D40:E46"/>
+    <mergeCell ref="D47:D53"/>
+    <mergeCell ref="E47:E53"/>
+    <mergeCell ref="C54:C60"/>
+    <mergeCell ref="E54:E60"/>
+    <mergeCell ref="I26:I32"/>
+    <mergeCell ref="I33:I39"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="K33:K36"/>
+    <mergeCell ref="K37:K39"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="K12:K18"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="K19:K25"/>
+    <mergeCell ref="J5:J8"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="K5:K11"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C2:E2"/>
@@ -2737,24 +3300,74 @@
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
-    <mergeCell ref="J5:J8"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="K5:K11"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="K12:K18"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="K19:K25"/>
-    <mergeCell ref="I26:I32"/>
-    <mergeCell ref="I33:I39"/>
-    <mergeCell ref="K26:K29"/>
-    <mergeCell ref="K30:K32"/>
-    <mergeCell ref="K33:K36"/>
-    <mergeCell ref="K37:K39"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H5:H11"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="A5:A39"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="H12:H18"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="A75:A83"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B40:B46"/>
+    <mergeCell ref="B47:B53"/>
+    <mergeCell ref="B54:B60"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="E12:E18"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="C26:C32"/>
+    <mergeCell ref="F26:F32"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="E19:E25"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="F33:F39"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="H19:H25"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="M5:M8"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="N5:N11"/>
+    <mergeCell ref="M12:M15"/>
+    <mergeCell ref="N12:N18"/>
+    <mergeCell ref="M16:M18"/>
+    <mergeCell ref="L19:L22"/>
+    <mergeCell ref="N19:N25"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="L26:L32"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="N30:N32"/>
+    <mergeCell ref="L33:L39"/>
+    <mergeCell ref="N33:N36"/>
+    <mergeCell ref="N37:N39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/scheme.xlsx
+++ b/scheme.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="96">
   <si>
     <t>I</t>
   </si>
@@ -531,6 +531,156 @@
   </si>
   <si>
     <t>didn't</t>
+  </si>
+  <si>
+    <t>Was</t>
+  </si>
+  <si>
+    <t>Were</t>
+  </si>
+  <si>
+    <t>was</t>
+  </si>
+  <si>
+    <t>were</t>
+  </si>
+  <si>
+    <t>was not
+(wasn't)</t>
+  </si>
+  <si>
+    <t>were not
+(weren't)</t>
+  </si>
+  <si>
+    <t>wasn't</t>
+  </si>
+  <si>
+    <t>weren't</t>
+  </si>
+  <si>
+    <t>had ('d)</t>
+  </si>
+  <si>
+    <t>had not
+(hadn't)</t>
+  </si>
+  <si>
+    <t>Had</t>
+  </si>
+  <si>
+    <r>
+      <t>work</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ed
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+written
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Past Participle)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>work</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ed</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?
+&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+written</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?
+(Past Participle)</t>
+    </r>
+  </si>
+  <si>
+    <t>had</t>
+  </si>
+  <si>
+    <t>hadn't</t>
   </si>
 </sst>
 </file>
@@ -628,7 +778,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -706,15 +856,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -758,7 +899,66 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -772,23 +972,63 @@
     </border>
     <border>
       <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -796,61 +1036,453 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -859,49 +1491,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -910,56 +1515,112 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -967,89 +1628,191 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1341,8 +2104,8 @@
   <dimension ref="A1:N83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G68" sqref="G68"/>
+      <pane ySplit="4" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1351,8 +2114,8 @@
     <col min="2" max="3" width="4.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.625" bestFit="1" customWidth="1"/>
@@ -1363,1925 +2126,2278 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="44" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="D1" s="35"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50" t="s">
+      <c r="G1" s="69"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="51"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="53" t="s">
+      <c r="J1" s="76"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="92"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="18" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="18" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="18" t="s">
+      <c r="G2" s="27"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="18" t="s">
+      <c r="J2" s="27"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="19"/>
-      <c r="N2" s="20"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="38"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="18" t="s">
+      <c r="A3" s="96"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="18" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="18" t="s">
+      <c r="G3" s="27"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="18" t="s">
+      <c r="J3" s="27"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="M3" s="19"/>
-      <c r="N3" s="20"/>
-    </row>
-    <row r="4" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="M3" s="27"/>
+      <c r="N3" s="38"/>
+    </row>
+    <row r="4" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="21" t="s">
+      <c r="B4" s="107"/>
+      <c r="C4" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="21" t="s">
+      <c r="D4" s="108"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="21" t="s">
+      <c r="G4" s="108"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="21" t="s">
+      <c r="J4" s="108"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="M4" s="22"/>
-      <c r="N4" s="23"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="107"/>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24" t="s">
+      <c r="D5" s="112"/>
+      <c r="E5" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="118" t="s">
         <v>59</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="118" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="17" t="s">
+      <c r="N5" s="119" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="27" t="s">
+      <c r="A6" s="98"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="2" t="s">
+      <c r="D6" s="28"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="5" t="s">
+      <c r="H6" s="72"/>
+      <c r="I6" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="9" t="s">
+      <c r="J6" s="24"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="81"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="27" t="s">
+      <c r="A7" s="98"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="4" t="s">
+      <c r="D7" s="28"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="5" t="s">
+      <c r="G7" s="28"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="9" t="s">
+      <c r="J7" s="24"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="81"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="28" t="s">
+      <c r="A8" s="98"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="3" t="s">
+      <c r="D8" s="30"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="6" t="s">
+      <c r="G8" s="30"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="10" t="s">
+      <c r="J8" s="25"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="16"/>
-      <c r="N8" s="15"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="81"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="27" t="s">
+      <c r="A9" s="98"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="24" t="s">
+      <c r="D9" s="28"/>
+      <c r="E9" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="5" t="s">
+      <c r="H9" s="72"/>
+      <c r="I9" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="K9" s="15"/>
-      <c r="L9" s="9" t="s">
+      <c r="K9" s="81"/>
+      <c r="L9" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="M9" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="N9" s="15"/>
+      <c r="N9" s="81"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="27" t="s">
+      <c r="A10" s="98"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="4" t="s">
+      <c r="D10" s="28"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="5" t="s">
+      <c r="G10" s="21"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="9" t="s">
+      <c r="J10" s="24"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="81"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="28" t="s">
+      <c r="A11" s="98"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="3" t="s">
+      <c r="D11" s="28"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="6" t="s">
+      <c r="G11" s="22"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="10" t="s">
+      <c r="J11" s="25"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="83"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
-      <c r="B12" s="14" t="s">
+      <c r="A12" s="98"/>
+      <c r="B12" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="46" t="s">
         <v>0</v>
       </c>
       <c r="D12" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="46" t="s">
         <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="K12" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="L12" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="M12" s="17" t="s">
+      <c r="M12" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="N12" s="17" t="s">
+      <c r="N12" s="79" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="4" t="s">
+      <c r="A13" s="98"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="47" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="32"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="2" t="s">
+      <c r="E13" s="43"/>
+      <c r="F13" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="5" t="s">
+      <c r="H13" s="72"/>
+      <c r="I13" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="9" t="s">
+      <c r="J13" s="24"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="81"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="4" t="s">
+      <c r="A14" s="98"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="47" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="32"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="4" t="s">
+      <c r="E14" s="43"/>
+      <c r="F14" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="5" t="s">
+      <c r="G14" s="28"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="9" t="s">
+      <c r="J14" s="24"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="81"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="4" t="s">
+      <c r="A15" s="98"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="47" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="33"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="3" t="s">
+      <c r="E15" s="43"/>
+      <c r="F15" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="6" t="s">
+      <c r="G15" s="30"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="16"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="10" t="s">
+      <c r="J15" s="25"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="M15" s="16"/>
-      <c r="N15" s="15"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="81"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="2" t="s">
+      <c r="A16" s="98"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="46" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="2" t="s">
+      <c r="E16" s="43"/>
+      <c r="F16" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="5" t="s">
+      <c r="H16" s="72"/>
+      <c r="I16" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="K16" s="15"/>
-      <c r="L16" s="9" t="s">
+      <c r="K16" s="81"/>
+      <c r="L16" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="M16" s="17" t="s">
+      <c r="M16" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="N16" s="15"/>
+      <c r="N16" s="81"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="4" t="s">
+      <c r="A17" s="98"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="4" t="s">
+      <c r="D17" s="21"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="5" t="s">
+      <c r="G17" s="21"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="9" t="s">
+      <c r="J17" s="24"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="81"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="3" t="s">
+      <c r="A18" s="98"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="3" t="s">
+      <c r="D18" s="22"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="6" t="s">
+      <c r="G18" s="22"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="10" t="s">
+      <c r="J18" s="25"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="83"/>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="14" t="s">
+      <c r="A19" s="98"/>
+      <c r="B19" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="42" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="46" t="s">
         <v>48</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="I19" s="14" t="s">
+      <c r="I19" s="84" t="s">
         <v>63</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K19" s="17" t="s">
+      <c r="K19" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="L19" s="14" t="s">
+      <c r="L19" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="M19" s="8" t="s">
+      <c r="M19" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="N19" s="17" t="s">
+      <c r="N19" s="79" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="4" t="s">
+      <c r="A20" s="98"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="11" t="s">
+      <c r="E20" s="43"/>
+      <c r="F20" s="49" t="s">
         <v>49</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="15"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="85"/>
       <c r="J20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="9" t="s">
+      <c r="K20" s="81"/>
+      <c r="L20" s="85"/>
+      <c r="M20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N20" s="15"/>
+      <c r="N20" s="81"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="4" t="s">
+      <c r="A21" s="98"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="4" t="s">
+      <c r="E21" s="43"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="15"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="85"/>
       <c r="J21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="9" t="s">
+      <c r="K21" s="81"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N21" s="15"/>
+      <c r="N21" s="81"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="38"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="4" t="s">
+      <c r="A22" s="98"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="3" t="s">
+      <c r="E22" s="43"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="16"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="86"/>
       <c r="J22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K22" s="15"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="10" t="s">
+      <c r="K22" s="81"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="15"/>
+      <c r="N22" s="81"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="29" t="s">
+      <c r="A23" s="98"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="40" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="11" t="s">
+      <c r="E23" s="43"/>
+      <c r="F23" s="49" t="s">
         <v>50</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="14" t="s">
+      <c r="H23" s="72"/>
+      <c r="I23" s="84" t="s">
         <v>64</v>
       </c>
       <c r="J23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="15"/>
-      <c r="L23" s="14" t="s">
+      <c r="K23" s="81"/>
+      <c r="L23" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="M23" s="9" t="s">
+      <c r="M23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N23" s="15"/>
+      <c r="N23" s="81"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="4" t="s">
+      <c r="A24" s="98"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="4" t="s">
+      <c r="E24" s="43"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="15"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="85"/>
       <c r="J24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="9" t="s">
+      <c r="K24" s="81"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N24" s="15"/>
+      <c r="N24" s="81"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="3" t="s">
+      <c r="A25" s="98"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="26"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="3" t="s">
+      <c r="E25" s="45"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="16"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="86"/>
       <c r="J25" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="10" t="s">
+      <c r="K25" s="83"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N25" s="16"/>
+      <c r="N25" s="83"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
-      <c r="B26" s="14" t="s">
+      <c r="A26" s="98"/>
+      <c r="B26" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="49" t="s">
         <v>35</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="E26" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="49" t="s">
         <v>35</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="I26" s="49" t="s">
         <v>35</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K26" s="14" t="s">
+      <c r="K26" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="L26" s="11" t="s">
+      <c r="L26" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="M26" s="8" t="s">
+      <c r="M26" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="N26" s="14" t="s">
+      <c r="N26" s="87" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="4" t="s">
+      <c r="A27" s="98"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="12"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="50"/>
       <c r="G27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="I27" s="12"/>
+      <c r="I27" s="50"/>
       <c r="J27" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K27" s="15"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="9" t="s">
+      <c r="K27" s="81"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N27" s="15"/>
+      <c r="N27" s="81"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="4" t="s">
+      <c r="A28" s="98"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="4" t="s">
+      <c r="E28" s="43"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="50"/>
       <c r="J28" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="15"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="9" t="s">
+      <c r="K28" s="81"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N28" s="15"/>
+      <c r="N28" s="81"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="4" t="s">
+      <c r="A29" s="98"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="3" t="s">
+      <c r="E29" s="45"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="13"/>
-      <c r="I29" s="12"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="50"/>
       <c r="J29" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K29" s="16"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="10" t="s">
+      <c r="K29" s="83"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N29" s="16"/>
+      <c r="N29" s="83"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="12"/>
+      <c r="A30" s="98"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="50"/>
       <c r="D30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E30" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="12"/>
+      <c r="F30" s="50"/>
       <c r="G30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="11" t="s">
+      <c r="H30" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="I30" s="12"/>
+      <c r="I30" s="50"/>
       <c r="J30" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K30" s="14" t="s">
+      <c r="K30" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="L30" s="12"/>
-      <c r="M30" s="9" t="s">
+      <c r="L30" s="50"/>
+      <c r="M30" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N30" s="14" t="s">
+      <c r="N30" s="87" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="38"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="4" t="s">
+      <c r="A31" s="98"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="25"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="4" t="s">
+      <c r="E31" s="43"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="50"/>
       <c r="J31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K31" s="15"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="9" t="s">
+      <c r="K31" s="81"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N31" s="15"/>
+      <c r="N31" s="81"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="38"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="3" t="s">
+      <c r="A32" s="98"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="26"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="3" t="s">
+      <c r="E32" s="45"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="51"/>
       <c r="J32" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K32" s="15"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="10" t="s">
+      <c r="K32" s="81"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N32" s="15"/>
+      <c r="N32" s="81"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="38"/>
-      <c r="B33" s="14" t="s">
+      <c r="A33" s="98"/>
+      <c r="B33" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="49" t="s">
         <v>36</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E33" s="24" t="s">
+      <c r="E33" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="F33" s="49" t="s">
         <v>36</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="I33" s="49" t="s">
         <v>36</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K33" s="14" t="s">
+      <c r="K33" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="L33" s="11" t="s">
+      <c r="L33" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="M33" s="8" t="s">
+      <c r="M33" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="N33" s="14" t="s">
+      <c r="N33" s="87" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="4" t="s">
+      <c r="A34" s="98"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="25"/>
-      <c r="F34" s="12"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="50"/>
       <c r="G34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H34" s="11" t="s">
+      <c r="H34" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="I34" s="12"/>
+      <c r="I34" s="50"/>
       <c r="J34" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K34" s="15"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="9" t="s">
+      <c r="K34" s="81"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N34" s="15"/>
+      <c r="N34" s="81"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="4" t="s">
+      <c r="A35" s="98"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="25"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="4" t="s">
+      <c r="E35" s="43"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="50"/>
       <c r="J35" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K35" s="15"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="9" t="s">
+      <c r="K35" s="81"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N35" s="15"/>
+      <c r="N35" s="81"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="4" t="s">
+      <c r="A36" s="98"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E36" s="26"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="3" t="s">
+      <c r="E36" s="45"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H36" s="13"/>
-      <c r="I36" s="12"/>
+      <c r="H36" s="73"/>
+      <c r="I36" s="50"/>
       <c r="J36" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K36" s="16"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="10" t="s">
+      <c r="K36" s="83"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N36" s="16"/>
+      <c r="N36" s="83"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="12"/>
+      <c r="A37" s="98"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="50"/>
       <c r="D37" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="24" t="s">
+      <c r="E37" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="F37" s="12"/>
+      <c r="F37" s="50"/>
       <c r="G37" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H37" s="11" t="s">
+      <c r="H37" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="I37" s="12"/>
+      <c r="I37" s="50"/>
       <c r="J37" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K37" s="14" t="s">
+      <c r="K37" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="L37" s="12"/>
-      <c r="M37" s="9" t="s">
+      <c r="L37" s="50"/>
+      <c r="M37" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N37" s="14" t="s">
+      <c r="N37" s="87" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="38"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="4" t="s">
+      <c r="A38" s="98"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="25"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="4" t="s">
+      <c r="E38" s="43"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="50"/>
       <c r="J38" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K38" s="15"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="9" t="s">
+      <c r="K38" s="81"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N38" s="15"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="3" t="s">
+      <c r="N38" s="81"/>
+    </row>
+    <row r="39" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="120"/>
+      <c r="B39" s="121"/>
+      <c r="C39" s="122"/>
+      <c r="D39" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="26"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="3" t="s">
+      <c r="E39" s="124"/>
+      <c r="F39" s="122"/>
+      <c r="G39" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="6" t="s">
+      <c r="H39" s="125"/>
+      <c r="I39" s="122"/>
+      <c r="J39" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="K39" s="15"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="10" t="s">
+      <c r="K39" s="121"/>
+      <c r="L39" s="122"/>
+      <c r="M39" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="N39" s="15"/>
+      <c r="N39" s="121"/>
     </row>
     <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="81" t="s">
+      <c r="A40" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="66" t="s">
+      <c r="B40" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="70" t="s">
+      <c r="C40" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="D40" s="72" t="s">
+      <c r="D40" s="134" t="s">
         <v>76</v>
       </c>
-      <c r="E40" s="73"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="59"/>
-      <c r="L40" s="59"/>
-      <c r="M40" s="59"/>
-      <c r="N40" s="59"/>
+      <c r="E40" s="135"/>
+      <c r="F40" s="133" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" s="136" t="s">
+        <v>83</v>
+      </c>
+      <c r="H40" s="132" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" s="133" t="s">
+        <v>0</v>
+      </c>
+      <c r="J40" s="136" t="s">
+        <v>89</v>
+      </c>
+      <c r="K40" s="137" t="s">
+        <v>92</v>
+      </c>
+      <c r="L40" s="133" t="s">
+        <v>0</v>
+      </c>
+      <c r="M40" s="136" t="s">
+        <v>89</v>
+      </c>
+      <c r="N40" s="132" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="82"/>
-      <c r="B41" s="67"/>
-      <c r="C41" s="71" t="s">
+      <c r="A41" s="99"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="74"/>
-      <c r="E41" s="75"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="59"/>
-      <c r="K41" s="59"/>
-      <c r="L41" s="59"/>
-      <c r="M41" s="59"/>
-      <c r="N41" s="59"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="13"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" s="13"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M41" s="13"/>
+      <c r="N41" s="58"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="82"/>
-      <c r="B42" s="67"/>
-      <c r="C42" s="71" t="s">
+      <c r="A42" s="99"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="74"/>
-      <c r="E42" s="75"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="59"/>
-      <c r="J42" s="59"/>
-      <c r="K42" s="59"/>
-      <c r="L42" s="59"/>
-      <c r="M42" s="59"/>
-      <c r="N42" s="59"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" s="13"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" s="13"/>
+      <c r="K42" s="58"/>
+      <c r="L42" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="M42" s="13"/>
+      <c r="N42" s="58"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="82"/>
-      <c r="B43" s="67"/>
-      <c r="C43" s="71" t="s">
+      <c r="A43" s="99"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="74"/>
-      <c r="E43" s="75"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="59"/>
-      <c r="H43" s="59"/>
-      <c r="I43" s="59"/>
-      <c r="J43" s="59"/>
-      <c r="K43" s="59"/>
-      <c r="L43" s="59"/>
-      <c r="M43" s="59"/>
-      <c r="N43" s="59"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" s="14"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43" s="13"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="M43" s="13"/>
+      <c r="N43" s="58"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="82"/>
-      <c r="B44" s="67"/>
-      <c r="C44" s="71" t="s">
+      <c r="A44" s="99"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="74"/>
-      <c r="E44" s="75"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="59"/>
-      <c r="J44" s="59"/>
-      <c r="K44" s="59"/>
-      <c r="L44" s="59"/>
-      <c r="M44" s="59"/>
-      <c r="N44" s="59"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H44" s="58"/>
+      <c r="I44" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="J44" s="13"/>
+      <c r="K44" s="58"/>
+      <c r="L44" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="M44" s="13"/>
+      <c r="N44" s="58"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="82"/>
-      <c r="B45" s="67"/>
-      <c r="C45" s="71" t="s">
+      <c r="A45" s="99"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="74"/>
-      <c r="E45" s="75"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="59"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="59"/>
-      <c r="L45" s="59"/>
-      <c r="M45" s="59"/>
-      <c r="N45" s="59"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="13"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="J45" s="13"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="M45" s="13"/>
+      <c r="N45" s="58"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="82"/>
-      <c r="B46" s="68"/>
-      <c r="C46" s="69" t="s">
+      <c r="A46" s="99"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="D46" s="76"/>
-      <c r="E46" s="77"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46" s="14"/>
       <c r="H46" s="59"/>
-      <c r="I46" s="59"/>
-      <c r="J46" s="59"/>
+      <c r="I46" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="J46" s="14"/>
       <c r="K46" s="59"/>
-      <c r="L46" s="59"/>
-      <c r="M46" s="59"/>
+      <c r="L46" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="M46" s="14"/>
       <c r="N46" s="59"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="82"/>
-      <c r="B47" s="58" t="s">
+      <c r="A47" s="99"/>
+      <c r="B47" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="70" t="s">
+      <c r="C47" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="78" t="s">
+      <c r="D47" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E47" s="58" t="s">
+      <c r="E47" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="59"/>
-      <c r="J47" s="59"/>
-      <c r="K47" s="59"/>
-      <c r="L47" s="59"/>
-      <c r="M47" s="59"/>
-      <c r="N47" s="59"/>
+      <c r="F47" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H47" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="J47" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="K47" s="88" t="s">
+        <v>92</v>
+      </c>
+      <c r="L47" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="M47" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="N47" s="57" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="82"/>
-      <c r="B48" s="60"/>
-      <c r="C48" s="71" t="s">
+      <c r="A48" s="99"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="79"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="59"/>
-      <c r="I48" s="59"/>
-      <c r="J48" s="59"/>
-      <c r="K48" s="59"/>
-      <c r="L48" s="59"/>
-      <c r="M48" s="59"/>
-      <c r="N48" s="59"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="13"/>
+      <c r="H48" s="58"/>
+      <c r="I48" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="J48" s="13"/>
+      <c r="K48" s="58"/>
+      <c r="L48" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M48" s="13"/>
+      <c r="N48" s="58"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="82"/>
-      <c r="B49" s="60"/>
-      <c r="C49" s="71" t="s">
+      <c r="A49" s="99"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="D49" s="79"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="59"/>
-      <c r="J49" s="59"/>
-      <c r="K49" s="59"/>
-      <c r="L49" s="59"/>
-      <c r="M49" s="59"/>
-      <c r="N49" s="59"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="G49" s="13"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" s="13"/>
+      <c r="K49" s="58"/>
+      <c r="L49" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="M49" s="13"/>
+      <c r="N49" s="58"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="82"/>
-      <c r="B50" s="60"/>
-      <c r="C50" s="71" t="s">
+      <c r="A50" s="99"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="D50" s="79"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="59"/>
-      <c r="I50" s="59"/>
-      <c r="J50" s="59"/>
-      <c r="K50" s="59"/>
-      <c r="L50" s="59"/>
-      <c r="M50" s="59"/>
-      <c r="N50" s="59"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="G50" s="14"/>
+      <c r="H50" s="58"/>
+      <c r="I50" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50" s="13"/>
+      <c r="K50" s="58"/>
+      <c r="L50" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="M50" s="13"/>
+      <c r="N50" s="58"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="82"/>
-      <c r="B51" s="60"/>
-      <c r="C51" s="71" t="s">
+      <c r="A51" s="99"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D51" s="79"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59"/>
-      <c r="H51" s="59"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="59"/>
-      <c r="K51" s="59"/>
-      <c r="L51" s="59"/>
-      <c r="M51" s="59"/>
-      <c r="N51" s="59"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="H51" s="58"/>
+      <c r="I51" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="J51" s="13"/>
+      <c r="K51" s="58"/>
+      <c r="L51" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="M51" s="13"/>
+      <c r="N51" s="58"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="82"/>
-      <c r="B52" s="60"/>
-      <c r="C52" s="71" t="s">
+      <c r="A52" s="99"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="79"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="59"/>
-      <c r="H52" s="59"/>
-      <c r="I52" s="59"/>
-      <c r="J52" s="59"/>
-      <c r="K52" s="59"/>
-      <c r="L52" s="59"/>
-      <c r="M52" s="59"/>
-      <c r="N52" s="59"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" s="13"/>
+      <c r="H52" s="58"/>
+      <c r="I52" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="J52" s="13"/>
+      <c r="K52" s="58"/>
+      <c r="L52" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="M52" s="13"/>
+      <c r="N52" s="58"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="82"/>
-      <c r="B53" s="61"/>
-      <c r="C53" s="69" t="s">
+      <c r="A53" s="99"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="D53" s="80"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="59"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="G53" s="14"/>
       <c r="H53" s="59"/>
-      <c r="I53" s="59"/>
-      <c r="J53" s="59"/>
+      <c r="I53" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="J53" s="14"/>
       <c r="K53" s="59"/>
-      <c r="L53" s="59"/>
-      <c r="M53" s="59"/>
+      <c r="L53" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="M53" s="14"/>
       <c r="N53" s="59"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="82"/>
-      <c r="B54" s="58" t="s">
+      <c r="A54" s="99"/>
+      <c r="B54" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="58" t="s">
+      <c r="C54" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="70" t="s">
+      <c r="D54" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E54" s="58" t="s">
+      <c r="E54" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="F54" s="59"/>
-      <c r="G54" s="59"/>
-      <c r="H54" s="59"/>
-      <c r="I54" s="59"/>
-      <c r="J54" s="59"/>
-      <c r="K54" s="59"/>
-      <c r="L54" s="59"/>
-      <c r="M54" s="59"/>
-      <c r="N54" s="59"/>
+      <c r="F54" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H54" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="I54" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K54" s="88" t="s">
+        <v>93</v>
+      </c>
+      <c r="L54" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="M54" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="N54" s="57" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="82"/>
-      <c r="B55" s="60"/>
-      <c r="C55" s="60"/>
-      <c r="D55" s="71" t="s">
+      <c r="A55" s="99"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E55" s="60"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="59"/>
-      <c r="H55" s="59"/>
-      <c r="I55" s="59"/>
-      <c r="J55" s="59"/>
-      <c r="K55" s="59"/>
-      <c r="L55" s="59"/>
-      <c r="M55" s="59"/>
-      <c r="N55" s="59"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="61"/>
+      <c r="G55" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H55" s="58"/>
+      <c r="I55" s="61"/>
+      <c r="J55" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K55" s="58"/>
+      <c r="L55" s="61"/>
+      <c r="M55" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N55" s="58"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="82"/>
-      <c r="B56" s="60"/>
-      <c r="C56" s="60"/>
-      <c r="D56" s="71" t="s">
+      <c r="A56" s="99"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E56" s="60"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="59"/>
-      <c r="I56" s="59"/>
-      <c r="J56" s="59"/>
-      <c r="K56" s="59"/>
-      <c r="L56" s="59"/>
-      <c r="M56" s="59"/>
-      <c r="N56" s="59"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H56" s="58"/>
+      <c r="I56" s="61"/>
+      <c r="J56" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K56" s="58"/>
+      <c r="L56" s="61"/>
+      <c r="M56" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N56" s="58"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="82"/>
-      <c r="B57" s="60"/>
-      <c r="C57" s="60"/>
-      <c r="D57" s="71" t="s">
+      <c r="A57" s="99"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="60"/>
-      <c r="F57" s="59"/>
-      <c r="G57" s="59"/>
-      <c r="H57" s="59"/>
-      <c r="I57" s="59"/>
-      <c r="J57" s="59"/>
-      <c r="K57" s="59"/>
-      <c r="L57" s="59"/>
-      <c r="M57" s="59"/>
-      <c r="N57" s="59"/>
+      <c r="E57" s="58"/>
+      <c r="F57" s="62"/>
+      <c r="G57" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H57" s="58"/>
+      <c r="I57" s="61"/>
+      <c r="J57" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K57" s="58"/>
+      <c r="L57" s="61"/>
+      <c r="M57" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N57" s="58"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="82"/>
-      <c r="B58" s="60"/>
-      <c r="C58" s="60"/>
-      <c r="D58" s="71" t="s">
+      <c r="A58" s="99"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E58" s="60"/>
-      <c r="F58" s="59"/>
-      <c r="G58" s="59"/>
-      <c r="H58" s="59"/>
-      <c r="I58" s="59"/>
-      <c r="J58" s="59"/>
-      <c r="K58" s="59"/>
-      <c r="L58" s="59"/>
-      <c r="M58" s="59"/>
-      <c r="N58" s="59"/>
+      <c r="E58" s="58"/>
+      <c r="F58" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" s="58"/>
+      <c r="I58" s="61"/>
+      <c r="J58" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K58" s="58"/>
+      <c r="L58" s="61"/>
+      <c r="M58" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N58" s="58"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="82"/>
-      <c r="B59" s="60"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="71" t="s">
+      <c r="A59" s="99"/>
+      <c r="B59" s="58"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E59" s="60"/>
-      <c r="F59" s="59"/>
-      <c r="G59" s="59"/>
-      <c r="H59" s="59"/>
-      <c r="I59" s="59"/>
-      <c r="J59" s="59"/>
-      <c r="K59" s="59"/>
-      <c r="L59" s="59"/>
-      <c r="M59" s="59"/>
-      <c r="N59" s="59"/>
+      <c r="E59" s="58"/>
+      <c r="F59" s="61"/>
+      <c r="G59" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H59" s="58"/>
+      <c r="I59" s="61"/>
+      <c r="J59" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K59" s="58"/>
+      <c r="L59" s="61"/>
+      <c r="M59" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N59" s="58"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="82"/>
-      <c r="B60" s="61"/>
-      <c r="C60" s="61"/>
-      <c r="D60" s="69" t="s">
+      <c r="A60" s="99"/>
+      <c r="B60" s="59"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E60" s="61"/>
-      <c r="F60" s="59"/>
-      <c r="G60" s="59"/>
+      <c r="E60" s="59"/>
+      <c r="F60" s="62"/>
+      <c r="G60" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="H60" s="59"/>
-      <c r="I60" s="59"/>
-      <c r="J60" s="59"/>
+      <c r="I60" s="62"/>
+      <c r="J60" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="K60" s="59"/>
-      <c r="L60" s="59"/>
-      <c r="M60" s="59"/>
+      <c r="L60" s="62"/>
+      <c r="M60" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="N60" s="59"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="82"/>
-      <c r="B61" s="58" t="s">
+      <c r="A61" s="99"/>
+      <c r="B61" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C61" s="58" t="s">
+      <c r="C61" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="70" t="s">
+      <c r="D61" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E61" s="58" t="s">
+      <c r="E61" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="F61" s="59"/>
-      <c r="G61" s="59"/>
-      <c r="H61" s="59"/>
-      <c r="I61" s="59"/>
-      <c r="J61" s="59"/>
-      <c r="K61" s="59"/>
-      <c r="L61" s="59"/>
-      <c r="M61" s="59"/>
-      <c r="N61" s="59"/>
+      <c r="F61" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H61" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="I61" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="J61" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K61" s="88" t="s">
+        <v>94</v>
+      </c>
+      <c r="L61" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="M61" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="N61" s="88" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="82"/>
-      <c r="B62" s="60"/>
-      <c r="C62" s="60"/>
-      <c r="D62" s="71" t="s">
+      <c r="A62" s="99"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="61"/>
+      <c r="D62" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E62" s="60"/>
-      <c r="F62" s="59"/>
-      <c r="G62" s="59"/>
-      <c r="H62" s="59"/>
-      <c r="I62" s="59"/>
-      <c r="J62" s="59"/>
-      <c r="K62" s="59"/>
-      <c r="L62" s="59"/>
-      <c r="M62" s="59"/>
-      <c r="N62" s="59"/>
+      <c r="E62" s="58"/>
+      <c r="F62" s="61"/>
+      <c r="G62" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H62" s="58"/>
+      <c r="I62" s="61"/>
+      <c r="J62" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K62" s="58"/>
+      <c r="L62" s="61"/>
+      <c r="M62" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N62" s="58"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="82"/>
-      <c r="B63" s="60"/>
-      <c r="C63" s="60"/>
-      <c r="D63" s="71" t="s">
+      <c r="A63" s="99"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="61"/>
+      <c r="D63" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E63" s="60"/>
-      <c r="F63" s="59"/>
-      <c r="G63" s="59"/>
-      <c r="H63" s="59"/>
-      <c r="I63" s="59"/>
-      <c r="J63" s="59"/>
-      <c r="K63" s="59"/>
-      <c r="L63" s="59"/>
-      <c r="M63" s="59"/>
-      <c r="N63" s="59"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="61"/>
+      <c r="G63" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H63" s="58"/>
+      <c r="I63" s="61"/>
+      <c r="J63" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K63" s="58"/>
+      <c r="L63" s="61"/>
+      <c r="M63" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N63" s="58"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="82"/>
-      <c r="B64" s="60"/>
-      <c r="C64" s="60"/>
-      <c r="D64" s="71" t="s">
+      <c r="A64" s="99"/>
+      <c r="B64" s="58"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E64" s="60"/>
-      <c r="F64" s="59"/>
-      <c r="G64" s="59"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="61"/>
+      <c r="G64" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="H64" s="59"/>
-      <c r="I64" s="59"/>
-      <c r="J64" s="59"/>
-      <c r="K64" s="59"/>
-      <c r="L64" s="59"/>
-      <c r="M64" s="59"/>
-      <c r="N64" s="59"/>
+      <c r="I64" s="61"/>
+      <c r="J64" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K64" s="58"/>
+      <c r="L64" s="61"/>
+      <c r="M64" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N64" s="58"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="82"/>
-      <c r="B65" s="60"/>
-      <c r="C65" s="60"/>
-      <c r="D65" s="71" t="s">
+      <c r="A65" s="99"/>
+      <c r="B65" s="58"/>
+      <c r="C65" s="61"/>
+      <c r="D65" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E65" s="60"/>
-      <c r="F65" s="59"/>
-      <c r="G65" s="59"/>
-      <c r="H65" s="59"/>
-      <c r="I65" s="59"/>
-      <c r="J65" s="59"/>
-      <c r="K65" s="59"/>
-      <c r="L65" s="59"/>
-      <c r="M65" s="59"/>
-      <c r="N65" s="59"/>
+      <c r="E65" s="58"/>
+      <c r="F65" s="61"/>
+      <c r="G65" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H65" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="I65" s="61"/>
+      <c r="J65" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K65" s="58"/>
+      <c r="L65" s="61"/>
+      <c r="M65" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N65" s="58"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="82"/>
-      <c r="B66" s="60"/>
-      <c r="C66" s="60"/>
-      <c r="D66" s="71" t="s">
+      <c r="A66" s="99"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E66" s="60"/>
-      <c r="F66" s="59"/>
-      <c r="G66" s="59"/>
-      <c r="H66" s="59"/>
-      <c r="I66" s="59"/>
-      <c r="J66" s="59"/>
-      <c r="K66" s="59"/>
-      <c r="L66" s="59"/>
-      <c r="M66" s="59"/>
-      <c r="N66" s="59"/>
+      <c r="E66" s="58"/>
+      <c r="F66" s="61"/>
+      <c r="G66" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66" s="58"/>
+      <c r="I66" s="61"/>
+      <c r="J66" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K66" s="58"/>
+      <c r="L66" s="61"/>
+      <c r="M66" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N66" s="58"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="82"/>
-      <c r="B67" s="61"/>
-      <c r="C67" s="61"/>
-      <c r="D67" s="69" t="s">
+      <c r="A67" s="99"/>
+      <c r="B67" s="59"/>
+      <c r="C67" s="62"/>
+      <c r="D67" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E67" s="61"/>
-      <c r="F67" s="59"/>
-      <c r="G67" s="59"/>
+      <c r="E67" s="59"/>
+      <c r="F67" s="62"/>
+      <c r="G67" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="H67" s="59"/>
-      <c r="I67" s="59"/>
-      <c r="J67" s="59"/>
+      <c r="I67" s="62"/>
+      <c r="J67" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="K67" s="59"/>
-      <c r="L67" s="59"/>
-      <c r="M67" s="59"/>
+      <c r="L67" s="62"/>
+      <c r="M67" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="N67" s="59"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="82"/>
-      <c r="B68" s="58" t="s">
+      <c r="A68" s="99"/>
+      <c r="B68" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C68" s="58" t="s">
+      <c r="C68" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="D68" s="70" t="s">
+      <c r="D68" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E68" s="58" t="s">
+      <c r="E68" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="F68" s="59"/>
-      <c r="G68" s="59"/>
-      <c r="H68" s="59"/>
-      <c r="I68" s="59"/>
-      <c r="J68" s="59"/>
-      <c r="K68" s="59"/>
-      <c r="L68" s="59"/>
-      <c r="M68" s="59"/>
-      <c r="N68" s="59"/>
+      <c r="F68" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H68" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="I68" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="J68" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K68" s="88" t="s">
+        <v>95</v>
+      </c>
+      <c r="L68" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="M68" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="N68" s="88" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="82"/>
-      <c r="B69" s="60"/>
-      <c r="C69" s="60"/>
-      <c r="D69" s="71" t="s">
+      <c r="A69" s="99"/>
+      <c r="B69" s="58"/>
+      <c r="C69" s="61"/>
+      <c r="D69" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E69" s="60"/>
-      <c r="F69" s="59"/>
-      <c r="G69" s="59"/>
-      <c r="H69" s="59"/>
-      <c r="I69" s="59"/>
-      <c r="J69" s="59"/>
-      <c r="K69" s="59"/>
-      <c r="L69" s="59"/>
-      <c r="M69" s="59"/>
-      <c r="N69" s="59"/>
+      <c r="E69" s="58"/>
+      <c r="F69" s="61"/>
+      <c r="G69" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H69" s="58"/>
+      <c r="I69" s="61"/>
+      <c r="J69" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K69" s="58"/>
+      <c r="L69" s="61"/>
+      <c r="M69" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N69" s="58"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="82"/>
-      <c r="B70" s="60"/>
-      <c r="C70" s="60"/>
-      <c r="D70" s="71" t="s">
+      <c r="A70" s="99"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="61"/>
+      <c r="D70" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E70" s="60"/>
-      <c r="F70" s="59"/>
-      <c r="G70" s="59"/>
-      <c r="H70" s="59"/>
-      <c r="I70" s="59"/>
-      <c r="J70" s="59"/>
-      <c r="K70" s="59"/>
-      <c r="L70" s="59"/>
-      <c r="M70" s="59"/>
-      <c r="N70" s="59"/>
+      <c r="E70" s="58"/>
+      <c r="F70" s="61"/>
+      <c r="G70" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H70" s="58"/>
+      <c r="I70" s="61"/>
+      <c r="J70" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K70" s="58"/>
+      <c r="L70" s="61"/>
+      <c r="M70" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N70" s="58"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="82"/>
-      <c r="B71" s="60"/>
-      <c r="C71" s="60"/>
-      <c r="D71" s="71" t="s">
+      <c r="A71" s="99"/>
+      <c r="B71" s="58"/>
+      <c r="C71" s="61"/>
+      <c r="D71" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E71" s="60"/>
-      <c r="F71" s="59"/>
-      <c r="G71" s="59"/>
+      <c r="E71" s="58"/>
+      <c r="F71" s="61"/>
+      <c r="G71" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="H71" s="59"/>
-      <c r="I71" s="59"/>
-      <c r="J71" s="59"/>
-      <c r="K71" s="59"/>
-      <c r="L71" s="59"/>
-      <c r="M71" s="59"/>
-      <c r="N71" s="59"/>
+      <c r="I71" s="61"/>
+      <c r="J71" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K71" s="58"/>
+      <c r="L71" s="61"/>
+      <c r="M71" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N71" s="58"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="82"/>
-      <c r="B72" s="60"/>
-      <c r="C72" s="60"/>
-      <c r="D72" s="71" t="s">
+      <c r="A72" s="99"/>
+      <c r="B72" s="58"/>
+      <c r="C72" s="61"/>
+      <c r="D72" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E72" s="60"/>
-      <c r="F72" s="59"/>
-      <c r="G72" s="59"/>
-      <c r="H72" s="59"/>
-      <c r="I72" s="59"/>
-      <c r="J72" s="59"/>
-      <c r="K72" s="59"/>
-      <c r="L72" s="59"/>
-      <c r="M72" s="59"/>
-      <c r="N72" s="59"/>
+      <c r="E72" s="58"/>
+      <c r="F72" s="61"/>
+      <c r="G72" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H72" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="I72" s="61"/>
+      <c r="J72" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K72" s="58"/>
+      <c r="L72" s="61"/>
+      <c r="M72" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N72" s="58"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="82"/>
-      <c r="B73" s="60"/>
-      <c r="C73" s="60"/>
-      <c r="D73" s="71" t="s">
+      <c r="A73" s="99"/>
+      <c r="B73" s="58"/>
+      <c r="C73" s="61"/>
+      <c r="D73" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E73" s="60"/>
-      <c r="F73" s="59"/>
-      <c r="G73" s="59"/>
-      <c r="H73" s="59"/>
-      <c r="I73" s="59"/>
-      <c r="J73" s="59"/>
-      <c r="K73" s="59"/>
-      <c r="L73" s="59"/>
-      <c r="M73" s="59"/>
-      <c r="N73" s="59"/>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="83"/>
-      <c r="B74" s="61"/>
-      <c r="C74" s="61"/>
-      <c r="D74" s="69" t="s">
+      <c r="E73" s="58"/>
+      <c r="F73" s="61"/>
+      <c r="G73" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H73" s="58"/>
+      <c r="I73" s="61"/>
+      <c r="J73" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K73" s="58"/>
+      <c r="L73" s="61"/>
+      <c r="M73" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N73" s="58"/>
+    </row>
+    <row r="74" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="138"/>
+      <c r="B74" s="139"/>
+      <c r="C74" s="140"/>
+      <c r="D74" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="E74" s="61"/>
-      <c r="F74" s="59"/>
-      <c r="G74" s="59"/>
-      <c r="H74" s="59"/>
-      <c r="I74" s="59"/>
-      <c r="J74" s="59"/>
-      <c r="K74" s="59"/>
-      <c r="L74" s="59"/>
-      <c r="M74" s="59"/>
-      <c r="N74" s="59"/>
+      <c r="E74" s="139"/>
+      <c r="F74" s="140"/>
+      <c r="G74" s="141" t="s">
+        <v>21</v>
+      </c>
+      <c r="H74" s="139"/>
+      <c r="I74" s="140"/>
+      <c r="J74" s="141" t="s">
+        <v>24</v>
+      </c>
+      <c r="K74" s="139"/>
+      <c r="L74" s="140"/>
+      <c r="M74" s="141" t="s">
+        <v>24</v>
+      </c>
+      <c r="N74" s="139"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="30" t="s">
+      <c r="A75" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="B75" s="62" t="s">
+      <c r="B75" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="C75" s="63"/>
-      <c r="D75" s="63"/>
-      <c r="E75" s="63"/>
-      <c r="F75" s="63"/>
-      <c r="G75" s="63"/>
-      <c r="H75" s="63"/>
-      <c r="I75" s="63"/>
-      <c r="J75" s="63"/>
-      <c r="K75" s="63"/>
-      <c r="L75" s="63"/>
-      <c r="M75" s="63"/>
-      <c r="N75" s="63"/>
+      <c r="C75" s="128"/>
+      <c r="D75" s="129"/>
+      <c r="E75" s="130"/>
+      <c r="F75" s="128"/>
+      <c r="G75" s="129"/>
+      <c r="H75" s="130"/>
+      <c r="I75" s="128"/>
+      <c r="J75" s="129"/>
+      <c r="K75" s="130"/>
+      <c r="L75" s="128"/>
+      <c r="M75" s="129"/>
+      <c r="N75" s="130"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="30"/>
-      <c r="B76" s="64"/>
+      <c r="A76" s="100"/>
+      <c r="B76" s="102"/>
       <c r="C76" s="63"/>
-      <c r="D76" s="63"/>
-      <c r="E76" s="63"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="64"/>
       <c r="F76" s="63"/>
-      <c r="G76" s="63"/>
-      <c r="H76" s="63"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="64"/>
       <c r="I76" s="63"/>
-      <c r="J76" s="63"/>
-      <c r="K76" s="63"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="64"/>
       <c r="L76" s="63"/>
-      <c r="M76" s="63"/>
-      <c r="N76" s="63"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="64"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="30"/>
-      <c r="B77" s="65"/>
+      <c r="A77" s="100"/>
+      <c r="B77" s="103"/>
       <c r="C77" s="63"/>
-      <c r="D77" s="63"/>
-      <c r="E77" s="63"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="64"/>
       <c r="F77" s="63"/>
-      <c r="G77" s="63"/>
-      <c r="H77" s="63"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="64"/>
       <c r="I77" s="63"/>
-      <c r="J77" s="63"/>
-      <c r="K77" s="63"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="64"/>
       <c r="L77" s="63"/>
-      <c r="M77" s="63"/>
-      <c r="N77" s="63"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="64"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="30"/>
-      <c r="B78" s="62" t="s">
+      <c r="A78" s="100"/>
+      <c r="B78" s="101" t="s">
         <v>2</v>
       </c>
       <c r="C78" s="63"/>
-      <c r="D78" s="63"/>
-      <c r="E78" s="63"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="64"/>
       <c r="F78" s="63"/>
-      <c r="G78" s="63"/>
-      <c r="H78" s="63"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="64"/>
       <c r="I78" s="63"/>
-      <c r="J78" s="63"/>
-      <c r="K78" s="63"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="64"/>
       <c r="L78" s="63"/>
-      <c r="M78" s="63"/>
-      <c r="N78" s="63"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="64"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="30"/>
-      <c r="B79" s="64"/>
+      <c r="A79" s="100"/>
+      <c r="B79" s="102"/>
       <c r="C79" s="63"/>
-      <c r="D79" s="63"/>
-      <c r="E79" s="63"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="64"/>
       <c r="F79" s="63"/>
-      <c r="G79" s="63"/>
-      <c r="H79" s="63"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="64"/>
       <c r="I79" s="63"/>
-      <c r="J79" s="63"/>
-      <c r="K79" s="63"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="64"/>
       <c r="L79" s="63"/>
-      <c r="M79" s="63"/>
-      <c r="N79" s="63"/>
+      <c r="M79" s="8"/>
+      <c r="N79" s="64"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="30"/>
-      <c r="B80" s="65"/>
+      <c r="A80" s="100"/>
+      <c r="B80" s="103"/>
       <c r="C80" s="63"/>
-      <c r="D80" s="63"/>
-      <c r="E80" s="63"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="64"/>
       <c r="F80" s="63"/>
-      <c r="G80" s="63"/>
-      <c r="H80" s="63"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="64"/>
       <c r="I80" s="63"/>
-      <c r="J80" s="63"/>
-      <c r="K80" s="63"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="64"/>
       <c r="L80" s="63"/>
-      <c r="M80" s="63"/>
-      <c r="N80" s="63"/>
+      <c r="M80" s="8"/>
+      <c r="N80" s="64"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="30"/>
-      <c r="B81" s="62" t="s">
+      <c r="A81" s="100"/>
+      <c r="B81" s="101" t="s">
         <v>12</v>
       </c>
       <c r="C81" s="63"/>
-      <c r="D81" s="63"/>
-      <c r="E81" s="63"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="64"/>
       <c r="F81" s="63"/>
-      <c r="G81" s="63"/>
-      <c r="H81" s="63"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="64"/>
       <c r="I81" s="63"/>
-      <c r="J81" s="63"/>
-      <c r="K81" s="63"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="64"/>
       <c r="L81" s="63"/>
-      <c r="M81" s="63"/>
-      <c r="N81" s="63"/>
+      <c r="M81" s="8"/>
+      <c r="N81" s="64"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="30"/>
-      <c r="B82" s="64"/>
+      <c r="A82" s="100"/>
+      <c r="B82" s="102"/>
       <c r="C82" s="63"/>
-      <c r="D82" s="63"/>
-      <c r="E82" s="63"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="64"/>
       <c r="F82" s="63"/>
-      <c r="G82" s="63"/>
-      <c r="H82" s="63"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="64"/>
       <c r="I82" s="63"/>
-      <c r="J82" s="63"/>
-      <c r="K82" s="63"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="64"/>
       <c r="L82" s="63"/>
-      <c r="M82" s="63"/>
-      <c r="N82" s="63"/>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="30"/>
-      <c r="B83" s="65"/>
-      <c r="C83" s="63"/>
-      <c r="D83" s="63"/>
-      <c r="E83" s="63"/>
-      <c r="F83" s="63"/>
-      <c r="G83" s="63"/>
-      <c r="H83" s="63"/>
-      <c r="I83" s="63"/>
-      <c r="J83" s="63"/>
-      <c r="K83" s="63"/>
-      <c r="L83" s="63"/>
-      <c r="M83" s="63"/>
-      <c r="N83" s="63"/>
+      <c r="M82" s="8"/>
+      <c r="N82" s="64"/>
+    </row>
+    <row r="83" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="104"/>
+      <c r="B83" s="105"/>
+      <c r="C83" s="65"/>
+      <c r="D83" s="66"/>
+      <c r="E83" s="67"/>
+      <c r="F83" s="65"/>
+      <c r="G83" s="66"/>
+      <c r="H83" s="67"/>
+      <c r="I83" s="65"/>
+      <c r="J83" s="66"/>
+      <c r="K83" s="67"/>
+      <c r="L83" s="65"/>
+      <c r="M83" s="66"/>
+      <c r="N83" s="67"/>
     </row>
   </sheetData>
-  <mergeCells count="110">
-    <mergeCell ref="B61:B67"/>
-    <mergeCell ref="B68:B74"/>
-    <mergeCell ref="A40:A74"/>
-    <mergeCell ref="C61:C67"/>
-    <mergeCell ref="E61:E67"/>
-    <mergeCell ref="C68:C74"/>
-    <mergeCell ref="E68:E74"/>
-    <mergeCell ref="D40:E46"/>
-    <mergeCell ref="D47:D53"/>
-    <mergeCell ref="E47:E53"/>
-    <mergeCell ref="C54:C60"/>
-    <mergeCell ref="E54:E60"/>
-    <mergeCell ref="I26:I32"/>
-    <mergeCell ref="I33:I39"/>
-    <mergeCell ref="K26:K29"/>
-    <mergeCell ref="K30:K32"/>
-    <mergeCell ref="K33:K36"/>
-    <mergeCell ref="K37:K39"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="K12:K18"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="K19:K25"/>
+  <mergeCells count="145">
+    <mergeCell ref="M40:M46"/>
+    <mergeCell ref="N40:N46"/>
+    <mergeCell ref="M47:M53"/>
+    <mergeCell ref="N47:N53"/>
+    <mergeCell ref="L54:L60"/>
+    <mergeCell ref="N54:N60"/>
+    <mergeCell ref="L61:L67"/>
+    <mergeCell ref="L68:L74"/>
+    <mergeCell ref="N61:N67"/>
+    <mergeCell ref="N68:N74"/>
+    <mergeCell ref="F61:F67"/>
+    <mergeCell ref="F68:F74"/>
+    <mergeCell ref="H61:H64"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="H68:H71"/>
+    <mergeCell ref="H72:H74"/>
+    <mergeCell ref="J40:J46"/>
+    <mergeCell ref="K40:K46"/>
+    <mergeCell ref="K47:K53"/>
+    <mergeCell ref="J47:J53"/>
+    <mergeCell ref="I54:I60"/>
+    <mergeCell ref="K54:K60"/>
+    <mergeCell ref="I61:I67"/>
+    <mergeCell ref="I68:I74"/>
+    <mergeCell ref="K61:K67"/>
+    <mergeCell ref="K68:K74"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="H40:H46"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="F58:F60"/>
+    <mergeCell ref="H54:H60"/>
+    <mergeCell ref="G47:G50"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="H47:H53"/>
+    <mergeCell ref="L19:L22"/>
+    <mergeCell ref="N19:N25"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="L26:L32"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="N30:N32"/>
+    <mergeCell ref="L33:L39"/>
+    <mergeCell ref="N33:N36"/>
+    <mergeCell ref="N37:N39"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="M5:M8"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="N5:N11"/>
+    <mergeCell ref="M12:M15"/>
+    <mergeCell ref="N12:N18"/>
+    <mergeCell ref="M16:M18"/>
+    <mergeCell ref="F26:F32"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="E19:E25"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="F33:F39"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="H19:H25"/>
+    <mergeCell ref="A75:A83"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B40:B46"/>
+    <mergeCell ref="B47:B53"/>
+    <mergeCell ref="B54:B60"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="A5:A39"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="H12:H18"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="E12:E18"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="C26:C32"/>
     <mergeCell ref="J5:J8"/>
     <mergeCell ref="J9:J11"/>
     <mergeCell ref="I2:K2"/>
@@ -3306,68 +4422,30 @@
     <mergeCell ref="G6:G8"/>
     <mergeCell ref="G9:G11"/>
     <mergeCell ref="H5:H11"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="A5:A39"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="H12:H18"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="A75:A83"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B40:B46"/>
-    <mergeCell ref="B47:B53"/>
-    <mergeCell ref="B54:B60"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="E12:E18"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="C26:C32"/>
-    <mergeCell ref="F26:F32"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="E19:E25"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="F33:F39"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="H37:H39"/>
-    <mergeCell ref="H19:H25"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="M5:M8"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="N5:N11"/>
-    <mergeCell ref="M12:M15"/>
-    <mergeCell ref="N12:N18"/>
-    <mergeCell ref="M16:M18"/>
-    <mergeCell ref="L19:L22"/>
-    <mergeCell ref="N19:N25"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="L26:L32"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="N30:N32"/>
-    <mergeCell ref="L33:L39"/>
-    <mergeCell ref="N33:N36"/>
-    <mergeCell ref="N37:N39"/>
+    <mergeCell ref="I26:I32"/>
+    <mergeCell ref="I33:I39"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="K33:K36"/>
+    <mergeCell ref="K37:K39"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="K12:K18"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="K19:K25"/>
+    <mergeCell ref="B61:B67"/>
+    <mergeCell ref="B68:B74"/>
+    <mergeCell ref="A40:A74"/>
+    <mergeCell ref="C61:C67"/>
+    <mergeCell ref="E61:E67"/>
+    <mergeCell ref="C68:C74"/>
+    <mergeCell ref="E68:E74"/>
+    <mergeCell ref="D40:E46"/>
+    <mergeCell ref="D47:D53"/>
+    <mergeCell ref="E47:E53"/>
+    <mergeCell ref="C54:C60"/>
+    <mergeCell ref="E54:E60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/scheme.xlsx
+++ b/scheme.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="110">
   <si>
     <t>I</t>
   </si>
@@ -681,6 +681,49 @@
   </si>
   <si>
     <t>hadn't</t>
+  </si>
+  <si>
+    <t>yesterday, last week (month, year), long ago</t>
+  </si>
+  <si>
+    <t>yesterday at 3 p.m., yesterday from 6 till 7, when you came…</t>
+  </si>
+  <si>
+    <t>yesterday be 3 p.m., before sometime in the past…</t>
+  </si>
+  <si>
+    <t>yesterday by 3 p.m., for some time in the past…</t>
+  </si>
+  <si>
+    <t>tomorrow, next week (month, year)</t>
+  </si>
+  <si>
+    <t>tomorrow at 3 p.m., tomorrow from 6 till 7, when you come</t>
+  </si>
+  <si>
+    <t>tomorrow by 3 p.m., by sometime  in the future</t>
+  </si>
+  <si>
+    <t>tomorrow since 3 p.m., for some time in the future</t>
+  </si>
+  <si>
+    <t>will ('ll)</t>
+  </si>
+  <si>
+    <t>shall/will ('ll)</t>
+  </si>
+  <si>
+    <t>shall not/will not 
+(shant't/won't)</t>
+  </si>
+  <si>
+    <t>will not (won't)</t>
+  </si>
+  <si>
+    <t>Will</t>
+  </si>
+  <si>
+    <t>Shall/Will</t>
   </si>
 </sst>
 </file>
@@ -1422,7 +1465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1449,108 +1492,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1560,259 +1501,379 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2101,21 +2162,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N83"/>
+  <dimension ref="A1:N97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I79" sqref="I79"/>
+      <pane ySplit="3" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H84" sqref="H84:H90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.625" bestFit="1" customWidth="1"/>
@@ -2126,2254 +2188,2606 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="34" t="s">
+      <c r="B1" s="109"/>
+      <c r="C1" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="68" t="s">
+      <c r="D1" s="97"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="69"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="75" t="s">
+      <c r="G1" s="100"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="76"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="90" t="s">
+      <c r="J1" s="103"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="91"/>
-      <c r="N1" s="92"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="107"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="37" t="s">
+      <c r="B2" s="115"/>
+      <c r="C2" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="37" t="s">
+      <c r="D2" s="67"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="37" t="s">
+      <c r="G2" s="67"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="27"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="37" t="s">
+      <c r="J2" s="67"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="27"/>
-      <c r="N2" s="38"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="68"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="96"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="37" t="s">
+      <c r="A3" s="116"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="37" t="s">
+      <c r="D3" s="67"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="37" t="s">
+      <c r="G3" s="67"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="27"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="37" t="s">
+      <c r="J3" s="67"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="M3" s="27"/>
-      <c r="N3" s="38"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="68"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="107"/>
-      <c r="C4" s="106" t="s">
+      <c r="B4" s="71"/>
+      <c r="C4" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="108"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="106" t="s">
+      <c r="D4" s="70"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="108"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="106" t="s">
+      <c r="G4" s="70"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="108"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="106" t="s">
+      <c r="J4" s="70"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="M4" s="108"/>
-      <c r="N4" s="107"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="71"/>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="111" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="113" t="s">
+      <c r="D5" s="129"/>
+      <c r="E5" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="114" t="s">
+      <c r="F5" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="115" t="s">
+      <c r="G5" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="116" t="s">
+      <c r="H5" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="117" t="s">
+      <c r="I5" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="118" t="s">
+      <c r="J5" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="K5" s="119" t="s">
+      <c r="K5" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="L5" s="117" t="s">
+      <c r="L5" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="118" t="s">
+      <c r="M5" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="119" t="s">
+      <c r="N5" s="76" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="98"/>
-      <c r="B6" s="81"/>
-      <c r="C6" s="42" t="s">
+      <c r="A6" s="112"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="46" t="s">
+      <c r="D6" s="124"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="123" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="72"/>
-      <c r="I6" s="80" t="s">
+      <c r="H6" s="85"/>
+      <c r="I6" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="24"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="80" t="s">
+      <c r="J6" s="73"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="24"/>
-      <c r="N6" s="81"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="58"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="98"/>
-      <c r="B7" s="81"/>
-      <c r="C7" s="42" t="s">
+      <c r="A7" s="112"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="47" t="s">
+      <c r="D7" s="124"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="80" t="s">
+      <c r="G7" s="124"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="80" t="s">
+      <c r="J7" s="73"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="24"/>
-      <c r="N7" s="81"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="58"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="98"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="44" t="s">
+      <c r="A8" s="112"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="48" t="s">
+      <c r="D8" s="125"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="82" t="s">
+      <c r="G8" s="125"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="82" t="s">
+      <c r="J8" s="74"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="25"/>
-      <c r="N8" s="81"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="58"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="98"/>
-      <c r="B9" s="81"/>
-      <c r="C9" s="42" t="s">
+      <c r="A9" s="112"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="41" t="s">
+      <c r="D9" s="124"/>
+      <c r="E9" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="72"/>
-      <c r="I9" s="80" t="s">
+      <c r="H9" s="85"/>
+      <c r="I9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="J9" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="K9" s="81"/>
-      <c r="L9" s="80" t="s">
+      <c r="K9" s="58"/>
+      <c r="L9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="23" t="s">
+      <c r="M9" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="N9" s="81"/>
+      <c r="N9" s="58"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="98"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="42" t="s">
+      <c r="A10" s="112"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="47" t="s">
+      <c r="D10" s="124"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="80" t="s">
+      <c r="G10" s="121"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="80" t="s">
+      <c r="J10" s="73"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="24"/>
-      <c r="N10" s="81"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="58"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="98"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="44" t="s">
+      <c r="A11" s="112"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="48" t="s">
+      <c r="D11" s="124"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="82" t="s">
+      <c r="G11" s="122"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="82" t="s">
+      <c r="J11" s="74"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="25"/>
-      <c r="N11" s="83"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="59"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="98"/>
-      <c r="B12" s="87" t="s">
+      <c r="A12" s="112"/>
+      <c r="B12" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="46" t="s">
+      <c r="F12" s="12" t="s">
         <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="71" t="s">
+      <c r="H12" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="78" t="s">
+      <c r="I12" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="26" t="s">
+      <c r="J12" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="79" t="s">
+      <c r="K12" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="78" t="s">
+      <c r="L12" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="M12" s="26" t="s">
+      <c r="M12" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="N12" s="79" t="s">
+      <c r="N12" s="57" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="98"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="47" t="s">
+      <c r="A13" s="112"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="46" t="s">
+      <c r="D13" s="119"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="123" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="72"/>
-      <c r="I13" s="80" t="s">
+      <c r="H13" s="85"/>
+      <c r="I13" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="24"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="80" t="s">
+      <c r="J13" s="73"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="M13" s="24"/>
-      <c r="N13" s="81"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="58"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="98"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="47" t="s">
+      <c r="A14" s="112"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="47" t="s">
+      <c r="D14" s="119"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="80" t="s">
+      <c r="G14" s="124"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="24"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="80" t="s">
+      <c r="J14" s="73"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="M14" s="24"/>
-      <c r="N14" s="81"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="58"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="98"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="47" t="s">
+      <c r="A15" s="112"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="48" t="s">
+      <c r="D15" s="120"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="82" t="s">
+      <c r="G15" s="125"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="82" t="s">
+      <c r="J15" s="74"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="M15" s="25"/>
-      <c r="N15" s="81"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="58"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="98"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="46" t="s">
+      <c r="A16" s="112"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="43"/>
-      <c r="F16" s="46" t="s">
+      <c r="E16" s="79"/>
+      <c r="F16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="72"/>
-      <c r="I16" s="80" t="s">
+      <c r="H16" s="85"/>
+      <c r="I16" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="26" t="s">
+      <c r="J16" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="K16" s="81"/>
-      <c r="L16" s="80" t="s">
+      <c r="K16" s="58"/>
+      <c r="L16" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="M16" s="26" t="s">
+      <c r="M16" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="N16" s="81"/>
+      <c r="N16" s="58"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="98"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="47" t="s">
+      <c r="A17" s="112"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="47" t="s">
+      <c r="D17" s="121"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="80" t="s">
+      <c r="G17" s="121"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="24"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="80" t="s">
+      <c r="J17" s="73"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="M17" s="24"/>
-      <c r="N17" s="81"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="58"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="98"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="48" t="s">
+      <c r="A18" s="112"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="48" t="s">
+      <c r="D18" s="122"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="22"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="82" t="s">
+      <c r="G18" s="122"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="25"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="82" t="s">
+      <c r="J18" s="74"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="M18" s="25"/>
-      <c r="N18" s="83"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="59"/>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="98"/>
-      <c r="B19" s="87" t="s">
+      <c r="A19" s="112"/>
+      <c r="B19" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="81" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E19" s="41" t="s">
+      <c r="E19" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="46" t="s">
+      <c r="F19" s="12" t="s">
         <v>48</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H19" s="71" t="s">
+      <c r="H19" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="I19" s="84" t="s">
+      <c r="I19" s="54" t="s">
         <v>63</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K19" s="79" t="s">
+      <c r="K19" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="L19" s="84" t="s">
+      <c r="L19" s="54" t="s">
         <v>63</v>
       </c>
       <c r="M19" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="N19" s="79" t="s">
+      <c r="N19" s="57" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="98"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="42"/>
+      <c r="A20" s="112"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="81"/>
       <c r="D20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="43"/>
-      <c r="F20" s="49" t="s">
+      <c r="E20" s="79"/>
+      <c r="F20" s="60" t="s">
         <v>49</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="72"/>
-      <c r="I20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="55"/>
       <c r="J20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="81"/>
-      <c r="L20" s="85"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="55"/>
       <c r="M20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N20" s="81"/>
+      <c r="N20" s="58"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="98"/>
-      <c r="B21" s="81"/>
-      <c r="C21" s="42"/>
+      <c r="A21" s="112"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="81"/>
       <c r="D21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="43"/>
-      <c r="F21" s="50"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="61"/>
       <c r="G21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="72"/>
-      <c r="I21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="55"/>
       <c r="J21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="81"/>
-      <c r="L21" s="85"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="55"/>
       <c r="M21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N21" s="81"/>
+      <c r="N21" s="58"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="98"/>
-      <c r="B22" s="81"/>
-      <c r="C22" s="44"/>
+      <c r="A22" s="112"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="82"/>
       <c r="D22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="51"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="62"/>
       <c r="G22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="72"/>
-      <c r="I22" s="86"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="56"/>
       <c r="J22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K22" s="81"/>
-      <c r="L22" s="86"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="56"/>
       <c r="M22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="81"/>
+      <c r="N22" s="58"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="98"/>
-      <c r="B23" s="81"/>
-      <c r="C23" s="40" t="s">
+      <c r="A23" s="112"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="83" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="43"/>
-      <c r="F23" s="49" t="s">
+      <c r="E23" s="79"/>
+      <c r="F23" s="60" t="s">
         <v>50</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H23" s="72"/>
-      <c r="I23" s="84" t="s">
+      <c r="H23" s="85"/>
+      <c r="I23" s="54" t="s">
         <v>64</v>
       </c>
       <c r="J23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="81"/>
-      <c r="L23" s="84" t="s">
+      <c r="K23" s="58"/>
+      <c r="L23" s="54" t="s">
         <v>64</v>
       </c>
       <c r="M23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N23" s="81"/>
+      <c r="N23" s="58"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="98"/>
-      <c r="B24" s="81"/>
-      <c r="C24" s="42"/>
+      <c r="A24" s="112"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="81"/>
       <c r="D24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="43"/>
-      <c r="F24" s="50"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="61"/>
       <c r="G24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="72"/>
-      <c r="I24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="55"/>
       <c r="J24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="81"/>
-      <c r="L24" s="85"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="55"/>
       <c r="M24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N24" s="81"/>
+      <c r="N24" s="58"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="98"/>
-      <c r="B25" s="83"/>
-      <c r="C25" s="44"/>
+      <c r="A25" s="112"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="82"/>
       <c r="D25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="45"/>
-      <c r="F25" s="51"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="62"/>
       <c r="G25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="73"/>
-      <c r="I25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="56"/>
       <c r="J25" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="83"/>
-      <c r="L25" s="86"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="56"/>
       <c r="M25" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N25" s="83"/>
+      <c r="N25" s="59"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="98"/>
-      <c r="B26" s="87" t="s">
+      <c r="A26" s="112"/>
+      <c r="B26" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="60" t="s">
         <v>35</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E26" s="41" t="s">
+      <c r="E26" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="49" t="s">
+      <c r="F26" s="60" t="s">
         <v>35</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H26" s="74" t="s">
+      <c r="H26" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I26" s="49" t="s">
+      <c r="I26" s="60" t="s">
         <v>35</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K26" s="87" t="s">
+      <c r="K26" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="L26" s="49" t="s">
+      <c r="L26" s="60" t="s">
         <v>35</v>
       </c>
       <c r="M26" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="N26" s="87" t="s">
+      <c r="N26" s="63" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="98"/>
-      <c r="B27" s="81"/>
-      <c r="C27" s="50"/>
+      <c r="A27" s="112"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="61"/>
       <c r="D27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="43"/>
-      <c r="F27" s="50"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="61"/>
       <c r="G27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="71" t="s">
+      <c r="H27" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="I27" s="50"/>
+      <c r="I27" s="61"/>
       <c r="J27" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K27" s="81"/>
-      <c r="L27" s="50"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="61"/>
       <c r="M27" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N27" s="81"/>
+      <c r="N27" s="58"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="98"/>
-      <c r="B28" s="81"/>
-      <c r="C28" s="50"/>
+      <c r="A28" s="112"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="43"/>
-      <c r="F28" s="50"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="61"/>
       <c r="G28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="72"/>
-      <c r="I28" s="50"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="61"/>
       <c r="J28" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="81"/>
-      <c r="L28" s="50"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="61"/>
       <c r="M28" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N28" s="81"/>
+      <c r="N28" s="58"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="98"/>
-      <c r="B29" s="81"/>
-      <c r="C29" s="50"/>
+      <c r="A29" s="112"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="61"/>
       <c r="D29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="45"/>
-      <c r="F29" s="50"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="61"/>
       <c r="G29" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="73"/>
-      <c r="I29" s="50"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="61"/>
       <c r="J29" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K29" s="83"/>
-      <c r="L29" s="50"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="61"/>
       <c r="M29" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N29" s="83"/>
+      <c r="N29" s="59"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="98"/>
-      <c r="B30" s="81"/>
-      <c r="C30" s="50"/>
+      <c r="A30" s="112"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="61"/>
       <c r="D30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="41" t="s">
+      <c r="E30" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="50"/>
+      <c r="F30" s="61"/>
       <c r="G30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="71" t="s">
+      <c r="H30" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="I30" s="50"/>
+      <c r="I30" s="61"/>
       <c r="J30" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K30" s="87" t="s">
+      <c r="K30" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="L30" s="50"/>
+      <c r="L30" s="61"/>
       <c r="M30" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N30" s="87" t="s">
+      <c r="N30" s="63" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="98"/>
-      <c r="B31" s="81"/>
-      <c r="C31" s="50"/>
+      <c r="A31" s="112"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="61"/>
       <c r="D31" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="43"/>
-      <c r="F31" s="50"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="61"/>
       <c r="G31" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H31" s="72"/>
-      <c r="I31" s="50"/>
+      <c r="H31" s="85"/>
+      <c r="I31" s="61"/>
       <c r="J31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K31" s="81"/>
-      <c r="L31" s="50"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="61"/>
       <c r="M31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N31" s="81"/>
+      <c r="N31" s="58"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="98"/>
-      <c r="B32" s="83"/>
-      <c r="C32" s="51"/>
+      <c r="A32" s="112"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="62"/>
       <c r="D32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="45"/>
-      <c r="F32" s="51"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="62"/>
       <c r="G32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="73"/>
-      <c r="I32" s="51"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="62"/>
       <c r="J32" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K32" s="81"/>
-      <c r="L32" s="51"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="62"/>
       <c r="M32" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N32" s="81"/>
+      <c r="N32" s="58"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="98"/>
-      <c r="B33" s="87" t="s">
+      <c r="A33" s="112"/>
+      <c r="B33" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="49" t="s">
+      <c r="C33" s="60" t="s">
         <v>36</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E33" s="41" t="s">
+      <c r="E33" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="49" t="s">
+      <c r="F33" s="60" t="s">
         <v>36</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H33" s="74" t="s">
+      <c r="H33" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="I33" s="49" t="s">
+      <c r="I33" s="60" t="s">
         <v>36</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K33" s="87" t="s">
+      <c r="K33" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="L33" s="49" t="s">
+      <c r="L33" s="60" t="s">
         <v>36</v>
       </c>
       <c r="M33" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="N33" s="87" t="s">
+      <c r="N33" s="63" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="98"/>
-      <c r="B34" s="81"/>
-      <c r="C34" s="50"/>
+      <c r="A34" s="112"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="61"/>
       <c r="D34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="43"/>
-      <c r="F34" s="50"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="61"/>
       <c r="G34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H34" s="71" t="s">
+      <c r="H34" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="I34" s="50"/>
+      <c r="I34" s="61"/>
       <c r="J34" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K34" s="81"/>
-      <c r="L34" s="50"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="61"/>
       <c r="M34" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N34" s="81"/>
+      <c r="N34" s="58"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="98"/>
-      <c r="B35" s="81"/>
-      <c r="C35" s="50"/>
+      <c r="A35" s="112"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="61"/>
       <c r="D35" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="43"/>
-      <c r="F35" s="50"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="61"/>
       <c r="G35" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="72"/>
-      <c r="I35" s="50"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="61"/>
       <c r="J35" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K35" s="81"/>
-      <c r="L35" s="50"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="61"/>
       <c r="M35" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N35" s="81"/>
+      <c r="N35" s="58"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="98"/>
-      <c r="B36" s="81"/>
-      <c r="C36" s="50"/>
+      <c r="A36" s="112"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="61"/>
       <c r="D36" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E36" s="45"/>
-      <c r="F36" s="50"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="61"/>
       <c r="G36" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H36" s="73"/>
-      <c r="I36" s="50"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="61"/>
       <c r="J36" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K36" s="83"/>
-      <c r="L36" s="50"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="61"/>
       <c r="M36" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N36" s="83"/>
+      <c r="N36" s="59"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="98"/>
-      <c r="B37" s="81"/>
-      <c r="C37" s="50"/>
+      <c r="A37" s="112"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="61"/>
       <c r="D37" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="41" t="s">
+      <c r="E37" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="F37" s="50"/>
+      <c r="F37" s="61"/>
       <c r="G37" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H37" s="71" t="s">
+      <c r="H37" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="I37" s="50"/>
+      <c r="I37" s="61"/>
       <c r="J37" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K37" s="87" t="s">
+      <c r="K37" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="L37" s="50"/>
+      <c r="L37" s="61"/>
       <c r="M37" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N37" s="87" t="s">
+      <c r="N37" s="63" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="98"/>
-      <c r="B38" s="81"/>
-      <c r="C38" s="50"/>
+      <c r="A38" s="112"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="61"/>
       <c r="D38" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="43"/>
-      <c r="F38" s="50"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="61"/>
       <c r="G38" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H38" s="72"/>
-      <c r="I38" s="50"/>
+      <c r="H38" s="85"/>
+      <c r="I38" s="61"/>
       <c r="J38" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K38" s="81"/>
-      <c r="L38" s="50"/>
+      <c r="K38" s="58"/>
+      <c r="L38" s="61"/>
       <c r="M38" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N38" s="81"/>
+      <c r="N38" s="58"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="120"/>
-      <c r="B39" s="121"/>
-      <c r="C39" s="122"/>
-      <c r="D39" s="123" t="s">
+      <c r="A39" s="113"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="124"/>
-      <c r="F39" s="122"/>
-      <c r="G39" s="123" t="s">
+      <c r="E39" s="95"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="125"/>
-      <c r="I39" s="122"/>
-      <c r="J39" s="126" t="s">
+      <c r="H39" s="87"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="K39" s="121"/>
-      <c r="L39" s="122"/>
-      <c r="M39" s="126" t="s">
+      <c r="K39" s="65"/>
+      <c r="L39" s="64"/>
+      <c r="M39" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="N39" s="121"/>
-    </row>
-    <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="131" t="s">
+      <c r="N39" s="65"/>
+    </row>
+    <row r="40" spans="1:14" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="71"/>
+      <c r="C40" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="70"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="G40" s="70"/>
+      <c r="H40" s="71"/>
+      <c r="I40" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="J40" s="70"/>
+      <c r="K40" s="71"/>
+      <c r="L40" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="M40" s="70"/>
+      <c r="N40" s="71"/>
+    </row>
+    <row r="41" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="132" t="s">
+      <c r="B41" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="133" t="s">
+      <c r="C41" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D40" s="134" t="s">
+      <c r="D41" s="134" t="s">
         <v>76</v>
       </c>
-      <c r="E40" s="135"/>
-      <c r="F40" s="133" t="s">
+      <c r="E41" s="135"/>
+      <c r="F41" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="G40" s="136" t="s">
+      <c r="G41" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="H40" s="132" t="s">
+      <c r="H41" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="I40" s="133" t="s">
+      <c r="I41" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="J40" s="136" t="s">
+      <c r="J41" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="K40" s="137" t="s">
+      <c r="K41" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="L40" s="133" t="s">
+      <c r="L41" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="M40" s="136" t="s">
+      <c r="M41" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="N40" s="132" t="s">
+      <c r="N41" s="40" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="99"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="53" t="s">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="132"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="15"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="53" t="s">
+      <c r="D42" s="136"/>
+      <c r="E42" s="137"/>
+      <c r="F42" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G41" s="13"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="53" t="s">
+      <c r="G42" s="38"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J41" s="13"/>
-      <c r="K41" s="58"/>
-      <c r="L41" s="53" t="s">
+      <c r="J42" s="38"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="M41" s="13"/>
-      <c r="N41" s="58"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="99"/>
-      <c r="B42" s="58"/>
-      <c r="C42" s="53" t="s">
+      <c r="M42" s="38"/>
+      <c r="N42" s="41"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="132"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="15"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="53" t="s">
+      <c r="D43" s="136"/>
+      <c r="E43" s="137"/>
+      <c r="F43" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G42" s="13"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="53" t="s">
+      <c r="G43" s="38"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J42" s="13"/>
-      <c r="K42" s="58"/>
-      <c r="L42" s="53" t="s">
+      <c r="J43" s="38"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="M42" s="13"/>
-      <c r="N42" s="58"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="99"/>
-      <c r="B43" s="58"/>
-      <c r="C43" s="53" t="s">
+      <c r="M43" s="38"/>
+      <c r="N43" s="41"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="132"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="15"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="53" t="s">
+      <c r="D44" s="136"/>
+      <c r="E44" s="137"/>
+      <c r="F44" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G43" s="14"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="53" t="s">
+      <c r="G44" s="39"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J43" s="13"/>
-      <c r="K43" s="58"/>
-      <c r="L43" s="53" t="s">
+      <c r="J44" s="38"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="M43" s="13"/>
-      <c r="N43" s="58"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="99"/>
-      <c r="B44" s="58"/>
-      <c r="C44" s="53" t="s">
+      <c r="M44" s="38"/>
+      <c r="N44" s="41"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="132"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="15"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="52" t="s">
+      <c r="D45" s="136"/>
+      <c r="E45" s="137"/>
+      <c r="F45" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G44" s="12" t="s">
+      <c r="G45" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="H44" s="58"/>
-      <c r="I44" s="53" t="s">
+      <c r="H45" s="41"/>
+      <c r="I45" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J44" s="13"/>
-      <c r="K44" s="58"/>
-      <c r="L44" s="53" t="s">
+      <c r="J45" s="38"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="M44" s="13"/>
-      <c r="N44" s="58"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="99"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="53" t="s">
+      <c r="M45" s="38"/>
+      <c r="N45" s="41"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="132"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="15"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="53" t="s">
+      <c r="D46" s="136"/>
+      <c r="E46" s="137"/>
+      <c r="F46" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G45" s="13"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="53" t="s">
+      <c r="G46" s="38"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J45" s="13"/>
-      <c r="K45" s="58"/>
-      <c r="L45" s="53" t="s">
+      <c r="J46" s="38"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="M45" s="13"/>
-      <c r="N45" s="58"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="99"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="55" t="s">
+      <c r="M46" s="38"/>
+      <c r="N46" s="41"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="132"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D46" s="16"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="55" t="s">
+      <c r="D47" s="138"/>
+      <c r="E47" s="139"/>
+      <c r="F47" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G46" s="14"/>
-      <c r="H46" s="59"/>
-      <c r="I46" s="55" t="s">
+      <c r="G47" s="39"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="J46" s="14"/>
-      <c r="K46" s="59"/>
-      <c r="L46" s="55" t="s">
+      <c r="J47" s="39"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="M46" s="14"/>
-      <c r="N46" s="59"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="99"/>
-      <c r="B47" s="57" t="s">
+      <c r="M47" s="39"/>
+      <c r="N47" s="42"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="132"/>
+      <c r="B48" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="52" t="s">
+      <c r="C48" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D48" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="E47" s="57" t="s">
+      <c r="E48" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="F47" s="52" t="s">
+      <c r="F48" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G47" s="17" t="s">
+      <c r="G48" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="H47" s="57" t="s">
+      <c r="H48" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="I47" s="52" t="s">
+      <c r="I48" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="J47" s="17" t="s">
+      <c r="J48" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="K47" s="88" t="s">
+      <c r="K48" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="L47" s="52" t="s">
+      <c r="L48" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="M47" s="17" t="s">
+      <c r="M48" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="N47" s="57" t="s">
+      <c r="N48" s="44" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="99"/>
-      <c r="B48" s="58"/>
-      <c r="C48" s="53" t="s">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="132"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="18"/>
-      <c r="E48" s="58"/>
-      <c r="F48" s="53" t="s">
+      <c r="D49" s="140"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G48" s="13"/>
-      <c r="H48" s="58"/>
-      <c r="I48" s="53" t="s">
+      <c r="G49" s="38"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J48" s="13"/>
-      <c r="K48" s="58"/>
-      <c r="L48" s="53" t="s">
+      <c r="J49" s="38"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="M48" s="13"/>
-      <c r="N48" s="58"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="99"/>
-      <c r="B49" s="58"/>
-      <c r="C49" s="53" t="s">
+      <c r="M49" s="38"/>
+      <c r="N49" s="41"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="132"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D49" s="18"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="53" t="s">
+      <c r="D50" s="140"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G49" s="13"/>
-      <c r="H49" s="58"/>
-      <c r="I49" s="53" t="s">
+      <c r="G50" s="38"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J49" s="13"/>
-      <c r="K49" s="58"/>
-      <c r="L49" s="53" t="s">
+      <c r="J50" s="38"/>
+      <c r="K50" s="41"/>
+      <c r="L50" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="M49" s="13"/>
-      <c r="N49" s="58"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="99"/>
-      <c r="B50" s="58"/>
-      <c r="C50" s="53" t="s">
+      <c r="M50" s="38"/>
+      <c r="N50" s="41"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="132"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D50" s="18"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="53" t="s">
+      <c r="D51" s="140"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G50" s="14"/>
-      <c r="H50" s="58"/>
-      <c r="I50" s="53" t="s">
+      <c r="G51" s="39"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J50" s="13"/>
-      <c r="K50" s="58"/>
-      <c r="L50" s="53" t="s">
+      <c r="J51" s="38"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="M50" s="13"/>
-      <c r="N50" s="58"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="99"/>
-      <c r="B51" s="58"/>
-      <c r="C51" s="53" t="s">
+      <c r="M51" s="38"/>
+      <c r="N51" s="41"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="132"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D51" s="18"/>
-      <c r="E51" s="58"/>
-      <c r="F51" s="52" t="s">
+      <c r="D52" s="140"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G51" s="17" t="s">
+      <c r="G52" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="H51" s="58"/>
-      <c r="I51" s="53" t="s">
+      <c r="H52" s="41"/>
+      <c r="I52" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J51" s="13"/>
-      <c r="K51" s="58"/>
-      <c r="L51" s="53" t="s">
+      <c r="J52" s="38"/>
+      <c r="K52" s="41"/>
+      <c r="L52" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="M51" s="13"/>
-      <c r="N51" s="58"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="99"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="53" t="s">
+      <c r="M52" s="38"/>
+      <c r="N52" s="41"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="132"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="18"/>
-      <c r="E52" s="58"/>
-      <c r="F52" s="53" t="s">
+      <c r="D53" s="140"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G52" s="13"/>
-      <c r="H52" s="58"/>
-      <c r="I52" s="53" t="s">
+      <c r="G53" s="38"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J52" s="13"/>
-      <c r="K52" s="58"/>
-      <c r="L52" s="53" t="s">
+      <c r="J53" s="38"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="M52" s="13"/>
-      <c r="N52" s="58"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="99"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="55" t="s">
+      <c r="M53" s="38"/>
+      <c r="N53" s="41"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="132"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D53" s="19"/>
-      <c r="E53" s="59"/>
-      <c r="F53" s="55" t="s">
+      <c r="D54" s="141"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G53" s="14"/>
-      <c r="H53" s="59"/>
-      <c r="I53" s="55" t="s">
+      <c r="G54" s="39"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="J53" s="14"/>
-      <c r="K53" s="59"/>
-      <c r="L53" s="55" t="s">
+      <c r="J54" s="39"/>
+      <c r="K54" s="42"/>
+      <c r="L54" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="M53" s="14"/>
-      <c r="N53" s="59"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="99"/>
-      <c r="B54" s="57" t="s">
+      <c r="M54" s="39"/>
+      <c r="N54" s="42"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="132"/>
+      <c r="B55" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="60" t="s">
+      <c r="C55" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D55" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E54" s="57" t="s">
+      <c r="E55" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="F54" s="60" t="s">
+      <c r="F55" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="G54" s="10" t="s">
+      <c r="G55" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H54" s="57" t="s">
+      <c r="H55" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="I54" s="89" t="s">
+      <c r="I55" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="J54" s="10" t="s">
+      <c r="J55" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="K54" s="88" t="s">
+      <c r="K55" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="L54" s="89" t="s">
+      <c r="L55" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="M54" s="10" t="s">
+      <c r="M55" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="N54" s="57" t="s">
+      <c r="N55" s="44" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="99"/>
-      <c r="B55" s="58"/>
-      <c r="C55" s="61"/>
-      <c r="D55" s="11" t="s">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="132"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E55" s="58"/>
-      <c r="F55" s="61"/>
-      <c r="G55" s="11" t="s">
+      <c r="E56" s="41"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H55" s="58"/>
-      <c r="I55" s="61"/>
-      <c r="J55" s="11" t="s">
+      <c r="H56" s="41"/>
+      <c r="I56" s="46"/>
+      <c r="J56" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K55" s="58"/>
-      <c r="L55" s="61"/>
-      <c r="M55" s="11" t="s">
+      <c r="K56" s="41"/>
+      <c r="L56" s="46"/>
+      <c r="M56" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="N55" s="58"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="99"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="11" t="s">
+      <c r="N56" s="41"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="132"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E56" s="58"/>
-      <c r="F56" s="61"/>
-      <c r="G56" s="11" t="s">
+      <c r="E57" s="41"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H56" s="58"/>
-      <c r="I56" s="61"/>
-      <c r="J56" s="11" t="s">
+      <c r="H57" s="41"/>
+      <c r="I57" s="46"/>
+      <c r="J57" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K56" s="58"/>
-      <c r="L56" s="61"/>
-      <c r="M56" s="11" t="s">
+      <c r="K57" s="41"/>
+      <c r="L57" s="46"/>
+      <c r="M57" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="N56" s="58"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="99"/>
-      <c r="B57" s="58"/>
-      <c r="C57" s="61"/>
-      <c r="D57" s="11" t="s">
+      <c r="N57" s="41"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="132"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="58"/>
-      <c r="F57" s="62"/>
-      <c r="G57" s="11" t="s">
+      <c r="E58" s="41"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H57" s="58"/>
-      <c r="I57" s="61"/>
-      <c r="J57" s="11" t="s">
+      <c r="H58" s="41"/>
+      <c r="I58" s="46"/>
+      <c r="J58" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K57" s="58"/>
-      <c r="L57" s="61"/>
-      <c r="M57" s="11" t="s">
+      <c r="K58" s="41"/>
+      <c r="L58" s="46"/>
+      <c r="M58" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="N57" s="58"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="99"/>
-      <c r="B58" s="58"/>
-      <c r="C58" s="61"/>
-      <c r="D58" s="11" t="s">
+      <c r="N58" s="41"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="132"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E58" s="58"/>
-      <c r="F58" s="60" t="s">
+      <c r="E59" s="41"/>
+      <c r="F59" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="G58" s="10" t="s">
+      <c r="G59" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H58" s="58"/>
-      <c r="I58" s="61"/>
-      <c r="J58" s="11" t="s">
+      <c r="H59" s="41"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K58" s="58"/>
-      <c r="L58" s="61"/>
-      <c r="M58" s="11" t="s">
+      <c r="K59" s="41"/>
+      <c r="L59" s="46"/>
+      <c r="M59" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="N58" s="58"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="99"/>
-      <c r="B59" s="58"/>
-      <c r="C59" s="61"/>
-      <c r="D59" s="11" t="s">
+      <c r="N59" s="41"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="132"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E59" s="58"/>
-      <c r="F59" s="61"/>
-      <c r="G59" s="11" t="s">
+      <c r="E60" s="41"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H59" s="58"/>
-      <c r="I59" s="61"/>
-      <c r="J59" s="11" t="s">
+      <c r="H60" s="41"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K59" s="58"/>
-      <c r="L59" s="61"/>
-      <c r="M59" s="11" t="s">
+      <c r="K60" s="41"/>
+      <c r="L60" s="46"/>
+      <c r="M60" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N59" s="58"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="99"/>
-      <c r="B60" s="59"/>
-      <c r="C60" s="62"/>
-      <c r="D60" s="9" t="s">
+      <c r="N60" s="41"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="132"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="47"/>
+      <c r="D61" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E60" s="59"/>
-      <c r="F60" s="62"/>
-      <c r="G60" s="9" t="s">
+      <c r="E61" s="42"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H60" s="59"/>
-      <c r="I60" s="62"/>
-      <c r="J60" s="9" t="s">
+      <c r="H61" s="42"/>
+      <c r="I61" s="47"/>
+      <c r="J61" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K60" s="59"/>
-      <c r="L60" s="62"/>
-      <c r="M60" s="9" t="s">
+      <c r="K61" s="42"/>
+      <c r="L61" s="47"/>
+      <c r="M61" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N60" s="59"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="99"/>
-      <c r="B61" s="57" t="s">
+      <c r="N61" s="42"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="132"/>
+      <c r="B62" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C61" s="60" t="s">
+      <c r="C62" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D62" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E61" s="57" t="s">
+      <c r="E62" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="F61" s="60" t="s">
+      <c r="F62" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="G61" s="10" t="s">
+      <c r="G62" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H61" s="57" t="s">
+      <c r="H62" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="I61" s="60" t="s">
+      <c r="I62" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="J61" s="10" t="s">
+      <c r="J62" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="K61" s="88" t="s">
+      <c r="K62" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="L61" s="60" t="s">
+      <c r="L62" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="M61" s="10" t="s">
+      <c r="M62" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="N61" s="88" t="s">
+      <c r="N62" s="50" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="99"/>
-      <c r="B62" s="58"/>
-      <c r="C62" s="61"/>
-      <c r="D62" s="11" t="s">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="132"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E62" s="58"/>
-      <c r="F62" s="61"/>
-      <c r="G62" s="11" t="s">
+      <c r="E63" s="41"/>
+      <c r="F63" s="46"/>
+      <c r="G63" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H62" s="58"/>
-      <c r="I62" s="61"/>
-      <c r="J62" s="11" t="s">
+      <c r="H63" s="41"/>
+      <c r="I63" s="46"/>
+      <c r="J63" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K62" s="58"/>
-      <c r="L62" s="61"/>
-      <c r="M62" s="11" t="s">
+      <c r="K63" s="41"/>
+      <c r="L63" s="46"/>
+      <c r="M63" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="N62" s="58"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="99"/>
-      <c r="B63" s="58"/>
-      <c r="C63" s="61"/>
-      <c r="D63" s="11" t="s">
+      <c r="N63" s="41"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="132"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E63" s="58"/>
-      <c r="F63" s="61"/>
-      <c r="G63" s="11" t="s">
+      <c r="E64" s="41"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H63" s="58"/>
-      <c r="I63" s="61"/>
-      <c r="J63" s="11" t="s">
+      <c r="H64" s="41"/>
+      <c r="I64" s="46"/>
+      <c r="J64" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K63" s="58"/>
-      <c r="L63" s="61"/>
-      <c r="M63" s="11" t="s">
+      <c r="K64" s="41"/>
+      <c r="L64" s="46"/>
+      <c r="M64" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="N63" s="58"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="99"/>
-      <c r="B64" s="58"/>
-      <c r="C64" s="61"/>
-      <c r="D64" s="11" t="s">
+      <c r="N64" s="41"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" s="132"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E64" s="58"/>
-      <c r="F64" s="61"/>
-      <c r="G64" s="11" t="s">
+      <c r="E65" s="41"/>
+      <c r="F65" s="46"/>
+      <c r="G65" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H64" s="59"/>
-      <c r="I64" s="61"/>
-      <c r="J64" s="11" t="s">
+      <c r="H65" s="42"/>
+      <c r="I65" s="46"/>
+      <c r="J65" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K64" s="58"/>
-      <c r="L64" s="61"/>
-      <c r="M64" s="11" t="s">
+      <c r="K65" s="41"/>
+      <c r="L65" s="46"/>
+      <c r="M65" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="N64" s="58"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="99"/>
-      <c r="B65" s="58"/>
-      <c r="C65" s="61"/>
-      <c r="D65" s="11" t="s">
+      <c r="N65" s="41"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="132"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E65" s="58"/>
-      <c r="F65" s="61"/>
-      <c r="G65" s="10" t="s">
+      <c r="E66" s="41"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H65" s="57" t="s">
+      <c r="H66" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="I65" s="61"/>
-      <c r="J65" s="11" t="s">
+      <c r="I66" s="46"/>
+      <c r="J66" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K65" s="58"/>
-      <c r="L65" s="61"/>
-      <c r="M65" s="11" t="s">
+      <c r="K66" s="41"/>
+      <c r="L66" s="46"/>
+      <c r="M66" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="N65" s="58"/>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="99"/>
-      <c r="B66" s="58"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="11" t="s">
+      <c r="N66" s="41"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="132"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E66" s="58"/>
-      <c r="F66" s="61"/>
-      <c r="G66" s="11" t="s">
+      <c r="E67" s="41"/>
+      <c r="F67" s="46"/>
+      <c r="G67" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H66" s="58"/>
-      <c r="I66" s="61"/>
-      <c r="J66" s="11" t="s">
+      <c r="H67" s="41"/>
+      <c r="I67" s="46"/>
+      <c r="J67" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K66" s="58"/>
-      <c r="L66" s="61"/>
-      <c r="M66" s="11" t="s">
+      <c r="K67" s="41"/>
+      <c r="L67" s="46"/>
+      <c r="M67" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N66" s="58"/>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="99"/>
-      <c r="B67" s="59"/>
-      <c r="C67" s="62"/>
-      <c r="D67" s="9" t="s">
+      <c r="N67" s="41"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="132"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E67" s="59"/>
-      <c r="F67" s="62"/>
-      <c r="G67" s="9" t="s">
+      <c r="E68" s="42"/>
+      <c r="F68" s="47"/>
+      <c r="G68" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H67" s="59"/>
-      <c r="I67" s="62"/>
-      <c r="J67" s="9" t="s">
+      <c r="H68" s="42"/>
+      <c r="I68" s="47"/>
+      <c r="J68" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K67" s="59"/>
-      <c r="L67" s="62"/>
-      <c r="M67" s="9" t="s">
+      <c r="K68" s="42"/>
+      <c r="L68" s="47"/>
+      <c r="M68" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N67" s="59"/>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="99"/>
-      <c r="B68" s="57" t="s">
+      <c r="N68" s="42"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="132"/>
+      <c r="B69" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="C68" s="60" t="s">
+      <c r="C69" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="D68" s="10" t="s">
+      <c r="D69" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E68" s="57" t="s">
+      <c r="E69" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="F68" s="60" t="s">
+      <c r="F69" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="G68" s="10" t="s">
+      <c r="G69" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H68" s="57" t="s">
+      <c r="H69" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="I68" s="60" t="s">
+      <c r="I69" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="J68" s="10" t="s">
+      <c r="J69" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="K68" s="88" t="s">
+      <c r="K69" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="L68" s="60" t="s">
+      <c r="L69" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="M68" s="10" t="s">
+      <c r="M69" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="N68" s="88" t="s">
+      <c r="N69" s="50" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="99"/>
-      <c r="B69" s="58"/>
-      <c r="C69" s="61"/>
-      <c r="D69" s="11" t="s">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="132"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="46"/>
+      <c r="D70" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E69" s="58"/>
-      <c r="F69" s="61"/>
-      <c r="G69" s="11" t="s">
+      <c r="E70" s="41"/>
+      <c r="F70" s="46"/>
+      <c r="G70" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H69" s="58"/>
-      <c r="I69" s="61"/>
-      <c r="J69" s="11" t="s">
+      <c r="H70" s="41"/>
+      <c r="I70" s="46"/>
+      <c r="J70" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K69" s="58"/>
-      <c r="L69" s="61"/>
-      <c r="M69" s="11" t="s">
+      <c r="K70" s="41"/>
+      <c r="L70" s="46"/>
+      <c r="M70" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="N69" s="58"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="99"/>
-      <c r="B70" s="58"/>
-      <c r="C70" s="61"/>
-      <c r="D70" s="11" t="s">
+      <c r="N70" s="41"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" s="132"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E70" s="58"/>
-      <c r="F70" s="61"/>
-      <c r="G70" s="11" t="s">
+      <c r="E71" s="41"/>
+      <c r="F71" s="46"/>
+      <c r="G71" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H70" s="58"/>
-      <c r="I70" s="61"/>
-      <c r="J70" s="11" t="s">
+      <c r="H71" s="41"/>
+      <c r="I71" s="46"/>
+      <c r="J71" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K70" s="58"/>
-      <c r="L70" s="61"/>
-      <c r="M70" s="11" t="s">
+      <c r="K71" s="41"/>
+      <c r="L71" s="46"/>
+      <c r="M71" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="N70" s="58"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="99"/>
-      <c r="B71" s="58"/>
-      <c r="C71" s="61"/>
-      <c r="D71" s="11" t="s">
+      <c r="N71" s="41"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" s="132"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="46"/>
+      <c r="D72" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E71" s="58"/>
-      <c r="F71" s="61"/>
-      <c r="G71" s="11" t="s">
+      <c r="E72" s="41"/>
+      <c r="F72" s="46"/>
+      <c r="G72" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H71" s="59"/>
-      <c r="I71" s="61"/>
-      <c r="J71" s="11" t="s">
+      <c r="H72" s="42"/>
+      <c r="I72" s="46"/>
+      <c r="J72" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K71" s="58"/>
-      <c r="L71" s="61"/>
-      <c r="M71" s="11" t="s">
+      <c r="K72" s="41"/>
+      <c r="L72" s="46"/>
+      <c r="M72" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="N71" s="58"/>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="99"/>
-      <c r="B72" s="58"/>
-      <c r="C72" s="61"/>
-      <c r="D72" s="11" t="s">
+      <c r="N72" s="41"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" s="132"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="46"/>
+      <c r="D73" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E72" s="58"/>
-      <c r="F72" s="61"/>
-      <c r="G72" s="10" t="s">
+      <c r="E73" s="41"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H72" s="57" t="s">
+      <c r="H73" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="I72" s="61"/>
-      <c r="J72" s="11" t="s">
+      <c r="I73" s="46"/>
+      <c r="J73" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K72" s="58"/>
-      <c r="L72" s="61"/>
-      <c r="M72" s="11" t="s">
+      <c r="K73" s="41"/>
+      <c r="L73" s="46"/>
+      <c r="M73" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="N72" s="58"/>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="99"/>
-      <c r="B73" s="58"/>
-      <c r="C73" s="61"/>
-      <c r="D73" s="11" t="s">
+      <c r="N73" s="41"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" s="132"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="46"/>
+      <c r="D74" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E73" s="58"/>
-      <c r="F73" s="61"/>
-      <c r="G73" s="11" t="s">
+      <c r="E74" s="41"/>
+      <c r="F74" s="46"/>
+      <c r="G74" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H73" s="58"/>
-      <c r="I73" s="61"/>
-      <c r="J73" s="11" t="s">
+      <c r="H74" s="41"/>
+      <c r="I74" s="46"/>
+      <c r="J74" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K73" s="58"/>
-      <c r="L73" s="61"/>
-      <c r="M73" s="11" t="s">
+      <c r="K74" s="41"/>
+      <c r="L74" s="46"/>
+      <c r="M74" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N73" s="58"/>
-    </row>
-    <row r="74" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="138"/>
-      <c r="B74" s="139"/>
-      <c r="C74" s="140"/>
-      <c r="D74" s="141" t="s">
+      <c r="N74" s="41"/>
+    </row>
+    <row r="75" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="133"/>
+      <c r="B75" s="51"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="E74" s="139"/>
-      <c r="F74" s="140"/>
-      <c r="G74" s="141" t="s">
+      <c r="E75" s="51"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="H74" s="139"/>
-      <c r="I74" s="140"/>
-      <c r="J74" s="141" t="s">
+      <c r="H75" s="51"/>
+      <c r="I75" s="49"/>
+      <c r="J75" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="K74" s="139"/>
-      <c r="L74" s="140"/>
-      <c r="M74" s="141" t="s">
+      <c r="K75" s="51"/>
+      <c r="L75" s="49"/>
+      <c r="M75" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="N74" s="139"/>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="127" t="s">
+      <c r="N75" s="51"/>
+    </row>
+    <row r="76" spans="1:14" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" s="71"/>
+      <c r="C76" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="D76" s="70"/>
+      <c r="E76" s="71"/>
+      <c r="F76" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="G76" s="70"/>
+      <c r="H76" s="71"/>
+      <c r="I76" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="J76" s="70"/>
+      <c r="K76" s="71"/>
+      <c r="L76" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="M76" s="70"/>
+      <c r="N76" s="71"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="B75" s="102" t="s">
+      <c r="B77" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="C75" s="128"/>
-      <c r="D75" s="129"/>
-      <c r="E75" s="130"/>
-      <c r="F75" s="128"/>
-      <c r="G75" s="129"/>
-      <c r="H75" s="130"/>
-      <c r="I75" s="128"/>
-      <c r="J75" s="129"/>
-      <c r="K75" s="130"/>
-      <c r="L75" s="128"/>
-      <c r="M75" s="129"/>
-      <c r="N75" s="130"/>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="100"/>
-      <c r="B76" s="102"/>
-      <c r="C76" s="63"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="64"/>
-      <c r="F76" s="63"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="64"/>
-      <c r="I76" s="63"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="64"/>
-      <c r="L76" s="63"/>
-      <c r="M76" s="8"/>
-      <c r="N76" s="64"/>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="100"/>
-      <c r="B77" s="103"/>
-      <c r="C77" s="63"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="64"/>
-      <c r="F77" s="63"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="64"/>
-      <c r="I77" s="63"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="64"/>
-      <c r="L77" s="63"/>
-      <c r="M77" s="8"/>
-      <c r="N77" s="64"/>
+      <c r="C77" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D77" s="142" t="s">
+        <v>105</v>
+      </c>
+      <c r="E77" s="146" t="s">
+        <v>25</v>
+      </c>
+      <c r="F77" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G77" s="142" t="s">
+        <v>105</v>
+      </c>
+      <c r="H77" s="146" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" s="32"/>
+      <c r="J77" s="33"/>
+      <c r="K77" s="34"/>
+      <c r="L77" s="32"/>
+      <c r="M77" s="33"/>
+      <c r="N77" s="34"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="100"/>
-      <c r="B78" s="101" t="s">
+      <c r="A78" s="88"/>
+      <c r="B78" s="91"/>
+      <c r="C78" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" s="143"/>
+      <c r="E78" s="91"/>
+      <c r="F78" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G78" s="143"/>
+      <c r="H78" s="91"/>
+      <c r="I78" s="32"/>
+      <c r="J78" s="33"/>
+      <c r="K78" s="34"/>
+      <c r="L78" s="32"/>
+      <c r="M78" s="33"/>
+      <c r="N78" s="34"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" s="88"/>
+      <c r="B79" s="91"/>
+      <c r="C79" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" s="144" t="s">
+        <v>104</v>
+      </c>
+      <c r="E79" s="91"/>
+      <c r="F79" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G79" s="144" t="s">
+        <v>104</v>
+      </c>
+      <c r="H79" s="91"/>
+      <c r="I79" s="32"/>
+      <c r="J79" s="33"/>
+      <c r="K79" s="34"/>
+      <c r="L79" s="32"/>
+      <c r="M79" s="33"/>
+      <c r="N79" s="34"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" s="88"/>
+      <c r="B80" s="91"/>
+      <c r="C80" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80" s="145"/>
+      <c r="E80" s="91"/>
+      <c r="F80" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G80" s="145"/>
+      <c r="H80" s="91"/>
+      <c r="I80" s="32"/>
+      <c r="J80" s="33"/>
+      <c r="K80" s="34"/>
+      <c r="L80" s="32"/>
+      <c r="M80" s="33"/>
+      <c r="N80" s="34"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" s="88"/>
+      <c r="B81" s="91"/>
+      <c r="C81" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D81" s="145"/>
+      <c r="E81" s="91"/>
+      <c r="F81" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G81" s="145"/>
+      <c r="H81" s="91"/>
+      <c r="I81" s="32"/>
+      <c r="J81" s="33"/>
+      <c r="K81" s="34"/>
+      <c r="L81" s="32"/>
+      <c r="M81" s="33"/>
+      <c r="N81" s="34"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" s="89"/>
+      <c r="B82" s="91"/>
+      <c r="C82" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82" s="145"/>
+      <c r="E82" s="91"/>
+      <c r="F82" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G82" s="145"/>
+      <c r="H82" s="91"/>
+      <c r="I82" s="18"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="19"/>
+      <c r="L82" s="18"/>
+      <c r="M82" s="8"/>
+      <c r="N82" s="19"/>
+    </row>
+    <row r="83" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="89"/>
+      <c r="B83" s="92"/>
+      <c r="C83" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="143"/>
+      <c r="E83" s="92"/>
+      <c r="F83" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G83" s="143"/>
+      <c r="H83" s="92"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="19"/>
+      <c r="L83" s="18"/>
+      <c r="M83" s="8"/>
+      <c r="N83" s="19"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" s="89"/>
+      <c r="B84" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D84" s="147" t="s">
+        <v>106</v>
+      </c>
+      <c r="E84" s="146" t="s">
+        <v>25</v>
+      </c>
+      <c r="F84" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G84" s="147" t="s">
+        <v>106</v>
+      </c>
+      <c r="H84" s="146" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" s="18"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="19"/>
+      <c r="L84" s="18"/>
+      <c r="M84" s="8"/>
+      <c r="N84" s="19"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" s="89"/>
+      <c r="B85" s="91"/>
+      <c r="C85" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" s="143"/>
+      <c r="E85" s="91"/>
+      <c r="F85" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G85" s="143"/>
+      <c r="H85" s="91"/>
+      <c r="I85" s="18"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="19"/>
+      <c r="L85" s="18"/>
+      <c r="M85" s="8"/>
+      <c r="N85" s="19"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" s="89"/>
+      <c r="B86" s="91"/>
+      <c r="C86" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D86" s="144" t="s">
+        <v>107</v>
+      </c>
+      <c r="E86" s="91"/>
+      <c r="F86" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G86" s="144" t="s">
+        <v>107</v>
+      </c>
+      <c r="H86" s="91"/>
+      <c r="I86" s="18"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="19"/>
+      <c r="L86" s="18"/>
+      <c r="M86" s="8"/>
+      <c r="N86" s="19"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" s="89"/>
+      <c r="B87" s="91"/>
+      <c r="C87" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D87" s="145"/>
+      <c r="E87" s="91"/>
+      <c r="F87" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G87" s="145"/>
+      <c r="H87" s="91"/>
+      <c r="I87" s="18"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="19"/>
+      <c r="L87" s="18"/>
+      <c r="M87" s="8"/>
+      <c r="N87" s="19"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" s="89"/>
+      <c r="B88" s="91"/>
+      <c r="C88" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D88" s="145"/>
+      <c r="E88" s="91"/>
+      <c r="F88" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G88" s="145"/>
+      <c r="H88" s="91"/>
+      <c r="I88" s="18"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="19"/>
+      <c r="L88" s="18"/>
+      <c r="M88" s="8"/>
+      <c r="N88" s="19"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" s="89"/>
+      <c r="B89" s="91"/>
+      <c r="C89" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" s="145"/>
+      <c r="E89" s="91"/>
+      <c r="F89" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G89" s="145"/>
+      <c r="H89" s="91"/>
+      <c r="I89" s="18"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="19"/>
+      <c r="L89" s="18"/>
+      <c r="M89" s="8"/>
+      <c r="N89" s="19"/>
+    </row>
+    <row r="90" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="89"/>
+      <c r="B90" s="94"/>
+      <c r="C90" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" s="143"/>
+      <c r="E90" s="92"/>
+      <c r="F90" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G90" s="143"/>
+      <c r="H90" s="92"/>
+      <c r="I90" s="18"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="19"/>
+      <c r="L90" s="18"/>
+      <c r="M90" s="8"/>
+      <c r="N90" s="19"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" s="89"/>
+      <c r="B91" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="C78" s="63"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="64"/>
-      <c r="F78" s="63"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="64"/>
-      <c r="I78" s="63"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="64"/>
-      <c r="L78" s="63"/>
-      <c r="M78" s="8"/>
-      <c r="N78" s="64"/>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="100"/>
-      <c r="B79" s="102"/>
-      <c r="C79" s="63"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="64"/>
-      <c r="F79" s="63"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="64"/>
-      <c r="I79" s="63"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="64"/>
-      <c r="L79" s="63"/>
-      <c r="M79" s="8"/>
-      <c r="N79" s="64"/>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="100"/>
-      <c r="B80" s="103"/>
-      <c r="C80" s="63"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="64"/>
-      <c r="F80" s="63"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="64"/>
-      <c r="I80" s="63"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="64"/>
-      <c r="L80" s="63"/>
-      <c r="M80" s="8"/>
-      <c r="N80" s="64"/>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="100"/>
-      <c r="B81" s="101" t="s">
-        <v>12</v>
-      </c>
-      <c r="C81" s="63"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="64"/>
-      <c r="F81" s="63"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="64"/>
-      <c r="I81" s="63"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="64"/>
-      <c r="L81" s="63"/>
-      <c r="M81" s="8"/>
-      <c r="N81" s="64"/>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="100"/>
-      <c r="B82" s="102"/>
-      <c r="C82" s="63"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="64"/>
-      <c r="F82" s="63"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="64"/>
-      <c r="I82" s="63"/>
-      <c r="J82" s="8"/>
-      <c r="K82" s="64"/>
-      <c r="L82" s="63"/>
-      <c r="M82" s="8"/>
-      <c r="N82" s="64"/>
-    </row>
-    <row r="83" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="104"/>
-      <c r="B83" s="105"/>
-      <c r="C83" s="65"/>
-      <c r="D83" s="66"/>
-      <c r="E83" s="67"/>
-      <c r="F83" s="65"/>
-      <c r="G83" s="66"/>
-      <c r="H83" s="67"/>
-      <c r="I83" s="65"/>
-      <c r="J83" s="66"/>
-      <c r="K83" s="67"/>
-      <c r="L83" s="65"/>
-      <c r="M83" s="66"/>
-      <c r="N83" s="67"/>
+      <c r="C91" s="142" t="s">
+        <v>109</v>
+      </c>
+      <c r="D91" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E91" s="146" t="s">
+        <v>29</v>
+      </c>
+      <c r="F91" s="142" t="s">
+        <v>109</v>
+      </c>
+      <c r="G91" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H91" s="146" t="s">
+        <v>55</v>
+      </c>
+      <c r="I91" s="18"/>
+      <c r="J91" s="8"/>
+      <c r="K91" s="19"/>
+      <c r="L91" s="18"/>
+      <c r="M91" s="8"/>
+      <c r="N91" s="19"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" s="89"/>
+      <c r="B92" s="91"/>
+      <c r="C92" s="143"/>
+      <c r="D92" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E92" s="91"/>
+      <c r="F92" s="143"/>
+      <c r="G92" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H92" s="91"/>
+      <c r="I92" s="18"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="19"/>
+      <c r="L92" s="18"/>
+      <c r="M92" s="8"/>
+      <c r="N92" s="19"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" s="89"/>
+      <c r="B93" s="91"/>
+      <c r="C93" s="144" t="s">
+        <v>108</v>
+      </c>
+      <c r="D93" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E93" s="91"/>
+      <c r="F93" s="144" t="s">
+        <v>108</v>
+      </c>
+      <c r="G93" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H93" s="91"/>
+      <c r="I93" s="18"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="19"/>
+      <c r="L93" s="18"/>
+      <c r="M93" s="8"/>
+      <c r="N93" s="19"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" s="89"/>
+      <c r="B94" s="91"/>
+      <c r="C94" s="145"/>
+      <c r="D94" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E94" s="91"/>
+      <c r="F94" s="145"/>
+      <c r="G94" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="H94" s="91"/>
+      <c r="I94" s="18"/>
+      <c r="J94" s="8"/>
+      <c r="K94" s="19"/>
+      <c r="L94" s="18"/>
+      <c r="M94" s="8"/>
+      <c r="N94" s="19"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" s="89"/>
+      <c r="B95" s="91"/>
+      <c r="C95" s="145"/>
+      <c r="D95" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E95" s="91"/>
+      <c r="F95" s="145"/>
+      <c r="G95" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H95" s="91"/>
+      <c r="I95" s="18"/>
+      <c r="J95" s="8"/>
+      <c r="K95" s="19"/>
+      <c r="L95" s="18"/>
+      <c r="M95" s="8"/>
+      <c r="N95" s="19"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" s="89"/>
+      <c r="B96" s="91"/>
+      <c r="C96" s="145"/>
+      <c r="D96" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E96" s="91"/>
+      <c r="F96" s="145"/>
+      <c r="G96" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H96" s="91"/>
+      <c r="I96" s="18"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="19"/>
+      <c r="L96" s="18"/>
+      <c r="M96" s="8"/>
+      <c r="N96" s="19"/>
+    </row>
+    <row r="97" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="90"/>
+      <c r="B97" s="94"/>
+      <c r="C97" s="143"/>
+      <c r="D97" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E97" s="92"/>
+      <c r="F97" s="143"/>
+      <c r="G97" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H97" s="92"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="21"/>
+      <c r="K97" s="22"/>
+      <c r="L97" s="20"/>
+      <c r="M97" s="21"/>
+      <c r="N97" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="145">
-    <mergeCell ref="M40:M46"/>
-    <mergeCell ref="N40:N46"/>
-    <mergeCell ref="M47:M53"/>
-    <mergeCell ref="N47:N53"/>
-    <mergeCell ref="L54:L60"/>
-    <mergeCell ref="N54:N60"/>
-    <mergeCell ref="L61:L67"/>
-    <mergeCell ref="L68:L74"/>
-    <mergeCell ref="N61:N67"/>
-    <mergeCell ref="N68:N74"/>
-    <mergeCell ref="F61:F67"/>
-    <mergeCell ref="F68:F74"/>
-    <mergeCell ref="H61:H64"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="H68:H71"/>
-    <mergeCell ref="H72:H74"/>
-    <mergeCell ref="J40:J46"/>
-    <mergeCell ref="K40:K46"/>
-    <mergeCell ref="K47:K53"/>
-    <mergeCell ref="J47:J53"/>
-    <mergeCell ref="I54:I60"/>
-    <mergeCell ref="K54:K60"/>
-    <mergeCell ref="I61:I67"/>
-    <mergeCell ref="I68:I74"/>
-    <mergeCell ref="K61:K67"/>
-    <mergeCell ref="K68:K74"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="H40:H46"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="F58:F60"/>
-    <mergeCell ref="H54:H60"/>
-    <mergeCell ref="G47:G50"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="H47:H53"/>
-    <mergeCell ref="L19:L22"/>
-    <mergeCell ref="N19:N25"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="L26:L32"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="N30:N32"/>
-    <mergeCell ref="L33:L39"/>
-    <mergeCell ref="N33:N36"/>
-    <mergeCell ref="N37:N39"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="M5:M8"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="N5:N11"/>
-    <mergeCell ref="M12:M15"/>
-    <mergeCell ref="N12:N18"/>
-    <mergeCell ref="M16:M18"/>
-    <mergeCell ref="F26:F32"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="E19:E25"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="F33:F39"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="H37:H39"/>
-    <mergeCell ref="H19:H25"/>
-    <mergeCell ref="A75:A83"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B40:B46"/>
-    <mergeCell ref="B47:B53"/>
-    <mergeCell ref="B54:B60"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="E37:E39"/>
+  <mergeCells count="173">
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="H84:H90"/>
+    <mergeCell ref="G86:G90"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="H91:H97"/>
+    <mergeCell ref="F93:F97"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="F76:H76"/>
+    <mergeCell ref="I76:K76"/>
+    <mergeCell ref="L76:N76"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="D79:D83"/>
+    <mergeCell ref="E77:E83"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H83"/>
+    <mergeCell ref="G79:G83"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="K12:K18"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="K19:K25"/>
+    <mergeCell ref="B62:B68"/>
+    <mergeCell ref="B69:B75"/>
+    <mergeCell ref="A41:A75"/>
+    <mergeCell ref="C62:C68"/>
+    <mergeCell ref="E62:E68"/>
+    <mergeCell ref="C69:C75"/>
+    <mergeCell ref="E69:E75"/>
+    <mergeCell ref="D41:E47"/>
+    <mergeCell ref="D48:D54"/>
+    <mergeCell ref="E48:E54"/>
+    <mergeCell ref="C55:C61"/>
+    <mergeCell ref="E55:E61"/>
+    <mergeCell ref="J5:J8"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="K5:K11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H5:H11"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
@@ -4398,54 +4812,94 @@
     <mergeCell ref="F20:F22"/>
     <mergeCell ref="F23:F25"/>
     <mergeCell ref="C26:C32"/>
-    <mergeCell ref="J5:J8"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="K5:K11"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="H5:H11"/>
+    <mergeCell ref="A77:A97"/>
+    <mergeCell ref="B77:B83"/>
+    <mergeCell ref="B84:B90"/>
+    <mergeCell ref="B91:B97"/>
+    <mergeCell ref="B41:B47"/>
+    <mergeCell ref="B48:B54"/>
+    <mergeCell ref="B55:B61"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E90"/>
+    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="C93:C97"/>
+    <mergeCell ref="E91:E97"/>
+    <mergeCell ref="F26:F32"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="E19:E25"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="F33:F39"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="H19:H25"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="M5:M8"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="N5:N11"/>
+    <mergeCell ref="M12:M15"/>
+    <mergeCell ref="N12:N18"/>
+    <mergeCell ref="M16:M18"/>
+    <mergeCell ref="H48:H54"/>
+    <mergeCell ref="L19:L22"/>
+    <mergeCell ref="N19:N25"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="L26:L32"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="N30:N32"/>
+    <mergeCell ref="L33:L39"/>
+    <mergeCell ref="N33:N36"/>
+    <mergeCell ref="N37:N39"/>
     <mergeCell ref="I26:I32"/>
     <mergeCell ref="I33:I39"/>
     <mergeCell ref="K26:K29"/>
     <mergeCell ref="K30:K32"/>
     <mergeCell ref="K33:K36"/>
     <mergeCell ref="K37:K39"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="K12:K18"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="K19:K25"/>
-    <mergeCell ref="B61:B67"/>
-    <mergeCell ref="B68:B74"/>
-    <mergeCell ref="A40:A74"/>
-    <mergeCell ref="C61:C67"/>
-    <mergeCell ref="E61:E67"/>
-    <mergeCell ref="C68:C74"/>
-    <mergeCell ref="E68:E74"/>
-    <mergeCell ref="D40:E46"/>
-    <mergeCell ref="D47:D53"/>
-    <mergeCell ref="E47:E53"/>
-    <mergeCell ref="C54:C60"/>
-    <mergeCell ref="E54:E60"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="F62:F68"/>
+    <mergeCell ref="F69:F75"/>
+    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="H66:H68"/>
+    <mergeCell ref="H69:H72"/>
+    <mergeCell ref="H73:H75"/>
+    <mergeCell ref="J41:J47"/>
+    <mergeCell ref="K41:K47"/>
+    <mergeCell ref="K48:K54"/>
+    <mergeCell ref="J48:J54"/>
+    <mergeCell ref="I55:I61"/>
+    <mergeCell ref="K55:K61"/>
+    <mergeCell ref="I62:I68"/>
+    <mergeCell ref="I69:I75"/>
+    <mergeCell ref="K62:K68"/>
+    <mergeCell ref="K69:K75"/>
+    <mergeCell ref="G41:G44"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="H41:H47"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="F59:F61"/>
+    <mergeCell ref="H55:H61"/>
+    <mergeCell ref="G48:G51"/>
+    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="M41:M47"/>
+    <mergeCell ref="N41:N47"/>
+    <mergeCell ref="M48:M54"/>
+    <mergeCell ref="N48:N54"/>
+    <mergeCell ref="L55:L61"/>
+    <mergeCell ref="N55:N61"/>
+    <mergeCell ref="L62:L68"/>
+    <mergeCell ref="L69:L75"/>
+    <mergeCell ref="N62:N68"/>
+    <mergeCell ref="N69:N75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/scheme.xlsx
+++ b/scheme.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="115">
   <si>
     <t>I</t>
   </si>
@@ -725,12 +725,131 @@
   <si>
     <t>Shall/Will</t>
   </si>
+  <si>
+    <r>
+      <t>have work</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ed</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+written
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>by 7 o'clock</t>
+    </r>
+  </si>
+  <si>
+    <t>shall not
+(shan't)</t>
+  </si>
+  <si>
+    <t>will not
+(won't)</t>
+  </si>
+  <si>
+    <t>Shall</t>
+  </si>
+  <si>
+    <r>
+      <t>have work</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ed</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+written
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>by 7 o'clock?</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -758,6 +877,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1465,7 +1592,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1541,6 +1668,318 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1551,327 +1990,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2166,7 +2299,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H84" sqref="H84:H90"/>
+      <selection pane="bottomLeft" activeCell="L82" sqref="L82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2179,8 +2312,8 @@
     <col min="6" max="6" width="8.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.625" bestFit="1" customWidth="1"/>
@@ -2188,119 +2321,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="96" t="s">
+      <c r="B1" s="113"/>
+      <c r="C1" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="97"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="99" t="s">
+      <c r="D1" s="101"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="100"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="102" t="s">
+      <c r="G1" s="104"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="103"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="105" t="s">
+      <c r="J1" s="107"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="106"/>
-      <c r="N1" s="107"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="111"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="66" t="s">
+      <c r="B2" s="120"/>
+      <c r="C2" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="66" t="s">
+      <c r="D2" s="80"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="67"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="66" t="s">
+      <c r="G2" s="80"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="67"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="66" t="s">
+      <c r="J2" s="80"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="67"/>
-      <c r="N2" s="68"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="81"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="116"/>
-      <c r="B3" s="117"/>
-      <c r="C3" s="66" t="s">
+      <c r="A3" s="121"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="66" t="s">
+      <c r="D3" s="80"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="67"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="66" t="s">
+      <c r="G3" s="80"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="67"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="66" t="s">
+      <c r="J3" s="80"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="M3" s="67"/>
-      <c r="N3" s="68"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="81"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="69" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="69" t="s">
+      <c r="D4" s="46"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="70"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="69" t="s">
+      <c r="G4" s="46"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="70"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="69" t="s">
+      <c r="J4" s="46"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="M4" s="70"/>
-      <c r="N4" s="71"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="47"/>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="128" t="s">
+      <c r="C5" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="129"/>
-      <c r="E5" s="127" t="s">
+      <c r="D5" s="91"/>
+      <c r="E5" s="86" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="27" t="s">
@@ -2309,194 +2442,194 @@
       <c r="G5" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="130" t="s">
+      <c r="H5" s="97" t="s">
         <v>47</v>
       </c>
       <c r="I5" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="72" t="s">
+      <c r="J5" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="K5" s="76" t="s">
+      <c r="K5" s="82" t="s">
         <v>66</v>
       </c>
       <c r="L5" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="72" t="s">
+      <c r="M5" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="76" t="s">
+      <c r="N5" s="82" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="112"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="81" t="s">
+      <c r="A6" s="117"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="124"/>
-      <c r="E6" s="79"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="87"/>
       <c r="F6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="123" t="s">
+      <c r="G6" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="85"/>
+      <c r="H6" s="98"/>
       <c r="I6" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="73"/>
-      <c r="K6" s="58"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="73"/>
-      <c r="N6" s="58"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="52"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="112"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="81" t="s">
+      <c r="A7" s="117"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="124"/>
-      <c r="E7" s="79"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="87"/>
       <c r="F7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="124"/>
-      <c r="H7" s="85"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="98"/>
       <c r="I7" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="73"/>
-      <c r="K7" s="58"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="52"/>
       <c r="L7" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="73"/>
-      <c r="N7" s="58"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="52"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="112"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="82" t="s">
+      <c r="A8" s="117"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="125"/>
-      <c r="E8" s="80"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="88"/>
       <c r="F8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="125"/>
-      <c r="H8" s="85"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="98"/>
       <c r="I8" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="74"/>
-      <c r="K8" s="58"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="52"/>
       <c r="L8" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="74"/>
-      <c r="N8" s="58"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="52"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="112"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="81" t="s">
+      <c r="A9" s="117"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="124"/>
-      <c r="E9" s="78" t="s">
+      <c r="D9" s="84"/>
+      <c r="E9" s="89" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="126" t="s">
+      <c r="G9" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="85"/>
+      <c r="H9" s="98"/>
       <c r="I9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="75" t="s">
+      <c r="J9" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="K9" s="58"/>
+      <c r="K9" s="52"/>
       <c r="L9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="75" t="s">
+      <c r="M9" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="N9" s="58"/>
+      <c r="N9" s="52"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="112"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="81" t="s">
+      <c r="A10" s="117"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="79"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="87"/>
       <c r="F10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="121"/>
-      <c r="H10" s="85"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="98"/>
       <c r="I10" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="73"/>
-      <c r="K10" s="58"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="52"/>
       <c r="L10" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="73"/>
-      <c r="N10" s="58"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="52"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="112"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="82" t="s">
+      <c r="A11" s="117"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="80"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="88"/>
       <c r="F11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="122"/>
-      <c r="H11" s="86"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="99"/>
       <c r="I11" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="74"/>
-      <c r="K11" s="59"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="53"/>
       <c r="L11" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="74"/>
-      <c r="N11" s="59"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="53"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="112"/>
-      <c r="B12" s="63" t="s">
+      <c r="A12" s="117"/>
+      <c r="B12" s="115" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="118" t="s">
+      <c r="D12" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="78" t="s">
+      <c r="E12" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F12" s="12" t="s">
@@ -2505,194 +2638,194 @@
       <c r="G12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="84" t="s">
+      <c r="H12" s="124" t="s">
         <v>54</v>
       </c>
       <c r="I12" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="77" t="s">
+      <c r="J12" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="57" t="s">
+      <c r="K12" s="51" t="s">
         <v>66</v>
       </c>
       <c r="L12" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="M12" s="77" t="s">
+      <c r="M12" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="N12" s="57" t="s">
+      <c r="N12" s="51" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="112"/>
-      <c r="B13" s="58"/>
+      <c r="A13" s="117"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="119"/>
-      <c r="E13" s="79"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="87"/>
       <c r="F13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="123" t="s">
+      <c r="G13" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="85"/>
+      <c r="H13" s="98"/>
       <c r="I13" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="73"/>
-      <c r="K13" s="58"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="52"/>
       <c r="L13" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="M13" s="73"/>
-      <c r="N13" s="58"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="52"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="112"/>
-      <c r="B14" s="58"/>
+      <c r="A14" s="117"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="119"/>
-      <c r="E14" s="79"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="87"/>
       <c r="F14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="124"/>
-      <c r="H14" s="85"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="98"/>
       <c r="I14" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="73"/>
-      <c r="K14" s="58"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="52"/>
       <c r="L14" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="M14" s="73"/>
-      <c r="N14" s="58"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="52"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="112"/>
-      <c r="B15" s="58"/>
+      <c r="A15" s="117"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="120"/>
-      <c r="E15" s="79"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="87"/>
       <c r="F15" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="125"/>
-      <c r="H15" s="85"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="98"/>
       <c r="I15" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="74"/>
-      <c r="K15" s="58"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="52"/>
       <c r="L15" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="M15" s="74"/>
-      <c r="N15" s="58"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="52"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="112"/>
-      <c r="B16" s="58"/>
+      <c r="A16" s="117"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="118" t="s">
+      <c r="D16" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="79"/>
+      <c r="E16" s="87"/>
       <c r="F16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="126" t="s">
+      <c r="G16" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="85"/>
+      <c r="H16" s="98"/>
       <c r="I16" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="77" t="s">
+      <c r="J16" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="K16" s="58"/>
+      <c r="K16" s="52"/>
       <c r="L16" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="M16" s="77" t="s">
+      <c r="M16" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="N16" s="58"/>
+      <c r="N16" s="52"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="112"/>
-      <c r="B17" s="58"/>
+      <c r="A17" s="117"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="121"/>
-      <c r="E17" s="79"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="87"/>
       <c r="F17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="121"/>
-      <c r="H17" s="85"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="98"/>
       <c r="I17" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="73"/>
-      <c r="K17" s="58"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="52"/>
       <c r="L17" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="M17" s="73"/>
-      <c r="N17" s="58"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="52"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="112"/>
-      <c r="B18" s="59"/>
+      <c r="A18" s="117"/>
+      <c r="B18" s="53"/>
       <c r="C18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="122"/>
-      <c r="E18" s="80"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="88"/>
       <c r="F18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="122"/>
-      <c r="H18" s="86"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="99"/>
       <c r="I18" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="74"/>
-      <c r="K18" s="59"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="53"/>
       <c r="L18" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="M18" s="74"/>
-      <c r="N18" s="59"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="53"/>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="112"/>
-      <c r="B19" s="63" t="s">
+      <c r="A19" s="117"/>
+      <c r="B19" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="81" t="s">
+      <c r="C19" s="83" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E19" s="78" t="s">
+      <c r="E19" s="89" t="s">
         <v>29</v>
       </c>
       <c r="F19" s="12" t="s">
@@ -2701,7 +2834,7 @@
       <c r="G19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H19" s="84" t="s">
+      <c r="H19" s="124" t="s">
         <v>55</v>
       </c>
       <c r="I19" s="54" t="s">
@@ -2710,7 +2843,7 @@
       <c r="J19" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K19" s="57" t="s">
+      <c r="K19" s="51" t="s">
         <v>65</v>
       </c>
       <c r="L19" s="54" t="s">
@@ -2719,179 +2852,179 @@
       <c r="M19" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="N19" s="57" t="s">
+      <c r="N19" s="51" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="112"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="81"/>
+      <c r="A20" s="117"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="83"/>
       <c r="D20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="79"/>
-      <c r="F20" s="60" t="s">
+      <c r="E20" s="87"/>
+      <c r="F20" s="128" t="s">
         <v>49</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="85"/>
+      <c r="H20" s="98"/>
       <c r="I20" s="55"/>
       <c r="J20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="58"/>
+      <c r="K20" s="52"/>
       <c r="L20" s="55"/>
       <c r="M20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N20" s="58"/>
+      <c r="N20" s="52"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="112"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="81"/>
+      <c r="A21" s="117"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="83"/>
       <c r="D21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="79"/>
-      <c r="F21" s="61"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="129"/>
       <c r="G21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="85"/>
+      <c r="H21" s="98"/>
       <c r="I21" s="55"/>
       <c r="J21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="58"/>
+      <c r="K21" s="52"/>
       <c r="L21" s="55"/>
       <c r="M21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N21" s="58"/>
+      <c r="N21" s="52"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="112"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="82"/>
+      <c r="A22" s="117"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="85"/>
       <c r="D22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="79"/>
-      <c r="F22" s="62"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="130"/>
       <c r="G22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="85"/>
+      <c r="H22" s="98"/>
       <c r="I22" s="56"/>
       <c r="J22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K22" s="58"/>
+      <c r="K22" s="52"/>
       <c r="L22" s="56"/>
       <c r="M22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="58"/>
+      <c r="N22" s="52"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="112"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="83" t="s">
+      <c r="A23" s="117"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="138" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="79"/>
-      <c r="F23" s="60" t="s">
+      <c r="E23" s="87"/>
+      <c r="F23" s="128" t="s">
         <v>50</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H23" s="85"/>
+      <c r="H23" s="98"/>
       <c r="I23" s="54" t="s">
         <v>64</v>
       </c>
       <c r="J23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="58"/>
+      <c r="K23" s="52"/>
       <c r="L23" s="54" t="s">
         <v>64</v>
       </c>
       <c r="M23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N23" s="58"/>
+      <c r="N23" s="52"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="112"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="81"/>
+      <c r="A24" s="117"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="83"/>
       <c r="D24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="79"/>
-      <c r="F24" s="61"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="129"/>
       <c r="G24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="85"/>
+      <c r="H24" s="98"/>
       <c r="I24" s="55"/>
       <c r="J24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="58"/>
+      <c r="K24" s="52"/>
       <c r="L24" s="55"/>
       <c r="M24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N24" s="58"/>
+      <c r="N24" s="52"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="112"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="82"/>
+      <c r="A25" s="117"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="85"/>
       <c r="D25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="80"/>
-      <c r="F25" s="62"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="130"/>
       <c r="G25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="86"/>
+      <c r="H25" s="99"/>
       <c r="I25" s="56"/>
       <c r="J25" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="59"/>
+      <c r="K25" s="53"/>
       <c r="L25" s="56"/>
       <c r="M25" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N25" s="59"/>
+      <c r="N25" s="53"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="112"/>
-      <c r="B26" s="63" t="s">
+      <c r="A26" s="117"/>
+      <c r="B26" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="C26" s="128" t="s">
         <v>35</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E26" s="78" t="s">
+      <c r="E26" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="60" t="s">
+      <c r="F26" s="128" t="s">
         <v>35</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -2900,194 +3033,194 @@
       <c r="H26" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I26" s="60" t="s">
+      <c r="I26" s="128" t="s">
         <v>35</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K26" s="63" t="s">
+      <c r="K26" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="L26" s="60" t="s">
+      <c r="L26" s="128" t="s">
         <v>35</v>
       </c>
       <c r="M26" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="N26" s="63" t="s">
+      <c r="N26" s="115" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="112"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="61"/>
+      <c r="A27" s="117"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="129"/>
       <c r="D27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="79"/>
-      <c r="F27" s="61"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="129"/>
       <c r="G27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="84" t="s">
+      <c r="H27" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="I27" s="61"/>
+      <c r="I27" s="129"/>
       <c r="J27" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K27" s="58"/>
-      <c r="L27" s="61"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="129"/>
       <c r="M27" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N27" s="58"/>
+      <c r="N27" s="52"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="112"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="61"/>
+      <c r="A28" s="117"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="129"/>
       <c r="D28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="79"/>
-      <c r="F28" s="61"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="129"/>
       <c r="G28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="85"/>
-      <c r="I28" s="61"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="129"/>
       <c r="J28" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="58"/>
-      <c r="L28" s="61"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="129"/>
       <c r="M28" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N28" s="58"/>
+      <c r="N28" s="52"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="112"/>
-      <c r="B29" s="58"/>
-      <c r="C29" s="61"/>
+      <c r="A29" s="117"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="129"/>
       <c r="D29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="80"/>
-      <c r="F29" s="61"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="129"/>
       <c r="G29" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="86"/>
-      <c r="I29" s="61"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="129"/>
       <c r="J29" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K29" s="59"/>
-      <c r="L29" s="61"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="129"/>
       <c r="M29" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N29" s="59"/>
+      <c r="N29" s="53"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="112"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="61"/>
+      <c r="A30" s="117"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="129"/>
       <c r="D30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="78" t="s">
+      <c r="E30" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="61"/>
+      <c r="F30" s="129"/>
       <c r="G30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="84" t="s">
+      <c r="H30" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="I30" s="61"/>
+      <c r="I30" s="129"/>
       <c r="J30" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K30" s="63" t="s">
+      <c r="K30" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="L30" s="61"/>
+      <c r="L30" s="129"/>
       <c r="M30" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N30" s="63" t="s">
+      <c r="N30" s="115" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="112"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="61"/>
+      <c r="A31" s="117"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="129"/>
       <c r="D31" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="79"/>
-      <c r="F31" s="61"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="129"/>
       <c r="G31" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H31" s="85"/>
-      <c r="I31" s="61"/>
+      <c r="H31" s="98"/>
+      <c r="I31" s="129"/>
       <c r="J31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K31" s="58"/>
-      <c r="L31" s="61"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="129"/>
       <c r="M31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N31" s="58"/>
+      <c r="N31" s="52"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="112"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="62"/>
+      <c r="A32" s="117"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="130"/>
       <c r="D32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="80"/>
-      <c r="F32" s="62"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="130"/>
       <c r="G32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="86"/>
-      <c r="I32" s="62"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="130"/>
       <c r="J32" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K32" s="58"/>
-      <c r="L32" s="62"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="130"/>
       <c r="M32" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N32" s="58"/>
+      <c r="N32" s="52"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="112"/>
-      <c r="B33" s="63" t="s">
+      <c r="A33" s="117"/>
+      <c r="B33" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="60" t="s">
+      <c r="C33" s="128" t="s">
         <v>36</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E33" s="78" t="s">
+      <c r="E33" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="60" t="s">
+      <c r="F33" s="128" t="s">
         <v>36</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -3096,1674 +3229,1807 @@
       <c r="H33" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="I33" s="60" t="s">
+      <c r="I33" s="128" t="s">
         <v>36</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K33" s="63" t="s">
+      <c r="K33" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="L33" s="60" t="s">
+      <c r="L33" s="128" t="s">
         <v>36</v>
       </c>
       <c r="M33" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="N33" s="63" t="s">
+      <c r="N33" s="115" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="112"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="61"/>
+      <c r="A34" s="117"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="129"/>
       <c r="D34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="79"/>
-      <c r="F34" s="61"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="129"/>
       <c r="G34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H34" s="84" t="s">
+      <c r="H34" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="I34" s="61"/>
+      <c r="I34" s="129"/>
       <c r="J34" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K34" s="58"/>
-      <c r="L34" s="61"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="129"/>
       <c r="M34" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N34" s="58"/>
+      <c r="N34" s="52"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="112"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="61"/>
+      <c r="A35" s="117"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="129"/>
       <c r="D35" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="79"/>
-      <c r="F35" s="61"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="129"/>
       <c r="G35" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="85"/>
-      <c r="I35" s="61"/>
+      <c r="H35" s="98"/>
+      <c r="I35" s="129"/>
       <c r="J35" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K35" s="58"/>
-      <c r="L35" s="61"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="129"/>
       <c r="M35" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N35" s="58"/>
+      <c r="N35" s="52"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="112"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="61"/>
+      <c r="A36" s="117"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="129"/>
       <c r="D36" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E36" s="80"/>
-      <c r="F36" s="61"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="129"/>
       <c r="G36" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H36" s="86"/>
-      <c r="I36" s="61"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="129"/>
       <c r="J36" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K36" s="59"/>
-      <c r="L36" s="61"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="129"/>
       <c r="M36" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N36" s="59"/>
+      <c r="N36" s="53"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="112"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="61"/>
+      <c r="A37" s="117"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="129"/>
       <c r="D37" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="78" t="s">
+      <c r="E37" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="F37" s="61"/>
+      <c r="F37" s="129"/>
       <c r="G37" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H37" s="84" t="s">
+      <c r="H37" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="I37" s="61"/>
+      <c r="I37" s="129"/>
       <c r="J37" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K37" s="63" t="s">
+      <c r="K37" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="L37" s="61"/>
+      <c r="L37" s="129"/>
       <c r="M37" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N37" s="63" t="s">
+      <c r="N37" s="115" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="112"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="61"/>
+      <c r="A38" s="117"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="129"/>
       <c r="D38" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="79"/>
-      <c r="F38" s="61"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="129"/>
       <c r="G38" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H38" s="85"/>
-      <c r="I38" s="61"/>
+      <c r="H38" s="98"/>
+      <c r="I38" s="129"/>
       <c r="J38" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K38" s="58"/>
-      <c r="L38" s="61"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="129"/>
       <c r="M38" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N38" s="58"/>
+      <c r="N38" s="52"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="113"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="64"/>
+      <c r="A39" s="118"/>
+      <c r="B39" s="123"/>
+      <c r="C39" s="139"/>
       <c r="D39" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="95"/>
-      <c r="F39" s="64"/>
+      <c r="E39" s="137"/>
+      <c r="F39" s="139"/>
       <c r="G39" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="87"/>
-      <c r="I39" s="64"/>
+      <c r="H39" s="140"/>
+      <c r="I39" s="139"/>
       <c r="J39" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="K39" s="65"/>
-      <c r="L39" s="64"/>
+      <c r="K39" s="123"/>
+      <c r="L39" s="139"/>
       <c r="M39" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="N39" s="65"/>
+      <c r="N39" s="123"/>
     </row>
     <row r="40" spans="1:14" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="69" t="s">
+      <c r="A40" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="71"/>
-      <c r="C40" s="69" t="s">
+      <c r="B40" s="47"/>
+      <c r="C40" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="D40" s="70"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="69" t="s">
+      <c r="D40" s="46"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G40" s="70"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="69" t="s">
+      <c r="G40" s="46"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="J40" s="70"/>
-      <c r="K40" s="71"/>
-      <c r="L40" s="69" t="s">
+      <c r="J40" s="46"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="M40" s="70"/>
-      <c r="N40" s="71"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="47"/>
     </row>
     <row r="41" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="131" t="s">
+      <c r="A41" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="40" t="s">
+      <c r="B41" s="136" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D41" s="134" t="s">
+      <c r="D41" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="E41" s="135"/>
+      <c r="E41" s="69"/>
       <c r="F41" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="G41" s="37" t="s">
+      <c r="G41" s="141" t="s">
         <v>83</v>
       </c>
-      <c r="H41" s="40" t="s">
+      <c r="H41" s="136" t="s">
         <v>47</v>
       </c>
       <c r="I41" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="J41" s="37" t="s">
+      <c r="J41" s="141" t="s">
         <v>89</v>
       </c>
-      <c r="K41" s="52" t="s">
+      <c r="K41" s="144" t="s">
         <v>92</v>
       </c>
       <c r="L41" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="M41" s="37" t="s">
+      <c r="M41" s="141" t="s">
         <v>89</v>
       </c>
-      <c r="N41" s="40" t="s">
+      <c r="N41" s="136" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="132"/>
-      <c r="B42" s="41"/>
+      <c r="A42" s="62"/>
+      <c r="B42" s="58"/>
       <c r="C42" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="136"/>
-      <c r="E42" s="137"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="71"/>
       <c r="F42" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G42" s="38"/>
-      <c r="H42" s="41"/>
+      <c r="G42" s="142"/>
+      <c r="H42" s="58"/>
       <c r="I42" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J42" s="38"/>
-      <c r="K42" s="41"/>
+      <c r="J42" s="142"/>
+      <c r="K42" s="58"/>
       <c r="L42" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="M42" s="38"/>
-      <c r="N42" s="41"/>
+      <c r="M42" s="142"/>
+      <c r="N42" s="58"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="132"/>
-      <c r="B43" s="41"/>
+      <c r="A43" s="62"/>
+      <c r="B43" s="58"/>
       <c r="C43" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="136"/>
-      <c r="E43" s="137"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="71"/>
       <c r="F43" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G43" s="38"/>
-      <c r="H43" s="41"/>
+      <c r="G43" s="142"/>
+      <c r="H43" s="58"/>
       <c r="I43" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J43" s="38"/>
-      <c r="K43" s="41"/>
+      <c r="J43" s="142"/>
+      <c r="K43" s="58"/>
       <c r="L43" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="M43" s="38"/>
-      <c r="N43" s="41"/>
+      <c r="M43" s="142"/>
+      <c r="N43" s="58"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="132"/>
-      <c r="B44" s="41"/>
+      <c r="A44" s="62"/>
+      <c r="B44" s="58"/>
       <c r="C44" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="136"/>
-      <c r="E44" s="137"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="71"/>
       <c r="F44" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G44" s="39"/>
-      <c r="H44" s="41"/>
+      <c r="G44" s="143"/>
+      <c r="H44" s="58"/>
       <c r="I44" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J44" s="38"/>
-      <c r="K44" s="41"/>
+      <c r="J44" s="142"/>
+      <c r="K44" s="58"/>
       <c r="L44" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="M44" s="38"/>
-      <c r="N44" s="41"/>
+      <c r="M44" s="142"/>
+      <c r="N44" s="58"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="132"/>
-      <c r="B45" s="41"/>
+      <c r="A45" s="62"/>
+      <c r="B45" s="58"/>
       <c r="C45" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="136"/>
-      <c r="E45" s="137"/>
+      <c r="D45" s="70"/>
+      <c r="E45" s="71"/>
       <c r="F45" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G45" s="53" t="s">
+      <c r="G45" s="147" t="s">
         <v>84</v>
       </c>
-      <c r="H45" s="41"/>
+      <c r="H45" s="58"/>
       <c r="I45" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J45" s="38"/>
-      <c r="K45" s="41"/>
+      <c r="J45" s="142"/>
+      <c r="K45" s="58"/>
       <c r="L45" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="M45" s="38"/>
-      <c r="N45" s="41"/>
+      <c r="M45" s="142"/>
+      <c r="N45" s="58"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="132"/>
-      <c r="B46" s="41"/>
+      <c r="A46" s="62"/>
+      <c r="B46" s="58"/>
       <c r="C46" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="136"/>
-      <c r="E46" s="137"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="71"/>
       <c r="F46" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G46" s="38"/>
-      <c r="H46" s="41"/>
+      <c r="G46" s="142"/>
+      <c r="H46" s="58"/>
       <c r="I46" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J46" s="38"/>
-      <c r="K46" s="41"/>
+      <c r="J46" s="142"/>
+      <c r="K46" s="58"/>
       <c r="L46" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="M46" s="38"/>
-      <c r="N46" s="41"/>
+      <c r="M46" s="142"/>
+      <c r="N46" s="58"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="132"/>
-      <c r="B47" s="42"/>
+      <c r="A47" s="62"/>
+      <c r="B47" s="59"/>
       <c r="C47" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D47" s="138"/>
-      <c r="E47" s="139"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="73"/>
       <c r="F47" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G47" s="39"/>
-      <c r="H47" s="42"/>
+      <c r="G47" s="143"/>
+      <c r="H47" s="59"/>
       <c r="I47" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="J47" s="39"/>
-      <c r="K47" s="42"/>
+      <c r="J47" s="143"/>
+      <c r="K47" s="59"/>
       <c r="L47" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="M47" s="39"/>
-      <c r="N47" s="42"/>
+      <c r="M47" s="143"/>
+      <c r="N47" s="59"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="132"/>
-      <c r="B48" s="44" t="s">
+      <c r="A48" s="62"/>
+      <c r="B48" s="57" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D48" s="43" t="s">
+      <c r="D48" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="E48" s="44" t="s">
+      <c r="E48" s="57" t="s">
         <v>25</v>
       </c>
       <c r="F48" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G48" s="43" t="s">
+      <c r="G48" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="H48" s="44" t="s">
+      <c r="H48" s="57" t="s">
         <v>47</v>
       </c>
       <c r="I48" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="J48" s="43" t="s">
+      <c r="J48" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="K48" s="50" t="s">
+      <c r="K48" s="145" t="s">
         <v>92</v>
       </c>
       <c r="L48" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="M48" s="43" t="s">
+      <c r="M48" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="N48" s="44" t="s">
+      <c r="N48" s="57" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="132"/>
-      <c r="B49" s="41"/>
+      <c r="A49" s="62"/>
+      <c r="B49" s="58"/>
       <c r="C49" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="140"/>
-      <c r="E49" s="41"/>
+      <c r="D49" s="75"/>
+      <c r="E49" s="58"/>
       <c r="F49" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G49" s="38"/>
-      <c r="H49" s="41"/>
+      <c r="G49" s="142"/>
+      <c r="H49" s="58"/>
       <c r="I49" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J49" s="38"/>
-      <c r="K49" s="41"/>
+      <c r="J49" s="142"/>
+      <c r="K49" s="58"/>
       <c r="L49" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="M49" s="38"/>
-      <c r="N49" s="41"/>
+      <c r="M49" s="142"/>
+      <c r="N49" s="58"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="132"/>
-      <c r="B50" s="41"/>
+      <c r="A50" s="62"/>
+      <c r="B50" s="58"/>
       <c r="C50" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D50" s="140"/>
-      <c r="E50" s="41"/>
+      <c r="D50" s="75"/>
+      <c r="E50" s="58"/>
       <c r="F50" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G50" s="38"/>
-      <c r="H50" s="41"/>
+      <c r="G50" s="142"/>
+      <c r="H50" s="58"/>
       <c r="I50" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J50" s="38"/>
-      <c r="K50" s="41"/>
+      <c r="J50" s="142"/>
+      <c r="K50" s="58"/>
       <c r="L50" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="M50" s="38"/>
-      <c r="N50" s="41"/>
+      <c r="M50" s="142"/>
+      <c r="N50" s="58"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="132"/>
-      <c r="B51" s="41"/>
+      <c r="A51" s="62"/>
+      <c r="B51" s="58"/>
       <c r="C51" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D51" s="140"/>
-      <c r="E51" s="41"/>
+      <c r="D51" s="75"/>
+      <c r="E51" s="58"/>
       <c r="F51" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G51" s="39"/>
-      <c r="H51" s="41"/>
+      <c r="G51" s="143"/>
+      <c r="H51" s="58"/>
       <c r="I51" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J51" s="38"/>
-      <c r="K51" s="41"/>
+      <c r="J51" s="142"/>
+      <c r="K51" s="58"/>
       <c r="L51" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="M51" s="38"/>
-      <c r="N51" s="41"/>
+      <c r="M51" s="142"/>
+      <c r="N51" s="58"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="132"/>
-      <c r="B52" s="41"/>
+      <c r="A52" s="62"/>
+      <c r="B52" s="58"/>
       <c r="C52" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D52" s="140"/>
-      <c r="E52" s="41"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="58"/>
       <c r="F52" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G52" s="43" t="s">
+      <c r="G52" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="H52" s="41"/>
+      <c r="H52" s="58"/>
       <c r="I52" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J52" s="38"/>
-      <c r="K52" s="41"/>
+      <c r="J52" s="142"/>
+      <c r="K52" s="58"/>
       <c r="L52" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="M52" s="38"/>
-      <c r="N52" s="41"/>
+      <c r="M52" s="142"/>
+      <c r="N52" s="58"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="132"/>
-      <c r="B53" s="41"/>
+      <c r="A53" s="62"/>
+      <c r="B53" s="58"/>
       <c r="C53" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D53" s="140"/>
-      <c r="E53" s="41"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="58"/>
       <c r="F53" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G53" s="38"/>
-      <c r="H53" s="41"/>
+      <c r="G53" s="142"/>
+      <c r="H53" s="58"/>
       <c r="I53" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J53" s="38"/>
-      <c r="K53" s="41"/>
+      <c r="J53" s="142"/>
+      <c r="K53" s="58"/>
       <c r="L53" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="M53" s="38"/>
-      <c r="N53" s="41"/>
+      <c r="M53" s="142"/>
+      <c r="N53" s="58"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="132"/>
-      <c r="B54" s="42"/>
+      <c r="A54" s="62"/>
+      <c r="B54" s="59"/>
       <c r="C54" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D54" s="141"/>
-      <c r="E54" s="42"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="59"/>
       <c r="F54" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G54" s="39"/>
-      <c r="H54" s="42"/>
+      <c r="G54" s="143"/>
+      <c r="H54" s="59"/>
       <c r="I54" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="J54" s="39"/>
-      <c r="K54" s="42"/>
+      <c r="J54" s="143"/>
+      <c r="K54" s="59"/>
       <c r="L54" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="M54" s="39"/>
-      <c r="N54" s="42"/>
+      <c r="M54" s="143"/>
+      <c r="N54" s="59"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="132"/>
-      <c r="B55" s="44" t="s">
+      <c r="A55" s="62"/>
+      <c r="B55" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="48" t="s">
+      <c r="C55" s="64" t="s">
         <v>78</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E55" s="44" t="s">
+      <c r="E55" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="F55" s="48" t="s">
+      <c r="F55" s="64" t="s">
         <v>81</v>
       </c>
       <c r="G55" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H55" s="44" t="s">
+      <c r="H55" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="I55" s="45" t="s">
+      <c r="I55" s="146" t="s">
         <v>91</v>
       </c>
       <c r="J55" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="K55" s="50" t="s">
+      <c r="K55" s="145" t="s">
         <v>93</v>
       </c>
-      <c r="L55" s="45" t="s">
+      <c r="L55" s="146" t="s">
         <v>91</v>
       </c>
       <c r="M55" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="N55" s="44" t="s">
+      <c r="N55" s="57" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="132"/>
-      <c r="B56" s="41"/>
-      <c r="C56" s="46"/>
+      <c r="A56" s="62"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="65"/>
       <c r="D56" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="41"/>
-      <c r="F56" s="46"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="65"/>
       <c r="G56" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H56" s="41"/>
-      <c r="I56" s="46"/>
+      <c r="H56" s="58"/>
+      <c r="I56" s="65"/>
       <c r="J56" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K56" s="41"/>
-      <c r="L56" s="46"/>
+      <c r="K56" s="58"/>
+      <c r="L56" s="65"/>
       <c r="M56" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="N56" s="41"/>
+      <c r="N56" s="58"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="132"/>
-      <c r="B57" s="41"/>
-      <c r="C57" s="46"/>
+      <c r="A57" s="62"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="65"/>
       <c r="D57" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E57" s="41"/>
-      <c r="F57" s="46"/>
+      <c r="E57" s="58"/>
+      <c r="F57" s="65"/>
       <c r="G57" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H57" s="41"/>
-      <c r="I57" s="46"/>
+      <c r="H57" s="58"/>
+      <c r="I57" s="65"/>
       <c r="J57" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K57" s="41"/>
-      <c r="L57" s="46"/>
+      <c r="K57" s="58"/>
+      <c r="L57" s="65"/>
       <c r="M57" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="N57" s="41"/>
+      <c r="N57" s="58"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="132"/>
-      <c r="B58" s="41"/>
-      <c r="C58" s="46"/>
+      <c r="A58" s="62"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="65"/>
       <c r="D58" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E58" s="41"/>
-      <c r="F58" s="47"/>
+      <c r="E58" s="58"/>
+      <c r="F58" s="66"/>
       <c r="G58" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H58" s="41"/>
-      <c r="I58" s="46"/>
+      <c r="H58" s="58"/>
+      <c r="I58" s="65"/>
       <c r="J58" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K58" s="41"/>
-      <c r="L58" s="46"/>
+      <c r="K58" s="58"/>
+      <c r="L58" s="65"/>
       <c r="M58" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="N58" s="41"/>
+      <c r="N58" s="58"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="132"/>
-      <c r="B59" s="41"/>
-      <c r="C59" s="46"/>
+      <c r="A59" s="62"/>
+      <c r="B59" s="58"/>
+      <c r="C59" s="65"/>
       <c r="D59" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E59" s="41"/>
-      <c r="F59" s="48" t="s">
+      <c r="E59" s="58"/>
+      <c r="F59" s="64" t="s">
         <v>82</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H59" s="41"/>
-      <c r="I59" s="46"/>
+      <c r="H59" s="58"/>
+      <c r="I59" s="65"/>
       <c r="J59" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K59" s="41"/>
-      <c r="L59" s="46"/>
+      <c r="K59" s="58"/>
+      <c r="L59" s="65"/>
       <c r="M59" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="N59" s="41"/>
+      <c r="N59" s="58"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="132"/>
-      <c r="B60" s="41"/>
-      <c r="C60" s="46"/>
+      <c r="A60" s="62"/>
+      <c r="B60" s="58"/>
+      <c r="C60" s="65"/>
       <c r="D60" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E60" s="41"/>
-      <c r="F60" s="46"/>
+      <c r="E60" s="58"/>
+      <c r="F60" s="65"/>
       <c r="G60" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H60" s="41"/>
-      <c r="I60" s="46"/>
+      <c r="H60" s="58"/>
+      <c r="I60" s="65"/>
       <c r="J60" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K60" s="41"/>
-      <c r="L60" s="46"/>
+      <c r="K60" s="58"/>
+      <c r="L60" s="65"/>
       <c r="M60" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N60" s="41"/>
+      <c r="N60" s="58"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="132"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="47"/>
+      <c r="A61" s="62"/>
+      <c r="B61" s="59"/>
+      <c r="C61" s="66"/>
       <c r="D61" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E61" s="42"/>
-      <c r="F61" s="47"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="66"/>
       <c r="G61" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H61" s="42"/>
-      <c r="I61" s="47"/>
+      <c r="H61" s="59"/>
+      <c r="I61" s="66"/>
       <c r="J61" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K61" s="42"/>
-      <c r="L61" s="47"/>
+      <c r="K61" s="59"/>
+      <c r="L61" s="66"/>
       <c r="M61" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N61" s="42"/>
+      <c r="N61" s="59"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="132"/>
-      <c r="B62" s="44" t="s">
+      <c r="A62" s="62"/>
+      <c r="B62" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C62" s="48" t="s">
+      <c r="C62" s="64" t="s">
         <v>35</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E62" s="44" t="s">
+      <c r="E62" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="F62" s="48" t="s">
+      <c r="F62" s="64" t="s">
         <v>35</v>
       </c>
       <c r="G62" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H62" s="44" t="s">
+      <c r="H62" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="I62" s="48" t="s">
+      <c r="I62" s="64" t="s">
         <v>35</v>
       </c>
       <c r="J62" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="K62" s="50" t="s">
+      <c r="K62" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="L62" s="48" t="s">
+      <c r="L62" s="64" t="s">
         <v>35</v>
       </c>
       <c r="M62" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="N62" s="50" t="s">
+      <c r="N62" s="145" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="132"/>
-      <c r="B63" s="41"/>
-      <c r="C63" s="46"/>
+      <c r="A63" s="62"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="65"/>
       <c r="D63" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="41"/>
-      <c r="F63" s="46"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="65"/>
       <c r="G63" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H63" s="41"/>
-      <c r="I63" s="46"/>
+      <c r="H63" s="58"/>
+      <c r="I63" s="65"/>
       <c r="J63" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K63" s="41"/>
-      <c r="L63" s="46"/>
+      <c r="K63" s="58"/>
+      <c r="L63" s="65"/>
       <c r="M63" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="N63" s="41"/>
+      <c r="N63" s="58"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="132"/>
-      <c r="B64" s="41"/>
-      <c r="C64" s="46"/>
+      <c r="A64" s="62"/>
+      <c r="B64" s="58"/>
+      <c r="C64" s="65"/>
       <c r="D64" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E64" s="41"/>
-      <c r="F64" s="46"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="65"/>
       <c r="G64" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H64" s="41"/>
-      <c r="I64" s="46"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="65"/>
       <c r="J64" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K64" s="41"/>
-      <c r="L64" s="46"/>
+      <c r="K64" s="58"/>
+      <c r="L64" s="65"/>
       <c r="M64" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="N64" s="41"/>
+      <c r="N64" s="58"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="132"/>
-      <c r="B65" s="41"/>
-      <c r="C65" s="46"/>
+      <c r="A65" s="62"/>
+      <c r="B65" s="58"/>
+      <c r="C65" s="65"/>
       <c r="D65" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E65" s="41"/>
-      <c r="F65" s="46"/>
+      <c r="E65" s="58"/>
+      <c r="F65" s="65"/>
       <c r="G65" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H65" s="42"/>
-      <c r="I65" s="46"/>
+      <c r="H65" s="59"/>
+      <c r="I65" s="65"/>
       <c r="J65" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K65" s="41"/>
-      <c r="L65" s="46"/>
+      <c r="K65" s="58"/>
+      <c r="L65" s="65"/>
       <c r="M65" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="N65" s="41"/>
+      <c r="N65" s="58"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="132"/>
-      <c r="B66" s="41"/>
-      <c r="C66" s="46"/>
+      <c r="A66" s="62"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="65"/>
       <c r="D66" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E66" s="41"/>
-      <c r="F66" s="46"/>
+      <c r="E66" s="58"/>
+      <c r="F66" s="65"/>
       <c r="G66" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H66" s="44" t="s">
+      <c r="H66" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="I66" s="46"/>
+      <c r="I66" s="65"/>
       <c r="J66" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K66" s="41"/>
-      <c r="L66" s="46"/>
+      <c r="K66" s="58"/>
+      <c r="L66" s="65"/>
       <c r="M66" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="N66" s="41"/>
+      <c r="N66" s="58"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="132"/>
-      <c r="B67" s="41"/>
-      <c r="C67" s="46"/>
+      <c r="A67" s="62"/>
+      <c r="B67" s="58"/>
+      <c r="C67" s="65"/>
       <c r="D67" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E67" s="41"/>
-      <c r="F67" s="46"/>
+      <c r="E67" s="58"/>
+      <c r="F67" s="65"/>
       <c r="G67" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H67" s="41"/>
-      <c r="I67" s="46"/>
+      <c r="H67" s="58"/>
+      <c r="I67" s="65"/>
       <c r="J67" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K67" s="41"/>
-      <c r="L67" s="46"/>
+      <c r="K67" s="58"/>
+      <c r="L67" s="65"/>
       <c r="M67" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N67" s="41"/>
+      <c r="N67" s="58"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="132"/>
-      <c r="B68" s="42"/>
-      <c r="C68" s="47"/>
+      <c r="A68" s="62"/>
+      <c r="B68" s="59"/>
+      <c r="C68" s="66"/>
       <c r="D68" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E68" s="42"/>
-      <c r="F68" s="47"/>
+      <c r="E68" s="59"/>
+      <c r="F68" s="66"/>
       <c r="G68" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H68" s="42"/>
-      <c r="I68" s="47"/>
+      <c r="H68" s="59"/>
+      <c r="I68" s="66"/>
       <c r="J68" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K68" s="42"/>
-      <c r="L68" s="47"/>
+      <c r="K68" s="59"/>
+      <c r="L68" s="66"/>
       <c r="M68" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N68" s="42"/>
+      <c r="N68" s="59"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="132"/>
-      <c r="B69" s="44" t="s">
+      <c r="A69" s="62"/>
+      <c r="B69" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C69" s="48" t="s">
+      <c r="C69" s="64" t="s">
         <v>36</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E69" s="44" t="s">
+      <c r="E69" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="F69" s="48" t="s">
+      <c r="F69" s="64" t="s">
         <v>36</v>
       </c>
       <c r="G69" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H69" s="44" t="s">
+      <c r="H69" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="I69" s="48" t="s">
+      <c r="I69" s="64" t="s">
         <v>36</v>
       </c>
       <c r="J69" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="K69" s="50" t="s">
+      <c r="K69" s="145" t="s">
         <v>95</v>
       </c>
-      <c r="L69" s="48" t="s">
+      <c r="L69" s="64" t="s">
         <v>36</v>
       </c>
       <c r="M69" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="N69" s="50" t="s">
+      <c r="N69" s="145" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="132"/>
-      <c r="B70" s="41"/>
-      <c r="C70" s="46"/>
+      <c r="A70" s="62"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="65"/>
       <c r="D70" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E70" s="41"/>
-      <c r="F70" s="46"/>
+      <c r="E70" s="58"/>
+      <c r="F70" s="65"/>
       <c r="G70" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H70" s="41"/>
-      <c r="I70" s="46"/>
+      <c r="H70" s="58"/>
+      <c r="I70" s="65"/>
       <c r="J70" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K70" s="41"/>
-      <c r="L70" s="46"/>
+      <c r="K70" s="58"/>
+      <c r="L70" s="65"/>
       <c r="M70" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="N70" s="41"/>
+      <c r="N70" s="58"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="132"/>
-      <c r="B71" s="41"/>
-      <c r="C71" s="46"/>
+      <c r="A71" s="62"/>
+      <c r="B71" s="58"/>
+      <c r="C71" s="65"/>
       <c r="D71" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E71" s="41"/>
-      <c r="F71" s="46"/>
+      <c r="E71" s="58"/>
+      <c r="F71" s="65"/>
       <c r="G71" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H71" s="41"/>
-      <c r="I71" s="46"/>
+      <c r="H71" s="58"/>
+      <c r="I71" s="65"/>
       <c r="J71" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K71" s="41"/>
-      <c r="L71" s="46"/>
+      <c r="K71" s="58"/>
+      <c r="L71" s="65"/>
       <c r="M71" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="N71" s="41"/>
+      <c r="N71" s="58"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="132"/>
-      <c r="B72" s="41"/>
-      <c r="C72" s="46"/>
+      <c r="A72" s="62"/>
+      <c r="B72" s="58"/>
+      <c r="C72" s="65"/>
       <c r="D72" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E72" s="41"/>
-      <c r="F72" s="46"/>
+      <c r="E72" s="58"/>
+      <c r="F72" s="65"/>
       <c r="G72" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H72" s="42"/>
-      <c r="I72" s="46"/>
+      <c r="H72" s="59"/>
+      <c r="I72" s="65"/>
       <c r="J72" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K72" s="41"/>
-      <c r="L72" s="46"/>
+      <c r="K72" s="58"/>
+      <c r="L72" s="65"/>
       <c r="M72" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="N72" s="41"/>
+      <c r="N72" s="58"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="132"/>
-      <c r="B73" s="41"/>
-      <c r="C73" s="46"/>
+      <c r="A73" s="62"/>
+      <c r="B73" s="58"/>
+      <c r="C73" s="65"/>
       <c r="D73" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E73" s="41"/>
-      <c r="F73" s="46"/>
+      <c r="E73" s="58"/>
+      <c r="F73" s="65"/>
       <c r="G73" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H73" s="44" t="s">
+      <c r="H73" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="I73" s="46"/>
+      <c r="I73" s="65"/>
       <c r="J73" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K73" s="41"/>
-      <c r="L73" s="46"/>
+      <c r="K73" s="58"/>
+      <c r="L73" s="65"/>
       <c r="M73" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="N73" s="41"/>
+      <c r="N73" s="58"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="132"/>
-      <c r="B74" s="41"/>
-      <c r="C74" s="46"/>
+      <c r="A74" s="62"/>
+      <c r="B74" s="58"/>
+      <c r="C74" s="65"/>
       <c r="D74" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E74" s="41"/>
-      <c r="F74" s="46"/>
+      <c r="E74" s="58"/>
+      <c r="F74" s="65"/>
       <c r="G74" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H74" s="41"/>
-      <c r="I74" s="46"/>
+      <c r="H74" s="58"/>
+      <c r="I74" s="65"/>
       <c r="J74" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K74" s="41"/>
-      <c r="L74" s="46"/>
+      <c r="K74" s="58"/>
+      <c r="L74" s="65"/>
       <c r="M74" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N74" s="41"/>
+      <c r="N74" s="58"/>
     </row>
     <row r="75" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="133"/>
-      <c r="B75" s="51"/>
-      <c r="C75" s="49"/>
+      <c r="A75" s="63"/>
+      <c r="B75" s="60"/>
+      <c r="C75" s="67"/>
       <c r="D75" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="51"/>
-      <c r="F75" s="49"/>
+      <c r="E75" s="60"/>
+      <c r="F75" s="67"/>
       <c r="G75" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="H75" s="51"/>
-      <c r="I75" s="49"/>
+      <c r="H75" s="60"/>
+      <c r="I75" s="67"/>
       <c r="J75" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="K75" s="51"/>
-      <c r="L75" s="49"/>
+      <c r="K75" s="60"/>
+      <c r="L75" s="67"/>
       <c r="M75" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="N75" s="51"/>
+      <c r="N75" s="60"/>
     </row>
     <row r="76" spans="1:14" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="69" t="s">
+      <c r="A76" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B76" s="71"/>
-      <c r="C76" s="69" t="s">
+      <c r="B76" s="47"/>
+      <c r="C76" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="D76" s="70"/>
-      <c r="E76" s="71"/>
-      <c r="F76" s="69" t="s">
+      <c r="D76" s="46"/>
+      <c r="E76" s="47"/>
+      <c r="F76" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="G76" s="70"/>
-      <c r="H76" s="71"/>
-      <c r="I76" s="69" t="s">
+      <c r="G76" s="46"/>
+      <c r="H76" s="47"/>
+      <c r="I76" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="J76" s="70"/>
-      <c r="K76" s="71"/>
-      <c r="L76" s="69" t="s">
+      <c r="J76" s="46"/>
+      <c r="K76" s="47"/>
+      <c r="L76" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="M76" s="70"/>
-      <c r="N76" s="71"/>
+      <c r="M76" s="46"/>
+      <c r="N76" s="47"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="88" t="s">
+      <c r="A77" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="B77" s="91" t="s">
+      <c r="B77" s="40" t="s">
         <v>11</v>
       </c>
       <c r="C77" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D77" s="142" t="s">
+      <c r="D77" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="E77" s="146" t="s">
+      <c r="E77" s="39" t="s">
         <v>25</v>
       </c>
       <c r="F77" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="G77" s="142" t="s">
+      <c r="G77" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="H77" s="146" t="s">
+      <c r="H77" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="I77" s="32"/>
-      <c r="J77" s="33"/>
-      <c r="K77" s="34"/>
+      <c r="I77" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="J77" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="K77" s="148" t="s">
+        <v>110</v>
+      </c>
       <c r="L77" s="32"/>
       <c r="M77" s="33"/>
       <c r="N77" s="34"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="88"/>
-      <c r="B78" s="91"/>
+      <c r="A78" s="131"/>
+      <c r="B78" s="40"/>
       <c r="C78" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D78" s="143"/>
-      <c r="E78" s="91"/>
+      <c r="D78" s="38"/>
+      <c r="E78" s="40"/>
       <c r="F78" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="G78" s="143"/>
-      <c r="H78" s="91"/>
-      <c r="I78" s="32"/>
-      <c r="J78" s="33"/>
-      <c r="K78" s="34"/>
+      <c r="G78" s="38"/>
+      <c r="H78" s="40"/>
+      <c r="I78" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="J78" s="38"/>
+      <c r="K78" s="40"/>
       <c r="L78" s="32"/>
       <c r="M78" s="33"/>
       <c r="N78" s="34"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="88"/>
-      <c r="B79" s="91"/>
+      <c r="A79" s="131"/>
+      <c r="B79" s="40"/>
       <c r="C79" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D79" s="144" t="s">
+      <c r="D79" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="E79" s="91"/>
+      <c r="E79" s="40"/>
       <c r="F79" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="G79" s="144" t="s">
+      <c r="G79" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="H79" s="91"/>
-      <c r="I79" s="32"/>
-      <c r="J79" s="33"/>
-      <c r="K79" s="34"/>
+      <c r="H79" s="40"/>
+      <c r="I79" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J79" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="K79" s="40"/>
       <c r="L79" s="32"/>
       <c r="M79" s="33"/>
       <c r="N79" s="34"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="88"/>
-      <c r="B80" s="91"/>
+      <c r="A80" s="131"/>
+      <c r="B80" s="40"/>
       <c r="C80" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D80" s="145"/>
-      <c r="E80" s="91"/>
+      <c r="D80" s="43"/>
+      <c r="E80" s="40"/>
       <c r="F80" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G80" s="145"/>
-      <c r="H80" s="91"/>
-      <c r="I80" s="32"/>
-      <c r="J80" s="33"/>
-      <c r="K80" s="34"/>
+      <c r="G80" s="43"/>
+      <c r="H80" s="40"/>
+      <c r="I80" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="J80" s="43"/>
+      <c r="K80" s="40"/>
       <c r="L80" s="32"/>
       <c r="M80" s="33"/>
       <c r="N80" s="34"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="88"/>
-      <c r="B81" s="91"/>
+      <c r="A81" s="131"/>
+      <c r="B81" s="40"/>
       <c r="C81" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D81" s="145"/>
-      <c r="E81" s="91"/>
+      <c r="D81" s="43"/>
+      <c r="E81" s="40"/>
       <c r="F81" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="G81" s="145"/>
-      <c r="H81" s="91"/>
-      <c r="I81" s="32"/>
-      <c r="J81" s="33"/>
-      <c r="K81" s="34"/>
+      <c r="G81" s="43"/>
+      <c r="H81" s="40"/>
+      <c r="I81" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="J81" s="43"/>
+      <c r="K81" s="40"/>
       <c r="L81" s="32"/>
       <c r="M81" s="33"/>
       <c r="N81" s="34"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="89"/>
-      <c r="B82" s="91"/>
+      <c r="A82" s="132"/>
+      <c r="B82" s="40"/>
       <c r="C82" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D82" s="145"/>
-      <c r="E82" s="91"/>
+      <c r="D82" s="43"/>
+      <c r="E82" s="40"/>
       <c r="F82" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G82" s="145"/>
-      <c r="H82" s="91"/>
-      <c r="I82" s="18"/>
-      <c r="J82" s="8"/>
-      <c r="K82" s="19"/>
+      <c r="G82" s="43"/>
+      <c r="H82" s="40"/>
+      <c r="I82" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J82" s="43"/>
+      <c r="K82" s="40"/>
       <c r="L82" s="18"/>
       <c r="M82" s="8"/>
       <c r="N82" s="19"/>
     </row>
     <row r="83" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="89"/>
-      <c r="B83" s="92"/>
+      <c r="A83" s="132"/>
+      <c r="B83" s="41"/>
       <c r="C83" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D83" s="143"/>
-      <c r="E83" s="92"/>
+      <c r="D83" s="38"/>
+      <c r="E83" s="41"/>
       <c r="F83" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G83" s="143"/>
-      <c r="H83" s="92"/>
-      <c r="I83" s="18"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="19"/>
+      <c r="G83" s="38"/>
+      <c r="H83" s="41"/>
+      <c r="I83" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J83" s="38"/>
+      <c r="K83" s="41"/>
       <c r="L83" s="18"/>
       <c r="M83" s="8"/>
       <c r="N83" s="19"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="89"/>
-      <c r="B84" s="93" t="s">
+      <c r="A84" s="132"/>
+      <c r="B84" s="134" t="s">
         <v>12</v>
       </c>
       <c r="C84" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D84" s="147" t="s">
+      <c r="D84" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="E84" s="146" t="s">
+      <c r="E84" s="39" t="s">
         <v>25</v>
       </c>
       <c r="F84" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="G84" s="147" t="s">
+      <c r="G84" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="H84" s="146" t="s">
+      <c r="H84" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="I84" s="18"/>
-      <c r="J84" s="8"/>
-      <c r="K84" s="19"/>
+      <c r="I84" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="J84" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="K84" s="148" t="s">
+        <v>110</v>
+      </c>
       <c r="L84" s="18"/>
       <c r="M84" s="8"/>
       <c r="N84" s="19"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="89"/>
-      <c r="B85" s="91"/>
+      <c r="A85" s="132"/>
+      <c r="B85" s="40"/>
       <c r="C85" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D85" s="143"/>
-      <c r="E85" s="91"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="40"/>
       <c r="F85" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="G85" s="143"/>
-      <c r="H85" s="91"/>
-      <c r="I85" s="18"/>
-      <c r="J85" s="8"/>
-      <c r="K85" s="19"/>
+      <c r="G85" s="38"/>
+      <c r="H85" s="40"/>
+      <c r="I85" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="J85" s="38"/>
+      <c r="K85" s="40"/>
       <c r="L85" s="18"/>
       <c r="M85" s="8"/>
       <c r="N85" s="19"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="89"/>
-      <c r="B86" s="91"/>
+      <c r="A86" s="132"/>
+      <c r="B86" s="40"/>
       <c r="C86" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="144" t="s">
+      <c r="D86" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="E86" s="91"/>
+      <c r="E86" s="40"/>
       <c r="F86" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="G86" s="144" t="s">
+      <c r="G86" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="H86" s="91"/>
-      <c r="I86" s="18"/>
-      <c r="J86" s="8"/>
-      <c r="K86" s="19"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J86" s="149" t="s">
+        <v>112</v>
+      </c>
+      <c r="K86" s="40"/>
       <c r="L86" s="18"/>
       <c r="M86" s="8"/>
       <c r="N86" s="19"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="89"/>
-      <c r="B87" s="91"/>
+      <c r="A87" s="132"/>
+      <c r="B87" s="40"/>
       <c r="C87" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D87" s="145"/>
-      <c r="E87" s="91"/>
+      <c r="D87" s="43"/>
+      <c r="E87" s="40"/>
       <c r="F87" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G87" s="145"/>
-      <c r="H87" s="91"/>
-      <c r="I87" s="18"/>
-      <c r="J87" s="8"/>
-      <c r="K87" s="19"/>
+      <c r="G87" s="43"/>
+      <c r="H87" s="40"/>
+      <c r="I87" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="J87" s="43"/>
+      <c r="K87" s="40"/>
       <c r="L87" s="18"/>
       <c r="M87" s="8"/>
       <c r="N87" s="19"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="89"/>
-      <c r="B88" s="91"/>
+      <c r="A88" s="132"/>
+      <c r="B88" s="40"/>
       <c r="C88" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D88" s="145"/>
-      <c r="E88" s="91"/>
+      <c r="D88" s="43"/>
+      <c r="E88" s="40"/>
       <c r="F88" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="G88" s="145"/>
-      <c r="H88" s="91"/>
-      <c r="I88" s="18"/>
-      <c r="J88" s="8"/>
-      <c r="K88" s="19"/>
+      <c r="G88" s="43"/>
+      <c r="H88" s="40"/>
+      <c r="I88" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="J88" s="43"/>
+      <c r="K88" s="40"/>
       <c r="L88" s="18"/>
       <c r="M88" s="8"/>
       <c r="N88" s="19"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="89"/>
-      <c r="B89" s="91"/>
+      <c r="A89" s="132"/>
+      <c r="B89" s="40"/>
       <c r="C89" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D89" s="145"/>
-      <c r="E89" s="91"/>
+      <c r="D89" s="43"/>
+      <c r="E89" s="40"/>
       <c r="F89" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G89" s="145"/>
-      <c r="H89" s="91"/>
-      <c r="I89" s="18"/>
-      <c r="J89" s="8"/>
-      <c r="K89" s="19"/>
+      <c r="G89" s="43"/>
+      <c r="H89" s="40"/>
+      <c r="I89" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J89" s="43"/>
+      <c r="K89" s="40"/>
       <c r="L89" s="18"/>
       <c r="M89" s="8"/>
       <c r="N89" s="19"/>
     </row>
     <row r="90" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="89"/>
-      <c r="B90" s="94"/>
+      <c r="A90" s="132"/>
+      <c r="B90" s="135"/>
       <c r="C90" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D90" s="143"/>
-      <c r="E90" s="92"/>
+      <c r="D90" s="38"/>
+      <c r="E90" s="41"/>
       <c r="F90" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G90" s="143"/>
-      <c r="H90" s="92"/>
-      <c r="I90" s="18"/>
-      <c r="J90" s="8"/>
-      <c r="K90" s="19"/>
+      <c r="G90" s="38"/>
+      <c r="H90" s="41"/>
+      <c r="I90" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J90" s="38"/>
+      <c r="K90" s="41"/>
       <c r="L90" s="18"/>
       <c r="M90" s="8"/>
       <c r="N90" s="19"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="89"/>
-      <c r="B91" s="93" t="s">
+      <c r="A91" s="132"/>
+      <c r="B91" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="C91" s="142" t="s">
+      <c r="C91" s="44" t="s">
         <v>109</v>
       </c>
       <c r="D91" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="E91" s="146" t="s">
+      <c r="E91" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="F91" s="142" t="s">
+      <c r="F91" s="44" t="s">
         <v>109</v>
       </c>
       <c r="G91" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="H91" s="146" t="s">
+      <c r="H91" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="I91" s="18"/>
-      <c r="J91" s="8"/>
-      <c r="K91" s="19"/>
+      <c r="I91" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="J91" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="K91" s="148" t="s">
+        <v>114</v>
+      </c>
       <c r="L91" s="18"/>
       <c r="M91" s="8"/>
       <c r="N91" s="19"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="89"/>
-      <c r="B92" s="91"/>
-      <c r="C92" s="143"/>
+      <c r="A92" s="132"/>
+      <c r="B92" s="40"/>
+      <c r="C92" s="38"/>
       <c r="D92" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E92" s="91"/>
-      <c r="F92" s="143"/>
+      <c r="E92" s="40"/>
+      <c r="F92" s="38"/>
       <c r="G92" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="H92" s="91"/>
-      <c r="I92" s="18"/>
-      <c r="J92" s="8"/>
-      <c r="K92" s="19"/>
+      <c r="H92" s="40"/>
+      <c r="I92" s="38"/>
+      <c r="J92" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="K92" s="40"/>
       <c r="L92" s="18"/>
       <c r="M92" s="8"/>
       <c r="N92" s="19"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="89"/>
-      <c r="B93" s="91"/>
-      <c r="C93" s="144" t="s">
+      <c r="A93" s="132"/>
+      <c r="B93" s="40"/>
+      <c r="C93" s="42" t="s">
         <v>108</v>
       </c>
       <c r="D93" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="E93" s="91"/>
-      <c r="F93" s="144" t="s">
+      <c r="E93" s="40"/>
+      <c r="F93" s="42" t="s">
         <v>108</v>
       </c>
       <c r="G93" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="H93" s="91"/>
-      <c r="I93" s="18"/>
-      <c r="J93" s="8"/>
-      <c r="K93" s="19"/>
+      <c r="H93" s="40"/>
+      <c r="I93" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="J93" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K93" s="40"/>
       <c r="L93" s="18"/>
       <c r="M93" s="8"/>
       <c r="N93" s="19"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="89"/>
-      <c r="B94" s="91"/>
-      <c r="C94" s="145"/>
+      <c r="A94" s="132"/>
+      <c r="B94" s="40"/>
+      <c r="C94" s="43"/>
       <c r="D94" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E94" s="91"/>
-      <c r="F94" s="145"/>
+      <c r="E94" s="40"/>
+      <c r="F94" s="43"/>
       <c r="G94" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="H94" s="91"/>
-      <c r="I94" s="18"/>
-      <c r="J94" s="8"/>
-      <c r="K94" s="19"/>
+      <c r="H94" s="40"/>
+      <c r="I94" s="43"/>
+      <c r="J94" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="K94" s="40"/>
       <c r="L94" s="18"/>
       <c r="M94" s="8"/>
       <c r="N94" s="19"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="89"/>
-      <c r="B95" s="91"/>
-      <c r="C95" s="145"/>
+      <c r="A95" s="132"/>
+      <c r="B95" s="40"/>
+      <c r="C95" s="43"/>
       <c r="D95" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E95" s="91"/>
-      <c r="F95" s="145"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="43"/>
       <c r="G95" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="H95" s="91"/>
-      <c r="I95" s="18"/>
-      <c r="J95" s="8"/>
-      <c r="K95" s="19"/>
+      <c r="H95" s="40"/>
+      <c r="I95" s="43"/>
+      <c r="J95" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="K95" s="40"/>
       <c r="L95" s="18"/>
       <c r="M95" s="8"/>
       <c r="N95" s="19"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" s="89"/>
-      <c r="B96" s="91"/>
-      <c r="C96" s="145"/>
+      <c r="A96" s="132"/>
+      <c r="B96" s="40"/>
+      <c r="C96" s="43"/>
       <c r="D96" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E96" s="91"/>
-      <c r="F96" s="145"/>
+      <c r="E96" s="40"/>
+      <c r="F96" s="43"/>
       <c r="G96" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H96" s="91"/>
-      <c r="I96" s="18"/>
-      <c r="J96" s="8"/>
-      <c r="K96" s="19"/>
+      <c r="H96" s="40"/>
+      <c r="I96" s="43"/>
+      <c r="J96" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K96" s="40"/>
       <c r="L96" s="18"/>
       <c r="M96" s="8"/>
       <c r="N96" s="19"/>
     </row>
     <row r="97" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="90"/>
-      <c r="B97" s="94"/>
-      <c r="C97" s="143"/>
+      <c r="A97" s="133"/>
+      <c r="B97" s="135"/>
+      <c r="C97" s="38"/>
       <c r="D97" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E97" s="92"/>
-      <c r="F97" s="143"/>
+      <c r="E97" s="41"/>
+      <c r="F97" s="38"/>
       <c r="G97" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H97" s="92"/>
-      <c r="I97" s="20"/>
-      <c r="J97" s="21"/>
-      <c r="K97" s="22"/>
+      <c r="H97" s="41"/>
+      <c r="I97" s="38"/>
+      <c r="J97" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K97" s="41"/>
       <c r="L97" s="20"/>
       <c r="M97" s="21"/>
       <c r="N97" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="173">
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="H84:H90"/>
-    <mergeCell ref="G86:G90"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="H91:H97"/>
-    <mergeCell ref="F93:F97"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="F76:H76"/>
-    <mergeCell ref="I76:K76"/>
-    <mergeCell ref="L76:N76"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="D79:D83"/>
-    <mergeCell ref="E77:E83"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H83"/>
-    <mergeCell ref="G79:G83"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="K12:K18"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="K19:K25"/>
-    <mergeCell ref="B62:B68"/>
-    <mergeCell ref="B69:B75"/>
-    <mergeCell ref="A41:A75"/>
-    <mergeCell ref="C62:C68"/>
-    <mergeCell ref="E62:E68"/>
-    <mergeCell ref="C69:C75"/>
-    <mergeCell ref="E69:E75"/>
-    <mergeCell ref="D41:E47"/>
-    <mergeCell ref="D48:D54"/>
-    <mergeCell ref="E48:E54"/>
-    <mergeCell ref="C55:C61"/>
-    <mergeCell ref="E55:E61"/>
+  <mergeCells count="182">
+    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="K84:K90"/>
+    <mergeCell ref="J86:J90"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="K91:K97"/>
+    <mergeCell ref="I93:I97"/>
+    <mergeCell ref="N48:N54"/>
+    <mergeCell ref="L55:L61"/>
+    <mergeCell ref="N55:N61"/>
+    <mergeCell ref="L62:L68"/>
+    <mergeCell ref="L69:L75"/>
+    <mergeCell ref="N62:N68"/>
+    <mergeCell ref="N69:N75"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="J79:J83"/>
+    <mergeCell ref="K77:K83"/>
+    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="H66:H68"/>
+    <mergeCell ref="H69:H72"/>
+    <mergeCell ref="H73:H75"/>
+    <mergeCell ref="J41:J47"/>
+    <mergeCell ref="K41:K47"/>
+    <mergeCell ref="K48:K54"/>
+    <mergeCell ref="J48:J54"/>
+    <mergeCell ref="I55:I61"/>
+    <mergeCell ref="K55:K61"/>
+    <mergeCell ref="I62:I68"/>
+    <mergeCell ref="I69:I75"/>
+    <mergeCell ref="K62:K68"/>
+    <mergeCell ref="K69:K75"/>
+    <mergeCell ref="H41:H47"/>
+    <mergeCell ref="H55:H61"/>
+    <mergeCell ref="H48:H54"/>
+    <mergeCell ref="L19:L22"/>
+    <mergeCell ref="N19:N25"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="L26:L32"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="N30:N32"/>
+    <mergeCell ref="L33:L39"/>
+    <mergeCell ref="N33:N36"/>
+    <mergeCell ref="N37:N39"/>
+    <mergeCell ref="I26:I32"/>
+    <mergeCell ref="I33:I39"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="K33:K36"/>
+    <mergeCell ref="K37:K39"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="G41:G44"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="G48:G51"/>
+    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="M41:M47"/>
+    <mergeCell ref="N41:N47"/>
+    <mergeCell ref="M48:M54"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="E19:E25"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="F33:F39"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="H19:H25"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="M5:M8"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="N5:N11"/>
+    <mergeCell ref="M12:M15"/>
+    <mergeCell ref="N12:N18"/>
+    <mergeCell ref="M16:M18"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E90"/>
+    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="C93:C97"/>
+    <mergeCell ref="E91:E97"/>
+    <mergeCell ref="F26:F32"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F62:F68"/>
+    <mergeCell ref="F69:F75"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="F59:F61"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="A5:A39"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="H12:H18"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="E12:E18"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="C26:C32"/>
     <mergeCell ref="J5:J8"/>
     <mergeCell ref="J9:J11"/>
     <mergeCell ref="I2:K2"/>
@@ -4788,118 +5054,54 @@
     <mergeCell ref="G6:G8"/>
     <mergeCell ref="G9:G11"/>
     <mergeCell ref="H5:H11"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="A5:A39"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="H12:H18"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="E12:E18"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="C26:C32"/>
-    <mergeCell ref="A77:A97"/>
-    <mergeCell ref="B77:B83"/>
-    <mergeCell ref="B84:B90"/>
-    <mergeCell ref="B91:B97"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="K12:K18"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="K19:K25"/>
+    <mergeCell ref="B62:B68"/>
+    <mergeCell ref="B69:B75"/>
+    <mergeCell ref="A41:A75"/>
+    <mergeCell ref="C62:C68"/>
+    <mergeCell ref="E62:E68"/>
+    <mergeCell ref="C69:C75"/>
+    <mergeCell ref="E69:E75"/>
+    <mergeCell ref="D41:E47"/>
+    <mergeCell ref="D48:D54"/>
+    <mergeCell ref="E48:E54"/>
+    <mergeCell ref="C55:C61"/>
+    <mergeCell ref="E55:E61"/>
     <mergeCell ref="B41:B47"/>
     <mergeCell ref="B48:B54"/>
     <mergeCell ref="B55:B61"/>
     <mergeCell ref="E33:E36"/>
     <mergeCell ref="E37:E39"/>
     <mergeCell ref="A40:B40"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="H84:H90"/>
+    <mergeCell ref="G86:G90"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="H91:H97"/>
+    <mergeCell ref="F93:F97"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="F76:H76"/>
+    <mergeCell ref="I76:K76"/>
+    <mergeCell ref="L76:N76"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="D79:D83"/>
+    <mergeCell ref="E77:E83"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H83"/>
+    <mergeCell ref="G79:G83"/>
+    <mergeCell ref="A77:A97"/>
+    <mergeCell ref="B77:B83"/>
+    <mergeCell ref="B84:B90"/>
+    <mergeCell ref="B91:B97"/>
     <mergeCell ref="C40:E40"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E90"/>
-    <mergeCell ref="D86:D90"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="C93:C97"/>
-    <mergeCell ref="E91:E97"/>
-    <mergeCell ref="F26:F32"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="E19:E25"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="F33:F39"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="H37:H39"/>
-    <mergeCell ref="H19:H25"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="M5:M8"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="N5:N11"/>
-    <mergeCell ref="M12:M15"/>
-    <mergeCell ref="N12:N18"/>
-    <mergeCell ref="M16:M18"/>
-    <mergeCell ref="H48:H54"/>
-    <mergeCell ref="L19:L22"/>
-    <mergeCell ref="N19:N25"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="L26:L32"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="N30:N32"/>
-    <mergeCell ref="L33:L39"/>
-    <mergeCell ref="N33:N36"/>
-    <mergeCell ref="N37:N39"/>
-    <mergeCell ref="I26:I32"/>
-    <mergeCell ref="I33:I39"/>
-    <mergeCell ref="K26:K29"/>
-    <mergeCell ref="K30:K32"/>
-    <mergeCell ref="K33:K36"/>
-    <mergeCell ref="K37:K39"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="F62:F68"/>
-    <mergeCell ref="F69:F75"/>
-    <mergeCell ref="H62:H65"/>
-    <mergeCell ref="H66:H68"/>
-    <mergeCell ref="H69:H72"/>
-    <mergeCell ref="H73:H75"/>
-    <mergeCell ref="J41:J47"/>
-    <mergeCell ref="K41:K47"/>
-    <mergeCell ref="K48:K54"/>
-    <mergeCell ref="J48:J54"/>
-    <mergeCell ref="I55:I61"/>
-    <mergeCell ref="K55:K61"/>
-    <mergeCell ref="I62:I68"/>
-    <mergeCell ref="I69:I75"/>
-    <mergeCell ref="K62:K68"/>
-    <mergeCell ref="K69:K75"/>
-    <mergeCell ref="G41:G44"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="H41:H47"/>
-    <mergeCell ref="F55:F58"/>
-    <mergeCell ref="F59:F61"/>
-    <mergeCell ref="H55:H61"/>
-    <mergeCell ref="G48:G51"/>
-    <mergeCell ref="G52:G54"/>
-    <mergeCell ref="M41:M47"/>
-    <mergeCell ref="N41:N47"/>
-    <mergeCell ref="M48:M54"/>
-    <mergeCell ref="N48:N54"/>
-    <mergeCell ref="L55:L61"/>
-    <mergeCell ref="N55:N61"/>
-    <mergeCell ref="L62:L68"/>
-    <mergeCell ref="L69:L75"/>
-    <mergeCell ref="N62:N68"/>
-    <mergeCell ref="N69:N75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/scheme.xlsx
+++ b/scheme.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="117">
   <si>
     <t>I</t>
   </si>
@@ -263,10 +263,6 @@
   </si>
   <si>
     <t>By what time?</t>
-  </si>
-  <si>
-    <t>ever, never, just, already, 
-by 3 p.m.</t>
   </si>
   <si>
     <t>have ('ve)</t>
@@ -843,6 +839,68 @@
       </rPr>
       <t>by 7 o'clock?</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>have been work</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ing
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>here all day</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>have been work</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ing
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>here all day?</t>
+    </r>
+  </si>
+  <si>
+    <t>ever, never, just, already, 
+by 3 p.m., yet</t>
   </si>
 </sst>
 </file>
@@ -948,7 +1006,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -1588,11 +1646,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1632,10 +1740,8 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1664,10 +1770,79 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1680,7 +1855,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1689,7 +1864,22 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1701,6 +1891,18 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1788,6 +1990,21 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1818,15 +2035,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1914,12 +2122,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1950,26 +2152,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1980,13 +2179,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1998,13 +2191,46 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2295,11 +2521,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N97"/>
+  <dimension ref="A1:N111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L82" sqref="L82"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2312,324 +2538,324 @@
     <col min="6" max="6" width="8.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="150" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="100" t="s">
+      <c r="B1" s="151"/>
+      <c r="C1" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="101"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="103" t="s">
+      <c r="D1" s="139"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="104"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="106" t="s">
+      <c r="G1" s="142"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="107"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="109" t="s">
+      <c r="J1" s="145"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="110"/>
-      <c r="N1" s="111"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="149"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="79" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="79" t="s">
+      <c r="D2" s="121"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="120" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="80"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="79" t="s">
+      <c r="G2" s="121"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="79" t="s">
+      <c r="J2" s="121"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="120" t="s">
+        <v>70</v>
+      </c>
+      <c r="M2" s="121"/>
+      <c r="N2" s="122"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="157"/>
+      <c r="B3" s="158"/>
+      <c r="C3" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="121"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="120" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="121"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="120" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="121"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="120" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="80"/>
-      <c r="N2" s="81"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="121"/>
-      <c r="B3" s="122"/>
-      <c r="C3" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="80"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="79" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="80"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="79" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" s="80"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="79" t="s">
+      <c r="M3" s="121"/>
+      <c r="N3" s="122"/>
+    </row>
+    <row r="4" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="79"/>
+      <c r="C4" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="78"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="78"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="J4" s="78"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="M3" s="80"/>
-      <c r="N3" s="81"/>
-    </row>
-    <row r="4" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="46"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="45" t="s">
+      <c r="M4" s="78"/>
+      <c r="N4" s="79"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="154" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="152" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="129"/>
+      <c r="E5" s="127" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="135" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="118" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="46"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="45" t="s">
+      <c r="K5" s="123" t="s">
+        <v>65</v>
+      </c>
+      <c r="L5" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="118" t="s">
+        <v>58</v>
+      </c>
+      <c r="N5" s="123" t="s">
         <v>73</v>
       </c>
-      <c r="M4" s="46"/>
-      <c r="N4" s="47"/>
-    </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="114" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="91"/>
-      <c r="E5" s="86" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="97" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="77" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" s="82" t="s">
-        <v>66</v>
-      </c>
-      <c r="L5" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="M5" s="77" t="s">
-        <v>59</v>
-      </c>
-      <c r="N5" s="82" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="117"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="83" t="s">
+      <c r="A6" s="155"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="87"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="115"/>
       <c r="F6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="93" t="s">
+      <c r="G6" s="131" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="98"/>
-      <c r="I6" s="25" t="s">
+      <c r="H6" s="136"/>
+      <c r="I6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="49"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="25" t="s">
+      <c r="J6" s="85"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="49"/>
-      <c r="N6" s="52"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="88"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="117"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="83" t="s">
+      <c r="A7" s="155"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="84"/>
-      <c r="E7" s="87"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="115"/>
       <c r="F7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="84"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="25" t="s">
+      <c r="G7" s="125"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="49"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="25" t="s">
+      <c r="J7" s="85"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="49"/>
-      <c r="N7" s="52"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="88"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="117"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="85" t="s">
+      <c r="A8" s="155"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="92"/>
-      <c r="E8" s="88"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="116"/>
       <c r="F8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="92"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="26" t="s">
+      <c r="G8" s="130"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="50"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="26" t="s">
+      <c r="J8" s="86"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="50"/>
-      <c r="N8" s="52"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="88"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="117"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="83" t="s">
+      <c r="A9" s="155"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="84"/>
-      <c r="E9" s="89" t="s">
+      <c r="D9" s="125"/>
+      <c r="E9" s="114" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="94" t="s">
+      <c r="G9" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="98"/>
-      <c r="I9" s="25" t="s">
+      <c r="H9" s="136"/>
+      <c r="I9" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="K9" s="52"/>
-      <c r="L9" s="25" t="s">
+      <c r="J9" s="119" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" s="88"/>
+      <c r="L9" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="N9" s="52"/>
+      <c r="M9" s="119" t="s">
+        <v>59</v>
+      </c>
+      <c r="N9" s="88"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="117"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="83" t="s">
+      <c r="A10" s="155"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="84"/>
-      <c r="E10" s="87"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="115"/>
       <c r="F10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="95"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="25" t="s">
+      <c r="G10" s="133"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="49"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="25" t="s">
+      <c r="J10" s="85"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="49"/>
-      <c r="N10" s="52"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="88"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="117"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="85" t="s">
+      <c r="A11" s="155"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="84"/>
-      <c r="E11" s="88"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="116"/>
       <c r="F11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="96"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="26" t="s">
+      <c r="G11" s="134"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="50"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="26" t="s">
+      <c r="J11" s="86"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="50"/>
-      <c r="N11" s="53"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="89"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="117"/>
-      <c r="B12" s="115" t="s">
+      <c r="A12" s="155"/>
+      <c r="B12" s="153" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="125" t="s">
+      <c r="D12" s="161" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="89" t="s">
+      <c r="E12" s="114" t="s">
         <v>25</v>
       </c>
       <c r="F12" s="12" t="s">
@@ -2638,194 +2864,194 @@
       <c r="G12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="124" t="s">
+      <c r="H12" s="160" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I12" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="K12" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="L12" s="24" t="s">
+      <c r="J12" s="84" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="87" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="M12" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="N12" s="51" t="s">
-        <v>74</v>
+      <c r="M12" s="84" t="s">
+        <v>60</v>
+      </c>
+      <c r="N12" s="87" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="117"/>
-      <c r="B13" s="52"/>
+      <c r="A13" s="155"/>
+      <c r="B13" s="88"/>
       <c r="C13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="126"/>
-      <c r="E13" s="87"/>
+      <c r="D13" s="162"/>
+      <c r="E13" s="115"/>
       <c r="F13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="93" t="s">
+      <c r="G13" s="131" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="98"/>
-      <c r="I13" s="25" t="s">
+      <c r="H13" s="136"/>
+      <c r="I13" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="49"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="25" t="s">
+      <c r="J13" s="85"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="M13" s="49"/>
-      <c r="N13" s="52"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="88"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="117"/>
-      <c r="B14" s="52"/>
+      <c r="A14" s="155"/>
+      <c r="B14" s="88"/>
       <c r="C14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="126"/>
-      <c r="E14" s="87"/>
+      <c r="D14" s="162"/>
+      <c r="E14" s="115"/>
       <c r="F14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="84"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="25" t="s">
+      <c r="G14" s="125"/>
+      <c r="H14" s="136"/>
+      <c r="I14" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="49"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="25" t="s">
+      <c r="J14" s="85"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="M14" s="49"/>
-      <c r="N14" s="52"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="88"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="117"/>
-      <c r="B15" s="52"/>
+      <c r="A15" s="155"/>
+      <c r="B15" s="88"/>
       <c r="C15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="127"/>
-      <c r="E15" s="87"/>
+      <c r="D15" s="163"/>
+      <c r="E15" s="115"/>
       <c r="F15" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="92"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="26" t="s">
+      <c r="G15" s="130"/>
+      <c r="H15" s="136"/>
+      <c r="I15" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="50"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="26" t="s">
+      <c r="J15" s="86"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="M15" s="50"/>
-      <c r="N15" s="52"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="88"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="117"/>
-      <c r="B16" s="52"/>
+      <c r="A16" s="155"/>
+      <c r="B16" s="88"/>
       <c r="C16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="125" t="s">
+      <c r="D16" s="161" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="87"/>
+      <c r="E16" s="115"/>
       <c r="F16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="94" t="s">
+      <c r="G16" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="98"/>
-      <c r="I16" s="25" t="s">
+      <c r="H16" s="136"/>
+      <c r="I16" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="K16" s="52"/>
-      <c r="L16" s="25" t="s">
+      <c r="J16" s="84" t="s">
+        <v>61</v>
+      </c>
+      <c r="K16" s="88"/>
+      <c r="L16" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="M16" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="N16" s="52"/>
+      <c r="M16" s="84" t="s">
+        <v>61</v>
+      </c>
+      <c r="N16" s="88"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="117"/>
-      <c r="B17" s="52"/>
+      <c r="A17" s="155"/>
+      <c r="B17" s="88"/>
       <c r="C17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="95"/>
-      <c r="E17" s="87"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="115"/>
       <c r="F17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="95"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="25" t="s">
+      <c r="G17" s="133"/>
+      <c r="H17" s="136"/>
+      <c r="I17" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="49"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="25" t="s">
+      <c r="J17" s="85"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="M17" s="49"/>
-      <c r="N17" s="52"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="88"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="117"/>
-      <c r="B18" s="53"/>
+      <c r="A18" s="155"/>
+      <c r="B18" s="89"/>
       <c r="C18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="96"/>
-      <c r="E18" s="88"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="116"/>
       <c r="F18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="96"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="26" t="s">
+      <c r="G18" s="134"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="50"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="26" t="s">
+      <c r="J18" s="86"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="M18" s="50"/>
-      <c r="N18" s="53"/>
+      <c r="M18" s="86"/>
+      <c r="N18" s="89"/>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="117"/>
-      <c r="B19" s="115" t="s">
+      <c r="A19" s="155"/>
+      <c r="B19" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="83" t="s">
+      <c r="C19" s="124" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E19" s="89" t="s">
+      <c r="E19" s="114" t="s">
         <v>29</v>
       </c>
       <c r="F19" s="12" t="s">
@@ -2834,2092 +3060,2396 @@
       <c r="G19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H19" s="124" t="s">
+      <c r="H19" s="160" t="s">
         <v>55</v>
       </c>
-      <c r="I19" s="54" t="s">
-        <v>63</v>
+      <c r="I19" s="90" t="s">
+        <v>62</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K19" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="L19" s="54" t="s">
-        <v>63</v>
+      <c r="K19" s="87" t="s">
+        <v>64</v>
+      </c>
+      <c r="L19" s="90" t="s">
+        <v>62</v>
       </c>
       <c r="M19" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="N19" s="51" t="s">
-        <v>75</v>
+      <c r="N19" s="87" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="117"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="83"/>
+      <c r="A20" s="155"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="124"/>
       <c r="D20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="87"/>
-      <c r="F20" s="128" t="s">
+      <c r="E20" s="115"/>
+      <c r="F20" s="164" t="s">
         <v>49</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="98"/>
-      <c r="I20" s="55"/>
+      <c r="H20" s="136"/>
+      <c r="I20" s="91"/>
       <c r="J20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="52"/>
-      <c r="L20" s="55"/>
+      <c r="K20" s="88"/>
+      <c r="L20" s="91"/>
       <c r="M20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N20" s="52"/>
+      <c r="N20" s="88"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="117"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="83"/>
+      <c r="A21" s="155"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="124"/>
       <c r="D21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="87"/>
-      <c r="F21" s="129"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="165"/>
       <c r="G21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="98"/>
-      <c r="I21" s="55"/>
+      <c r="H21" s="136"/>
+      <c r="I21" s="91"/>
       <c r="J21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="52"/>
-      <c r="L21" s="55"/>
+      <c r="K21" s="88"/>
+      <c r="L21" s="91"/>
       <c r="M21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N21" s="52"/>
+      <c r="N21" s="88"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="117"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="85"/>
+      <c r="A22" s="155"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="126"/>
       <c r="D22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="87"/>
-      <c r="F22" s="130"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="166"/>
       <c r="G22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="98"/>
-      <c r="I22" s="56"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="92"/>
       <c r="J22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K22" s="52"/>
-      <c r="L22" s="56"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="92"/>
       <c r="M22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="52"/>
+      <c r="N22" s="88"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="117"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="138" t="s">
+      <c r="A23" s="155"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="173" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="87"/>
-      <c r="F23" s="128" t="s">
+      <c r="E23" s="115"/>
+      <c r="F23" s="164" t="s">
         <v>50</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H23" s="98"/>
-      <c r="I23" s="54" t="s">
-        <v>64</v>
+      <c r="H23" s="136"/>
+      <c r="I23" s="90" t="s">
+        <v>63</v>
       </c>
       <c r="J23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="52"/>
-      <c r="L23" s="54" t="s">
-        <v>64</v>
+      <c r="K23" s="88"/>
+      <c r="L23" s="90" t="s">
+        <v>63</v>
       </c>
       <c r="M23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N23" s="52"/>
+      <c r="N23" s="88"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="117"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="83"/>
+      <c r="A24" s="155"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="124"/>
       <c r="D24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="87"/>
-      <c r="F24" s="129"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="165"/>
       <c r="G24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="98"/>
-      <c r="I24" s="55"/>
+      <c r="H24" s="136"/>
+      <c r="I24" s="91"/>
       <c r="J24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="52"/>
-      <c r="L24" s="55"/>
+      <c r="K24" s="88"/>
+      <c r="L24" s="91"/>
       <c r="M24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N24" s="52"/>
+      <c r="N24" s="88"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="117"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="85"/>
+      <c r="A25" s="155"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="126"/>
       <c r="D25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="88"/>
-      <c r="F25" s="130"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="166"/>
       <c r="G25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="99"/>
-      <c r="I25" s="56"/>
+      <c r="H25" s="137"/>
+      <c r="I25" s="92"/>
       <c r="J25" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="53"/>
-      <c r="L25" s="56"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="92"/>
       <c r="M25" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N25" s="53"/>
+      <c r="N25" s="89"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="117"/>
-      <c r="B26" s="115" t="s">
+      <c r="A26" s="155"/>
+      <c r="B26" s="153" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="128" t="s">
+      <c r="C26" s="164" t="s">
         <v>35</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E26" s="89" t="s">
+      <c r="E26" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="128" t="s">
+      <c r="F26" s="164" t="s">
         <v>35</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H26" s="23" t="s">
+      <c r="H26" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I26" s="128" t="s">
+      <c r="I26" s="164" t="s">
         <v>35</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K26" s="115" t="s">
-        <v>67</v>
-      </c>
-      <c r="L26" s="128" t="s">
+      <c r="K26" s="153" t="s">
+        <v>66</v>
+      </c>
+      <c r="L26" s="164" t="s">
         <v>35</v>
       </c>
       <c r="M26" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="N26" s="115" t="s">
-        <v>67</v>
+      <c r="N26" s="153" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="117"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="129"/>
+      <c r="A27" s="155"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="165"/>
       <c r="D27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="87"/>
-      <c r="F27" s="129"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="165"/>
       <c r="G27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="124" t="s">
+      <c r="H27" s="160" t="s">
         <v>4</v>
       </c>
-      <c r="I27" s="129"/>
+      <c r="I27" s="165"/>
       <c r="J27" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K27" s="52"/>
-      <c r="L27" s="129"/>
+      <c r="K27" s="88"/>
+      <c r="L27" s="165"/>
       <c r="M27" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N27" s="52"/>
+      <c r="N27" s="88"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="117"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="129"/>
+      <c r="A28" s="155"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="165"/>
       <c r="D28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="87"/>
-      <c r="F28" s="129"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="165"/>
       <c r="G28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="98"/>
-      <c r="I28" s="129"/>
+      <c r="H28" s="136"/>
+      <c r="I28" s="165"/>
       <c r="J28" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="52"/>
-      <c r="L28" s="129"/>
+      <c r="K28" s="88"/>
+      <c r="L28" s="165"/>
       <c r="M28" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N28" s="52"/>
+      <c r="N28" s="88"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="117"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="129"/>
+      <c r="A29" s="155"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="165"/>
       <c r="D29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="88"/>
-      <c r="F29" s="129"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="165"/>
       <c r="G29" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="99"/>
-      <c r="I29" s="129"/>
+      <c r="H29" s="137"/>
+      <c r="I29" s="165"/>
       <c r="J29" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K29" s="53"/>
-      <c r="L29" s="129"/>
+      <c r="K29" s="89"/>
+      <c r="L29" s="165"/>
       <c r="M29" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N29" s="53"/>
+      <c r="N29" s="89"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="117"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="129"/>
+      <c r="A30" s="155"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="165"/>
       <c r="D30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="89" t="s">
+      <c r="E30" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="129"/>
+      <c r="F30" s="165"/>
       <c r="G30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="124" t="s">
+      <c r="H30" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="I30" s="129"/>
+      <c r="I30" s="165"/>
       <c r="J30" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K30" s="115" t="s">
-        <v>68</v>
-      </c>
-      <c r="L30" s="129"/>
+      <c r="K30" s="153" t="s">
+        <v>67</v>
+      </c>
+      <c r="L30" s="165"/>
       <c r="M30" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N30" s="115" t="s">
-        <v>68</v>
+      <c r="N30" s="153" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="117"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="129"/>
+      <c r="A31" s="155"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="165"/>
       <c r="D31" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="87"/>
-      <c r="F31" s="129"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="165"/>
       <c r="G31" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H31" s="98"/>
-      <c r="I31" s="129"/>
+      <c r="H31" s="136"/>
+      <c r="I31" s="165"/>
       <c r="J31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K31" s="52"/>
-      <c r="L31" s="129"/>
+      <c r="K31" s="88"/>
+      <c r="L31" s="165"/>
       <c r="M31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N31" s="52"/>
+      <c r="N31" s="88"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="117"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="130"/>
+      <c r="A32" s="155"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="166"/>
       <c r="D32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="88"/>
-      <c r="F32" s="130"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="166"/>
       <c r="G32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="99"/>
-      <c r="I32" s="130"/>
+      <c r="H32" s="137"/>
+      <c r="I32" s="166"/>
       <c r="J32" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K32" s="52"/>
-      <c r="L32" s="130"/>
+      <c r="K32" s="88"/>
+      <c r="L32" s="166"/>
       <c r="M32" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N32" s="52"/>
+      <c r="N32" s="88"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="117"/>
-      <c r="B33" s="115" t="s">
+      <c r="A33" s="155"/>
+      <c r="B33" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="128" t="s">
+      <c r="C33" s="164" t="s">
         <v>36</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E33" s="89" t="s">
+      <c r="E33" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="128" t="s">
+      <c r="F33" s="164" t="s">
         <v>36</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H33" s="23" t="s">
+      <c r="H33" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="I33" s="128" t="s">
+      <c r="I33" s="164" t="s">
         <v>36</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K33" s="115" t="s">
-        <v>69</v>
-      </c>
-      <c r="L33" s="128" t="s">
+      <c r="K33" s="153" t="s">
+        <v>68</v>
+      </c>
+      <c r="L33" s="164" t="s">
         <v>36</v>
       </c>
       <c r="M33" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="N33" s="115" t="s">
-        <v>69</v>
+      <c r="N33" s="153" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="117"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="129"/>
+      <c r="A34" s="155"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="165"/>
       <c r="D34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="87"/>
-      <c r="F34" s="129"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="165"/>
       <c r="G34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H34" s="124" t="s">
+      <c r="H34" s="160" t="s">
         <v>52</v>
       </c>
-      <c r="I34" s="129"/>
+      <c r="I34" s="165"/>
       <c r="J34" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K34" s="52"/>
-      <c r="L34" s="129"/>
+      <c r="K34" s="88"/>
+      <c r="L34" s="165"/>
       <c r="M34" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N34" s="52"/>
+      <c r="N34" s="88"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="117"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="129"/>
+      <c r="A35" s="155"/>
+      <c r="B35" s="88"/>
+      <c r="C35" s="165"/>
       <c r="D35" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="87"/>
-      <c r="F35" s="129"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="165"/>
       <c r="G35" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="98"/>
-      <c r="I35" s="129"/>
+      <c r="H35" s="136"/>
+      <c r="I35" s="165"/>
       <c r="J35" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K35" s="52"/>
-      <c r="L35" s="129"/>
+      <c r="K35" s="88"/>
+      <c r="L35" s="165"/>
       <c r="M35" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N35" s="52"/>
+      <c r="N35" s="88"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="117"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="129"/>
+      <c r="A36" s="155"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="165"/>
       <c r="D36" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E36" s="88"/>
-      <c r="F36" s="129"/>
+      <c r="E36" s="116"/>
+      <c r="F36" s="165"/>
       <c r="G36" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H36" s="99"/>
-      <c r="I36" s="129"/>
+      <c r="H36" s="137"/>
+      <c r="I36" s="165"/>
       <c r="J36" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K36" s="53"/>
-      <c r="L36" s="129"/>
+      <c r="K36" s="89"/>
+      <c r="L36" s="165"/>
       <c r="M36" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N36" s="53"/>
+      <c r="N36" s="89"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="117"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="129"/>
+      <c r="A37" s="155"/>
+      <c r="B37" s="88"/>
+      <c r="C37" s="165"/>
       <c r="D37" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="89" t="s">
+      <c r="E37" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="F37" s="129"/>
+      <c r="F37" s="165"/>
       <c r="G37" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H37" s="124" t="s">
+      <c r="H37" s="160" t="s">
         <v>53</v>
       </c>
-      <c r="I37" s="129"/>
+      <c r="I37" s="165"/>
       <c r="J37" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K37" s="115" t="s">
-        <v>70</v>
-      </c>
-      <c r="L37" s="129"/>
+      <c r="K37" s="153" t="s">
+        <v>69</v>
+      </c>
+      <c r="L37" s="165"/>
       <c r="M37" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N37" s="115" t="s">
-        <v>70</v>
+      <c r="N37" s="153" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="117"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="129"/>
+      <c r="A38" s="155"/>
+      <c r="B38" s="88"/>
+      <c r="C38" s="165"/>
       <c r="D38" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="87"/>
-      <c r="F38" s="129"/>
+      <c r="E38" s="115"/>
+      <c r="F38" s="165"/>
       <c r="G38" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H38" s="98"/>
-      <c r="I38" s="129"/>
+      <c r="H38" s="136"/>
+      <c r="I38" s="165"/>
       <c r="J38" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K38" s="52"/>
-      <c r="L38" s="129"/>
+      <c r="K38" s="88"/>
+      <c r="L38" s="165"/>
       <c r="M38" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N38" s="52"/>
+      <c r="N38" s="88"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="118"/>
-      <c r="B39" s="123"/>
-      <c r="C39" s="139"/>
-      <c r="D39" s="30" t="s">
+      <c r="A39" s="156"/>
+      <c r="B39" s="159"/>
+      <c r="C39" s="174"/>
+      <c r="D39" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="137"/>
-      <c r="F39" s="139"/>
-      <c r="G39" s="30" t="s">
+      <c r="E39" s="117"/>
+      <c r="F39" s="174"/>
+      <c r="G39" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="140"/>
-      <c r="I39" s="139"/>
-      <c r="J39" s="31" t="s">
+      <c r="H39" s="175"/>
+      <c r="I39" s="174"/>
+      <c r="J39" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="K39" s="123"/>
-      <c r="L39" s="139"/>
-      <c r="M39" s="31" t="s">
+      <c r="K39" s="159"/>
+      <c r="L39" s="174"/>
+      <c r="M39" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="N39" s="123"/>
+      <c r="N39" s="159"/>
     </row>
     <row r="40" spans="1:14" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="45" t="s">
+      <c r="A40" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="47"/>
-      <c r="C40" s="45" t="s">
+      <c r="B40" s="79"/>
+      <c r="C40" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="78"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="D40" s="46"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="45" t="s">
+      <c r="G40" s="78"/>
+      <c r="H40" s="79"/>
+      <c r="I40" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="G40" s="46"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="45" t="s">
+      <c r="J40" s="78"/>
+      <c r="K40" s="79"/>
+      <c r="L40" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="J40" s="46"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="M40" s="46"/>
-      <c r="N40" s="47"/>
+      <c r="M40" s="78"/>
+      <c r="N40" s="79"/>
     </row>
     <row r="41" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="61" t="s">
+      <c r="A41" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="136" t="s">
+      <c r="B41" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D41" s="68" t="s">
-        <v>76</v>
-      </c>
-      <c r="E41" s="69"/>
-      <c r="F41" s="35" t="s">
+      <c r="D41" s="104" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41" s="105"/>
+      <c r="F41" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="G41" s="141" t="s">
-        <v>83</v>
-      </c>
-      <c r="H41" s="136" t="s">
+      <c r="G41" s="172" t="s">
+        <v>82</v>
+      </c>
+      <c r="H41" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="I41" s="35" t="s">
+      <c r="I41" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="J41" s="141" t="s">
-        <v>89</v>
-      </c>
-      <c r="K41" s="144" t="s">
-        <v>92</v>
-      </c>
-      <c r="L41" s="35" t="s">
+      <c r="J41" s="172" t="s">
+        <v>88</v>
+      </c>
+      <c r="K41" s="177" t="s">
+        <v>91</v>
+      </c>
+      <c r="L41" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="M41" s="141" t="s">
-        <v>89</v>
-      </c>
-      <c r="N41" s="136" t="s">
-        <v>74</v>
+      <c r="M41" s="172" t="s">
+        <v>88</v>
+      </c>
+      <c r="N41" s="113" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="62"/>
-      <c r="B42" s="58"/>
+      <c r="A42" s="98"/>
+      <c r="B42" s="94"/>
       <c r="C42" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="70"/>
-      <c r="E42" s="71"/>
+      <c r="D42" s="106"/>
+      <c r="E42" s="107"/>
       <c r="F42" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G42" s="142"/>
-      <c r="H42" s="58"/>
+      <c r="G42" s="170"/>
+      <c r="H42" s="94"/>
       <c r="I42" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J42" s="142"/>
-      <c r="K42" s="58"/>
+      <c r="J42" s="170"/>
+      <c r="K42" s="94"/>
       <c r="L42" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="M42" s="142"/>
-      <c r="N42" s="58"/>
+      <c r="M42" s="170"/>
+      <c r="N42" s="94"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="62"/>
-      <c r="B43" s="58"/>
+      <c r="A43" s="98"/>
+      <c r="B43" s="94"/>
       <c r="C43" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="70"/>
-      <c r="E43" s="71"/>
+      <c r="D43" s="106"/>
+      <c r="E43" s="107"/>
       <c r="F43" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G43" s="142"/>
-      <c r="H43" s="58"/>
+      <c r="G43" s="170"/>
+      <c r="H43" s="94"/>
       <c r="I43" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J43" s="142"/>
-      <c r="K43" s="58"/>
+      <c r="J43" s="170"/>
+      <c r="K43" s="94"/>
       <c r="L43" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="M43" s="142"/>
-      <c r="N43" s="58"/>
+      <c r="M43" s="170"/>
+      <c r="N43" s="94"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="62"/>
-      <c r="B44" s="58"/>
+      <c r="A44" s="98"/>
+      <c r="B44" s="94"/>
       <c r="C44" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="70"/>
-      <c r="E44" s="71"/>
+      <c r="D44" s="106"/>
+      <c r="E44" s="107"/>
       <c r="F44" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G44" s="143"/>
-      <c r="H44" s="58"/>
+      <c r="G44" s="171"/>
+      <c r="H44" s="94"/>
       <c r="I44" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J44" s="142"/>
-      <c r="K44" s="58"/>
+      <c r="J44" s="170"/>
+      <c r="K44" s="94"/>
       <c r="L44" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="M44" s="142"/>
-      <c r="N44" s="58"/>
+      <c r="M44" s="170"/>
+      <c r="N44" s="94"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="62"/>
-      <c r="B45" s="58"/>
+      <c r="A45" s="98"/>
+      <c r="B45" s="94"/>
       <c r="C45" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="70"/>
-      <c r="E45" s="71"/>
+      <c r="D45" s="106"/>
+      <c r="E45" s="107"/>
       <c r="F45" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G45" s="147" t="s">
-        <v>84</v>
-      </c>
-      <c r="H45" s="58"/>
+      <c r="G45" s="176" t="s">
+        <v>83</v>
+      </c>
+      <c r="H45" s="94"/>
       <c r="I45" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J45" s="142"/>
-      <c r="K45" s="58"/>
+      <c r="J45" s="170"/>
+      <c r="K45" s="94"/>
       <c r="L45" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="M45" s="142"/>
-      <c r="N45" s="58"/>
+      <c r="M45" s="170"/>
+      <c r="N45" s="94"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="62"/>
-      <c r="B46" s="58"/>
+      <c r="A46" s="98"/>
+      <c r="B46" s="94"/>
       <c r="C46" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="70"/>
-      <c r="E46" s="71"/>
+      <c r="D46" s="106"/>
+      <c r="E46" s="107"/>
       <c r="F46" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G46" s="142"/>
-      <c r="H46" s="58"/>
+      <c r="G46" s="170"/>
+      <c r="H46" s="94"/>
       <c r="I46" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J46" s="142"/>
-      <c r="K46" s="58"/>
+      <c r="J46" s="170"/>
+      <c r="K46" s="94"/>
       <c r="L46" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="M46" s="142"/>
-      <c r="N46" s="58"/>
+      <c r="M46" s="170"/>
+      <c r="N46" s="94"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="62"/>
-      <c r="B47" s="59"/>
+      <c r="A47" s="98"/>
+      <c r="B47" s="95"/>
       <c r="C47" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D47" s="72"/>
-      <c r="E47" s="73"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="109"/>
       <c r="F47" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G47" s="143"/>
-      <c r="H47" s="59"/>
+      <c r="G47" s="171"/>
+      <c r="H47" s="95"/>
       <c r="I47" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="J47" s="143"/>
-      <c r="K47" s="59"/>
+      <c r="J47" s="171"/>
+      <c r="K47" s="95"/>
       <c r="L47" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="M47" s="143"/>
-      <c r="N47" s="59"/>
+      <c r="M47" s="171"/>
+      <c r="N47" s="95"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="62"/>
-      <c r="B48" s="57" t="s">
+      <c r="A48" s="98"/>
+      <c r="B48" s="93" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D48" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="E48" s="57" t="s">
+      <c r="D48" s="110" t="s">
+        <v>76</v>
+      </c>
+      <c r="E48" s="93" t="s">
         <v>25</v>
       </c>
       <c r="F48" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G48" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="H48" s="57" t="s">
+      <c r="G48" s="110" t="s">
+        <v>84</v>
+      </c>
+      <c r="H48" s="93" t="s">
         <v>47</v>
       </c>
       <c r="I48" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="J48" s="74" t="s">
-        <v>90</v>
-      </c>
-      <c r="K48" s="145" t="s">
-        <v>92</v>
+      <c r="J48" s="110" t="s">
+        <v>89</v>
+      </c>
+      <c r="K48" s="178" t="s">
+        <v>91</v>
       </c>
       <c r="L48" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="M48" s="74" t="s">
-        <v>90</v>
-      </c>
-      <c r="N48" s="57" t="s">
-        <v>74</v>
+      <c r="M48" s="110" t="s">
+        <v>89</v>
+      </c>
+      <c r="N48" s="93" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="62"/>
-      <c r="B49" s="58"/>
+      <c r="A49" s="98"/>
+      <c r="B49" s="94"/>
       <c r="C49" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="75"/>
-      <c r="E49" s="58"/>
+      <c r="D49" s="111"/>
+      <c r="E49" s="94"/>
       <c r="F49" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G49" s="142"/>
-      <c r="H49" s="58"/>
+      <c r="G49" s="170"/>
+      <c r="H49" s="94"/>
       <c r="I49" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J49" s="142"/>
-      <c r="K49" s="58"/>
+      <c r="J49" s="170"/>
+      <c r="K49" s="94"/>
       <c r="L49" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="M49" s="142"/>
-      <c r="N49" s="58"/>
+      <c r="M49" s="170"/>
+      <c r="N49" s="94"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="62"/>
-      <c r="B50" s="58"/>
+      <c r="A50" s="98"/>
+      <c r="B50" s="94"/>
       <c r="C50" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D50" s="75"/>
-      <c r="E50" s="58"/>
+      <c r="D50" s="111"/>
+      <c r="E50" s="94"/>
       <c r="F50" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G50" s="142"/>
-      <c r="H50" s="58"/>
+      <c r="G50" s="170"/>
+      <c r="H50" s="94"/>
       <c r="I50" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J50" s="142"/>
-      <c r="K50" s="58"/>
+      <c r="J50" s="170"/>
+      <c r="K50" s="94"/>
       <c r="L50" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="M50" s="142"/>
-      <c r="N50" s="58"/>
+      <c r="M50" s="170"/>
+      <c r="N50" s="94"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="62"/>
-      <c r="B51" s="58"/>
+      <c r="A51" s="98"/>
+      <c r="B51" s="94"/>
       <c r="C51" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D51" s="75"/>
-      <c r="E51" s="58"/>
+      <c r="D51" s="111"/>
+      <c r="E51" s="94"/>
       <c r="F51" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G51" s="143"/>
-      <c r="H51" s="58"/>
+      <c r="G51" s="171"/>
+      <c r="H51" s="94"/>
       <c r="I51" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J51" s="142"/>
-      <c r="K51" s="58"/>
+      <c r="J51" s="170"/>
+      <c r="K51" s="94"/>
       <c r="L51" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="M51" s="142"/>
-      <c r="N51" s="58"/>
+      <c r="M51" s="170"/>
+      <c r="N51" s="94"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="62"/>
-      <c r="B52" s="58"/>
+      <c r="A52" s="98"/>
+      <c r="B52" s="94"/>
       <c r="C52" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D52" s="75"/>
-      <c r="E52" s="58"/>
+      <c r="D52" s="111"/>
+      <c r="E52" s="94"/>
       <c r="F52" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G52" s="74" t="s">
-        <v>86</v>
-      </c>
-      <c r="H52" s="58"/>
+      <c r="G52" s="110" t="s">
+        <v>85</v>
+      </c>
+      <c r="H52" s="94"/>
       <c r="I52" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J52" s="142"/>
-      <c r="K52" s="58"/>
+      <c r="J52" s="170"/>
+      <c r="K52" s="94"/>
       <c r="L52" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="M52" s="142"/>
-      <c r="N52" s="58"/>
+      <c r="M52" s="170"/>
+      <c r="N52" s="94"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="62"/>
-      <c r="B53" s="58"/>
+      <c r="A53" s="98"/>
+      <c r="B53" s="94"/>
       <c r="C53" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D53" s="75"/>
-      <c r="E53" s="58"/>
+      <c r="D53" s="111"/>
+      <c r="E53" s="94"/>
       <c r="F53" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G53" s="142"/>
-      <c r="H53" s="58"/>
+      <c r="G53" s="170"/>
+      <c r="H53" s="94"/>
       <c r="I53" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J53" s="142"/>
-      <c r="K53" s="58"/>
+      <c r="J53" s="170"/>
+      <c r="K53" s="94"/>
       <c r="L53" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="M53" s="142"/>
-      <c r="N53" s="58"/>
+      <c r="M53" s="170"/>
+      <c r="N53" s="94"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="62"/>
-      <c r="B54" s="59"/>
+      <c r="A54" s="98"/>
+      <c r="B54" s="95"/>
       <c r="C54" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D54" s="76"/>
-      <c r="E54" s="59"/>
+      <c r="D54" s="112"/>
+      <c r="E54" s="95"/>
       <c r="F54" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G54" s="143"/>
-      <c r="H54" s="59"/>
+      <c r="G54" s="171"/>
+      <c r="H54" s="95"/>
       <c r="I54" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="J54" s="143"/>
-      <c r="K54" s="59"/>
+      <c r="J54" s="171"/>
+      <c r="K54" s="95"/>
       <c r="L54" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="M54" s="143"/>
-      <c r="N54" s="59"/>
+      <c r="M54" s="171"/>
+      <c r="N54" s="95"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="62"/>
-      <c r="B55" s="57" t="s">
+      <c r="A55" s="98"/>
+      <c r="B55" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="64" t="s">
-        <v>78</v>
+      <c r="C55" s="100" t="s">
+        <v>77</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E55" s="57" t="s">
+      <c r="E55" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="F55" s="64" t="s">
-        <v>81</v>
+      <c r="F55" s="100" t="s">
+        <v>80</v>
       </c>
       <c r="G55" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H55" s="57" t="s">
+      <c r="H55" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="I55" s="146" t="s">
-        <v>91</v>
+      <c r="I55" s="179" t="s">
+        <v>90</v>
       </c>
       <c r="J55" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="K55" s="145" t="s">
-        <v>93</v>
-      </c>
-      <c r="L55" s="146" t="s">
-        <v>91</v>
+      <c r="K55" s="178" t="s">
+        <v>92</v>
+      </c>
+      <c r="L55" s="179" t="s">
+        <v>90</v>
       </c>
       <c r="M55" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="N55" s="57" t="s">
-        <v>75</v>
+      <c r="N55" s="93" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="62"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="65"/>
+      <c r="A56" s="98"/>
+      <c r="B56" s="94"/>
+      <c r="C56" s="101"/>
       <c r="D56" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="58"/>
-      <c r="F56" s="65"/>
+      <c r="E56" s="94"/>
+      <c r="F56" s="101"/>
       <c r="G56" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H56" s="58"/>
-      <c r="I56" s="65"/>
+      <c r="H56" s="94"/>
+      <c r="I56" s="101"/>
       <c r="J56" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K56" s="58"/>
-      <c r="L56" s="65"/>
+      <c r="K56" s="94"/>
+      <c r="L56" s="101"/>
       <c r="M56" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="N56" s="58"/>
+      <c r="N56" s="94"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="62"/>
-      <c r="B57" s="58"/>
-      <c r="C57" s="65"/>
+      <c r="A57" s="98"/>
+      <c r="B57" s="94"/>
+      <c r="C57" s="101"/>
       <c r="D57" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E57" s="58"/>
-      <c r="F57" s="65"/>
+      <c r="E57" s="94"/>
+      <c r="F57" s="101"/>
       <c r="G57" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H57" s="58"/>
-      <c r="I57" s="65"/>
+      <c r="H57" s="94"/>
+      <c r="I57" s="101"/>
       <c r="J57" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K57" s="58"/>
-      <c r="L57" s="65"/>
+      <c r="K57" s="94"/>
+      <c r="L57" s="101"/>
       <c r="M57" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="N57" s="58"/>
+      <c r="N57" s="94"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="62"/>
-      <c r="B58" s="58"/>
-      <c r="C58" s="65"/>
+      <c r="A58" s="98"/>
+      <c r="B58" s="94"/>
+      <c r="C58" s="101"/>
       <c r="D58" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E58" s="58"/>
-      <c r="F58" s="66"/>
+      <c r="E58" s="94"/>
+      <c r="F58" s="102"/>
       <c r="G58" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H58" s="58"/>
-      <c r="I58" s="65"/>
+      <c r="H58" s="94"/>
+      <c r="I58" s="101"/>
       <c r="J58" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K58" s="58"/>
-      <c r="L58" s="65"/>
+      <c r="K58" s="94"/>
+      <c r="L58" s="101"/>
       <c r="M58" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="N58" s="58"/>
+      <c r="N58" s="94"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="62"/>
-      <c r="B59" s="58"/>
-      <c r="C59" s="65"/>
+      <c r="A59" s="98"/>
+      <c r="B59" s="94"/>
+      <c r="C59" s="101"/>
       <c r="D59" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E59" s="58"/>
-      <c r="F59" s="64" t="s">
-        <v>82</v>
+      <c r="E59" s="94"/>
+      <c r="F59" s="100" t="s">
+        <v>81</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H59" s="58"/>
-      <c r="I59" s="65"/>
+      <c r="H59" s="94"/>
+      <c r="I59" s="101"/>
       <c r="J59" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K59" s="58"/>
-      <c r="L59" s="65"/>
+      <c r="K59" s="94"/>
+      <c r="L59" s="101"/>
       <c r="M59" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="N59" s="58"/>
+      <c r="N59" s="94"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="62"/>
-      <c r="B60" s="58"/>
-      <c r="C60" s="65"/>
+      <c r="A60" s="98"/>
+      <c r="B60" s="94"/>
+      <c r="C60" s="101"/>
       <c r="D60" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E60" s="58"/>
-      <c r="F60" s="65"/>
+      <c r="E60" s="94"/>
+      <c r="F60" s="101"/>
       <c r="G60" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H60" s="58"/>
-      <c r="I60" s="65"/>
+      <c r="H60" s="94"/>
+      <c r="I60" s="101"/>
       <c r="J60" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K60" s="58"/>
-      <c r="L60" s="65"/>
+      <c r="K60" s="94"/>
+      <c r="L60" s="101"/>
       <c r="M60" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N60" s="58"/>
+      <c r="N60" s="94"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="62"/>
-      <c r="B61" s="59"/>
-      <c r="C61" s="66"/>
+      <c r="A61" s="98"/>
+      <c r="B61" s="95"/>
+      <c r="C61" s="102"/>
       <c r="D61" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E61" s="59"/>
-      <c r="F61" s="66"/>
+      <c r="E61" s="95"/>
+      <c r="F61" s="102"/>
       <c r="G61" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H61" s="59"/>
-      <c r="I61" s="66"/>
+      <c r="H61" s="95"/>
+      <c r="I61" s="102"/>
       <c r="J61" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K61" s="59"/>
-      <c r="L61" s="66"/>
+      <c r="K61" s="95"/>
+      <c r="L61" s="102"/>
       <c r="M61" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N61" s="59"/>
+      <c r="N61" s="95"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="62"/>
-      <c r="B62" s="57" t="s">
+      <c r="A62" s="98"/>
+      <c r="B62" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="C62" s="64" t="s">
+      <c r="C62" s="100" t="s">
         <v>35</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E62" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="F62" s="64" t="s">
+      <c r="E62" s="93" t="s">
+        <v>78</v>
+      </c>
+      <c r="F62" s="100" t="s">
         <v>35</v>
       </c>
       <c r="G62" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H62" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="I62" s="64" t="s">
+      <c r="H62" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="I62" s="100" t="s">
         <v>35</v>
       </c>
       <c r="J62" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="K62" s="145" t="s">
-        <v>94</v>
-      </c>
-      <c r="L62" s="64" t="s">
+      <c r="K62" s="178" t="s">
+        <v>93</v>
+      </c>
+      <c r="L62" s="100" t="s">
         <v>35</v>
       </c>
       <c r="M62" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="N62" s="145" t="s">
-        <v>94</v>
+      <c r="N62" s="178" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="62"/>
-      <c r="B63" s="58"/>
-      <c r="C63" s="65"/>
+      <c r="A63" s="98"/>
+      <c r="B63" s="94"/>
+      <c r="C63" s="101"/>
       <c r="D63" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="58"/>
-      <c r="F63" s="65"/>
+      <c r="E63" s="94"/>
+      <c r="F63" s="101"/>
       <c r="G63" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H63" s="58"/>
-      <c r="I63" s="65"/>
+      <c r="H63" s="94"/>
+      <c r="I63" s="101"/>
       <c r="J63" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K63" s="58"/>
-      <c r="L63" s="65"/>
+      <c r="K63" s="94"/>
+      <c r="L63" s="101"/>
       <c r="M63" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="N63" s="58"/>
+      <c r="N63" s="94"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="62"/>
-      <c r="B64" s="58"/>
-      <c r="C64" s="65"/>
+      <c r="A64" s="98"/>
+      <c r="B64" s="94"/>
+      <c r="C64" s="101"/>
       <c r="D64" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E64" s="58"/>
-      <c r="F64" s="65"/>
+      <c r="E64" s="94"/>
+      <c r="F64" s="101"/>
       <c r="G64" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H64" s="58"/>
-      <c r="I64" s="65"/>
+      <c r="H64" s="94"/>
+      <c r="I64" s="101"/>
       <c r="J64" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K64" s="58"/>
-      <c r="L64" s="65"/>
+      <c r="K64" s="94"/>
+      <c r="L64" s="101"/>
       <c r="M64" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="N64" s="58"/>
+      <c r="N64" s="94"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="62"/>
-      <c r="B65" s="58"/>
-      <c r="C65" s="65"/>
+      <c r="A65" s="98"/>
+      <c r="B65" s="94"/>
+      <c r="C65" s="101"/>
       <c r="D65" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E65" s="58"/>
-      <c r="F65" s="65"/>
+      <c r="E65" s="94"/>
+      <c r="F65" s="101"/>
       <c r="G65" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H65" s="59"/>
-      <c r="I65" s="65"/>
+      <c r="H65" s="95"/>
+      <c r="I65" s="101"/>
       <c r="J65" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K65" s="58"/>
-      <c r="L65" s="65"/>
+      <c r="K65" s="94"/>
+      <c r="L65" s="101"/>
       <c r="M65" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="N65" s="58"/>
+      <c r="N65" s="94"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="62"/>
-      <c r="B66" s="58"/>
-      <c r="C66" s="65"/>
+      <c r="A66" s="98"/>
+      <c r="B66" s="94"/>
+      <c r="C66" s="101"/>
       <c r="D66" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E66" s="58"/>
-      <c r="F66" s="65"/>
+      <c r="E66" s="94"/>
+      <c r="F66" s="101"/>
       <c r="G66" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H66" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="I66" s="65"/>
+      <c r="H66" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="I66" s="101"/>
       <c r="J66" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K66" s="58"/>
-      <c r="L66" s="65"/>
+      <c r="K66" s="94"/>
+      <c r="L66" s="101"/>
       <c r="M66" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="N66" s="58"/>
+      <c r="N66" s="94"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="62"/>
-      <c r="B67" s="58"/>
-      <c r="C67" s="65"/>
+      <c r="A67" s="98"/>
+      <c r="B67" s="94"/>
+      <c r="C67" s="101"/>
       <c r="D67" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E67" s="58"/>
-      <c r="F67" s="65"/>
+      <c r="E67" s="94"/>
+      <c r="F67" s="101"/>
       <c r="G67" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H67" s="58"/>
-      <c r="I67" s="65"/>
+      <c r="H67" s="94"/>
+      <c r="I67" s="101"/>
       <c r="J67" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K67" s="58"/>
-      <c r="L67" s="65"/>
+      <c r="K67" s="94"/>
+      <c r="L67" s="101"/>
       <c r="M67" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N67" s="58"/>
+      <c r="N67" s="94"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="62"/>
-      <c r="B68" s="59"/>
-      <c r="C68" s="66"/>
+      <c r="A68" s="98"/>
+      <c r="B68" s="95"/>
+      <c r="C68" s="102"/>
       <c r="D68" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E68" s="59"/>
-      <c r="F68" s="66"/>
+      <c r="E68" s="95"/>
+      <c r="F68" s="102"/>
       <c r="G68" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H68" s="59"/>
-      <c r="I68" s="66"/>
+      <c r="H68" s="95"/>
+      <c r="I68" s="102"/>
       <c r="J68" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K68" s="59"/>
-      <c r="L68" s="66"/>
+      <c r="K68" s="95"/>
+      <c r="L68" s="102"/>
       <c r="M68" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N68" s="59"/>
+      <c r="N68" s="95"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="62"/>
-      <c r="B69" s="57" t="s">
+      <c r="A69" s="98"/>
+      <c r="B69" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="C69" s="64" t="s">
+      <c r="C69" s="100" t="s">
         <v>36</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E69" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="F69" s="64" t="s">
+      <c r="E69" s="93" t="s">
+        <v>79</v>
+      </c>
+      <c r="F69" s="100" t="s">
         <v>36</v>
       </c>
       <c r="G69" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H69" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="I69" s="64" t="s">
+      <c r="H69" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="I69" s="100" t="s">
         <v>36</v>
       </c>
       <c r="J69" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="K69" s="145" t="s">
-        <v>95</v>
-      </c>
-      <c r="L69" s="64" t="s">
+      <c r="K69" s="178" t="s">
+        <v>94</v>
+      </c>
+      <c r="L69" s="100" t="s">
         <v>36</v>
       </c>
       <c r="M69" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="N69" s="145" t="s">
-        <v>95</v>
+      <c r="N69" s="178" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="62"/>
-      <c r="B70" s="58"/>
-      <c r="C70" s="65"/>
+      <c r="A70" s="98"/>
+      <c r="B70" s="94"/>
+      <c r="C70" s="101"/>
       <c r="D70" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E70" s="58"/>
-      <c r="F70" s="65"/>
+      <c r="E70" s="94"/>
+      <c r="F70" s="101"/>
       <c r="G70" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H70" s="58"/>
-      <c r="I70" s="65"/>
+      <c r="H70" s="94"/>
+      <c r="I70" s="101"/>
       <c r="J70" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K70" s="58"/>
-      <c r="L70" s="65"/>
+      <c r="K70" s="94"/>
+      <c r="L70" s="101"/>
       <c r="M70" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="N70" s="58"/>
+      <c r="N70" s="94"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="62"/>
-      <c r="B71" s="58"/>
-      <c r="C71" s="65"/>
+      <c r="A71" s="98"/>
+      <c r="B71" s="94"/>
+      <c r="C71" s="101"/>
       <c r="D71" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E71" s="58"/>
-      <c r="F71" s="65"/>
+      <c r="E71" s="94"/>
+      <c r="F71" s="101"/>
       <c r="G71" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H71" s="58"/>
-      <c r="I71" s="65"/>
+      <c r="H71" s="94"/>
+      <c r="I71" s="101"/>
       <c r="J71" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K71" s="58"/>
-      <c r="L71" s="65"/>
+      <c r="K71" s="94"/>
+      <c r="L71" s="101"/>
       <c r="M71" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="N71" s="58"/>
+      <c r="N71" s="94"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="62"/>
-      <c r="B72" s="58"/>
-      <c r="C72" s="65"/>
+      <c r="A72" s="98"/>
+      <c r="B72" s="94"/>
+      <c r="C72" s="101"/>
       <c r="D72" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E72" s="58"/>
-      <c r="F72" s="65"/>
+      <c r="E72" s="94"/>
+      <c r="F72" s="101"/>
       <c r="G72" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H72" s="59"/>
-      <c r="I72" s="65"/>
+      <c r="H72" s="95"/>
+      <c r="I72" s="101"/>
       <c r="J72" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K72" s="58"/>
-      <c r="L72" s="65"/>
+      <c r="K72" s="94"/>
+      <c r="L72" s="101"/>
       <c r="M72" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="N72" s="58"/>
+      <c r="N72" s="94"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="62"/>
-      <c r="B73" s="58"/>
-      <c r="C73" s="65"/>
+      <c r="A73" s="98"/>
+      <c r="B73" s="94"/>
+      <c r="C73" s="101"/>
       <c r="D73" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E73" s="58"/>
-      <c r="F73" s="65"/>
+      <c r="E73" s="94"/>
+      <c r="F73" s="101"/>
       <c r="G73" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H73" s="57" t="s">
-        <v>88</v>
-      </c>
-      <c r="I73" s="65"/>
+      <c r="H73" s="93" t="s">
+        <v>87</v>
+      </c>
+      <c r="I73" s="101"/>
       <c r="J73" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K73" s="58"/>
-      <c r="L73" s="65"/>
+      <c r="K73" s="94"/>
+      <c r="L73" s="101"/>
       <c r="M73" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="N73" s="58"/>
+      <c r="N73" s="94"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="62"/>
-      <c r="B74" s="58"/>
-      <c r="C74" s="65"/>
+      <c r="A74" s="98"/>
+      <c r="B74" s="94"/>
+      <c r="C74" s="101"/>
       <c r="D74" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E74" s="58"/>
-      <c r="F74" s="65"/>
+      <c r="E74" s="94"/>
+      <c r="F74" s="101"/>
       <c r="G74" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H74" s="58"/>
-      <c r="I74" s="65"/>
+      <c r="H74" s="94"/>
+      <c r="I74" s="101"/>
       <c r="J74" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K74" s="58"/>
-      <c r="L74" s="65"/>
+      <c r="K74" s="94"/>
+      <c r="L74" s="101"/>
       <c r="M74" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N74" s="58"/>
+      <c r="N74" s="94"/>
     </row>
     <row r="75" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="63"/>
-      <c r="B75" s="60"/>
-      <c r="C75" s="67"/>
-      <c r="D75" s="36" t="s">
+      <c r="A75" s="99"/>
+      <c r="B75" s="96"/>
+      <c r="C75" s="103"/>
+      <c r="D75" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="60"/>
-      <c r="F75" s="67"/>
-      <c r="G75" s="36" t="s">
+      <c r="E75" s="96"/>
+      <c r="F75" s="103"/>
+      <c r="G75" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="H75" s="60"/>
-      <c r="I75" s="67"/>
-      <c r="J75" s="36" t="s">
+      <c r="H75" s="96"/>
+      <c r="I75" s="103"/>
+      <c r="J75" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="K75" s="60"/>
-      <c r="L75" s="67"/>
-      <c r="M75" s="36" t="s">
+      <c r="K75" s="96"/>
+      <c r="L75" s="103"/>
+      <c r="M75" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="N75" s="60"/>
+      <c r="N75" s="96"/>
     </row>
     <row r="76" spans="1:14" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="45" t="s">
+      <c r="A76" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="B76" s="47"/>
-      <c r="C76" s="45" t="s">
+      <c r="B76" s="81"/>
+      <c r="C76" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="D76" s="78"/>
+      <c r="E76" s="79"/>
+      <c r="F76" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="D76" s="46"/>
-      <c r="E76" s="47"/>
-      <c r="F76" s="45" t="s">
+      <c r="G76" s="78"/>
+      <c r="H76" s="79"/>
+      <c r="I76" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="G76" s="46"/>
-      <c r="H76" s="47"/>
-      <c r="I76" s="45" t="s">
+      <c r="J76" s="78"/>
+      <c r="K76" s="79"/>
+      <c r="L76" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="J76" s="46"/>
-      <c r="K76" s="47"/>
-      <c r="L76" s="45" t="s">
+      <c r="M76" s="78"/>
+      <c r="N76" s="79"/>
+    </row>
+    <row r="77" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D77" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="E77" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="F77" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="G77" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="H77" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="J77" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="K77" s="180" t="s">
+        <v>109</v>
+      </c>
+      <c r="L77" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="M77" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="N77" s="180" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" s="60"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" s="65"/>
+      <c r="E78" s="67"/>
+      <c r="F78" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G78" s="65"/>
+      <c r="H78" s="67"/>
+      <c r="I78" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="J78" s="65"/>
+      <c r="K78" s="67"/>
+      <c r="L78" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="M78" s="65"/>
+      <c r="N78" s="67"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" s="60"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="M76" s="46"/>
-      <c r="N76" s="47"/>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="131" t="s">
-        <v>14</v>
-      </c>
-      <c r="B77" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="C77" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="D77" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="E77" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="F77" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="G77" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="H77" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="I77" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="J77" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="K77" s="148" t="s">
-        <v>110</v>
-      </c>
-      <c r="L77" s="32"/>
-      <c r="M77" s="33"/>
-      <c r="N77" s="34"/>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="131"/>
-      <c r="B78" s="40"/>
-      <c r="C78" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D78" s="38"/>
-      <c r="E78" s="40"/>
-      <c r="F78" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G78" s="38"/>
-      <c r="H78" s="40"/>
-      <c r="I78" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="J78" s="38"/>
-      <c r="K78" s="40"/>
-      <c r="L78" s="32"/>
-      <c r="M78" s="33"/>
-      <c r="N78" s="34"/>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="131"/>
-      <c r="B79" s="40"/>
-      <c r="C79" s="32" t="s">
+      <c r="E79" s="67"/>
+      <c r="F79" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D79" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="E79" s="40"/>
-      <c r="F79" s="32" t="s">
+      <c r="G79" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="H79" s="67"/>
+      <c r="I79" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="G79" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="H79" s="40"/>
-      <c r="I79" s="32" t="s">
+      <c r="J79" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="K79" s="67"/>
+      <c r="L79" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="J79" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="K79" s="40"/>
-      <c r="L79" s="32"/>
-      <c r="M79" s="33"/>
-      <c r="N79" s="34"/>
+      <c r="M79" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="N79" s="67"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="131"/>
-      <c r="B80" s="40"/>
-      <c r="C80" s="32" t="s">
+      <c r="A80" s="60"/>
+      <c r="B80" s="57"/>
+      <c r="C80" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="D80" s="43"/>
-      <c r="E80" s="40"/>
-      <c r="F80" s="32" t="s">
+      <c r="D80" s="70"/>
+      <c r="E80" s="67"/>
+      <c r="F80" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G80" s="43"/>
-      <c r="H80" s="40"/>
-      <c r="I80" s="32" t="s">
+      <c r="G80" s="70"/>
+      <c r="H80" s="67"/>
+      <c r="I80" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="J80" s="43"/>
-      <c r="K80" s="40"/>
-      <c r="L80" s="32"/>
-      <c r="M80" s="33"/>
-      <c r="N80" s="34"/>
+      <c r="J80" s="70"/>
+      <c r="K80" s="67"/>
+      <c r="L80" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="M80" s="70"/>
+      <c r="N80" s="67"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="131"/>
-      <c r="B81" s="40"/>
-      <c r="C81" s="32" t="s">
+      <c r="A81" s="60"/>
+      <c r="B81" s="57"/>
+      <c r="C81" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="D81" s="43"/>
-      <c r="E81" s="40"/>
-      <c r="F81" s="32" t="s">
+      <c r="D81" s="70"/>
+      <c r="E81" s="67"/>
+      <c r="F81" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G81" s="43"/>
-      <c r="H81" s="40"/>
-      <c r="I81" s="32" t="s">
+      <c r="G81" s="70"/>
+      <c r="H81" s="67"/>
+      <c r="I81" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="J81" s="43"/>
-      <c r="K81" s="40"/>
-      <c r="L81" s="32"/>
-      <c r="M81" s="33"/>
-      <c r="N81" s="34"/>
+      <c r="J81" s="70"/>
+      <c r="K81" s="67"/>
+      <c r="L81" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="M81" s="70"/>
+      <c r="N81" s="67"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="132"/>
-      <c r="B82" s="40"/>
-      <c r="C82" s="18" t="s">
+      <c r="A82" s="60"/>
+      <c r="B82" s="57"/>
+      <c r="C82" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D82" s="43"/>
-      <c r="E82" s="40"/>
+      <c r="D82" s="70"/>
+      <c r="E82" s="67"/>
       <c r="F82" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G82" s="43"/>
-      <c r="H82" s="40"/>
+      <c r="G82" s="70"/>
+      <c r="H82" s="67"/>
       <c r="I82" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J82" s="43"/>
-      <c r="K82" s="40"/>
-      <c r="L82" s="18"/>
-      <c r="M82" s="8"/>
-      <c r="N82" s="19"/>
+      <c r="J82" s="70"/>
+      <c r="K82" s="67"/>
+      <c r="L82" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="M82" s="70"/>
+      <c r="N82" s="67"/>
     </row>
     <row r="83" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="132"/>
-      <c r="B83" s="41"/>
-      <c r="C83" s="18" t="s">
+      <c r="A83" s="60"/>
+      <c r="B83" s="57"/>
+      <c r="C83" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D83" s="38"/>
-      <c r="E83" s="41"/>
-      <c r="F83" s="18" t="s">
+      <c r="D83" s="70"/>
+      <c r="E83" s="67"/>
+      <c r="F83" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G83" s="38"/>
-      <c r="H83" s="41"/>
-      <c r="I83" s="18" t="s">
+      <c r="G83" s="70"/>
+      <c r="H83" s="67"/>
+      <c r="I83" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="J83" s="38"/>
-      <c r="K83" s="41"/>
-      <c r="L83" s="18"/>
-      <c r="M83" s="8"/>
-      <c r="N83" s="19"/>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="132"/>
-      <c r="B84" s="134" t="s">
+      <c r="J83" s="70"/>
+      <c r="K83" s="67"/>
+      <c r="L83" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M83" s="70"/>
+      <c r="N83" s="67"/>
+    </row>
+    <row r="84" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="60"/>
+      <c r="B84" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C84" s="32" t="s">
+      <c r="C84" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D84" s="37" t="s">
+      <c r="D84" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="E84" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="F84" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="G84" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="H84" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="J84" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="K84" s="180" t="s">
+        <v>109</v>
+      </c>
+      <c r="L84" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="M84" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="N84" s="180" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" s="60"/>
+      <c r="B85" s="57"/>
+      <c r="C85" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" s="65"/>
+      <c r="E85" s="67"/>
+      <c r="F85" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G85" s="65"/>
+      <c r="H85" s="67"/>
+      <c r="I85" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="J85" s="65"/>
+      <c r="K85" s="67"/>
+      <c r="L85" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="M85" s="187"/>
+      <c r="N85" s="188"/>
+    </row>
+    <row r="86" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="60"/>
+      <c r="B86" s="57"/>
+      <c r="C86" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="D86" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="E84" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="F84" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="G84" s="37" t="s">
+      <c r="E86" s="67"/>
+      <c r="F86" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G86" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="H84" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="I84" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="J84" s="37" t="s">
+      <c r="H86" s="67"/>
+      <c r="I86" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="J86" s="181" t="s">
         <v>111</v>
       </c>
-      <c r="K84" s="148" t="s">
-        <v>110</v>
-      </c>
-      <c r="L84" s="18"/>
-      <c r="M84" s="8"/>
-      <c r="N84" s="19"/>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="132"/>
-      <c r="B85" s="40"/>
-      <c r="C85" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D85" s="38"/>
-      <c r="E85" s="40"/>
-      <c r="F85" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G85" s="38"/>
-      <c r="H85" s="40"/>
-      <c r="I85" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="J85" s="38"/>
-      <c r="K85" s="40"/>
-      <c r="L85" s="18"/>
-      <c r="M85" s="8"/>
-      <c r="N85" s="19"/>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="132"/>
-      <c r="B86" s="40"/>
-      <c r="C86" s="32" t="s">
+      <c r="K86" s="67"/>
+      <c r="L86" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="E86" s="40"/>
-      <c r="F86" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G86" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="H86" s="40"/>
-      <c r="I86" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="J86" s="149" t="s">
-        <v>112</v>
-      </c>
-      <c r="K86" s="40"/>
-      <c r="L86" s="18"/>
-      <c r="M86" s="8"/>
-      <c r="N86" s="19"/>
+      <c r="M86" s="181" t="s">
+        <v>111</v>
+      </c>
+      <c r="N86" s="188"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="132"/>
-      <c r="B87" s="40"/>
-      <c r="C87" s="32" t="s">
+      <c r="A87" s="60"/>
+      <c r="B87" s="57"/>
+      <c r="C87" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="D87" s="43"/>
-      <c r="E87" s="40"/>
-      <c r="F87" s="32" t="s">
+      <c r="D87" s="70"/>
+      <c r="E87" s="67"/>
+      <c r="F87" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G87" s="43"/>
-      <c r="H87" s="40"/>
-      <c r="I87" s="32" t="s">
+      <c r="G87" s="70"/>
+      <c r="H87" s="67"/>
+      <c r="I87" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="J87" s="43"/>
-      <c r="K87" s="40"/>
-      <c r="L87" s="18"/>
-      <c r="M87" s="8"/>
-      <c r="N87" s="19"/>
+      <c r="J87" s="70"/>
+      <c r="K87" s="67"/>
+      <c r="L87" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="M87" s="190"/>
+      <c r="N87" s="188"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="132"/>
-      <c r="B88" s="40"/>
-      <c r="C88" s="32" t="s">
+      <c r="A88" s="60"/>
+      <c r="B88" s="57"/>
+      <c r="C88" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="D88" s="43"/>
-      <c r="E88" s="40"/>
-      <c r="F88" s="32" t="s">
+      <c r="D88" s="70"/>
+      <c r="E88" s="67"/>
+      <c r="F88" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G88" s="43"/>
-      <c r="H88" s="40"/>
-      <c r="I88" s="32" t="s">
+      <c r="G88" s="70"/>
+      <c r="H88" s="67"/>
+      <c r="I88" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="J88" s="43"/>
-      <c r="K88" s="40"/>
-      <c r="L88" s="18"/>
-      <c r="M88" s="8"/>
-      <c r="N88" s="19"/>
+      <c r="J88" s="70"/>
+      <c r="K88" s="67"/>
+      <c r="L88" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="M88" s="190"/>
+      <c r="N88" s="188"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="132"/>
-      <c r="B89" s="40"/>
-      <c r="C89" s="18" t="s">
+      <c r="A89" s="60"/>
+      <c r="B89" s="57"/>
+      <c r="C89" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D89" s="43"/>
-      <c r="E89" s="40"/>
+      <c r="D89" s="70"/>
+      <c r="E89" s="67"/>
       <c r="F89" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G89" s="43"/>
-      <c r="H89" s="40"/>
+      <c r="G89" s="70"/>
+      <c r="H89" s="67"/>
       <c r="I89" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J89" s="43"/>
-      <c r="K89" s="40"/>
-      <c r="L89" s="18"/>
-      <c r="M89" s="8"/>
-      <c r="N89" s="19"/>
+      <c r="J89" s="70"/>
+      <c r="K89" s="67"/>
+      <c r="L89" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="M89" s="190"/>
+      <c r="N89" s="188"/>
     </row>
     <row r="90" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="132"/>
-      <c r="B90" s="135"/>
-      <c r="C90" s="18" t="s">
+      <c r="A90" s="60"/>
+      <c r="B90" s="57"/>
+      <c r="C90" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D90" s="38"/>
-      <c r="E90" s="41"/>
-      <c r="F90" s="18" t="s">
+      <c r="D90" s="70"/>
+      <c r="E90" s="67"/>
+      <c r="F90" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G90" s="38"/>
-      <c r="H90" s="41"/>
-      <c r="I90" s="18" t="s">
+      <c r="G90" s="71"/>
+      <c r="H90" s="68"/>
+      <c r="I90" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="J90" s="38"/>
-      <c r="K90" s="41"/>
-      <c r="L90" s="18"/>
-      <c r="M90" s="8"/>
-      <c r="N90" s="19"/>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="132"/>
-      <c r="B91" s="134" t="s">
+      <c r="J90" s="71"/>
+      <c r="K90" s="68"/>
+      <c r="L90" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="M90" s="191"/>
+      <c r="N90" s="189"/>
+    </row>
+    <row r="91" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="60"/>
+      <c r="B91" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C91" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="D91" s="32" t="s">
+      <c r="C91" s="167" t="s">
+        <v>108</v>
+      </c>
+      <c r="D91" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="E91" s="39" t="s">
+      <c r="E91" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="F91" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="G91" s="32" t="s">
+      <c r="F91" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="G91" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="H91" s="39" t="s">
+      <c r="H91" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="I91" s="44" t="s">
+      <c r="I91" s="182" t="s">
+        <v>112</v>
+      </c>
+      <c r="J91" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="K91" s="180" t="s">
         <v>113</v>
       </c>
-      <c r="J91" s="32" t="s">
+      <c r="L91" s="192" t="s">
+        <v>112</v>
+      </c>
+      <c r="M91" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="K91" s="148" t="s">
-        <v>114</v>
-      </c>
-      <c r="L91" s="18"/>
-      <c r="M91" s="8"/>
-      <c r="N91" s="19"/>
+      <c r="N91" s="193" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="132"/>
-      <c r="B92" s="40"/>
-      <c r="C92" s="38"/>
-      <c r="D92" s="32" t="s">
+      <c r="A92" s="60"/>
+      <c r="B92" s="57"/>
+      <c r="C92" s="168"/>
+      <c r="D92" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E92" s="40"/>
-      <c r="F92" s="38"/>
-      <c r="G92" s="32" t="s">
+      <c r="E92" s="57"/>
+      <c r="F92" s="73"/>
+      <c r="G92" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H92" s="40"/>
-      <c r="I92" s="38"/>
-      <c r="J92" s="32" t="s">
+      <c r="H92" s="67"/>
+      <c r="I92" s="183"/>
+      <c r="J92" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="K92" s="40"/>
-      <c r="L92" s="18"/>
-      <c r="M92" s="8"/>
-      <c r="N92" s="19"/>
+      <c r="K92" s="67"/>
+      <c r="L92" s="55"/>
+      <c r="M92" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N92" s="57"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="132"/>
-      <c r="B93" s="40"/>
-      <c r="C93" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="D93" s="32" t="s">
+      <c r="A93" s="60"/>
+      <c r="B93" s="57"/>
+      <c r="C93" s="168" t="s">
+        <v>107</v>
+      </c>
+      <c r="D93" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E93" s="40"/>
-      <c r="F93" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="G93" s="32" t="s">
+      <c r="E93" s="57"/>
+      <c r="F93" s="74" t="s">
+        <v>107</v>
+      </c>
+      <c r="G93" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="H93" s="40"/>
-      <c r="I93" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="J93" s="32" t="s">
+      <c r="H93" s="67"/>
+      <c r="I93" s="184" t="s">
+        <v>107</v>
+      </c>
+      <c r="J93" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="K93" s="40"/>
-      <c r="L93" s="18"/>
-      <c r="M93" s="8"/>
-      <c r="N93" s="19"/>
+      <c r="K93" s="67"/>
+      <c r="L93" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="M93" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N93" s="57"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="132"/>
-      <c r="B94" s="40"/>
-      <c r="C94" s="43"/>
-      <c r="D94" s="32" t="s">
+      <c r="A94" s="60"/>
+      <c r="B94" s="57"/>
+      <c r="C94" s="168"/>
+      <c r="D94" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E94" s="40"/>
-      <c r="F94" s="43"/>
-      <c r="G94" s="32" t="s">
+      <c r="E94" s="57"/>
+      <c r="F94" s="75"/>
+      <c r="G94" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="H94" s="40"/>
-      <c r="I94" s="43"/>
-      <c r="J94" s="32" t="s">
+      <c r="H94" s="67"/>
+      <c r="I94" s="185"/>
+      <c r="J94" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="K94" s="40"/>
-      <c r="L94" s="18"/>
-      <c r="M94" s="8"/>
-      <c r="N94" s="19"/>
+      <c r="K94" s="67"/>
+      <c r="L94" s="55"/>
+      <c r="M94" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N94" s="57"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="132"/>
-      <c r="B95" s="40"/>
-      <c r="C95" s="43"/>
-      <c r="D95" s="32" t="s">
+      <c r="A95" s="60"/>
+      <c r="B95" s="57"/>
+      <c r="C95" s="168"/>
+      <c r="D95" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E95" s="40"/>
-      <c r="F95" s="43"/>
-      <c r="G95" s="32" t="s">
+      <c r="E95" s="57"/>
+      <c r="F95" s="75"/>
+      <c r="G95" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H95" s="40"/>
-      <c r="I95" s="43"/>
-      <c r="J95" s="32" t="s">
+      <c r="H95" s="67"/>
+      <c r="I95" s="185"/>
+      <c r="J95" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="K95" s="40"/>
-      <c r="L95" s="18"/>
-      <c r="M95" s="8"/>
-      <c r="N95" s="19"/>
+      <c r="K95" s="67"/>
+      <c r="L95" s="55"/>
+      <c r="M95" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N95" s="57"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" s="132"/>
-      <c r="B96" s="40"/>
-      <c r="C96" s="43"/>
-      <c r="D96" s="18" t="s">
+      <c r="A96" s="60"/>
+      <c r="B96" s="57"/>
+      <c r="C96" s="168"/>
+      <c r="D96" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E96" s="40"/>
-      <c r="F96" s="43"/>
+      <c r="E96" s="57"/>
+      <c r="F96" s="75"/>
       <c r="G96" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H96" s="40"/>
-      <c r="I96" s="43"/>
+      <c r="H96" s="67"/>
+      <c r="I96" s="185"/>
       <c r="J96" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="K96" s="40"/>
-      <c r="L96" s="18"/>
-      <c r="M96" s="8"/>
-      <c r="N96" s="19"/>
+      <c r="K96" s="67"/>
+      <c r="L96" s="55"/>
+      <c r="M96" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N96" s="57"/>
     </row>
     <row r="97" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="133"/>
-      <c r="B97" s="135"/>
-      <c r="C97" s="38"/>
-      <c r="D97" s="18" t="s">
+      <c r="A97" s="60"/>
+      <c r="B97" s="57"/>
+      <c r="C97" s="169"/>
+      <c r="D97" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E97" s="41"/>
-      <c r="F97" s="38"/>
-      <c r="G97" s="18" t="s">
+      <c r="E97" s="58"/>
+      <c r="F97" s="76"/>
+      <c r="G97" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="H97" s="41"/>
-      <c r="I97" s="38"/>
-      <c r="J97" s="18" t="s">
+      <c r="H97" s="68"/>
+      <c r="I97" s="186"/>
+      <c r="J97" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="K97" s="41"/>
-      <c r="L97" s="20"/>
-      <c r="M97" s="21"/>
-      <c r="N97" s="22"/>
+      <c r="K97" s="68"/>
+      <c r="L97" s="56"/>
+      <c r="M97" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N97" s="58"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" s="60"/>
+      <c r="B98" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="C98" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D98" s="36"/>
+      <c r="E98" s="44"/>
+      <c r="F98" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="G98" s="36"/>
+      <c r="H98" s="44"/>
+      <c r="I98" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="J98" s="36"/>
+      <c r="K98" s="40"/>
+      <c r="L98" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="M98" s="36"/>
+      <c r="N98" s="40"/>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99" s="60"/>
+      <c r="B99" s="57"/>
+      <c r="C99" s="50"/>
+      <c r="D99" s="37"/>
+      <c r="E99" s="41"/>
+      <c r="F99" s="53"/>
+      <c r="G99" s="37"/>
+      <c r="H99" s="41"/>
+      <c r="I99" s="53"/>
+      <c r="J99" s="37"/>
+      <c r="K99" s="41"/>
+      <c r="L99" s="53"/>
+      <c r="M99" s="37"/>
+      <c r="N99" s="41"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100" s="60"/>
+      <c r="B100" s="57"/>
+      <c r="C100" s="50"/>
+      <c r="D100" s="37"/>
+      <c r="E100" s="41"/>
+      <c r="F100" s="53"/>
+      <c r="G100" s="37"/>
+      <c r="H100" s="41"/>
+      <c r="I100" s="53"/>
+      <c r="J100" s="37"/>
+      <c r="K100" s="41"/>
+      <c r="L100" s="53"/>
+      <c r="M100" s="37"/>
+      <c r="N100" s="41"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" s="60"/>
+      <c r="B101" s="57"/>
+      <c r="C101" s="50"/>
+      <c r="D101" s="37"/>
+      <c r="E101" s="41"/>
+      <c r="F101" s="53"/>
+      <c r="G101" s="37"/>
+      <c r="H101" s="42"/>
+      <c r="I101" s="53"/>
+      <c r="J101" s="37"/>
+      <c r="K101" s="41"/>
+      <c r="L101" s="53"/>
+      <c r="M101" s="37"/>
+      <c r="N101" s="41"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" s="60"/>
+      <c r="B102" s="57"/>
+      <c r="C102" s="50"/>
+      <c r="D102" s="37"/>
+      <c r="E102" s="41"/>
+      <c r="F102" s="53"/>
+      <c r="G102" s="36"/>
+      <c r="H102" s="44"/>
+      <c r="I102" s="53"/>
+      <c r="J102" s="37"/>
+      <c r="K102" s="41"/>
+      <c r="L102" s="53"/>
+      <c r="M102" s="37"/>
+      <c r="N102" s="41"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" s="60"/>
+      <c r="B103" s="57"/>
+      <c r="C103" s="50"/>
+      <c r="D103" s="37"/>
+      <c r="E103" s="41"/>
+      <c r="F103" s="53"/>
+      <c r="G103" s="37"/>
+      <c r="H103" s="41"/>
+      <c r="I103" s="53"/>
+      <c r="J103" s="37"/>
+      <c r="K103" s="41"/>
+      <c r="L103" s="53"/>
+      <c r="M103" s="37"/>
+      <c r="N103" s="41"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104" s="60"/>
+      <c r="B104" s="57"/>
+      <c r="C104" s="62"/>
+      <c r="D104" s="38"/>
+      <c r="E104" s="42"/>
+      <c r="F104" s="63"/>
+      <c r="G104" s="38"/>
+      <c r="H104" s="42"/>
+      <c r="I104" s="63"/>
+      <c r="J104" s="38"/>
+      <c r="K104" s="42"/>
+      <c r="L104" s="63"/>
+      <c r="M104" s="38"/>
+      <c r="N104" s="42"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105" s="60"/>
+      <c r="B105" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C105" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="D105" s="36"/>
+      <c r="E105" s="44"/>
+      <c r="F105" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="G105" s="36"/>
+      <c r="H105" s="44"/>
+      <c r="I105" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="J105" s="36"/>
+      <c r="K105" s="40"/>
+      <c r="L105" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="M105" s="36"/>
+      <c r="N105" s="40"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A106" s="60"/>
+      <c r="B106" s="57"/>
+      <c r="C106" s="50"/>
+      <c r="D106" s="37"/>
+      <c r="E106" s="41"/>
+      <c r="F106" s="53"/>
+      <c r="G106" s="37"/>
+      <c r="H106" s="41"/>
+      <c r="I106" s="53"/>
+      <c r="J106" s="37"/>
+      <c r="K106" s="41"/>
+      <c r="L106" s="53"/>
+      <c r="M106" s="37"/>
+      <c r="N106" s="41"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A107" s="60"/>
+      <c r="B107" s="57"/>
+      <c r="C107" s="50"/>
+      <c r="D107" s="37"/>
+      <c r="E107" s="41"/>
+      <c r="F107" s="53"/>
+      <c r="G107" s="37"/>
+      <c r="H107" s="41"/>
+      <c r="I107" s="53"/>
+      <c r="J107" s="37"/>
+      <c r="K107" s="41"/>
+      <c r="L107" s="53"/>
+      <c r="M107" s="37"/>
+      <c r="N107" s="41"/>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A108" s="60"/>
+      <c r="B108" s="57"/>
+      <c r="C108" s="50"/>
+      <c r="D108" s="37"/>
+      <c r="E108" s="41"/>
+      <c r="F108" s="53"/>
+      <c r="G108" s="37"/>
+      <c r="H108" s="42"/>
+      <c r="I108" s="53"/>
+      <c r="J108" s="37"/>
+      <c r="K108" s="41"/>
+      <c r="L108" s="53"/>
+      <c r="M108" s="37"/>
+      <c r="N108" s="41"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A109" s="60"/>
+      <c r="B109" s="57"/>
+      <c r="C109" s="50"/>
+      <c r="D109" s="37"/>
+      <c r="E109" s="41"/>
+      <c r="F109" s="53"/>
+      <c r="G109" s="36"/>
+      <c r="H109" s="44"/>
+      <c r="I109" s="53"/>
+      <c r="J109" s="37"/>
+      <c r="K109" s="41"/>
+      <c r="L109" s="53"/>
+      <c r="M109" s="37"/>
+      <c r="N109" s="41"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A110" s="60"/>
+      <c r="B110" s="57"/>
+      <c r="C110" s="50"/>
+      <c r="D110" s="37"/>
+      <c r="E110" s="41"/>
+      <c r="F110" s="53"/>
+      <c r="G110" s="37"/>
+      <c r="H110" s="41"/>
+      <c r="I110" s="53"/>
+      <c r="J110" s="37"/>
+      <c r="K110" s="41"/>
+      <c r="L110" s="53"/>
+      <c r="M110" s="37"/>
+      <c r="N110" s="41"/>
+    </row>
+    <row r="111" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="61"/>
+      <c r="B111" s="58"/>
+      <c r="C111" s="51"/>
+      <c r="D111" s="39"/>
+      <c r="E111" s="43"/>
+      <c r="F111" s="54"/>
+      <c r="G111" s="39"/>
+      <c r="H111" s="43"/>
+      <c r="I111" s="54"/>
+      <c r="J111" s="39"/>
+      <c r="K111" s="43"/>
+      <c r="L111" s="54"/>
+      <c r="M111" s="39"/>
+      <c r="N111" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="201">
     <mergeCell ref="J84:J85"/>
     <mergeCell ref="K84:K90"/>
     <mergeCell ref="J86:J90"/>
@@ -4936,12 +5466,14 @@
     <mergeCell ref="J77:J78"/>
     <mergeCell ref="J79:J83"/>
     <mergeCell ref="K77:K83"/>
-    <mergeCell ref="H62:H65"/>
-    <mergeCell ref="H66:H68"/>
-    <mergeCell ref="H69:H72"/>
-    <mergeCell ref="H73:H75"/>
-    <mergeCell ref="J41:J47"/>
-    <mergeCell ref="K41:K47"/>
+    <mergeCell ref="M77:M78"/>
+    <mergeCell ref="N77:N83"/>
+    <mergeCell ref="M79:M83"/>
+    <mergeCell ref="M84:M85"/>
+    <mergeCell ref="N84:N90"/>
+    <mergeCell ref="M86:M90"/>
+    <mergeCell ref="L91:L92"/>
+    <mergeCell ref="N91:N97"/>
     <mergeCell ref="K48:K54"/>
     <mergeCell ref="J48:J54"/>
     <mergeCell ref="I55:I61"/>
@@ -4953,6 +5485,13 @@
     <mergeCell ref="H41:H47"/>
     <mergeCell ref="H55:H61"/>
     <mergeCell ref="H48:H54"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="K33:K36"/>
+    <mergeCell ref="K37:K39"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="G41:G44"/>
+    <mergeCell ref="G45:G47"/>
     <mergeCell ref="L19:L22"/>
     <mergeCell ref="N19:N25"/>
     <mergeCell ref="L23:L25"/>
@@ -4962,20 +5501,8 @@
     <mergeCell ref="L33:L39"/>
     <mergeCell ref="N33:N36"/>
     <mergeCell ref="N37:N39"/>
-    <mergeCell ref="I26:I32"/>
-    <mergeCell ref="I33:I39"/>
-    <mergeCell ref="K26:K29"/>
-    <mergeCell ref="K30:K32"/>
-    <mergeCell ref="K33:K36"/>
-    <mergeCell ref="K37:K39"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="G41:G44"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="G48:G51"/>
-    <mergeCell ref="G52:G54"/>
-    <mergeCell ref="M41:M47"/>
-    <mergeCell ref="N41:N47"/>
-    <mergeCell ref="M48:M54"/>
+    <mergeCell ref="J41:J47"/>
+    <mergeCell ref="K41:K47"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="E19:E25"/>
@@ -4984,6 +5511,8 @@
     <mergeCell ref="H34:H36"/>
     <mergeCell ref="H37:H39"/>
     <mergeCell ref="H19:H25"/>
+    <mergeCell ref="I26:I32"/>
+    <mergeCell ref="I33:I39"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="L4:N4"/>
@@ -4993,10 +5522,6 @@
     <mergeCell ref="M12:M15"/>
     <mergeCell ref="N12:N18"/>
     <mergeCell ref="M16:M18"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E90"/>
-    <mergeCell ref="D86:D90"/>
-    <mergeCell ref="C91:C92"/>
     <mergeCell ref="C93:C97"/>
     <mergeCell ref="E91:E97"/>
     <mergeCell ref="F26:F32"/>
@@ -5078,12 +5603,6 @@
     <mergeCell ref="E33:E36"/>
     <mergeCell ref="E37:E39"/>
     <mergeCell ref="A40:B40"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="H84:H90"/>
-    <mergeCell ref="G86:G90"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="H91:H97"/>
-    <mergeCell ref="F93:F97"/>
     <mergeCell ref="I40:K40"/>
     <mergeCell ref="L40:N40"/>
     <mergeCell ref="A76:B76"/>
@@ -5097,11 +5616,41 @@
     <mergeCell ref="G77:G78"/>
     <mergeCell ref="H77:H83"/>
     <mergeCell ref="G79:G83"/>
-    <mergeCell ref="A77:A97"/>
     <mergeCell ref="B77:B83"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="G48:G51"/>
+    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="M41:M47"/>
+    <mergeCell ref="N41:N47"/>
+    <mergeCell ref="M48:M54"/>
+    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="H66:H68"/>
+    <mergeCell ref="H69:H72"/>
+    <mergeCell ref="H73:H75"/>
+    <mergeCell ref="C105:C111"/>
+    <mergeCell ref="F105:F111"/>
+    <mergeCell ref="I105:I111"/>
+    <mergeCell ref="L105:L111"/>
+    <mergeCell ref="L93:L97"/>
+    <mergeCell ref="B98:B104"/>
+    <mergeCell ref="B105:B111"/>
+    <mergeCell ref="A77:A111"/>
+    <mergeCell ref="C98:C104"/>
+    <mergeCell ref="F98:F104"/>
+    <mergeCell ref="I98:I104"/>
+    <mergeCell ref="L98:L104"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="H84:H90"/>
+    <mergeCell ref="G86:G90"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="H91:H97"/>
+    <mergeCell ref="F93:F97"/>
     <mergeCell ref="B84:B90"/>
     <mergeCell ref="B91:B97"/>
-    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E90"/>
+    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="C91:C92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/scheme.xlsx
+++ b/scheme.xlsx
@@ -1798,6 +1798,387 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1816,16 +2197,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1843,30 +2215,6 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1882,356 +2230,8 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2525,7 +2525,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomLeft" activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2547,119 +2547,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="138" t="s">
+      <c r="B1" s="141"/>
+      <c r="C1" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="139"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="141" t="s">
+      <c r="D1" s="129"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="142"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="144" t="s">
+      <c r="G1" s="132"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="145"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="147" t="s">
+      <c r="J1" s="135"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="148"/>
-      <c r="N1" s="149"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="139"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="146" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="120" t="s">
+      <c r="B2" s="147"/>
+      <c r="C2" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="121"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="120" t="s">
+      <c r="D2" s="117"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="121"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="120" t="s">
+      <c r="G2" s="117"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="121"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="120" t="s">
+      <c r="J2" s="117"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="M2" s="121"/>
-      <c r="N2" s="122"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="118"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="157"/>
-      <c r="B3" s="158"/>
-      <c r="C3" s="120" t="s">
+      <c r="A3" s="148"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="121"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="120" t="s">
+      <c r="D3" s="117"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="121"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="120" t="s">
+      <c r="G3" s="117"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="121"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="120" t="s">
+      <c r="J3" s="117"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="121"/>
-      <c r="N3" s="122"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="118"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="77" t="s">
+      <c r="B4" s="94"/>
+      <c r="C4" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="78"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="77" t="s">
+      <c r="D4" s="93"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="78"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="77" t="s">
+      <c r="G4" s="93"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="92" t="s">
         <v>116</v>
       </c>
-      <c r="J4" s="78"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="77" t="s">
+      <c r="J4" s="93"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="M4" s="78"/>
-      <c r="N4" s="79"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="94"/>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="154" t="s">
+      <c r="A5" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="152" t="s">
+      <c r="B5" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="128" t="s">
+      <c r="C5" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="129"/>
-      <c r="E5" s="127" t="s">
+      <c r="D5" s="161"/>
+      <c r="E5" s="159" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="25" t="s">
@@ -2668,13 +2668,13 @@
       <c r="G5" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="135" t="s">
+      <c r="H5" s="162" t="s">
         <v>47</v>
       </c>
       <c r="I5" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="118" t="s">
+      <c r="J5" s="119" t="s">
         <v>58</v>
       </c>
       <c r="K5" s="123" t="s">
@@ -2683,7 +2683,7 @@
       <c r="L5" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="118" t="s">
+      <c r="M5" s="119" t="s">
         <v>58</v>
       </c>
       <c r="N5" s="123" t="s">
@@ -2691,171 +2691,171 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="155"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="124" t="s">
+      <c r="A6" s="144"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="125"/>
-      <c r="E6" s="115"/>
+      <c r="D6" s="156"/>
+      <c r="E6" s="110"/>
       <c r="F6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="131" t="s">
+      <c r="G6" s="155" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="136"/>
+      <c r="H6" s="113"/>
       <c r="I6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="85"/>
-      <c r="K6" s="88"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="89"/>
       <c r="L6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="85"/>
-      <c r="N6" s="88"/>
+      <c r="M6" s="120"/>
+      <c r="N6" s="89"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="155"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="124" t="s">
+      <c r="A7" s="144"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="125"/>
-      <c r="E7" s="115"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="110"/>
       <c r="F7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="125"/>
-      <c r="H7" s="136"/>
+      <c r="G7" s="156"/>
+      <c r="H7" s="113"/>
       <c r="I7" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="85"/>
-      <c r="K7" s="88"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="89"/>
       <c r="L7" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="85"/>
-      <c r="N7" s="88"/>
+      <c r="M7" s="120"/>
+      <c r="N7" s="89"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="155"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="126" t="s">
+      <c r="A8" s="144"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="130"/>
-      <c r="E8" s="116"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="111"/>
       <c r="F8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="130"/>
-      <c r="H8" s="136"/>
+      <c r="G8" s="157"/>
+      <c r="H8" s="113"/>
       <c r="I8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="86"/>
-      <c r="K8" s="88"/>
+      <c r="J8" s="121"/>
+      <c r="K8" s="89"/>
       <c r="L8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="86"/>
-      <c r="N8" s="88"/>
+      <c r="M8" s="121"/>
+      <c r="N8" s="89"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="155"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="124" t="s">
+      <c r="A9" s="144"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="114" t="s">
+      <c r="D9" s="156"/>
+      <c r="E9" s="109" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="132" t="s">
+      <c r="G9" s="158" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="136"/>
+      <c r="H9" s="113"/>
       <c r="I9" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="119" t="s">
+      <c r="J9" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="K9" s="88"/>
+      <c r="K9" s="89"/>
       <c r="L9" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="119" t="s">
+      <c r="M9" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="N9" s="88"/>
+      <c r="N9" s="89"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="155"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="124" t="s">
+      <c r="A10" s="144"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="115"/>
+      <c r="D10" s="156"/>
+      <c r="E10" s="110"/>
       <c r="F10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="133"/>
-      <c r="H10" s="136"/>
+      <c r="G10" s="153"/>
+      <c r="H10" s="113"/>
       <c r="I10" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="85"/>
-      <c r="K10" s="88"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="89"/>
       <c r="L10" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="85"/>
-      <c r="N10" s="88"/>
+      <c r="M10" s="120"/>
+      <c r="N10" s="89"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="155"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="126" t="s">
+      <c r="A11" s="144"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="116"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="134"/>
-      <c r="H11" s="137"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="114"/>
       <c r="I11" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="86"/>
-      <c r="K11" s="89"/>
+      <c r="J11" s="121"/>
+      <c r="K11" s="90"/>
       <c r="L11" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="86"/>
-      <c r="N11" s="89"/>
+      <c r="M11" s="121"/>
+      <c r="N11" s="90"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="155"/>
-      <c r="B12" s="153" t="s">
+      <c r="A12" s="144"/>
+      <c r="B12" s="88" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="161" t="s">
+      <c r="D12" s="150" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="114" t="s">
+      <c r="E12" s="109" t="s">
         <v>25</v>
       </c>
       <c r="F12" s="12" t="s">
@@ -2864,194 +2864,194 @@
       <c r="G12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="160" t="s">
+      <c r="H12" s="112" t="s">
         <v>54</v>
       </c>
       <c r="I12" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="84" t="s">
+      <c r="J12" s="124" t="s">
         <v>60</v>
       </c>
-      <c r="K12" s="87" t="s">
+      <c r="K12" s="100" t="s">
         <v>65</v>
       </c>
       <c r="L12" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="M12" s="84" t="s">
+      <c r="M12" s="124" t="s">
         <v>60</v>
       </c>
-      <c r="N12" s="87" t="s">
+      <c r="N12" s="100" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="155"/>
-      <c r="B13" s="88"/>
+      <c r="A13" s="144"/>
+      <c r="B13" s="89"/>
       <c r="C13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="162"/>
-      <c r="E13" s="115"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="110"/>
       <c r="F13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="131" t="s">
+      <c r="G13" s="155" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="136"/>
+      <c r="H13" s="113"/>
       <c r="I13" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="85"/>
-      <c r="K13" s="88"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="89"/>
       <c r="L13" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="M13" s="85"/>
-      <c r="N13" s="88"/>
+      <c r="M13" s="120"/>
+      <c r="N13" s="89"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="155"/>
-      <c r="B14" s="88"/>
+      <c r="A14" s="144"/>
+      <c r="B14" s="89"/>
       <c r="C14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="162"/>
-      <c r="E14" s="115"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="110"/>
       <c r="F14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="125"/>
-      <c r="H14" s="136"/>
+      <c r="G14" s="156"/>
+      <c r="H14" s="113"/>
       <c r="I14" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="85"/>
-      <c r="K14" s="88"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="89"/>
       <c r="L14" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="M14" s="85"/>
-      <c r="N14" s="88"/>
+      <c r="M14" s="120"/>
+      <c r="N14" s="89"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="155"/>
-      <c r="B15" s="88"/>
+      <c r="A15" s="144"/>
+      <c r="B15" s="89"/>
       <c r="C15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="163"/>
-      <c r="E15" s="115"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="110"/>
       <c r="F15" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="130"/>
-      <c r="H15" s="136"/>
+      <c r="G15" s="157"/>
+      <c r="H15" s="113"/>
       <c r="I15" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="86"/>
-      <c r="K15" s="88"/>
+      <c r="J15" s="121"/>
+      <c r="K15" s="89"/>
       <c r="L15" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="M15" s="86"/>
-      <c r="N15" s="88"/>
+      <c r="M15" s="121"/>
+      <c r="N15" s="89"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="155"/>
-      <c r="B16" s="88"/>
+      <c r="A16" s="144"/>
+      <c r="B16" s="89"/>
       <c r="C16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="161" t="s">
+      <c r="D16" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="115"/>
+      <c r="E16" s="110"/>
       <c r="F16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="132" t="s">
+      <c r="G16" s="158" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="136"/>
+      <c r="H16" s="113"/>
       <c r="I16" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="84" t="s">
+      <c r="J16" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="K16" s="88"/>
+      <c r="K16" s="89"/>
       <c r="L16" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="M16" s="84" t="s">
+      <c r="M16" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="N16" s="88"/>
+      <c r="N16" s="89"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="155"/>
-      <c r="B17" s="88"/>
+      <c r="A17" s="144"/>
+      <c r="B17" s="89"/>
       <c r="C17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="133"/>
-      <c r="E17" s="115"/>
+      <c r="D17" s="153"/>
+      <c r="E17" s="110"/>
       <c r="F17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="133"/>
-      <c r="H17" s="136"/>
+      <c r="G17" s="153"/>
+      <c r="H17" s="113"/>
       <c r="I17" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="85"/>
-      <c r="K17" s="88"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="89"/>
       <c r="L17" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="M17" s="85"/>
-      <c r="N17" s="88"/>
+      <c r="M17" s="120"/>
+      <c r="N17" s="89"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="155"/>
-      <c r="B18" s="89"/>
+      <c r="A18" s="144"/>
+      <c r="B18" s="90"/>
       <c r="C18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="134"/>
-      <c r="E18" s="116"/>
+      <c r="D18" s="154"/>
+      <c r="E18" s="111"/>
       <c r="F18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="134"/>
-      <c r="H18" s="137"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="114"/>
       <c r="I18" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="86"/>
-      <c r="K18" s="89"/>
+      <c r="J18" s="121"/>
+      <c r="K18" s="90"/>
       <c r="L18" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="M18" s="86"/>
-      <c r="N18" s="89"/>
+      <c r="M18" s="121"/>
+      <c r="N18" s="90"/>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="155"/>
-      <c r="B19" s="153" t="s">
+      <c r="A19" s="144"/>
+      <c r="B19" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="124" t="s">
+      <c r="C19" s="106" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E19" s="114" t="s">
+      <c r="E19" s="109" t="s">
         <v>29</v>
       </c>
       <c r="F19" s="12" t="s">
@@ -3060,197 +3060,197 @@
       <c r="G19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H19" s="160" t="s">
+      <c r="H19" s="112" t="s">
         <v>55</v>
       </c>
-      <c r="I19" s="90" t="s">
+      <c r="I19" s="97" t="s">
         <v>62</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K19" s="87" t="s">
+      <c r="K19" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="L19" s="90" t="s">
+      <c r="L19" s="97" t="s">
         <v>62</v>
       </c>
       <c r="M19" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="N19" s="87" t="s">
+      <c r="N19" s="100" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="155"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="124"/>
+      <c r="A20" s="144"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="106"/>
       <c r="D20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="115"/>
-      <c r="F20" s="164" t="s">
+      <c r="E20" s="110"/>
+      <c r="F20" s="101" t="s">
         <v>49</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="136"/>
-      <c r="I20" s="91"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="98"/>
       <c r="J20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="88"/>
-      <c r="L20" s="91"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="98"/>
       <c r="M20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N20" s="88"/>
+      <c r="N20" s="89"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="155"/>
-      <c r="B21" s="88"/>
-      <c r="C21" s="124"/>
+      <c r="A21" s="144"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="106"/>
       <c r="D21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="115"/>
-      <c r="F21" s="165"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="102"/>
       <c r="G21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="136"/>
-      <c r="I21" s="91"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="98"/>
       <c r="J21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="88"/>
-      <c r="L21" s="91"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="98"/>
       <c r="M21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N21" s="88"/>
+      <c r="N21" s="89"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="155"/>
-      <c r="B22" s="88"/>
-      <c r="C22" s="126"/>
+      <c r="A22" s="144"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="107"/>
       <c r="D22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="115"/>
-      <c r="F22" s="166"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="103"/>
       <c r="G22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="136"/>
-      <c r="I22" s="92"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="99"/>
       <c r="J22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K22" s="88"/>
-      <c r="L22" s="92"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="99"/>
       <c r="M22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="88"/>
+      <c r="N22" s="89"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="155"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="173" t="s">
+      <c r="A23" s="144"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="108" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="115"/>
-      <c r="F23" s="164" t="s">
+      <c r="E23" s="110"/>
+      <c r="F23" s="101" t="s">
         <v>50</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H23" s="136"/>
-      <c r="I23" s="90" t="s">
+      <c r="H23" s="113"/>
+      <c r="I23" s="97" t="s">
         <v>63</v>
       </c>
       <c r="J23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="88"/>
-      <c r="L23" s="90" t="s">
+      <c r="K23" s="89"/>
+      <c r="L23" s="97" t="s">
         <v>63</v>
       </c>
       <c r="M23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N23" s="88"/>
+      <c r="N23" s="89"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="155"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="124"/>
+      <c r="A24" s="144"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="106"/>
       <c r="D24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="115"/>
-      <c r="F24" s="165"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="102"/>
       <c r="G24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="136"/>
-      <c r="I24" s="91"/>
+      <c r="H24" s="113"/>
+      <c r="I24" s="98"/>
       <c r="J24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="88"/>
-      <c r="L24" s="91"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="98"/>
       <c r="M24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N24" s="88"/>
+      <c r="N24" s="89"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="155"/>
-      <c r="B25" s="89"/>
-      <c r="C25" s="126"/>
+      <c r="A25" s="144"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="107"/>
       <c r="D25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="116"/>
-      <c r="F25" s="166"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="103"/>
       <c r="G25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="137"/>
-      <c r="I25" s="92"/>
+      <c r="H25" s="114"/>
+      <c r="I25" s="99"/>
       <c r="J25" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="89"/>
-      <c r="L25" s="92"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="99"/>
       <c r="M25" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N25" s="89"/>
+      <c r="N25" s="90"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="155"/>
-      <c r="B26" s="153" t="s">
+      <c r="A26" s="144"/>
+      <c r="B26" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="164" t="s">
+      <c r="C26" s="101" t="s">
         <v>35</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E26" s="114" t="s">
+      <c r="E26" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="164" t="s">
+      <c r="F26" s="101" t="s">
         <v>35</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -3259,194 +3259,194 @@
       <c r="H26" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I26" s="164" t="s">
+      <c r="I26" s="101" t="s">
         <v>35</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K26" s="153" t="s">
+      <c r="K26" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="L26" s="164" t="s">
+      <c r="L26" s="101" t="s">
         <v>35</v>
       </c>
       <c r="M26" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="N26" s="153" t="s">
+      <c r="N26" s="88" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="155"/>
-      <c r="B27" s="88"/>
-      <c r="C27" s="165"/>
+      <c r="A27" s="144"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="102"/>
       <c r="D27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="115"/>
-      <c r="F27" s="165"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="102"/>
       <c r="G27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="160" t="s">
+      <c r="H27" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="I27" s="165"/>
+      <c r="I27" s="102"/>
       <c r="J27" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K27" s="88"/>
-      <c r="L27" s="165"/>
+      <c r="K27" s="89"/>
+      <c r="L27" s="102"/>
       <c r="M27" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N27" s="88"/>
+      <c r="N27" s="89"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="155"/>
-      <c r="B28" s="88"/>
-      <c r="C28" s="165"/>
+      <c r="A28" s="144"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="102"/>
       <c r="D28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="115"/>
-      <c r="F28" s="165"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="102"/>
       <c r="G28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="136"/>
-      <c r="I28" s="165"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="102"/>
       <c r="J28" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="88"/>
-      <c r="L28" s="165"/>
+      <c r="K28" s="89"/>
+      <c r="L28" s="102"/>
       <c r="M28" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N28" s="88"/>
+      <c r="N28" s="89"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="155"/>
-      <c r="B29" s="88"/>
-      <c r="C29" s="165"/>
+      <c r="A29" s="144"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="102"/>
       <c r="D29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="116"/>
-      <c r="F29" s="165"/>
+      <c r="E29" s="111"/>
+      <c r="F29" s="102"/>
       <c r="G29" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="137"/>
-      <c r="I29" s="165"/>
+      <c r="H29" s="114"/>
+      <c r="I29" s="102"/>
       <c r="J29" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K29" s="89"/>
-      <c r="L29" s="165"/>
+      <c r="K29" s="90"/>
+      <c r="L29" s="102"/>
       <c r="M29" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N29" s="89"/>
+      <c r="N29" s="90"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="155"/>
-      <c r="B30" s="88"/>
-      <c r="C30" s="165"/>
+      <c r="A30" s="144"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="102"/>
       <c r="D30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="114" t="s">
+      <c r="E30" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="165"/>
+      <c r="F30" s="102"/>
       <c r="G30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="160" t="s">
+      <c r="H30" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="I30" s="165"/>
+      <c r="I30" s="102"/>
       <c r="J30" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K30" s="153" t="s">
+      <c r="K30" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="L30" s="165"/>
+      <c r="L30" s="102"/>
       <c r="M30" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N30" s="153" t="s">
+      <c r="N30" s="88" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="155"/>
-      <c r="B31" s="88"/>
-      <c r="C31" s="165"/>
+      <c r="A31" s="144"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="102"/>
       <c r="D31" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="115"/>
-      <c r="F31" s="165"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="102"/>
       <c r="G31" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H31" s="136"/>
-      <c r="I31" s="165"/>
+      <c r="H31" s="113"/>
+      <c r="I31" s="102"/>
       <c r="J31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K31" s="88"/>
-      <c r="L31" s="165"/>
+      <c r="K31" s="89"/>
+      <c r="L31" s="102"/>
       <c r="M31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N31" s="88"/>
+      <c r="N31" s="89"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="155"/>
-      <c r="B32" s="89"/>
-      <c r="C32" s="166"/>
+      <c r="A32" s="144"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="103"/>
       <c r="D32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="116"/>
-      <c r="F32" s="166"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="103"/>
       <c r="G32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="137"/>
-      <c r="I32" s="166"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="103"/>
       <c r="J32" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K32" s="88"/>
-      <c r="L32" s="166"/>
+      <c r="K32" s="89"/>
+      <c r="L32" s="103"/>
       <c r="M32" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N32" s="88"/>
+      <c r="N32" s="89"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="155"/>
-      <c r="B33" s="153" t="s">
+      <c r="A33" s="144"/>
+      <c r="B33" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="164" t="s">
+      <c r="C33" s="101" t="s">
         <v>36</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E33" s="114" t="s">
+      <c r="E33" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="164" t="s">
+      <c r="F33" s="101" t="s">
         <v>36</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -3455,2001 +3455,2178 @@
       <c r="H33" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="I33" s="164" t="s">
+      <c r="I33" s="101" t="s">
         <v>36</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K33" s="153" t="s">
+      <c r="K33" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="L33" s="164" t="s">
+      <c r="L33" s="101" t="s">
         <v>36</v>
       </c>
       <c r="M33" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="N33" s="153" t="s">
+      <c r="N33" s="88" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="155"/>
-      <c r="B34" s="88"/>
-      <c r="C34" s="165"/>
+      <c r="A34" s="144"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="102"/>
       <c r="D34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="115"/>
-      <c r="F34" s="165"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="102"/>
       <c r="G34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H34" s="160" t="s">
+      <c r="H34" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="I34" s="165"/>
+      <c r="I34" s="102"/>
       <c r="J34" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K34" s="88"/>
-      <c r="L34" s="165"/>
+      <c r="K34" s="89"/>
+      <c r="L34" s="102"/>
       <c r="M34" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N34" s="88"/>
+      <c r="N34" s="89"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="155"/>
-      <c r="B35" s="88"/>
-      <c r="C35" s="165"/>
+      <c r="A35" s="144"/>
+      <c r="B35" s="89"/>
+      <c r="C35" s="102"/>
       <c r="D35" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="115"/>
-      <c r="F35" s="165"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="102"/>
       <c r="G35" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="136"/>
-      <c r="I35" s="165"/>
+      <c r="H35" s="113"/>
+      <c r="I35" s="102"/>
       <c r="J35" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K35" s="88"/>
-      <c r="L35" s="165"/>
+      <c r="K35" s="89"/>
+      <c r="L35" s="102"/>
       <c r="M35" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N35" s="88"/>
+      <c r="N35" s="89"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="155"/>
-      <c r="B36" s="88"/>
-      <c r="C36" s="165"/>
+      <c r="A36" s="144"/>
+      <c r="B36" s="89"/>
+      <c r="C36" s="102"/>
       <c r="D36" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E36" s="116"/>
-      <c r="F36" s="165"/>
+      <c r="E36" s="111"/>
+      <c r="F36" s="102"/>
       <c r="G36" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H36" s="137"/>
-      <c r="I36" s="165"/>
+      <c r="H36" s="114"/>
+      <c r="I36" s="102"/>
       <c r="J36" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K36" s="89"/>
-      <c r="L36" s="165"/>
+      <c r="K36" s="90"/>
+      <c r="L36" s="102"/>
       <c r="M36" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N36" s="89"/>
+      <c r="N36" s="90"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="155"/>
-      <c r="B37" s="88"/>
-      <c r="C37" s="165"/>
+      <c r="A37" s="144"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="102"/>
       <c r="D37" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="114" t="s">
+      <c r="E37" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="F37" s="165"/>
+      <c r="F37" s="102"/>
       <c r="G37" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H37" s="160" t="s">
+      <c r="H37" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="I37" s="165"/>
+      <c r="I37" s="102"/>
       <c r="J37" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K37" s="153" t="s">
+      <c r="K37" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="L37" s="165"/>
+      <c r="L37" s="102"/>
       <c r="M37" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N37" s="153" t="s">
+      <c r="N37" s="88" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="155"/>
-      <c r="B38" s="88"/>
-      <c r="C38" s="165"/>
+      <c r="A38" s="144"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="102"/>
       <c r="D38" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="115"/>
-      <c r="F38" s="165"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="102"/>
       <c r="G38" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H38" s="136"/>
-      <c r="I38" s="165"/>
+      <c r="H38" s="113"/>
+      <c r="I38" s="102"/>
       <c r="J38" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K38" s="88"/>
-      <c r="L38" s="165"/>
+      <c r="K38" s="89"/>
+      <c r="L38" s="102"/>
       <c r="M38" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N38" s="88"/>
+      <c r="N38" s="89"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="156"/>
-      <c r="B39" s="159"/>
-      <c r="C39" s="174"/>
+      <c r="A39" s="145"/>
+      <c r="B39" s="91"/>
+      <c r="C39" s="104"/>
       <c r="D39" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="117"/>
-      <c r="F39" s="174"/>
+      <c r="E39" s="174"/>
+      <c r="F39" s="104"/>
       <c r="G39" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="175"/>
-      <c r="I39" s="174"/>
+      <c r="H39" s="115"/>
+      <c r="I39" s="104"/>
       <c r="J39" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="K39" s="159"/>
-      <c r="L39" s="174"/>
+      <c r="K39" s="91"/>
+      <c r="L39" s="104"/>
       <c r="M39" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="N39" s="159"/>
+      <c r="N39" s="91"/>
     </row>
     <row r="40" spans="1:14" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="77" t="s">
+      <c r="A40" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="79"/>
-      <c r="C40" s="77" t="s">
+      <c r="B40" s="94"/>
+      <c r="C40" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="D40" s="78"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="77" t="s">
+      <c r="D40" s="93"/>
+      <c r="E40" s="94"/>
+      <c r="F40" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="G40" s="78"/>
-      <c r="H40" s="79"/>
-      <c r="I40" s="77" t="s">
+      <c r="G40" s="93"/>
+      <c r="H40" s="94"/>
+      <c r="I40" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="J40" s="78"/>
-      <c r="K40" s="79"/>
-      <c r="L40" s="77" t="s">
+      <c r="J40" s="93"/>
+      <c r="K40" s="94"/>
+      <c r="L40" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="M40" s="78"/>
-      <c r="N40" s="79"/>
+      <c r="M40" s="93"/>
+      <c r="N40" s="94"/>
     </row>
     <row r="41" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="97" t="s">
+      <c r="A41" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="113" t="s">
+      <c r="B41" s="87" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D41" s="104" t="s">
+      <c r="D41" s="166" t="s">
         <v>75</v>
       </c>
-      <c r="E41" s="105"/>
+      <c r="E41" s="167"/>
       <c r="F41" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="G41" s="172" t="s">
+      <c r="G41" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="H41" s="113" t="s">
+      <c r="H41" s="87" t="s">
         <v>47</v>
       </c>
       <c r="I41" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="J41" s="172" t="s">
+      <c r="J41" s="95" t="s">
         <v>88</v>
       </c>
-      <c r="K41" s="177" t="s">
+      <c r="K41" s="105" t="s">
         <v>91</v>
       </c>
       <c r="L41" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="M41" s="172" t="s">
+      <c r="M41" s="95" t="s">
         <v>88</v>
       </c>
-      <c r="N41" s="113" t="s">
+      <c r="N41" s="87" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="98"/>
-      <c r="B42" s="94"/>
+      <c r="A42" s="164"/>
+      <c r="B42" s="63"/>
       <c r="C42" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="106"/>
-      <c r="E42" s="107"/>
+      <c r="D42" s="168"/>
+      <c r="E42" s="169"/>
       <c r="F42" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G42" s="170"/>
-      <c r="H42" s="94"/>
+      <c r="G42" s="85"/>
+      <c r="H42" s="63"/>
       <c r="I42" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J42" s="170"/>
-      <c r="K42" s="94"/>
+      <c r="J42" s="85"/>
+      <c r="K42" s="63"/>
       <c r="L42" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="M42" s="170"/>
-      <c r="N42" s="94"/>
+      <c r="M42" s="85"/>
+      <c r="N42" s="63"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="98"/>
-      <c r="B43" s="94"/>
+      <c r="A43" s="164"/>
+      <c r="B43" s="63"/>
       <c r="C43" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="106"/>
-      <c r="E43" s="107"/>
+      <c r="D43" s="168"/>
+      <c r="E43" s="169"/>
       <c r="F43" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G43" s="170"/>
-      <c r="H43" s="94"/>
+      <c r="G43" s="85"/>
+      <c r="H43" s="63"/>
       <c r="I43" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J43" s="170"/>
-      <c r="K43" s="94"/>
+      <c r="J43" s="85"/>
+      <c r="K43" s="63"/>
       <c r="L43" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="M43" s="170"/>
-      <c r="N43" s="94"/>
+      <c r="M43" s="85"/>
+      <c r="N43" s="63"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="98"/>
-      <c r="B44" s="94"/>
+      <c r="A44" s="164"/>
+      <c r="B44" s="63"/>
       <c r="C44" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="106"/>
-      <c r="E44" s="107"/>
+      <c r="D44" s="168"/>
+      <c r="E44" s="169"/>
       <c r="F44" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G44" s="171"/>
-      <c r="H44" s="94"/>
+      <c r="G44" s="86"/>
+      <c r="H44" s="63"/>
       <c r="I44" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J44" s="170"/>
-      <c r="K44" s="94"/>
+      <c r="J44" s="85"/>
+      <c r="K44" s="63"/>
       <c r="L44" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="M44" s="170"/>
-      <c r="N44" s="94"/>
+      <c r="M44" s="85"/>
+      <c r="N44" s="63"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="98"/>
-      <c r="B45" s="94"/>
+      <c r="A45" s="164"/>
+      <c r="B45" s="63"/>
       <c r="C45" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="106"/>
-      <c r="E45" s="107"/>
+      <c r="D45" s="168"/>
+      <c r="E45" s="169"/>
       <c r="F45" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G45" s="176" t="s">
+      <c r="G45" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="H45" s="94"/>
+      <c r="H45" s="63"/>
       <c r="I45" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J45" s="170"/>
-      <c r="K45" s="94"/>
+      <c r="J45" s="85"/>
+      <c r="K45" s="63"/>
       <c r="L45" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="M45" s="170"/>
-      <c r="N45" s="94"/>
+      <c r="M45" s="85"/>
+      <c r="N45" s="63"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="98"/>
-      <c r="B46" s="94"/>
+      <c r="A46" s="164"/>
+      <c r="B46" s="63"/>
       <c r="C46" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="106"/>
-      <c r="E46" s="107"/>
+      <c r="D46" s="168"/>
+      <c r="E46" s="169"/>
       <c r="F46" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G46" s="170"/>
-      <c r="H46" s="94"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="63"/>
       <c r="I46" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J46" s="170"/>
-      <c r="K46" s="94"/>
+      <c r="J46" s="85"/>
+      <c r="K46" s="63"/>
       <c r="L46" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="M46" s="170"/>
-      <c r="N46" s="94"/>
+      <c r="M46" s="85"/>
+      <c r="N46" s="63"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="98"/>
-      <c r="B47" s="95"/>
+      <c r="A47" s="164"/>
+      <c r="B47" s="64"/>
       <c r="C47" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D47" s="108"/>
-      <c r="E47" s="109"/>
+      <c r="D47" s="170"/>
+      <c r="E47" s="171"/>
       <c r="F47" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G47" s="171"/>
-      <c r="H47" s="95"/>
+      <c r="G47" s="86"/>
+      <c r="H47" s="64"/>
       <c r="I47" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="J47" s="171"/>
-      <c r="K47" s="95"/>
+      <c r="J47" s="86"/>
+      <c r="K47" s="64"/>
       <c r="L47" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="M47" s="171"/>
-      <c r="N47" s="95"/>
+      <c r="M47" s="86"/>
+      <c r="N47" s="64"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="98"/>
-      <c r="B48" s="93" t="s">
+      <c r="A48" s="164"/>
+      <c r="B48" s="62" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D48" s="110" t="s">
+      <c r="D48" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="E48" s="93" t="s">
+      <c r="E48" s="62" t="s">
         <v>25</v>
       </c>
       <c r="F48" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G48" s="110" t="s">
+      <c r="G48" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="H48" s="93" t="s">
+      <c r="H48" s="62" t="s">
         <v>47</v>
       </c>
       <c r="I48" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="J48" s="110" t="s">
+      <c r="J48" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="K48" s="178" t="s">
+      <c r="K48" s="70" t="s">
         <v>91</v>
       </c>
       <c r="L48" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="M48" s="110" t="s">
+      <c r="M48" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="N48" s="93" t="s">
+      <c r="N48" s="62" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="98"/>
-      <c r="B49" s="94"/>
+      <c r="A49" s="164"/>
+      <c r="B49" s="63"/>
       <c r="C49" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="111"/>
-      <c r="E49" s="94"/>
+      <c r="D49" s="172"/>
+      <c r="E49" s="63"/>
       <c r="F49" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G49" s="170"/>
-      <c r="H49" s="94"/>
+      <c r="G49" s="85"/>
+      <c r="H49" s="63"/>
       <c r="I49" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J49" s="170"/>
-      <c r="K49" s="94"/>
+      <c r="J49" s="85"/>
+      <c r="K49" s="63"/>
       <c r="L49" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="M49" s="170"/>
-      <c r="N49" s="94"/>
+      <c r="M49" s="85"/>
+      <c r="N49" s="63"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="98"/>
-      <c r="B50" s="94"/>
+      <c r="A50" s="164"/>
+      <c r="B50" s="63"/>
       <c r="C50" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D50" s="111"/>
-      <c r="E50" s="94"/>
+      <c r="D50" s="172"/>
+      <c r="E50" s="63"/>
       <c r="F50" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G50" s="170"/>
-      <c r="H50" s="94"/>
+      <c r="G50" s="85"/>
+      <c r="H50" s="63"/>
       <c r="I50" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J50" s="170"/>
-      <c r="K50" s="94"/>
+      <c r="J50" s="85"/>
+      <c r="K50" s="63"/>
       <c r="L50" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="M50" s="170"/>
-      <c r="N50" s="94"/>
+      <c r="M50" s="85"/>
+      <c r="N50" s="63"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="98"/>
-      <c r="B51" s="94"/>
+      <c r="A51" s="164"/>
+      <c r="B51" s="63"/>
       <c r="C51" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D51" s="111"/>
-      <c r="E51" s="94"/>
+      <c r="D51" s="172"/>
+      <c r="E51" s="63"/>
       <c r="F51" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G51" s="171"/>
-      <c r="H51" s="94"/>
+      <c r="G51" s="86"/>
+      <c r="H51" s="63"/>
       <c r="I51" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J51" s="170"/>
-      <c r="K51" s="94"/>
+      <c r="J51" s="85"/>
+      <c r="K51" s="63"/>
       <c r="L51" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="M51" s="170"/>
-      <c r="N51" s="94"/>
+      <c r="M51" s="85"/>
+      <c r="N51" s="63"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="98"/>
-      <c r="B52" s="94"/>
+      <c r="A52" s="164"/>
+      <c r="B52" s="63"/>
       <c r="C52" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D52" s="111"/>
-      <c r="E52" s="94"/>
+      <c r="D52" s="172"/>
+      <c r="E52" s="63"/>
       <c r="F52" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G52" s="110" t="s">
+      <c r="G52" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="H52" s="94"/>
+      <c r="H52" s="63"/>
       <c r="I52" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J52" s="170"/>
-      <c r="K52" s="94"/>
+      <c r="J52" s="85"/>
+      <c r="K52" s="63"/>
       <c r="L52" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="M52" s="170"/>
-      <c r="N52" s="94"/>
+      <c r="M52" s="85"/>
+      <c r="N52" s="63"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="98"/>
-      <c r="B53" s="94"/>
+      <c r="A53" s="164"/>
+      <c r="B53" s="63"/>
       <c r="C53" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D53" s="111"/>
-      <c r="E53" s="94"/>
+      <c r="D53" s="172"/>
+      <c r="E53" s="63"/>
       <c r="F53" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G53" s="170"/>
-      <c r="H53" s="94"/>
+      <c r="G53" s="85"/>
+      <c r="H53" s="63"/>
       <c r="I53" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J53" s="170"/>
-      <c r="K53" s="94"/>
+      <c r="J53" s="85"/>
+      <c r="K53" s="63"/>
       <c r="L53" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="M53" s="170"/>
-      <c r="N53" s="94"/>
+      <c r="M53" s="85"/>
+      <c r="N53" s="63"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="98"/>
-      <c r="B54" s="95"/>
+      <c r="A54" s="164"/>
+      <c r="B54" s="64"/>
       <c r="C54" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D54" s="112"/>
-      <c r="E54" s="95"/>
+      <c r="D54" s="173"/>
+      <c r="E54" s="64"/>
       <c r="F54" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G54" s="171"/>
-      <c r="H54" s="95"/>
+      <c r="G54" s="86"/>
+      <c r="H54" s="64"/>
       <c r="I54" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="J54" s="171"/>
-      <c r="K54" s="95"/>
+      <c r="J54" s="86"/>
+      <c r="K54" s="64"/>
       <c r="L54" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="M54" s="171"/>
-      <c r="N54" s="95"/>
+      <c r="M54" s="86"/>
+      <c r="N54" s="64"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="98"/>
-      <c r="B55" s="93" t="s">
+      <c r="A55" s="164"/>
+      <c r="B55" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="100" t="s">
+      <c r="C55" s="68" t="s">
         <v>77</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E55" s="93" t="s">
+      <c r="E55" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="F55" s="100" t="s">
+      <c r="F55" s="68" t="s">
         <v>80</v>
       </c>
       <c r="G55" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H55" s="93" t="s">
+      <c r="H55" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="I55" s="179" t="s">
+      <c r="I55" s="65" t="s">
         <v>90</v>
       </c>
       <c r="J55" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="K55" s="178" t="s">
+      <c r="K55" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="L55" s="179" t="s">
+      <c r="L55" s="65" t="s">
         <v>90</v>
       </c>
       <c r="M55" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="N55" s="93" t="s">
+      <c r="N55" s="62" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="98"/>
-      <c r="B56" s="94"/>
-      <c r="C56" s="101"/>
+      <c r="A56" s="164"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="66"/>
       <c r="D56" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="94"/>
-      <c r="F56" s="101"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="66"/>
       <c r="G56" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H56" s="94"/>
-      <c r="I56" s="101"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="66"/>
       <c r="J56" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K56" s="94"/>
-      <c r="L56" s="101"/>
+      <c r="K56" s="63"/>
+      <c r="L56" s="66"/>
       <c r="M56" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="N56" s="94"/>
+      <c r="N56" s="63"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="98"/>
-      <c r="B57" s="94"/>
-      <c r="C57" s="101"/>
+      <c r="A57" s="164"/>
+      <c r="B57" s="63"/>
+      <c r="C57" s="66"/>
       <c r="D57" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E57" s="94"/>
-      <c r="F57" s="101"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="66"/>
       <c r="G57" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H57" s="94"/>
-      <c r="I57" s="101"/>
+      <c r="H57" s="63"/>
+      <c r="I57" s="66"/>
       <c r="J57" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K57" s="94"/>
-      <c r="L57" s="101"/>
+      <c r="K57" s="63"/>
+      <c r="L57" s="66"/>
       <c r="M57" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="N57" s="94"/>
+      <c r="N57" s="63"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="98"/>
-      <c r="B58" s="94"/>
-      <c r="C58" s="101"/>
+      <c r="A58" s="164"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="66"/>
       <c r="D58" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E58" s="94"/>
-      <c r="F58" s="102"/>
+      <c r="E58" s="63"/>
+      <c r="F58" s="67"/>
       <c r="G58" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H58" s="94"/>
-      <c r="I58" s="101"/>
+      <c r="H58" s="63"/>
+      <c r="I58" s="66"/>
       <c r="J58" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K58" s="94"/>
-      <c r="L58" s="101"/>
+      <c r="K58" s="63"/>
+      <c r="L58" s="66"/>
       <c r="M58" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="N58" s="94"/>
+      <c r="N58" s="63"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="98"/>
-      <c r="B59" s="94"/>
-      <c r="C59" s="101"/>
+      <c r="A59" s="164"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="66"/>
       <c r="D59" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E59" s="94"/>
-      <c r="F59" s="100" t="s">
+      <c r="E59" s="63"/>
+      <c r="F59" s="68" t="s">
         <v>81</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H59" s="94"/>
-      <c r="I59" s="101"/>
+      <c r="H59" s="63"/>
+      <c r="I59" s="66"/>
       <c r="J59" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K59" s="94"/>
-      <c r="L59" s="101"/>
+      <c r="K59" s="63"/>
+      <c r="L59" s="66"/>
       <c r="M59" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="N59" s="94"/>
+      <c r="N59" s="63"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="98"/>
-      <c r="B60" s="94"/>
-      <c r="C60" s="101"/>
+      <c r="A60" s="164"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="66"/>
       <c r="D60" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E60" s="94"/>
-      <c r="F60" s="101"/>
+      <c r="E60" s="63"/>
+      <c r="F60" s="66"/>
       <c r="G60" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H60" s="94"/>
-      <c r="I60" s="101"/>
+      <c r="H60" s="63"/>
+      <c r="I60" s="66"/>
       <c r="J60" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K60" s="94"/>
-      <c r="L60" s="101"/>
+      <c r="K60" s="63"/>
+      <c r="L60" s="66"/>
       <c r="M60" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N60" s="94"/>
+      <c r="N60" s="63"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="98"/>
-      <c r="B61" s="95"/>
-      <c r="C61" s="102"/>
+      <c r="A61" s="164"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="67"/>
       <c r="D61" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E61" s="95"/>
-      <c r="F61" s="102"/>
+      <c r="E61" s="64"/>
+      <c r="F61" s="67"/>
       <c r="G61" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H61" s="95"/>
-      <c r="I61" s="102"/>
+      <c r="H61" s="64"/>
+      <c r="I61" s="67"/>
       <c r="J61" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K61" s="95"/>
-      <c r="L61" s="102"/>
+      <c r="K61" s="64"/>
+      <c r="L61" s="67"/>
       <c r="M61" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N61" s="95"/>
+      <c r="N61" s="64"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="98"/>
-      <c r="B62" s="93" t="s">
+      <c r="A62" s="164"/>
+      <c r="B62" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="C62" s="100" t="s">
+      <c r="C62" s="68" t="s">
         <v>35</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E62" s="93" t="s">
+      <c r="E62" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="F62" s="100" t="s">
+      <c r="F62" s="68" t="s">
         <v>35</v>
       </c>
       <c r="G62" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H62" s="93" t="s">
+      <c r="H62" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="I62" s="100" t="s">
+      <c r="I62" s="68" t="s">
         <v>35</v>
       </c>
       <c r="J62" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="K62" s="178" t="s">
+      <c r="K62" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="L62" s="100" t="s">
+      <c r="L62" s="68" t="s">
         <v>35</v>
       </c>
       <c r="M62" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="N62" s="178" t="s">
+      <c r="N62" s="70" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="98"/>
-      <c r="B63" s="94"/>
-      <c r="C63" s="101"/>
+      <c r="A63" s="164"/>
+      <c r="B63" s="63"/>
+      <c r="C63" s="66"/>
       <c r="D63" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="94"/>
-      <c r="F63" s="101"/>
+      <c r="E63" s="63"/>
+      <c r="F63" s="66"/>
       <c r="G63" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H63" s="94"/>
-      <c r="I63" s="101"/>
+      <c r="H63" s="63"/>
+      <c r="I63" s="66"/>
       <c r="J63" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K63" s="94"/>
-      <c r="L63" s="101"/>
+      <c r="K63" s="63"/>
+      <c r="L63" s="66"/>
       <c r="M63" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="N63" s="94"/>
+      <c r="N63" s="63"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="98"/>
-      <c r="B64" s="94"/>
-      <c r="C64" s="101"/>
+      <c r="A64" s="164"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="66"/>
       <c r="D64" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E64" s="94"/>
-      <c r="F64" s="101"/>
+      <c r="E64" s="63"/>
+      <c r="F64" s="66"/>
       <c r="G64" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H64" s="94"/>
-      <c r="I64" s="101"/>
+      <c r="H64" s="63"/>
+      <c r="I64" s="66"/>
       <c r="J64" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K64" s="94"/>
-      <c r="L64" s="101"/>
+      <c r="K64" s="63"/>
+      <c r="L64" s="66"/>
       <c r="M64" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="N64" s="94"/>
+      <c r="N64" s="63"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="98"/>
-      <c r="B65" s="94"/>
-      <c r="C65" s="101"/>
+      <c r="A65" s="164"/>
+      <c r="B65" s="63"/>
+      <c r="C65" s="66"/>
       <c r="D65" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E65" s="94"/>
-      <c r="F65" s="101"/>
+      <c r="E65" s="63"/>
+      <c r="F65" s="66"/>
       <c r="G65" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H65" s="95"/>
-      <c r="I65" s="101"/>
+      <c r="H65" s="64"/>
+      <c r="I65" s="66"/>
       <c r="J65" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K65" s="94"/>
-      <c r="L65" s="101"/>
+      <c r="K65" s="63"/>
+      <c r="L65" s="66"/>
       <c r="M65" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="N65" s="94"/>
+      <c r="N65" s="63"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="98"/>
-      <c r="B66" s="94"/>
-      <c r="C66" s="101"/>
+      <c r="A66" s="164"/>
+      <c r="B66" s="63"/>
+      <c r="C66" s="66"/>
       <c r="D66" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E66" s="94"/>
-      <c r="F66" s="101"/>
+      <c r="E66" s="63"/>
+      <c r="F66" s="66"/>
       <c r="G66" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H66" s="93" t="s">
+      <c r="H66" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="I66" s="101"/>
+      <c r="I66" s="66"/>
       <c r="J66" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K66" s="94"/>
-      <c r="L66" s="101"/>
+      <c r="K66" s="63"/>
+      <c r="L66" s="66"/>
       <c r="M66" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="N66" s="94"/>
+      <c r="N66" s="63"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="98"/>
-      <c r="B67" s="94"/>
-      <c r="C67" s="101"/>
+      <c r="A67" s="164"/>
+      <c r="B67" s="63"/>
+      <c r="C67" s="66"/>
       <c r="D67" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E67" s="94"/>
-      <c r="F67" s="101"/>
+      <c r="E67" s="63"/>
+      <c r="F67" s="66"/>
       <c r="G67" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H67" s="94"/>
-      <c r="I67" s="101"/>
+      <c r="H67" s="63"/>
+      <c r="I67" s="66"/>
       <c r="J67" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K67" s="94"/>
-      <c r="L67" s="101"/>
+      <c r="K67" s="63"/>
+      <c r="L67" s="66"/>
       <c r="M67" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N67" s="94"/>
+      <c r="N67" s="63"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="98"/>
-      <c r="B68" s="95"/>
-      <c r="C68" s="102"/>
+      <c r="A68" s="164"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="67"/>
       <c r="D68" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E68" s="95"/>
-      <c r="F68" s="102"/>
+      <c r="E68" s="64"/>
+      <c r="F68" s="67"/>
       <c r="G68" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H68" s="95"/>
-      <c r="I68" s="102"/>
+      <c r="H68" s="64"/>
+      <c r="I68" s="67"/>
       <c r="J68" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K68" s="95"/>
-      <c r="L68" s="102"/>
+      <c r="K68" s="64"/>
+      <c r="L68" s="67"/>
       <c r="M68" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N68" s="95"/>
+      <c r="N68" s="64"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="98"/>
-      <c r="B69" s="93" t="s">
+      <c r="A69" s="164"/>
+      <c r="B69" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="C69" s="100" t="s">
+      <c r="C69" s="68" t="s">
         <v>36</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E69" s="93" t="s">
+      <c r="E69" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="F69" s="100" t="s">
+      <c r="F69" s="68" t="s">
         <v>36</v>
       </c>
       <c r="G69" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H69" s="93" t="s">
+      <c r="H69" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="I69" s="100" t="s">
+      <c r="I69" s="68" t="s">
         <v>36</v>
       </c>
       <c r="J69" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="K69" s="178" t="s">
+      <c r="K69" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="L69" s="100" t="s">
+      <c r="L69" s="68" t="s">
         <v>36</v>
       </c>
       <c r="M69" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="N69" s="178" t="s">
+      <c r="N69" s="70" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="98"/>
-      <c r="B70" s="94"/>
-      <c r="C70" s="101"/>
+      <c r="A70" s="164"/>
+      <c r="B70" s="63"/>
+      <c r="C70" s="66"/>
       <c r="D70" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E70" s="94"/>
-      <c r="F70" s="101"/>
+      <c r="E70" s="63"/>
+      <c r="F70" s="66"/>
       <c r="G70" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H70" s="94"/>
-      <c r="I70" s="101"/>
+      <c r="H70" s="63"/>
+      <c r="I70" s="66"/>
       <c r="J70" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K70" s="94"/>
-      <c r="L70" s="101"/>
+      <c r="K70" s="63"/>
+      <c r="L70" s="66"/>
       <c r="M70" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="N70" s="94"/>
+      <c r="N70" s="63"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="98"/>
-      <c r="B71" s="94"/>
-      <c r="C71" s="101"/>
+      <c r="A71" s="164"/>
+      <c r="B71" s="63"/>
+      <c r="C71" s="66"/>
       <c r="D71" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E71" s="94"/>
-      <c r="F71" s="101"/>
+      <c r="E71" s="63"/>
+      <c r="F71" s="66"/>
       <c r="G71" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H71" s="94"/>
-      <c r="I71" s="101"/>
+      <c r="H71" s="63"/>
+      <c r="I71" s="66"/>
       <c r="J71" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K71" s="94"/>
-      <c r="L71" s="101"/>
+      <c r="K71" s="63"/>
+      <c r="L71" s="66"/>
       <c r="M71" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="N71" s="94"/>
+      <c r="N71" s="63"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="98"/>
-      <c r="B72" s="94"/>
-      <c r="C72" s="101"/>
+      <c r="A72" s="164"/>
+      <c r="B72" s="63"/>
+      <c r="C72" s="66"/>
       <c r="D72" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E72" s="94"/>
-      <c r="F72" s="101"/>
+      <c r="E72" s="63"/>
+      <c r="F72" s="66"/>
       <c r="G72" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H72" s="95"/>
-      <c r="I72" s="101"/>
+      <c r="H72" s="64"/>
+      <c r="I72" s="66"/>
       <c r="J72" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K72" s="94"/>
-      <c r="L72" s="101"/>
+      <c r="K72" s="63"/>
+      <c r="L72" s="66"/>
       <c r="M72" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="N72" s="94"/>
+      <c r="N72" s="63"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="98"/>
-      <c r="B73" s="94"/>
-      <c r="C73" s="101"/>
+      <c r="A73" s="164"/>
+      <c r="B73" s="63"/>
+      <c r="C73" s="66"/>
       <c r="D73" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E73" s="94"/>
-      <c r="F73" s="101"/>
+      <c r="E73" s="63"/>
+      <c r="F73" s="66"/>
       <c r="G73" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H73" s="93" t="s">
+      <c r="H73" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="I73" s="101"/>
+      <c r="I73" s="66"/>
       <c r="J73" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K73" s="94"/>
-      <c r="L73" s="101"/>
+      <c r="K73" s="63"/>
+      <c r="L73" s="66"/>
       <c r="M73" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="N73" s="94"/>
+      <c r="N73" s="63"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="98"/>
-      <c r="B74" s="94"/>
-      <c r="C74" s="101"/>
+      <c r="A74" s="164"/>
+      <c r="B74" s="63"/>
+      <c r="C74" s="66"/>
       <c r="D74" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E74" s="94"/>
-      <c r="F74" s="101"/>
+      <c r="E74" s="63"/>
+      <c r="F74" s="66"/>
       <c r="G74" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H74" s="94"/>
-      <c r="I74" s="101"/>
+      <c r="H74" s="63"/>
+      <c r="I74" s="66"/>
       <c r="J74" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K74" s="94"/>
-      <c r="L74" s="101"/>
+      <c r="K74" s="63"/>
+      <c r="L74" s="66"/>
       <c r="M74" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N74" s="94"/>
+      <c r="N74" s="63"/>
     </row>
     <row r="75" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="99"/>
-      <c r="B75" s="96"/>
-      <c r="C75" s="103"/>
+      <c r="A75" s="165"/>
+      <c r="B75" s="71"/>
+      <c r="C75" s="69"/>
       <c r="D75" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="96"/>
-      <c r="F75" s="103"/>
+      <c r="E75" s="71"/>
+      <c r="F75" s="69"/>
       <c r="G75" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="H75" s="96"/>
-      <c r="I75" s="103"/>
+      <c r="H75" s="71"/>
+      <c r="I75" s="69"/>
       <c r="J75" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="K75" s="96"/>
-      <c r="L75" s="103"/>
+      <c r="K75" s="71"/>
+      <c r="L75" s="69"/>
       <c r="M75" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="N75" s="96"/>
+      <c r="N75" s="71"/>
     </row>
     <row r="76" spans="1:14" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="80" t="s">
+      <c r="A76" s="146" t="s">
         <v>13</v>
       </c>
-      <c r="B76" s="81"/>
-      <c r="C76" s="77" t="s">
+      <c r="B76" s="147"/>
+      <c r="C76" s="92" t="s">
         <v>99</v>
       </c>
-      <c r="D76" s="78"/>
-      <c r="E76" s="79"/>
-      <c r="F76" s="77" t="s">
+      <c r="D76" s="93"/>
+      <c r="E76" s="94"/>
+      <c r="F76" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="G76" s="78"/>
-      <c r="H76" s="79"/>
-      <c r="I76" s="77" t="s">
+      <c r="G76" s="93"/>
+      <c r="H76" s="94"/>
+      <c r="I76" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="J76" s="78"/>
-      <c r="K76" s="79"/>
-      <c r="L76" s="77" t="s">
+      <c r="J76" s="93"/>
+      <c r="K76" s="94"/>
+      <c r="L76" s="92" t="s">
         <v>102</v>
       </c>
-      <c r="M76" s="78"/>
-      <c r="N76" s="79"/>
+      <c r="M76" s="93"/>
+      <c r="N76" s="94"/>
     </row>
     <row r="77" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="59" t="s">
+      <c r="A77" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="B77" s="83" t="s">
+      <c r="B77" s="127" t="s">
         <v>11</v>
       </c>
       <c r="C77" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D77" s="82" t="s">
+      <c r="D77" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="E77" s="66" t="s">
+      <c r="E77" s="175" t="s">
         <v>25</v>
       </c>
       <c r="F77" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="G77" s="82" t="s">
+      <c r="G77" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="H77" s="66" t="s">
+      <c r="H77" s="175" t="s">
         <v>47</v>
       </c>
       <c r="I77" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="J77" s="82" t="s">
+      <c r="J77" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="K77" s="180" t="s">
+      <c r="K77" s="51" t="s">
         <v>109</v>
       </c>
       <c r="L77" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="M77" s="82" t="s">
+      <c r="M77" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="N77" s="180" t="s">
+      <c r="N77" s="51" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="60"/>
-      <c r="B78" s="57"/>
+      <c r="A78" s="184"/>
+      <c r="B78" s="82"/>
       <c r="C78" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="D78" s="65"/>
-      <c r="E78" s="67"/>
+      <c r="D78" s="50"/>
+      <c r="E78" s="52"/>
       <c r="F78" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="G78" s="65"/>
-      <c r="H78" s="67"/>
+      <c r="G78" s="50"/>
+      <c r="H78" s="52"/>
       <c r="I78" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="J78" s="65"/>
-      <c r="K78" s="67"/>
+      <c r="J78" s="50"/>
+      <c r="K78" s="52"/>
       <c r="L78" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="M78" s="65"/>
-      <c r="N78" s="67"/>
+      <c r="M78" s="50"/>
+      <c r="N78" s="52"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="60"/>
-      <c r="B79" s="57"/>
+      <c r="A79" s="184"/>
+      <c r="B79" s="82"/>
       <c r="C79" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="D79" s="69" t="s">
+      <c r="D79" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="E79" s="67"/>
+      <c r="E79" s="52"/>
       <c r="F79" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="G79" s="69" t="s">
+      <c r="G79" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="H79" s="67"/>
+      <c r="H79" s="52"/>
       <c r="I79" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="J79" s="69" t="s">
+      <c r="J79" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="K79" s="67"/>
+      <c r="K79" s="52"/>
       <c r="L79" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="M79" s="69" t="s">
+      <c r="M79" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="N79" s="67"/>
+      <c r="N79" s="52"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="60"/>
-      <c r="B80" s="57"/>
+      <c r="A80" s="184"/>
+      <c r="B80" s="82"/>
       <c r="C80" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="D80" s="70"/>
-      <c r="E80" s="67"/>
+      <c r="D80" s="55"/>
+      <c r="E80" s="52"/>
       <c r="F80" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G80" s="70"/>
-      <c r="H80" s="67"/>
+      <c r="G80" s="55"/>
+      <c r="H80" s="52"/>
       <c r="I80" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="J80" s="70"/>
-      <c r="K80" s="67"/>
+      <c r="J80" s="55"/>
+      <c r="K80" s="52"/>
       <c r="L80" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="M80" s="70"/>
-      <c r="N80" s="67"/>
+      <c r="M80" s="55"/>
+      <c r="N80" s="52"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="60"/>
-      <c r="B81" s="57"/>
+      <c r="A81" s="184"/>
+      <c r="B81" s="82"/>
       <c r="C81" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="D81" s="70"/>
-      <c r="E81" s="67"/>
+      <c r="D81" s="55"/>
+      <c r="E81" s="52"/>
       <c r="F81" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G81" s="70"/>
-      <c r="H81" s="67"/>
+      <c r="G81" s="55"/>
+      <c r="H81" s="52"/>
       <c r="I81" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="J81" s="70"/>
-      <c r="K81" s="67"/>
+      <c r="J81" s="55"/>
+      <c r="K81" s="52"/>
       <c r="L81" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="M81" s="70"/>
-      <c r="N81" s="67"/>
+      <c r="M81" s="55"/>
+      <c r="N81" s="52"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="60"/>
-      <c r="B82" s="57"/>
+      <c r="A82" s="184"/>
+      <c r="B82" s="82"/>
       <c r="C82" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D82" s="70"/>
-      <c r="E82" s="67"/>
+      <c r="D82" s="55"/>
+      <c r="E82" s="52"/>
       <c r="F82" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G82" s="70"/>
-      <c r="H82" s="67"/>
+      <c r="G82" s="55"/>
+      <c r="H82" s="52"/>
       <c r="I82" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J82" s="70"/>
-      <c r="K82" s="67"/>
+      <c r="J82" s="55"/>
+      <c r="K82" s="52"/>
       <c r="L82" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="M82" s="70"/>
-      <c r="N82" s="67"/>
+      <c r="M82" s="55"/>
+      <c r="N82" s="52"/>
     </row>
     <row r="83" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="60"/>
-      <c r="B83" s="57"/>
+      <c r="A83" s="184"/>
+      <c r="B83" s="82"/>
       <c r="C83" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D83" s="70"/>
-      <c r="E83" s="67"/>
+      <c r="D83" s="55"/>
+      <c r="E83" s="52"/>
       <c r="F83" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G83" s="70"/>
-      <c r="H83" s="67"/>
+      <c r="G83" s="55"/>
+      <c r="H83" s="52"/>
       <c r="I83" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="J83" s="70"/>
-      <c r="K83" s="67"/>
+      <c r="J83" s="55"/>
+      <c r="K83" s="52"/>
       <c r="L83" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="M83" s="70"/>
-      <c r="N83" s="67"/>
+      <c r="M83" s="55"/>
+      <c r="N83" s="52"/>
     </row>
     <row r="84" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="60"/>
-      <c r="B84" s="57" t="s">
+      <c r="A84" s="184"/>
+      <c r="B84" s="82" t="s">
         <v>12</v>
       </c>
       <c r="C84" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D84" s="64" t="s">
+      <c r="D84" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="E84" s="66" t="s">
+      <c r="E84" s="175" t="s">
         <v>25</v>
       </c>
       <c r="F84" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="G84" s="64" t="s">
+      <c r="G84" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="H84" s="66" t="s">
+      <c r="H84" s="175" t="s">
         <v>47</v>
       </c>
       <c r="I84" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="J84" s="64" t="s">
+      <c r="J84" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="K84" s="180" t="s">
+      <c r="K84" s="51" t="s">
         <v>109</v>
       </c>
       <c r="L84" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="M84" s="64" t="s">
+      <c r="M84" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="N84" s="180" t="s">
+      <c r="N84" s="51" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="60"/>
-      <c r="B85" s="57"/>
+      <c r="A85" s="184"/>
+      <c r="B85" s="82"/>
       <c r="C85" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="D85" s="65"/>
-      <c r="E85" s="67"/>
+      <c r="D85" s="50"/>
+      <c r="E85" s="52"/>
       <c r="F85" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="G85" s="65"/>
-      <c r="H85" s="67"/>
+      <c r="G85" s="50"/>
+      <c r="H85" s="52"/>
       <c r="I85" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="J85" s="65"/>
-      <c r="K85" s="67"/>
+      <c r="J85" s="50"/>
+      <c r="K85" s="52"/>
       <c r="L85" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="M85" s="187"/>
-      <c r="N85" s="188"/>
+      <c r="M85" s="74"/>
+      <c r="N85" s="75"/>
     </row>
     <row r="86" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="60"/>
-      <c r="B86" s="57"/>
+      <c r="A86" s="184"/>
+      <c r="B86" s="82"/>
       <c r="C86" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="69" t="s">
+      <c r="D86" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="E86" s="67"/>
+      <c r="E86" s="52"/>
       <c r="F86" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="G86" s="69" t="s">
+      <c r="G86" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="H86" s="67"/>
+      <c r="H86" s="52"/>
       <c r="I86" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="J86" s="181" t="s">
+      <c r="J86" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="K86" s="67"/>
+      <c r="K86" s="52"/>
       <c r="L86" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="M86" s="181" t="s">
+      <c r="M86" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="N86" s="188"/>
+      <c r="N86" s="75"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="60"/>
-      <c r="B87" s="57"/>
+      <c r="A87" s="184"/>
+      <c r="B87" s="82"/>
       <c r="C87" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="D87" s="70"/>
-      <c r="E87" s="67"/>
+      <c r="D87" s="55"/>
+      <c r="E87" s="52"/>
       <c r="F87" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G87" s="70"/>
-      <c r="H87" s="67"/>
+      <c r="G87" s="55"/>
+      <c r="H87" s="52"/>
       <c r="I87" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="J87" s="70"/>
-      <c r="K87" s="67"/>
+      <c r="J87" s="55"/>
+      <c r="K87" s="52"/>
       <c r="L87" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="M87" s="190"/>
-      <c r="N87" s="188"/>
+      <c r="M87" s="77"/>
+      <c r="N87" s="75"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="60"/>
-      <c r="B88" s="57"/>
+      <c r="A88" s="184"/>
+      <c r="B88" s="82"/>
       <c r="C88" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="D88" s="70"/>
-      <c r="E88" s="67"/>
+      <c r="D88" s="55"/>
+      <c r="E88" s="52"/>
       <c r="F88" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G88" s="70"/>
-      <c r="H88" s="67"/>
+      <c r="G88" s="55"/>
+      <c r="H88" s="52"/>
       <c r="I88" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="J88" s="70"/>
-      <c r="K88" s="67"/>
+      <c r="J88" s="55"/>
+      <c r="K88" s="52"/>
       <c r="L88" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="M88" s="190"/>
-      <c r="N88" s="188"/>
+      <c r="M88" s="77"/>
+      <c r="N88" s="75"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="60"/>
-      <c r="B89" s="57"/>
+      <c r="A89" s="184"/>
+      <c r="B89" s="82"/>
       <c r="C89" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D89" s="70"/>
-      <c r="E89" s="67"/>
+      <c r="D89" s="55"/>
+      <c r="E89" s="52"/>
       <c r="F89" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G89" s="70"/>
-      <c r="H89" s="67"/>
+      <c r="G89" s="55"/>
+      <c r="H89" s="52"/>
       <c r="I89" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J89" s="70"/>
-      <c r="K89" s="67"/>
+      <c r="J89" s="55"/>
+      <c r="K89" s="52"/>
       <c r="L89" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="M89" s="190"/>
-      <c r="N89" s="188"/>
+      <c r="M89" s="77"/>
+      <c r="N89" s="75"/>
     </row>
     <row r="90" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="60"/>
-      <c r="B90" s="57"/>
+      <c r="A90" s="184"/>
+      <c r="B90" s="82"/>
       <c r="C90" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D90" s="70"/>
-      <c r="E90" s="67"/>
+      <c r="D90" s="55"/>
+      <c r="E90" s="52"/>
       <c r="F90" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G90" s="71"/>
-      <c r="H90" s="68"/>
+      <c r="G90" s="56"/>
+      <c r="H90" s="53"/>
       <c r="I90" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="J90" s="71"/>
-      <c r="K90" s="68"/>
+      <c r="J90" s="56"/>
+      <c r="K90" s="53"/>
       <c r="L90" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="M90" s="191"/>
-      <c r="N90" s="189"/>
+      <c r="M90" s="78"/>
+      <c r="N90" s="76"/>
     </row>
     <row r="91" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="60"/>
-      <c r="B91" s="57" t="s">
+      <c r="A91" s="184"/>
+      <c r="B91" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="C91" s="167" t="s">
+      <c r="C91" s="193" t="s">
         <v>108</v>
       </c>
       <c r="D91" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="E91" s="83" t="s">
+      <c r="E91" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="F91" s="72" t="s">
+      <c r="F91" s="188" t="s">
         <v>108</v>
       </c>
       <c r="G91" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="H91" s="66" t="s">
+      <c r="H91" s="175" t="s">
         <v>55</v>
       </c>
-      <c r="I91" s="182" t="s">
+      <c r="I91" s="57" t="s">
         <v>112</v>
       </c>
       <c r="J91" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="K91" s="180" t="s">
+      <c r="K91" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="L91" s="192" t="s">
+      <c r="L91" s="79" t="s">
         <v>112</v>
       </c>
       <c r="M91" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="N91" s="193" t="s">
+      <c r="N91" s="81" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="60"/>
-      <c r="B92" s="57"/>
-      <c r="C92" s="168"/>
+      <c r="A92" s="184"/>
+      <c r="B92" s="82"/>
+      <c r="C92" s="125"/>
       <c r="D92" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E92" s="57"/>
-      <c r="F92" s="73"/>
+      <c r="E92" s="82"/>
+      <c r="F92" s="189"/>
       <c r="G92" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H92" s="67"/>
-      <c r="I92" s="183"/>
+      <c r="H92" s="52"/>
+      <c r="I92" s="58"/>
       <c r="J92" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="K92" s="67"/>
-      <c r="L92" s="55"/>
+      <c r="K92" s="52"/>
+      <c r="L92" s="80"/>
       <c r="M92" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N92" s="57"/>
+      <c r="N92" s="82"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="60"/>
-      <c r="B93" s="57"/>
-      <c r="C93" s="168" t="s">
+      <c r="A93" s="184"/>
+      <c r="B93" s="82"/>
+      <c r="C93" s="125" t="s">
         <v>107</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E93" s="57"/>
-      <c r="F93" s="74" t="s">
+      <c r="E93" s="82"/>
+      <c r="F93" s="190" t="s">
         <v>107</v>
       </c>
       <c r="G93" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="H93" s="67"/>
-      <c r="I93" s="184" t="s">
+      <c r="H93" s="52"/>
+      <c r="I93" s="59" t="s">
         <v>107</v>
       </c>
       <c r="J93" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="K93" s="67"/>
-      <c r="L93" s="55" t="s">
+      <c r="K93" s="52"/>
+      <c r="L93" s="80" t="s">
         <v>107</v>
       </c>
       <c r="M93" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N93" s="57"/>
+      <c r="N93" s="82"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="60"/>
-      <c r="B94" s="57"/>
-      <c r="C94" s="168"/>
+      <c r="A94" s="184"/>
+      <c r="B94" s="82"/>
+      <c r="C94" s="125"/>
       <c r="D94" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E94" s="57"/>
-      <c r="F94" s="75"/>
+      <c r="E94" s="82"/>
+      <c r="F94" s="191"/>
       <c r="G94" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="H94" s="67"/>
-      <c r="I94" s="185"/>
+      <c r="H94" s="52"/>
+      <c r="I94" s="60"/>
       <c r="J94" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="K94" s="67"/>
-      <c r="L94" s="55"/>
+      <c r="K94" s="52"/>
+      <c r="L94" s="80"/>
       <c r="M94" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N94" s="57"/>
+      <c r="N94" s="82"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="60"/>
-      <c r="B95" s="57"/>
-      <c r="C95" s="168"/>
+      <c r="A95" s="184"/>
+      <c r="B95" s="82"/>
+      <c r="C95" s="125"/>
       <c r="D95" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E95" s="57"/>
-      <c r="F95" s="75"/>
+      <c r="E95" s="82"/>
+      <c r="F95" s="191"/>
       <c r="G95" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H95" s="67"/>
-      <c r="I95" s="185"/>
+      <c r="H95" s="52"/>
+      <c r="I95" s="60"/>
       <c r="J95" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="K95" s="67"/>
-      <c r="L95" s="55"/>
+      <c r="K95" s="52"/>
+      <c r="L95" s="80"/>
       <c r="M95" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N95" s="57"/>
+      <c r="N95" s="82"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" s="60"/>
-      <c r="B96" s="57"/>
-      <c r="C96" s="168"/>
+      <c r="A96" s="184"/>
+      <c r="B96" s="82"/>
+      <c r="C96" s="125"/>
       <c r="D96" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E96" s="57"/>
-      <c r="F96" s="75"/>
+      <c r="E96" s="82"/>
+      <c r="F96" s="191"/>
       <c r="G96" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H96" s="67"/>
-      <c r="I96" s="185"/>
+      <c r="H96" s="52"/>
+      <c r="I96" s="60"/>
       <c r="J96" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="K96" s="67"/>
-      <c r="L96" s="55"/>
+      <c r="K96" s="52"/>
+      <c r="L96" s="80"/>
       <c r="M96" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="N96" s="57"/>
+      <c r="N96" s="82"/>
     </row>
     <row r="97" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="60"/>
-      <c r="B97" s="57"/>
-      <c r="C97" s="169"/>
+      <c r="A97" s="184"/>
+      <c r="B97" s="82"/>
+      <c r="C97" s="126"/>
       <c r="D97" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E97" s="58"/>
-      <c r="F97" s="76"/>
+      <c r="E97" s="83"/>
+      <c r="F97" s="192"/>
       <c r="G97" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="H97" s="68"/>
-      <c r="I97" s="186"/>
+      <c r="H97" s="53"/>
+      <c r="I97" s="61"/>
       <c r="J97" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="K97" s="68"/>
-      <c r="L97" s="56"/>
+      <c r="K97" s="53"/>
+      <c r="L97" s="182"/>
       <c r="M97" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="N97" s="58"/>
+      <c r="N97" s="83"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98" s="60"/>
-      <c r="B98" s="57" t="s">
+      <c r="A98" s="184"/>
+      <c r="B98" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="C98" s="49" t="s">
+      <c r="C98" s="176" t="s">
         <v>35</v>
       </c>
       <c r="D98" s="36"/>
       <c r="E98" s="44"/>
-      <c r="F98" s="52" t="s">
+      <c r="F98" s="179" t="s">
         <v>35</v>
       </c>
       <c r="G98" s="36"/>
       <c r="H98" s="44"/>
-      <c r="I98" s="52" t="s">
+      <c r="I98" s="179" t="s">
         <v>35</v>
       </c>
       <c r="J98" s="36"/>
       <c r="K98" s="40"/>
-      <c r="L98" s="52" t="s">
+      <c r="L98" s="179" t="s">
         <v>35</v>
       </c>
       <c r="M98" s="36"/>
       <c r="N98" s="40"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99" s="60"/>
-      <c r="B99" s="57"/>
-      <c r="C99" s="50"/>
+      <c r="A99" s="184"/>
+      <c r="B99" s="82"/>
+      <c r="C99" s="177"/>
       <c r="D99" s="37"/>
       <c r="E99" s="41"/>
-      <c r="F99" s="53"/>
+      <c r="F99" s="180"/>
       <c r="G99" s="37"/>
       <c r="H99" s="41"/>
-      <c r="I99" s="53"/>
+      <c r="I99" s="180"/>
       <c r="J99" s="37"/>
       <c r="K99" s="41"/>
-      <c r="L99" s="53"/>
+      <c r="L99" s="180"/>
       <c r="M99" s="37"/>
       <c r="N99" s="41"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" s="60"/>
-      <c r="B100" s="57"/>
-      <c r="C100" s="50"/>
+      <c r="A100" s="184"/>
+      <c r="B100" s="82"/>
+      <c r="C100" s="177"/>
       <c r="D100" s="37"/>
       <c r="E100" s="41"/>
-      <c r="F100" s="53"/>
+      <c r="F100" s="180"/>
       <c r="G100" s="37"/>
       <c r="H100" s="41"/>
-      <c r="I100" s="53"/>
+      <c r="I100" s="180"/>
       <c r="J100" s="37"/>
       <c r="K100" s="41"/>
-      <c r="L100" s="53"/>
+      <c r="L100" s="180"/>
       <c r="M100" s="37"/>
       <c r="N100" s="41"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" s="60"/>
-      <c r="B101" s="57"/>
-      <c r="C101" s="50"/>
+      <c r="A101" s="184"/>
+      <c r="B101" s="82"/>
+      <c r="C101" s="177"/>
       <c r="D101" s="37"/>
       <c r="E101" s="41"/>
-      <c r="F101" s="53"/>
+      <c r="F101" s="180"/>
       <c r="G101" s="37"/>
       <c r="H101" s="42"/>
-      <c r="I101" s="53"/>
+      <c r="I101" s="180"/>
       <c r="J101" s="37"/>
       <c r="K101" s="41"/>
-      <c r="L101" s="53"/>
+      <c r="L101" s="180"/>
       <c r="M101" s="37"/>
       <c r="N101" s="41"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A102" s="60"/>
-      <c r="B102" s="57"/>
-      <c r="C102" s="50"/>
+      <c r="A102" s="184"/>
+      <c r="B102" s="82"/>
+      <c r="C102" s="177"/>
       <c r="D102" s="37"/>
       <c r="E102" s="41"/>
-      <c r="F102" s="53"/>
+      <c r="F102" s="180"/>
       <c r="G102" s="36"/>
       <c r="H102" s="44"/>
-      <c r="I102" s="53"/>
+      <c r="I102" s="180"/>
       <c r="J102" s="37"/>
       <c r="K102" s="41"/>
-      <c r="L102" s="53"/>
+      <c r="L102" s="180"/>
       <c r="M102" s="37"/>
       <c r="N102" s="41"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103" s="60"/>
-      <c r="B103" s="57"/>
-      <c r="C103" s="50"/>
+      <c r="A103" s="184"/>
+      <c r="B103" s="82"/>
+      <c r="C103" s="177"/>
       <c r="D103" s="37"/>
       <c r="E103" s="41"/>
-      <c r="F103" s="53"/>
+      <c r="F103" s="180"/>
       <c r="G103" s="37"/>
       <c r="H103" s="41"/>
-      <c r="I103" s="53"/>
+      <c r="I103" s="180"/>
       <c r="J103" s="37"/>
       <c r="K103" s="41"/>
-      <c r="L103" s="53"/>
+      <c r="L103" s="180"/>
       <c r="M103" s="37"/>
       <c r="N103" s="41"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A104" s="60"/>
-      <c r="B104" s="57"/>
-      <c r="C104" s="62"/>
+      <c r="A104" s="184"/>
+      <c r="B104" s="82"/>
+      <c r="C104" s="186"/>
       <c r="D104" s="38"/>
       <c r="E104" s="42"/>
-      <c r="F104" s="63"/>
+      <c r="F104" s="187"/>
       <c r="G104" s="38"/>
       <c r="H104" s="42"/>
-      <c r="I104" s="63"/>
+      <c r="I104" s="187"/>
       <c r="J104" s="38"/>
       <c r="K104" s="42"/>
-      <c r="L104" s="63"/>
+      <c r="L104" s="187"/>
       <c r="M104" s="38"/>
       <c r="N104" s="42"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A105" s="60"/>
-      <c r="B105" s="57" t="s">
+      <c r="A105" s="184"/>
+      <c r="B105" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="C105" s="49" t="s">
+      <c r="C105" s="176" t="s">
         <v>36</v>
       </c>
       <c r="D105" s="36"/>
       <c r="E105" s="44"/>
-      <c r="F105" s="52" t="s">
+      <c r="F105" s="179" t="s">
         <v>36</v>
       </c>
       <c r="G105" s="36"/>
       <c r="H105" s="44"/>
-      <c r="I105" s="52" t="s">
+      <c r="I105" s="179" t="s">
         <v>36</v>
       </c>
       <c r="J105" s="36"/>
       <c r="K105" s="40"/>
-      <c r="L105" s="52" t="s">
+      <c r="L105" s="179" t="s">
         <v>36</v>
       </c>
       <c r="M105" s="36"/>
       <c r="N105" s="40"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A106" s="60"/>
-      <c r="B106" s="57"/>
-      <c r="C106" s="50"/>
+      <c r="A106" s="184"/>
+      <c r="B106" s="82"/>
+      <c r="C106" s="177"/>
       <c r="D106" s="37"/>
       <c r="E106" s="41"/>
-      <c r="F106" s="53"/>
+      <c r="F106" s="180"/>
       <c r="G106" s="37"/>
       <c r="H106" s="41"/>
-      <c r="I106" s="53"/>
+      <c r="I106" s="180"/>
       <c r="J106" s="37"/>
       <c r="K106" s="41"/>
-      <c r="L106" s="53"/>
+      <c r="L106" s="180"/>
       <c r="M106" s="37"/>
       <c r="N106" s="41"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A107" s="60"/>
-      <c r="B107" s="57"/>
-      <c r="C107" s="50"/>
+      <c r="A107" s="184"/>
+      <c r="B107" s="82"/>
+      <c r="C107" s="177"/>
       <c r="D107" s="37"/>
       <c r="E107" s="41"/>
-      <c r="F107" s="53"/>
+      <c r="F107" s="180"/>
       <c r="G107" s="37"/>
       <c r="H107" s="41"/>
-      <c r="I107" s="53"/>
+      <c r="I107" s="180"/>
       <c r="J107" s="37"/>
       <c r="K107" s="41"/>
-      <c r="L107" s="53"/>
+      <c r="L107" s="180"/>
       <c r="M107" s="37"/>
       <c r="N107" s="41"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A108" s="60"/>
-      <c r="B108" s="57"/>
-      <c r="C108" s="50"/>
+      <c r="A108" s="184"/>
+      <c r="B108" s="82"/>
+      <c r="C108" s="177"/>
       <c r="D108" s="37"/>
       <c r="E108" s="41"/>
-      <c r="F108" s="53"/>
+      <c r="F108" s="180"/>
       <c r="G108" s="37"/>
       <c r="H108" s="42"/>
-      <c r="I108" s="53"/>
+      <c r="I108" s="180"/>
       <c r="J108" s="37"/>
       <c r="K108" s="41"/>
-      <c r="L108" s="53"/>
+      <c r="L108" s="180"/>
       <c r="M108" s="37"/>
       <c r="N108" s="41"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A109" s="60"/>
-      <c r="B109" s="57"/>
-      <c r="C109" s="50"/>
+      <c r="A109" s="184"/>
+      <c r="B109" s="82"/>
+      <c r="C109" s="177"/>
       <c r="D109" s="37"/>
       <c r="E109" s="41"/>
-      <c r="F109" s="53"/>
+      <c r="F109" s="180"/>
       <c r="G109" s="36"/>
       <c r="H109" s="44"/>
-      <c r="I109" s="53"/>
+      <c r="I109" s="180"/>
       <c r="J109" s="37"/>
       <c r="K109" s="41"/>
-      <c r="L109" s="53"/>
+      <c r="L109" s="180"/>
       <c r="M109" s="37"/>
       <c r="N109" s="41"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A110" s="60"/>
-      <c r="B110" s="57"/>
-      <c r="C110" s="50"/>
+      <c r="A110" s="184"/>
+      <c r="B110" s="82"/>
+      <c r="C110" s="177"/>
       <c r="D110" s="37"/>
       <c r="E110" s="41"/>
-      <c r="F110" s="53"/>
+      <c r="F110" s="180"/>
       <c r="G110" s="37"/>
       <c r="H110" s="41"/>
-      <c r="I110" s="53"/>
+      <c r="I110" s="180"/>
       <c r="J110" s="37"/>
       <c r="K110" s="41"/>
-      <c r="L110" s="53"/>
+      <c r="L110" s="180"/>
       <c r="M110" s="37"/>
       <c r="N110" s="41"/>
     </row>
     <row r="111" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="61"/>
-      <c r="B111" s="58"/>
-      <c r="C111" s="51"/>
+      <c r="A111" s="185"/>
+      <c r="B111" s="83"/>
+      <c r="C111" s="178"/>
       <c r="D111" s="39"/>
       <c r="E111" s="43"/>
-      <c r="F111" s="54"/>
+      <c r="F111" s="181"/>
       <c r="G111" s="39"/>
       <c r="H111" s="43"/>
-      <c r="I111" s="54"/>
+      <c r="I111" s="181"/>
       <c r="J111" s="39"/>
       <c r="K111" s="43"/>
-      <c r="L111" s="54"/>
+      <c r="L111" s="181"/>
       <c r="M111" s="39"/>
       <c r="N111" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="201">
+    <mergeCell ref="C105:C111"/>
+    <mergeCell ref="F105:F111"/>
+    <mergeCell ref="I105:I111"/>
+    <mergeCell ref="L105:L111"/>
+    <mergeCell ref="L93:L97"/>
+    <mergeCell ref="B98:B104"/>
+    <mergeCell ref="B105:B111"/>
+    <mergeCell ref="A77:A111"/>
+    <mergeCell ref="C98:C104"/>
+    <mergeCell ref="F98:F104"/>
+    <mergeCell ref="I98:I104"/>
+    <mergeCell ref="L98:L104"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="H84:H90"/>
+    <mergeCell ref="G86:G90"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="H91:H97"/>
+    <mergeCell ref="F93:F97"/>
+    <mergeCell ref="B84:B90"/>
+    <mergeCell ref="B91:B97"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E90"/>
+    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="G48:G51"/>
+    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="M41:M47"/>
+    <mergeCell ref="N41:N47"/>
+    <mergeCell ref="M48:M54"/>
+    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="H66:H68"/>
+    <mergeCell ref="H69:H72"/>
+    <mergeCell ref="H73:H75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="F76:H76"/>
+    <mergeCell ref="I76:K76"/>
+    <mergeCell ref="L76:N76"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="D79:D83"/>
+    <mergeCell ref="E77:E83"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H83"/>
+    <mergeCell ref="G79:G83"/>
+    <mergeCell ref="B77:B83"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="K12:K18"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="K19:K25"/>
+    <mergeCell ref="B62:B68"/>
+    <mergeCell ref="B69:B75"/>
+    <mergeCell ref="A41:A75"/>
+    <mergeCell ref="C62:C68"/>
+    <mergeCell ref="E62:E68"/>
+    <mergeCell ref="C69:C75"/>
+    <mergeCell ref="E69:E75"/>
+    <mergeCell ref="D41:E47"/>
+    <mergeCell ref="D48:D54"/>
+    <mergeCell ref="E48:E54"/>
+    <mergeCell ref="C55:C61"/>
+    <mergeCell ref="E55:E61"/>
+    <mergeCell ref="B41:B47"/>
+    <mergeCell ref="B48:B54"/>
+    <mergeCell ref="B55:B61"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="J5:J8"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="K5:K11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H5:H11"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="A5:A39"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="H12:H18"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="E12:E18"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="C26:C32"/>
+    <mergeCell ref="C93:C97"/>
+    <mergeCell ref="E91:E97"/>
+    <mergeCell ref="F26:F32"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F62:F68"/>
+    <mergeCell ref="F69:F75"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="F59:F61"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="M5:M8"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="N5:N11"/>
+    <mergeCell ref="M12:M15"/>
+    <mergeCell ref="N12:N18"/>
+    <mergeCell ref="M16:M18"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="E19:E25"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="F33:F39"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="H19:H25"/>
+    <mergeCell ref="I26:I32"/>
+    <mergeCell ref="I33:I39"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="K33:K36"/>
+    <mergeCell ref="K37:K39"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="G41:G44"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="L19:L22"/>
+    <mergeCell ref="N19:N25"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="L26:L32"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="N30:N32"/>
+    <mergeCell ref="L33:L39"/>
+    <mergeCell ref="N33:N36"/>
+    <mergeCell ref="N37:N39"/>
+    <mergeCell ref="J41:J47"/>
+    <mergeCell ref="K41:K47"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="K48:K54"/>
+    <mergeCell ref="J48:J54"/>
+    <mergeCell ref="I55:I61"/>
+    <mergeCell ref="K55:K61"/>
+    <mergeCell ref="I62:I68"/>
+    <mergeCell ref="I69:I75"/>
+    <mergeCell ref="K62:K68"/>
+    <mergeCell ref="K69:K75"/>
+    <mergeCell ref="H41:H47"/>
+    <mergeCell ref="H55:H61"/>
+    <mergeCell ref="H48:H54"/>
     <mergeCell ref="J84:J85"/>
     <mergeCell ref="K84:K90"/>
     <mergeCell ref="J86:J90"/>
@@ -5474,183 +5651,6 @@
     <mergeCell ref="M86:M90"/>
     <mergeCell ref="L91:L92"/>
     <mergeCell ref="N91:N97"/>
-    <mergeCell ref="K48:K54"/>
-    <mergeCell ref="J48:J54"/>
-    <mergeCell ref="I55:I61"/>
-    <mergeCell ref="K55:K61"/>
-    <mergeCell ref="I62:I68"/>
-    <mergeCell ref="I69:I75"/>
-    <mergeCell ref="K62:K68"/>
-    <mergeCell ref="K69:K75"/>
-    <mergeCell ref="H41:H47"/>
-    <mergeCell ref="H55:H61"/>
-    <mergeCell ref="H48:H54"/>
-    <mergeCell ref="K26:K29"/>
-    <mergeCell ref="K30:K32"/>
-    <mergeCell ref="K33:K36"/>
-    <mergeCell ref="K37:K39"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="G41:G44"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="L19:L22"/>
-    <mergeCell ref="N19:N25"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="L26:L32"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="N30:N32"/>
-    <mergeCell ref="L33:L39"/>
-    <mergeCell ref="N33:N36"/>
-    <mergeCell ref="N37:N39"/>
-    <mergeCell ref="J41:J47"/>
-    <mergeCell ref="K41:K47"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="E19:E25"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="F33:F39"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="H37:H39"/>
-    <mergeCell ref="H19:H25"/>
-    <mergeCell ref="I26:I32"/>
-    <mergeCell ref="I33:I39"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="M5:M8"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="N5:N11"/>
-    <mergeCell ref="M12:M15"/>
-    <mergeCell ref="N12:N18"/>
-    <mergeCell ref="M16:M18"/>
-    <mergeCell ref="C93:C97"/>
-    <mergeCell ref="E91:E97"/>
-    <mergeCell ref="F26:F32"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="F62:F68"/>
-    <mergeCell ref="F69:F75"/>
-    <mergeCell ref="F55:F58"/>
-    <mergeCell ref="F59:F61"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="A5:A39"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="H12:H18"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="E12:E18"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="C26:C32"/>
-    <mergeCell ref="J5:J8"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="K5:K11"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="H5:H11"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="K12:K18"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="K19:K25"/>
-    <mergeCell ref="B62:B68"/>
-    <mergeCell ref="B69:B75"/>
-    <mergeCell ref="A41:A75"/>
-    <mergeCell ref="C62:C68"/>
-    <mergeCell ref="E62:E68"/>
-    <mergeCell ref="C69:C75"/>
-    <mergeCell ref="E69:E75"/>
-    <mergeCell ref="D41:E47"/>
-    <mergeCell ref="D48:D54"/>
-    <mergeCell ref="E48:E54"/>
-    <mergeCell ref="C55:C61"/>
-    <mergeCell ref="E55:E61"/>
-    <mergeCell ref="B41:B47"/>
-    <mergeCell ref="B48:B54"/>
-    <mergeCell ref="B55:B61"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="F76:H76"/>
-    <mergeCell ref="I76:K76"/>
-    <mergeCell ref="L76:N76"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="D79:D83"/>
-    <mergeCell ref="E77:E83"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H83"/>
-    <mergeCell ref="G79:G83"/>
-    <mergeCell ref="B77:B83"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="G48:G51"/>
-    <mergeCell ref="G52:G54"/>
-    <mergeCell ref="M41:M47"/>
-    <mergeCell ref="N41:N47"/>
-    <mergeCell ref="M48:M54"/>
-    <mergeCell ref="H62:H65"/>
-    <mergeCell ref="H66:H68"/>
-    <mergeCell ref="H69:H72"/>
-    <mergeCell ref="H73:H75"/>
-    <mergeCell ref="C105:C111"/>
-    <mergeCell ref="F105:F111"/>
-    <mergeCell ref="I105:I111"/>
-    <mergeCell ref="L105:L111"/>
-    <mergeCell ref="L93:L97"/>
-    <mergeCell ref="B98:B104"/>
-    <mergeCell ref="B105:B111"/>
-    <mergeCell ref="A77:A111"/>
-    <mergeCell ref="C98:C104"/>
-    <mergeCell ref="F98:F104"/>
-    <mergeCell ref="I98:I104"/>
-    <mergeCell ref="L98:L104"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="H84:H90"/>
-    <mergeCell ref="G86:G90"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="H91:H97"/>
-    <mergeCell ref="F93:F97"/>
-    <mergeCell ref="B84:B90"/>
-    <mergeCell ref="B91:B97"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E90"/>
-    <mergeCell ref="D86:D90"/>
-    <mergeCell ref="C91:C92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
